--- a/data/KSP_Completion.xlsx
+++ b/data/KSP_Completion.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587C4516-88FD-CD42-A873-3D414199FD50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FB52F6-8CBA-7E43-8773-8E0DA1B71D01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="460" windowWidth="25480" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="460" windowWidth="25480" windowHeight="17540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Command" sheetId="6" r:id="rId1"/>
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="1634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="1635">
   <si>
     <t>description</t>
     <phoneticPr fontId="3"/>
@@ -3049,78 +3049,10 @@
     <t>~NI_MATH_PI</t>
   </si>
   <si>
-    <t>Built-in Variables</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Arithmetic Commands &amp; Operators</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>General Commands</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Event Commands</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Array Commands</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Group Commands</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Time-Related Commands</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>User Interface Commands</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Keyboard Commands</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Engine Parameter Commands</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Load/Save Commands</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>MIDI Object Commands</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Advanced Concepts: Preprocessor &amp; System Scripts</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>will_never_terminate</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Advanced Concepts: PGS</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Advanced Concepts: Zone and Slice Functions</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Advanced Concepts: User defined Functions</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Advanced Concepts: Multi Script</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Snippet:body</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -4289,14 +4221,6 @@
     <t>$NI_CB_TYPE_ASYNC_COMPLETE</t>
   </si>
   <si>
-    <t>Built-in Variables( Undocumented )</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Variable</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>$CONTROL_PAR_FONT_TYPE_ON</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -4386,10 +4310,6 @@
   </si>
   <si>
     <t>$NI_MOUSE_EVENT_TYPE_DRAG</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Creator Tools</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -5227,6 +5147,90 @@
   </si>
   <si>
     <t>USE_CODE_IF_NOT( ${1:condition-symbol} )</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>*Event Commands</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>*Variable</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>*Arithmetic Commands &amp; Operators</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>*General Commands</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>*Array Commands</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>*Group Commands</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>*Time-Related Commands</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>*User Interface Commands</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>*Keyboard Commands</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>*Engine Parameter Commands</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>*Load/Save Commands</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>*MIDI Object Commands</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>*Advanced Concepts: Preprocessor &amp; System Scripts</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>*Advanced Concepts: PGS</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>*Advanced Concepts: Zone and Slice Functions</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>*Advanced Concepts: User defined Functions</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>*Advanced Concepts: Multi Script</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>*Creator Tools</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>*Undocumented</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>*Built-in Variables</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>*Built-in Variables( Undocumented )</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -5772,11 +5776,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EF9006-51C1-8B4B-B9A3-BB18B251309C}">
   <dimension ref="A1:F275"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B176" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="B193" sqref="B193"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="20"/>
@@ -5790,13 +5794,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>962</v>
+        <v>945</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>961</v>
+        <v>944</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>965</v>
+        <v>948</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>0</v>
@@ -5804,7 +5808,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>1344</v>
+        <v>1615</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="10"/>
@@ -5818,7 +5822,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>1427</v>
+        <v>1407</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>3</v>
@@ -5826,16 +5830,16 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
-        <v>979</v>
+        <v>962</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>989</v>
+        <v>972</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>1428</v>
+        <v>1408</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>980</v>
+        <v>963</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5846,7 +5850,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>1429</v>
+        <v>1409</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>6</v>
@@ -5854,13 +5858,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
-        <v>1232</v>
+        <v>1215</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1233</v>
+        <v>1216</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>1430</v>
+        <v>1410</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
@@ -5874,7 +5878,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>1431</v>
+        <v>1411</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>9</v>
@@ -5882,7 +5886,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="7" t="s">
-        <v>944</v>
+        <v>1616</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="10"/>
@@ -5896,7 +5900,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>1432</v>
+        <v>1412</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>12</v>
@@ -5910,7 +5914,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>1433</v>
+        <v>1413</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>15</v>
@@ -5924,10 +5928,10 @@
         <v>17</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>1434</v>
+        <v>1414</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>988</v>
+        <v>971</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5938,7 +5942,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>1435</v>
+        <v>1415</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>20</v>
@@ -5952,7 +5956,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>1436</v>
+        <v>1416</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>23</v>
@@ -5966,7 +5970,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>1437</v>
+        <v>1417</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>26</v>
@@ -5980,7 +5984,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>1438</v>
+        <v>1418</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>29</v>
@@ -5994,7 +5998,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>1439</v>
+        <v>1419</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>32</v>
@@ -6008,7 +6012,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>1440</v>
+        <v>1420</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>35</v>
@@ -6022,7 +6026,7 @@
         <v>37</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>1441</v>
+        <v>1421</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>38</v>
@@ -6036,7 +6040,7 @@
         <v>40</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>1442</v>
+        <v>1422</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>41</v>
@@ -6050,7 +6054,7 @@
         <v>43</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>1443</v>
+        <v>1423</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>44</v>
@@ -6064,7 +6068,7 @@
         <v>46</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>1444</v>
+        <v>1424</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>47</v>
@@ -6078,7 +6082,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>1445</v>
+        <v>1425</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>50</v>
@@ -6092,7 +6096,7 @@
         <v>52</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>1446</v>
+        <v>1426</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>53</v>
@@ -6106,7 +6110,7 @@
         <v>55</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>1447</v>
+        <v>1427</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>56</v>
@@ -6120,7 +6124,7 @@
         <v>58</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>1448</v>
+        <v>1428</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>59</v>
@@ -6134,7 +6138,7 @@
         <v>61</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>1449</v>
+        <v>1429</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>62</v>
@@ -6148,7 +6152,7 @@
         <v>64</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>1450</v>
+        <v>1430</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>65</v>
@@ -6162,7 +6166,7 @@
         <v>67</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>1451</v>
+        <v>1431</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>68</v>
@@ -6173,10 +6177,10 @@
         <v>69</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>990</v>
+        <v>973</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>1452</v>
+        <v>1432</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>70</v>
@@ -6187,10 +6191,10 @@
         <v>71</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>991</v>
+        <v>974</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>1453</v>
+        <v>1433</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>72</v>
@@ -6201,10 +6205,10 @@
         <v>73</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>992</v>
+        <v>975</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>1454</v>
+        <v>1434</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>74</v>
@@ -6215,10 +6219,10 @@
         <v>75</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>993</v>
+        <v>976</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>993</v>
+        <v>976</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>76</v>
@@ -6229,10 +6233,10 @@
         <v>77</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>994</v>
+        <v>977</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>994</v>
+        <v>977</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>78</v>
@@ -6243,10 +6247,10 @@
         <v>79</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>995</v>
+        <v>978</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>1455</v>
+        <v>1435</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>80</v>
@@ -6257,10 +6261,10 @@
         <v>81</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>996</v>
+        <v>979</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>1456</v>
+        <v>1436</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>82</v>
@@ -6268,7 +6272,7 @@
     </row>
     <row r="36" spans="1:6" s="23" customFormat="1">
       <c r="A36" s="7" t="s">
-        <v>945</v>
+        <v>1617</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="10"/>
@@ -6308,10 +6312,10 @@
         <v>87</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>997</v>
+        <v>980</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>997</v>
+        <v>980</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>88</v>
@@ -6322,10 +6326,10 @@
         <v>89</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>998</v>
+        <v>981</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>1457</v>
+        <v>1437</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>90</v>
@@ -6336,10 +6340,10 @@
         <v>91</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>999</v>
+        <v>982</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>1458</v>
+        <v>1438</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>92</v>
@@ -6350,10 +6354,10 @@
         <v>93</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1000</v>
+        <v>983</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>1459</v>
+        <v>1439</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>94</v>
@@ -6364,10 +6368,10 @@
         <v>95</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1001</v>
+        <v>984</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>1460</v>
+        <v>1440</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>96</v>
@@ -6378,10 +6382,10 @@
         <v>97</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1002</v>
+        <v>985</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>1461</v>
+        <v>1441</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>98</v>
@@ -6389,21 +6393,21 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="6" t="s">
-        <v>977</v>
+        <v>960</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1003</v>
+        <v>986</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>1462</v>
+        <v>1442</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>978</v>
+        <v>961</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="7" t="s">
-        <v>946</v>
+        <v>1614</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="10"/>
@@ -6414,10 +6418,10 @@
         <v>99</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1004</v>
+        <v>987</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>1463</v>
+        <v>1443</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>100</v>
@@ -6428,10 +6432,10 @@
         <v>101</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1005</v>
+        <v>988</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>1464</v>
+        <v>1444</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>102</v>
@@ -6442,10 +6446,10 @@
         <v>103</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1006</v>
+        <v>989</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>1465</v>
+        <v>1445</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>104</v>
@@ -6456,10 +6460,10 @@
         <v>105</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1128</v>
+        <v>1111</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>1466</v>
+        <v>1446</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>106</v>
@@ -6470,10 +6474,10 @@
         <v>107</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1007</v>
+        <v>990</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>1467</v>
+        <v>1447</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>108</v>
@@ -6484,10 +6488,10 @@
         <v>109</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1008</v>
+        <v>991</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>1468</v>
+        <v>1448</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>110</v>
@@ -6498,10 +6502,10 @@
         <v>111</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1009</v>
+        <v>992</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>1469</v>
+        <v>1449</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>112</v>
@@ -6512,10 +6516,10 @@
         <v>113</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1010</v>
+        <v>993</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>1470</v>
+        <v>1450</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>114</v>
@@ -6526,10 +6530,10 @@
         <v>115</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1129</v>
+        <v>1112</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>1471</v>
+        <v>1451</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>116</v>
@@ -6540,10 +6544,10 @@
         <v>117</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1130</v>
+        <v>1113</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>1472</v>
+        <v>1452</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>118</v>
@@ -6555,10 +6559,10 @@
         <v>119</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1011</v>
+        <v>994</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>1473</v>
+        <v>1453</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>120</v>
@@ -6569,10 +6573,10 @@
         <v>121</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1012</v>
+        <v>995</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>1474</v>
+        <v>1454</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>122</v>
@@ -6583,10 +6587,10 @@
         <v>123</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1013</v>
+        <v>996</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>1475</v>
+        <v>1455</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>124</v>
@@ -6597,10 +6601,10 @@
         <v>125</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1014</v>
+        <v>997</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>1476</v>
+        <v>1456</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>126</v>
@@ -6611,10 +6615,10 @@
         <v>127</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1142</v>
+        <v>1125</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>1477</v>
+        <v>1457</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>126</v>
@@ -6625,10 +6629,10 @@
         <v>128</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1015</v>
+        <v>998</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>1478</v>
+        <v>1458</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>129</v>
@@ -6639,10 +6643,10 @@
         <v>130</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1016</v>
+        <v>999</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>1479</v>
+        <v>1459</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>131</v>
@@ -6650,7 +6654,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="7" t="s">
-        <v>947</v>
+        <v>1618</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="10"/>
@@ -6661,10 +6665,10 @@
         <v>132</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1017</v>
+        <v>1000</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>1480</v>
+        <v>1460</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>133</v>
@@ -6675,10 +6679,10 @@
         <v>134</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1018</v>
+        <v>1001</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>1481</v>
+        <v>1461</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>135</v>
@@ -6689,10 +6693,10 @@
         <v>136</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1019</v>
+        <v>1002</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>1482</v>
+        <v>1462</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>137</v>
@@ -6703,10 +6707,10 @@
         <v>138</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>1483</v>
+        <v>1463</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>137</v>
@@ -6715,7 +6719,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="7" t="s">
-        <v>948</v>
+        <v>1619</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="10"/>
@@ -6726,10 +6730,10 @@
         <v>139</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>1021</v>
+        <v>1004</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>1484</v>
+        <v>1464</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>140</v>
@@ -6740,10 +6744,10 @@
         <v>141</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>1022</v>
+        <v>1005</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>1485</v>
+        <v>1465</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>142</v>
@@ -6754,10 +6758,10 @@
         <v>143</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1023</v>
+        <v>1006</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>1486</v>
+        <v>1466</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>144</v>
@@ -6768,10 +6772,10 @@
         <v>145</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1024</v>
+        <v>1007</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>1487</v>
+        <v>1467</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>146</v>
@@ -6782,10 +6786,10 @@
         <v>147</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1025</v>
+        <v>1008</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>1488</v>
+        <v>1468</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>148</v>
@@ -6796,10 +6800,10 @@
         <v>149</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>1026</v>
+        <v>1009</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>1489</v>
+        <v>1469</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>150</v>
@@ -6807,7 +6811,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="7" t="s">
-        <v>949</v>
+        <v>1620</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="10"/>
@@ -6818,10 +6822,10 @@
         <v>151</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1131</v>
+        <v>1114</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>1490</v>
+        <v>1470</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>152</v>
@@ -6832,10 +6836,10 @@
         <v>153</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1027</v>
+        <v>1010</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>1491</v>
+        <v>1471</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>154</v>
@@ -6846,10 +6850,10 @@
         <v>155</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1028</v>
+        <v>1011</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>1492</v>
+        <v>1472</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>156</v>
@@ -6860,10 +6864,10 @@
         <v>157</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1029</v>
+        <v>1012</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>1493</v>
+        <v>1473</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>158</v>
@@ -6888,10 +6892,10 @@
         <v>161</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1030</v>
+        <v>1013</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>1494</v>
+        <v>1474</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>162</v>
@@ -6902,10 +6906,10 @@
         <v>163</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1132</v>
+        <v>1115</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>1495</v>
+        <v>1475</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>164</v>
@@ -6916,10 +6920,10 @@
         <v>165</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1133</v>
+        <v>1116</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>1496</v>
+        <v>1476</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>166</v>
@@ -6927,7 +6931,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="7" t="s">
-        <v>950</v>
+        <v>1621</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="10"/>
@@ -6938,10 +6942,10 @@
         <v>167</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>1031</v>
+        <v>1014</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>1497</v>
+        <v>1477</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>168</v>
@@ -6952,10 +6956,10 @@
         <v>169</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>1032</v>
+        <v>1015</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>1498</v>
+        <v>1478</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>170</v>
@@ -6966,10 +6970,10 @@
         <v>171</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>1134</v>
+        <v>1117</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>1499</v>
+        <v>1479</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>172</v>
@@ -6980,10 +6984,10 @@
         <v>173</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>1033</v>
+        <v>1016</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>1500</v>
+        <v>1480</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>174</v>
@@ -6994,10 +6998,10 @@
         <v>175</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>1034</v>
+        <v>1017</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>1501</v>
+        <v>1481</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>176</v>
@@ -7008,10 +7012,10 @@
         <v>177</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>1035</v>
+        <v>1018</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>1502</v>
+        <v>1482</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>178</v>
@@ -7022,10 +7026,10 @@
         <v>179</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1036</v>
+        <v>1019</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>1503</v>
+        <v>1483</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>180</v>
@@ -7036,10 +7040,10 @@
         <v>181</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>1037</v>
+        <v>1020</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>1504</v>
+        <v>1484</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>182</v>
@@ -7050,10 +7054,10 @@
         <v>183</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>1038</v>
+        <v>1021</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>1505</v>
+        <v>1485</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>184</v>
@@ -7064,10 +7068,10 @@
         <v>185</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>1039</v>
+        <v>1022</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>1506</v>
+        <v>1486</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>186</v>
@@ -7078,10 +7082,10 @@
         <v>187</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1040</v>
+        <v>1023</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>1507</v>
+        <v>1487</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>188</v>
@@ -7093,10 +7097,10 @@
         <v>189</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1041</v>
+        <v>1024</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>1508</v>
+        <v>1488</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>190</v>
@@ -7107,30 +7111,30 @@
         <v>191</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1425</v>
+        <v>1405</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>1509</v>
+        <v>1489</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>1231</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="6" t="s">
-        <v>1423</v>
+        <v>1403</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>1424</v>
+        <v>1404</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>1510</v>
+        <v>1490</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>1426</v>
+        <v>1406</v>
       </c>
       <c r="E99" s="29" t="s">
-        <v>1417</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -7152,10 +7156,10 @@
         <v>194</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>1135</v>
+        <v>1118</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>1511</v>
+        <v>1491</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>195</v>
@@ -7166,10 +7170,10 @@
         <v>196</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>1136</v>
+        <v>1119</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>1512</v>
+        <v>1492</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>197</v>
@@ -7180,10 +7184,10 @@
         <v>198</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>1042</v>
+        <v>1025</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>1513</v>
+        <v>1493</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>199</v>
@@ -7194,10 +7198,10 @@
         <v>200</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>1043</v>
+        <v>1026</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>1514</v>
+        <v>1494</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>201</v>
@@ -7205,44 +7209,44 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="6" t="s">
-        <v>975</v>
+        <v>958</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>1044</v>
+        <v>1027</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>1628</v>
+        <v>1608</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>976</v>
+        <v>959</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="6" t="s">
-        <v>971</v>
+        <v>954</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>1045</v>
+        <v>1028</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>1515</v>
+        <v>1495</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>972</v>
+        <v>955</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="23" customFormat="1">
       <c r="A107" s="6" t="s">
-        <v>973</v>
+        <v>956</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>1046</v>
+        <v>1029</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>1516</v>
+        <v>1496</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>974</v>
+        <v>957</v>
       </c>
       <c r="F107" s="28"/>
     </row>
@@ -7251,10 +7255,10 @@
         <v>202</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>1047</v>
+        <v>1030</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>1517</v>
+        <v>1497</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>203</v>
@@ -7265,10 +7269,10 @@
         <v>204</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>1048</v>
+        <v>1031</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>1518</v>
+        <v>1498</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>205</v>
@@ -7279,10 +7283,10 @@
         <v>206</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>1049</v>
+        <v>1032</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>1519</v>
+        <v>1499</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>207</v>
@@ -7293,10 +7297,10 @@
         <v>208</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>1050</v>
+        <v>1033</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>1520</v>
+        <v>1500</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>209</v>
@@ -7307,10 +7311,10 @@
         <v>210</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>1051</v>
+        <v>1034</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>1521</v>
+        <v>1501</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>209</v>
@@ -7321,10 +7325,10 @@
         <v>211</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>1137</v>
+        <v>1120</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>1522</v>
+        <v>1502</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>212</v>
@@ -7335,10 +7339,10 @@
         <v>213</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>1052</v>
+        <v>1035</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>1523</v>
+        <v>1503</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>214</v>
@@ -7349,10 +7353,10 @@
         <v>215</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>1053</v>
+        <v>1036</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>1524</v>
+        <v>1504</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>216</v>
@@ -7360,13 +7364,13 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="6" t="s">
-        <v>1234</v>
+        <v>1217</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>1235</v>
+        <v>1218</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>1525</v>
+        <v>1505</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>218</v>
@@ -7377,10 +7381,10 @@
         <v>217</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>1054</v>
+        <v>1037</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>1526</v>
+        <v>1506</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>218</v>
@@ -7391,10 +7395,10 @@
         <v>219</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>1629</v>
+        <v>1609</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>1527</v>
+        <v>1507</v>
       </c>
       <c r="D118" s="14" t="s">
         <v>220</v>
@@ -7405,10 +7409,10 @@
         <v>221</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>1138</v>
+        <v>1121</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>1528</v>
+        <v>1508</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>222</v>
@@ -7419,10 +7423,10 @@
         <v>223</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>1139</v>
+        <v>1122</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>1529</v>
+        <v>1509</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>224</v>
@@ -7433,10 +7437,10 @@
         <v>225</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>1140</v>
+        <v>1123</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>1530</v>
+        <v>1510</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>226</v>
@@ -7447,10 +7451,10 @@
         <v>227</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>1141</v>
+        <v>1124</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>1531</v>
+        <v>1511</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>228</v>
@@ -7461,10 +7465,10 @@
         <v>229</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>1055</v>
+        <v>1038</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>1532</v>
+        <v>1512</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>230</v>
@@ -7472,21 +7476,21 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="6" t="s">
-        <v>1374</v>
+        <v>1354</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>1375</v>
+        <v>1355</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>1533</v>
+        <v>1513</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>1376</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="7" t="s">
-        <v>951</v>
+        <v>1622</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="10"/>
@@ -7497,10 +7501,10 @@
         <v>231</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>1534</v>
+        <v>1514</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>232</v>
@@ -7512,10 +7516,10 @@
         <v>233</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>1057</v>
+        <v>1040</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>1535</v>
+        <v>1515</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>234</v>
@@ -7526,10 +7530,10 @@
         <v>235</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>1058</v>
+        <v>1041</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>1536</v>
+        <v>1516</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>236</v>
@@ -7540,10 +7544,10 @@
         <v>237</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>1059</v>
+        <v>1042</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>1537</v>
+        <v>1517</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>238</v>
@@ -7554,10 +7558,10 @@
         <v>239</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>1060</v>
+        <v>1043</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>1538</v>
+        <v>1518</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>240</v>
@@ -7568,10 +7572,10 @@
         <v>241</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>1061</v>
+        <v>1044</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>1539</v>
+        <v>1519</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>242</v>
@@ -7583,10 +7587,10 @@
         <v>243</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>1062</v>
+        <v>1045</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>1540</v>
+        <v>1520</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>244</v>
@@ -7597,10 +7601,10 @@
         <v>245</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>1063</v>
+        <v>1046</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>1541</v>
+        <v>1521</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>246</v>
@@ -7611,10 +7615,10 @@
         <v>247</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>1064</v>
+        <v>1047</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>1542</v>
+        <v>1522</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>248</v>
@@ -7625,10 +7629,10 @@
         <v>249</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>1065</v>
+        <v>1048</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>1543</v>
+        <v>1523</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>250</v>
@@ -7639,10 +7643,10 @@
         <v>251</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>1066</v>
+        <v>1049</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>1544</v>
+        <v>1524</v>
       </c>
       <c r="D136" s="14" t="s">
         <v>252</v>
@@ -7653,10 +7657,10 @@
         <v>253</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>1067</v>
+        <v>1050</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>1545</v>
+        <v>1525</v>
       </c>
       <c r="D137" s="14" t="s">
         <v>254</v>
@@ -7667,10 +7671,10 @@
         <v>255</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>1068</v>
+        <v>1051</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>1546</v>
+        <v>1526</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>256</v>
@@ -7682,10 +7686,10 @@
         <v>257</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>1069</v>
+        <v>1052</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>1547</v>
+        <v>1527</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>258</v>
@@ -7693,7 +7697,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="7" t="s">
-        <v>952</v>
+        <v>1623</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="10"/>
@@ -7704,10 +7708,10 @@
         <v>259</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>1070</v>
+        <v>1053</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>1548</v>
+        <v>1528</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>260</v>
@@ -7718,10 +7722,10 @@
         <v>261</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>1071</v>
+        <v>1054</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>1549</v>
+        <v>1529</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>262</v>
@@ -7729,13 +7733,13 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="6" t="s">
-        <v>1236</v>
+        <v>1219</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>1237</v>
+        <v>1220</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>1550</v>
+        <v>1530</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>264</v>
@@ -7746,10 +7750,10 @@
         <v>263</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>1072</v>
+        <v>1055</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>1551</v>
+        <v>1531</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>264</v>
@@ -7757,13 +7761,13 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="6" t="s">
-        <v>1238</v>
+        <v>1221</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>1239</v>
+        <v>1222</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>1552</v>
+        <v>1532</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>266</v>
@@ -7774,10 +7778,10 @@
         <v>265</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>1073</v>
+        <v>1056</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>1553</v>
+        <v>1533</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>266</v>
@@ -7788,10 +7792,10 @@
         <v>267</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>1074</v>
+        <v>1057</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>1554</v>
+        <v>1534</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>268</v>
@@ -7803,10 +7807,10 @@
         <v>269</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>1075</v>
+        <v>1058</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>1555</v>
+        <v>1535</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>270</v>
@@ -7814,13 +7818,13 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="6" t="s">
-        <v>1240</v>
+        <v>1223</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>1241</v>
+        <v>1224</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>1556</v>
+        <v>1536</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>272</v>
@@ -7831,10 +7835,10 @@
         <v>271</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>1076</v>
+        <v>1059</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>1557</v>
+        <v>1537</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>272</v>
@@ -7845,10 +7849,10 @@
         <v>273</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>1077</v>
+        <v>1060</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>1558</v>
+        <v>1538</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>274</v>
@@ -7856,7 +7860,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="7" t="s">
-        <v>953</v>
+        <v>1624</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="10"/>
@@ -7864,13 +7868,13 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="6" t="s">
-        <v>1242</v>
+        <v>1225</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>1243</v>
+        <v>1226</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>1559</v>
+        <v>1539</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>276</v>
@@ -7881,10 +7885,10 @@
         <v>275</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>1078</v>
+        <v>1061</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>1560</v>
+        <v>1540</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>276</v>
@@ -7895,10 +7899,10 @@
         <v>277</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>1079</v>
+        <v>1062</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>1561</v>
+        <v>1541</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>278</v>
@@ -7909,10 +7913,10 @@
         <v>279</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>1080</v>
+        <v>1063</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>1562</v>
+        <v>1542</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>280</v>
@@ -7920,13 +7924,13 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="6" t="s">
-        <v>1244</v>
+        <v>1227</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>1245</v>
+        <v>1228</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>1563</v>
+        <v>1543</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>282</v>
@@ -7937,10 +7941,10 @@
         <v>281</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>1081</v>
+        <v>1064</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>1564</v>
+        <v>1544</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>282</v>
@@ -7948,16 +7952,16 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="6" t="s">
-        <v>981</v>
+        <v>964</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>1082</v>
+        <v>1065</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>1565</v>
+        <v>1545</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>982</v>
+        <v>965</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -7965,10 +7969,10 @@
         <v>283</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>1566</v>
+        <v>1546</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>284</v>
@@ -7979,10 +7983,10 @@
         <v>285</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>1084</v>
+        <v>1067</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>1567</v>
+        <v>1547</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>286</v>
@@ -7993,10 +7997,10 @@
         <v>287</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>1085</v>
+        <v>1068</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>1568</v>
+        <v>1548</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>288</v>
@@ -8004,7 +8008,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="7" t="s">
-        <v>954</v>
+        <v>1625</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="10"/>
@@ -8015,10 +8019,10 @@
         <v>289</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>1086</v>
+        <v>1069</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>1569</v>
+        <v>1549</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>290</v>
@@ -8029,10 +8033,10 @@
         <v>291</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>1087</v>
+        <v>1070</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>1570</v>
+        <v>1550</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>292</v>
@@ -8043,10 +8047,10 @@
         <v>293</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>1088</v>
+        <v>1071</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>1571</v>
+        <v>1551</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>294</v>
@@ -8085,10 +8089,10 @@
         <v>301</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>1089</v>
+        <v>1072</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>1572</v>
+        <v>1552</v>
       </c>
       <c r="D169" s="6" t="s">
         <v>302</v>
@@ -8099,10 +8103,10 @@
         <v>303</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>1090</v>
+        <v>1073</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>1573</v>
+        <v>1553</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>304</v>
@@ -8113,10 +8117,10 @@
         <v>305</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>1091</v>
+        <v>1074</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>1574</v>
+        <v>1554</v>
       </c>
       <c r="D171" s="6" t="s">
         <v>306</v>
@@ -8127,10 +8131,10 @@
         <v>307</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>1092</v>
+        <v>1075</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>1575</v>
+        <v>1555</v>
       </c>
       <c r="D172" s="6" t="s">
         <v>308</v>
@@ -8155,10 +8159,10 @@
         <v>312</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>1093</v>
+        <v>1076</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>1576</v>
+        <v>1556</v>
       </c>
       <c r="D174" s="6" t="s">
         <v>313</v>
@@ -8169,10 +8173,10 @@
         <v>314</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>1094</v>
+        <v>1077</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>1577</v>
+        <v>1557</v>
       </c>
       <c r="D175" s="6" t="s">
         <v>315</v>
@@ -8183,10 +8187,10 @@
         <v>316</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>1095</v>
+        <v>1078</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>1578</v>
+        <v>1558</v>
       </c>
       <c r="D176" s="6" t="s">
         <v>317</v>
@@ -8197,10 +8201,10 @@
         <v>318</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>1096</v>
+        <v>1079</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>1579</v>
+        <v>1559</v>
       </c>
       <c r="D177" s="6" t="s">
         <v>319</v>
@@ -8211,10 +8215,10 @@
         <v>320</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>1097</v>
+        <v>1080</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>1580</v>
+        <v>1560</v>
       </c>
       <c r="D178" s="6" t="s">
         <v>321</v>
@@ -8225,10 +8229,10 @@
         <v>322</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>1098</v>
+        <v>1081</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>1581</v>
+        <v>1561</v>
       </c>
       <c r="D179" s="6" t="s">
         <v>323</v>
@@ -8239,10 +8243,10 @@
         <v>324</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>1099</v>
+        <v>1082</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>1582</v>
+        <v>1562</v>
       </c>
       <c r="D180" s="6" t="s">
         <v>325</v>
@@ -8253,10 +8257,10 @@
         <v>326</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>1100</v>
+        <v>1083</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>1583</v>
+        <v>1563</v>
       </c>
       <c r="D181" s="6" t="s">
         <v>327</v>
@@ -8267,10 +8271,10 @@
         <v>328</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>1101</v>
+        <v>1084</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>1584</v>
+        <v>1564</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>329</v>
@@ -8292,64 +8296,64 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="6" t="s">
-        <v>983</v>
+        <v>966</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>1102</v>
+        <v>1085</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>1585</v>
+        <v>1565</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>987</v>
+        <v>970</v>
       </c>
     </row>
     <row r="185" spans="1:6" s="23" customFormat="1">
       <c r="A185" s="6" t="s">
-        <v>984</v>
+        <v>967</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>1103</v>
+        <v>1086</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>1586</v>
+        <v>1566</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>987</v>
+        <v>970</v>
       </c>
       <c r="F185" s="28"/>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="6" t="s">
-        <v>985</v>
+        <v>968</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>1104</v>
+        <v>1087</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>1587</v>
+        <v>1567</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>987</v>
+        <v>970</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="6" t="s">
-        <v>986</v>
+        <v>969</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>1105</v>
+        <v>1088</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>1588</v>
+        <v>1568</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>987</v>
+        <v>970</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="7" t="s">
-        <v>955</v>
+        <v>1626</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="10"/>
@@ -8360,10 +8364,10 @@
         <v>333</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>1106</v>
+        <v>1089</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>1589</v>
+        <v>1569</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>334</v>
@@ -8374,10 +8378,10 @@
         <v>335</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>1107</v>
+        <v>1090</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>1590</v>
+        <v>1570</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>336</v>
@@ -8388,10 +8392,10 @@
         <v>337</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>1632</v>
+        <v>1612</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>1630</v>
+        <v>1610</v>
       </c>
       <c r="D191" s="6" t="s">
         <v>338</v>
@@ -8402,10 +8406,10 @@
         <v>339</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>1633</v>
+        <v>1613</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>1631</v>
+        <v>1611</v>
       </c>
       <c r="D192" s="6" t="s">
         <v>340</v>
@@ -8413,16 +8417,16 @@
     </row>
     <row r="193" spans="1:6" ht="21">
       <c r="A193" s="6" t="s">
-        <v>963</v>
+        <v>946</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>963</v>
+        <v>946</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>963</v>
+        <v>946</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>964</v>
+        <v>947</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -8469,13 +8473,13 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="6" t="s">
-        <v>1246</v>
+        <v>1229</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>1247</v>
+        <v>1230</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>1591</v>
+        <v>1571</v>
       </c>
       <c r="D197" s="6" t="s">
         <v>348</v>
@@ -8486,10 +8490,10 @@
         <v>347</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>1108</v>
+        <v>1091</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>1592</v>
+        <v>1572</v>
       </c>
       <c r="D198" s="6" t="s">
         <v>348</v>
@@ -8497,32 +8501,32 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="6" t="s">
-        <v>1248</v>
+        <v>1231</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>1249</v>
+        <v>1232</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>1593</v>
+        <v>1573</v>
       </c>
       <c r="D199" s="6"/>
     </row>
     <row r="200" spans="1:6" s="23" customFormat="1">
       <c r="A200" s="6" t="s">
-        <v>956</v>
+        <v>943</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>1109</v>
+        <v>1092</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>1594</v>
+        <v>1574</v>
       </c>
       <c r="D200" s="6"/>
       <c r="F200" s="28"/>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="7" t="s">
-        <v>957</v>
+        <v>1627</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="10"/>
@@ -8530,13 +8534,13 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="6" t="s">
-        <v>1250</v>
+        <v>1233</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>1251</v>
+        <v>1234</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>1595</v>
+        <v>1575</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>350</v>
@@ -8547,10 +8551,10 @@
         <v>349</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>1110</v>
+        <v>1093</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>1596</v>
+        <v>1576</v>
       </c>
       <c r="D203" s="6" t="s">
         <v>350</v>
@@ -8558,13 +8562,13 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="6" t="s">
-        <v>1252</v>
+        <v>1235</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1253</v>
+        <v>1236</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>1597</v>
+        <v>1577</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>350</v>
@@ -8575,10 +8579,10 @@
         <v>351</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>1111</v>
+        <v>1094</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>1598</v>
+        <v>1578</v>
       </c>
       <c r="D205" s="6" t="s">
         <v>350</v>
@@ -8586,13 +8590,13 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="6" t="s">
-        <v>1254</v>
+        <v>1237</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>1255</v>
+        <v>1238</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>1599</v>
+        <v>1579</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>350</v>
@@ -8603,10 +8607,10 @@
         <v>352</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>1112</v>
+        <v>1095</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>1600</v>
+        <v>1580</v>
       </c>
       <c r="D207" s="6" t="s">
         <v>350</v>
@@ -8614,13 +8618,13 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="6" t="s">
-        <v>1256</v>
+        <v>1239</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>1257</v>
+        <v>1240</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>1601</v>
+        <v>1581</v>
       </c>
       <c r="D208" s="6" t="s">
         <v>350</v>
@@ -8631,10 +8635,10 @@
         <v>353</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>1113</v>
+        <v>1096</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>1602</v>
+        <v>1582</v>
       </c>
       <c r="D209" s="6" t="s">
         <v>350</v>
@@ -8645,10 +8649,10 @@
         <v>354</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>1114</v>
+        <v>1097</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>1603</v>
+        <v>1583</v>
       </c>
       <c r="D210" s="6"/>
     </row>
@@ -8657,10 +8661,10 @@
         <v>355</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>1115</v>
+        <v>1098</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>1604</v>
+        <v>1584</v>
       </c>
       <c r="D211" s="6" t="s">
         <v>350</v>
@@ -8671,17 +8675,17 @@
         <v>356</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>1116</v>
+        <v>1099</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>1605</v>
+        <v>1585</v>
       </c>
       <c r="D212" s="6"/>
       <c r="F212" s="28"/>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="7" t="s">
-        <v>958</v>
+        <v>1628</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="10"/>
@@ -8692,10 +8696,10 @@
         <v>357</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>1117</v>
+        <v>1100</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>1606</v>
+        <v>1586</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>358</v>
@@ -8706,10 +8710,10 @@
         <v>359</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>1118</v>
+        <v>1101</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>1607</v>
+        <v>1587</v>
       </c>
       <c r="D215" s="6" t="s">
         <v>360</v>
@@ -8717,13 +8721,13 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="6" t="s">
-        <v>1258</v>
+        <v>1241</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1259</v>
+        <v>1242</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>1608</v>
+        <v>1588</v>
       </c>
       <c r="D216" s="6" t="s">
         <v>364</v>
@@ -8731,13 +8735,13 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="6" t="s">
-        <v>1260</v>
+        <v>1243</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1261</v>
+        <v>1244</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>1609</v>
+        <v>1589</v>
       </c>
       <c r="D217" s="6" t="s">
         <v>366</v>
@@ -8745,13 +8749,13 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="6" t="s">
-        <v>1262</v>
+        <v>1245</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>1263</v>
+        <v>1246</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>1610</v>
+        <v>1590</v>
       </c>
       <c r="D218" s="6" t="s">
         <v>368</v>
@@ -8759,13 +8763,13 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="6" t="s">
-        <v>1264</v>
+        <v>1247</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>1265</v>
+        <v>1248</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>1611</v>
+        <v>1591</v>
       </c>
       <c r="D219" s="6" t="s">
         <v>370</v>
@@ -8773,13 +8777,13 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="6" t="s">
-        <v>1266</v>
+        <v>1249</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>1267</v>
+        <v>1250</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>1612</v>
+        <v>1592</v>
       </c>
       <c r="D220" s="6" t="s">
         <v>372</v>
@@ -8790,10 +8794,10 @@
         <v>361</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>1119</v>
+        <v>1102</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>1613</v>
+        <v>1593</v>
       </c>
       <c r="D221" s="6" t="s">
         <v>362</v>
@@ -8804,10 +8808,10 @@
         <v>363</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>1120</v>
+        <v>1103</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>1614</v>
+        <v>1594</v>
       </c>
       <c r="D222" s="6" t="s">
         <v>364</v>
@@ -8818,10 +8822,10 @@
         <v>365</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>1121</v>
+        <v>1104</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>1615</v>
+        <v>1595</v>
       </c>
       <c r="D223" s="6" t="s">
         <v>366</v>
@@ -8833,10 +8837,10 @@
         <v>367</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>1122</v>
+        <v>1105</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>1616</v>
+        <v>1596</v>
       </c>
       <c r="D224" s="6" t="s">
         <v>368</v>
@@ -8847,10 +8851,10 @@
         <v>369</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>1123</v>
+        <v>1106</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>1617</v>
+        <v>1597</v>
       </c>
       <c r="D225" s="6" t="s">
         <v>370</v>
@@ -8861,10 +8865,10 @@
         <v>371</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>1124</v>
+        <v>1107</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>1618</v>
+        <v>1598</v>
       </c>
       <c r="D226" s="6" t="s">
         <v>372</v>
@@ -8875,10 +8879,10 @@
         <v>373</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>1125</v>
+        <v>1108</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>1619</v>
+        <v>1599</v>
       </c>
       <c r="D227" s="6" t="s">
         <v>374</v>
@@ -8886,7 +8890,7 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="7" t="s">
-        <v>959</v>
+        <v>1629</v>
       </c>
       <c r="B228" s="1"/>
       <c r="C228" s="10"/>
@@ -8907,10 +8911,10 @@
         <v>377</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>1126</v>
+        <v>1109</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>1620</v>
+        <v>1600</v>
       </c>
       <c r="D230" s="6" t="s">
         <v>378</v>
@@ -8918,7 +8922,7 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="7" t="s">
-        <v>960</v>
+        <v>1630</v>
       </c>
       <c r="B231" s="1"/>
       <c r="C231" s="10"/>
@@ -8943,10 +8947,10 @@
         <v>381</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>1127</v>
+        <v>1110</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>1621</v>
+        <v>1601</v>
       </c>
       <c r="D233" s="6" t="s">
         <v>382</v>
@@ -8954,7 +8958,7 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="7" t="s">
-        <v>1368</v>
+        <v>1631</v>
       </c>
       <c r="B234" s="1"/>
       <c r="C234" s="10"/>
@@ -8962,56 +8966,56 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="6" t="s">
-        <v>1369</v>
+        <v>1349</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>1371</v>
+        <v>1351</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>1622</v>
+        <v>1602</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>1373</v>
+        <v>1353</v>
       </c>
       <c r="E235" s="25" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="6" t="s">
-        <v>1370</v>
+        <v>1350</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>1372</v>
+        <v>1352</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>1623</v>
+        <v>1603</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>1373</v>
+        <v>1353</v>
       </c>
       <c r="E236" s="25" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="63">
       <c r="A237" s="6" t="s">
-        <v>1377</v>
+        <v>1357</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>1381</v>
+        <v>1361</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>1624</v>
+        <v>1604</v>
       </c>
       <c r="D237" s="14" t="s">
-        <v>1382</v>
+        <v>1362</v>
       </c>
       <c r="E237" s="24"/>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="7" t="s">
-        <v>1269</v>
+        <v>1632</v>
       </c>
       <c r="B238" s="1"/>
       <c r="C238" s="10"/>
@@ -9019,472 +9023,472 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="6" t="s">
-        <v>1270</v>
+        <v>1253</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>1271</v>
+        <v>1254</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>1271</v>
+        <v>1254</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="6" t="s">
-        <v>1272</v>
+        <v>1255</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>1273</v>
+        <v>1256</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>1273</v>
+        <v>1256</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="6" t="s">
-        <v>1274</v>
+        <v>1257</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>1275</v>
+        <v>1258</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>1275</v>
+        <v>1258</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="6" t="s">
-        <v>1400</v>
+        <v>1380</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>1401</v>
+        <v>1381</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>1625</v>
+        <v>1605</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>1269</v>
+        <v>1252</v>
       </c>
       <c r="E242" s="25" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="6" t="s">
-        <v>1276</v>
+        <v>1259</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>1277</v>
+        <v>1260</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>1277</v>
+        <v>1260</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="6" t="s">
-        <v>1278</v>
+        <v>1261</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>1279</v>
+        <v>1262</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>1279</v>
+        <v>1262</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="6" t="s">
-        <v>1280</v>
+        <v>1263</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>1281</v>
+        <v>1264</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>1281</v>
+        <v>1264</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="6" t="s">
-        <v>1282</v>
+        <v>1265</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>1283</v>
+        <v>1266</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>1283</v>
+        <v>1266</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="6" t="s">
-        <v>1284</v>
+        <v>1267</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>1285</v>
+        <v>1268</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>1285</v>
+        <v>1268</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="6" t="s">
-        <v>1286</v>
+        <v>1269</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="6" t="s">
-        <v>1402</v>
+        <v>1382</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>1406</v>
+        <v>1386</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>1406</v>
+        <v>1386</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
       <c r="E249" s="25" t="s">
-        <v>1410</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="6" t="s">
-        <v>1403</v>
+        <v>1383</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>1407</v>
+        <v>1387</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>1407</v>
+        <v>1387</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
       <c r="E250" s="25" t="s">
-        <v>1410</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="6" t="s">
-        <v>1404</v>
+        <v>1384</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>1408</v>
+        <v>1388</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>1408</v>
+        <v>1388</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
       <c r="E251" s="25" t="s">
-        <v>1410</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="6" t="s">
-        <v>1405</v>
+        <v>1385</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>1409</v>
+        <v>1389</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>1409</v>
+        <v>1389</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
       <c r="E252" s="25" t="s">
-        <v>1410</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="6" t="s">
-        <v>1288</v>
+        <v>1271</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>1289</v>
+        <v>1272</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>1289</v>
+        <v>1272</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="6" t="s">
-        <v>1290</v>
+        <v>1273</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>1291</v>
+        <v>1274</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>1291</v>
+        <v>1274</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="6" t="s">
-        <v>1292</v>
+        <v>1275</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>1293</v>
+        <v>1276</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>1293</v>
+        <v>1276</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="6" t="s">
-        <v>1411</v>
+        <v>1391</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1412</v>
+        <v>1392</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>1626</v>
+        <v>1606</v>
       </c>
       <c r="D256" s="27" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
       <c r="E256" s="24" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="257" spans="1:6" s="23" customFormat="1">
       <c r="A257" s="6" t="s">
-        <v>1294</v>
+        <v>1277</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1295</v>
+        <v>1278</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>1295</v>
+        <v>1278</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
       <c r="F257" s="28"/>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="6" t="s">
-        <v>1296</v>
+        <v>1279</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1297</v>
+        <v>1280</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>1297</v>
+        <v>1280</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="6" t="s">
-        <v>1413</v>
+        <v>1393</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1414</v>
+        <v>1394</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>1627</v>
+        <v>1607</v>
       </c>
       <c r="D259" s="27" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
       <c r="E259" s="24" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="6" t="s">
-        <v>1298</v>
+        <v>1281</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>1299</v>
+        <v>1282</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>1299</v>
+        <v>1282</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="6" t="s">
-        <v>1300</v>
+        <v>1283</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="6" t="s">
-        <v>1302</v>
+        <v>1285</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="6" t="s">
-        <v>1304</v>
+        <v>1287</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>1305</v>
+        <v>1288</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>1305</v>
+        <v>1288</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="6" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="6" t="s">
-        <v>1307</v>
+        <v>1290</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="6" t="s">
-        <v>1309</v>
+        <v>1292</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="6" t="s">
-        <v>1311</v>
+        <v>1294</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>1312</v>
+        <v>1295</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>1312</v>
+        <v>1295</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="6" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>1314</v>
+        <v>1297</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>1314</v>
+        <v>1297</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="6" t="s">
-        <v>1315</v>
+        <v>1298</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>1316</v>
+        <v>1299</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>1316</v>
+        <v>1299</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="6" t="s">
-        <v>1317</v>
+        <v>1300</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>1268</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -9530,8 +9534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9BD1D8-D860-9845-B2DE-1D2AC2DDC7F1}">
   <dimension ref="A1:E729"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
       <selection pane="bottomRight"/>
@@ -9547,13 +9551,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>962</v>
+        <v>945</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>961</v>
+        <v>944</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>965</v>
+        <v>948</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>0</v>
@@ -9561,7 +9565,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>943</v>
+        <v>1633</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="10"/>
@@ -9602,7 +9606,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="16" t="s">
-        <v>968</v>
+        <v>951</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="15"/>
@@ -9668,7 +9672,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="16" t="s">
-        <v>1144</v>
+        <v>1127</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="15"/>
@@ -9701,7 +9705,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="16" t="s">
-        <v>966</v>
+        <v>949</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="15"/>
@@ -9723,7 +9727,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="16" t="s">
-        <v>1351</v>
+        <v>1332</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="15"/>
@@ -9732,7 +9736,7 @@
         <v>Built-in Variable: $CONTROL_PAR_DISABLE_TEXT_SHIFTING</v>
       </c>
       <c r="E17" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -9781,7 +9785,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="16" t="s">
-        <v>1345</v>
+        <v>1326</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="15"/>
@@ -9790,12 +9794,12 @@
         <v>Built-in Variable: $CONTROL_PAR_FONT_TYPE_ON</v>
       </c>
       <c r="E22" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="16" t="s">
-        <v>1346</v>
+        <v>1327</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="15"/>
@@ -9804,12 +9808,12 @@
         <v>Built-in Variable: $CONTROL_PAR_FONT_TYPE_OFF_PRESSED</v>
       </c>
       <c r="E23" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="16" t="s">
-        <v>1348</v>
+        <v>1329</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="15"/>
@@ -9818,12 +9822,12 @@
         <v>Built-in Variable: $CONTROL_PAR_FONT_TYPE_ON_PRESSED</v>
       </c>
       <c r="E24" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="16" t="s">
-        <v>1349</v>
+        <v>1330</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="15"/>
@@ -9832,12 +9836,12 @@
         <v>Built-in Variable: $CONTROL_PAR_FONT_TYPE_OFF_HOVER</v>
       </c>
       <c r="E25" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="16" t="s">
-        <v>1350</v>
+        <v>1331</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="15"/>
@@ -9846,7 +9850,7 @@
         <v>Built-in Variable: $CONTROL_PAR_FONT_TYPE_ON_HOVER</v>
       </c>
       <c r="E26" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -9972,7 +9976,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="16" t="s">
-        <v>1223</v>
+        <v>1206</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="15"/>
@@ -9983,7 +9987,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="16" t="s">
-        <v>1224</v>
+        <v>1207</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="15"/>
@@ -10005,7 +10009,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="16" t="s">
-        <v>969</v>
+        <v>952</v>
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="15"/>
@@ -10016,7 +10020,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="16" t="s">
-        <v>970</v>
+        <v>953</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="15"/>
@@ -10027,7 +10031,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="16" t="s">
-        <v>967</v>
+        <v>950</v>
       </c>
       <c r="B43" s="16"/>
       <c r="C43" s="15"/>
@@ -10093,7 +10097,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="16" t="s">
-        <v>1355</v>
+        <v>1336</v>
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="15"/>
@@ -10102,12 +10106,12 @@
         <v>Built-in Variable: $CONTROL_PAR_PARALLAX_X</v>
       </c>
       <c r="E49" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="16" t="s">
-        <v>1356</v>
+        <v>1337</v>
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="15"/>
@@ -10116,12 +10120,12 @@
         <v>Built-in Variable: $CONTROL_PAR_PARALLAX_Y</v>
       </c>
       <c r="E50" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="16" t="s">
-        <v>1422</v>
+        <v>1402</v>
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="15"/>
@@ -10130,7 +10134,7 @@
         <v>Built-in Variable: $CONTROL_PAR_PARENT_PANEL</v>
       </c>
       <c r="E51" t="s">
-        <v>1417</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -10212,7 +10216,7 @@
     </row>
     <row r="59" spans="1:5" s="23" customFormat="1">
       <c r="A59" s="16" t="s">
-        <v>1145</v>
+        <v>1128</v>
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="15"/>
@@ -10300,7 +10304,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="16" t="s">
-        <v>1357</v>
+        <v>1338</v>
       </c>
       <c r="B67" s="16"/>
       <c r="C67" s="15"/>
@@ -10309,12 +10313,12 @@
         <v>Built-in Variable: $CONTROL_PAR_WAVE_ALPHA</v>
       </c>
       <c r="E67" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="16" t="s">
-        <v>1146</v>
+        <v>1129</v>
       </c>
       <c r="B68" s="16"/>
       <c r="C68" s="15"/>
@@ -10323,12 +10327,12 @@
         <v>Built-in Variable: $CONTROL_PAR_WAVE_COLOR</v>
       </c>
       <c r="E68" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="16" t="s">
-        <v>1360</v>
+        <v>1341</v>
       </c>
       <c r="B69" s="16"/>
       <c r="C69" s="15"/>
@@ -10337,12 +10341,12 @@
         <v>Built-in Variable: $CONTROL_PAR_WAVE_END_ALPHA</v>
       </c>
       <c r="E69" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="16" t="s">
-        <v>1361</v>
+        <v>1342</v>
       </c>
       <c r="B70" s="16"/>
       <c r="C70" s="15"/>
@@ -10351,12 +10355,12 @@
         <v>Built-in Variable: $CONTROL_PAR_WAVE_END_COLOR</v>
       </c>
       <c r="E70" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="16" t="s">
-        <v>1358</v>
+        <v>1339</v>
       </c>
       <c r="B71" s="16"/>
       <c r="C71" s="15"/>
@@ -10365,12 +10369,12 @@
         <v>Built-in Variable: $CONTROL_PAR_WAVETABLE_ALPHA</v>
       </c>
       <c r="E71" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="16" t="s">
-        <v>1359</v>
+        <v>1340</v>
       </c>
       <c r="B72" s="16"/>
       <c r="C72" s="15"/>
@@ -10379,12 +10383,12 @@
         <v>Built-in Variable: $CONTROL_PAR_WAVETABLE_COLOR</v>
       </c>
       <c r="E72" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="16" t="s">
-        <v>1362</v>
+        <v>1343</v>
       </c>
       <c r="B73" s="16"/>
       <c r="C73" s="15"/>
@@ -10393,12 +10397,12 @@
         <v>Built-in Variable: $CONTROL_PAR_WAVETABLE_END_ALPHA</v>
       </c>
       <c r="E73" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="16" t="s">
-        <v>1363</v>
+        <v>1344</v>
       </c>
       <c r="B74" s="16"/>
       <c r="C74" s="15"/>
@@ -10407,12 +10411,12 @@
         <v>Built-in Variable: $CONTROL_PAR_WAVETABLE_END_COLOR</v>
       </c>
       <c r="E74" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="16" t="s">
-        <v>1147</v>
+        <v>1130</v>
       </c>
       <c r="B75" s="16"/>
       <c r="C75" s="15"/>
@@ -10423,7 +10427,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="16" t="s">
-        <v>1416</v>
+        <v>1396</v>
       </c>
       <c r="B76" s="16"/>
       <c r="C76" s="15"/>
@@ -10432,7 +10436,7 @@
         <v>Built-in Variable: $CONTROL_PAR_WF_VIS_MODE</v>
       </c>
       <c r="E76" t="s">
-        <v>1417</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -10448,7 +10452,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="16" t="s">
-        <v>1352</v>
+        <v>1333</v>
       </c>
       <c r="B78" s="16"/>
       <c r="C78" s="15"/>
@@ -10457,12 +10461,12 @@
         <v>Built-in Variable: $CONTROL_PAR_WT_VIS_MODE</v>
       </c>
       <c r="E78" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="16" t="s">
-        <v>1353</v>
+        <v>1334</v>
       </c>
       <c r="B79" s="16"/>
       <c r="C79" s="15"/>
@@ -10471,12 +10475,12 @@
         <v>Built-in Variable: $CONTROL_PAR_WT_VIS_2D</v>
       </c>
       <c r="E79" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="16" t="s">
-        <v>1354</v>
+        <v>1335</v>
       </c>
       <c r="B80" s="16"/>
       <c r="C80" s="15"/>
@@ -10485,7 +10489,7 @@
         <v>Built-in Variable: $CONTROL_PAR_WT_VIS_3D</v>
       </c>
       <c r="E80" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -10501,7 +10505,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="16" t="s">
-        <v>1148</v>
+        <v>1131</v>
       </c>
       <c r="B82" s="16"/>
       <c r="C82" s="15"/>
@@ -10622,7 +10626,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="16" t="s">
-        <v>1149</v>
+        <v>1132</v>
       </c>
       <c r="B93" s="16"/>
       <c r="C93" s="15"/>
@@ -10666,7 +10670,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="16" t="s">
-        <v>1150</v>
+        <v>1133</v>
       </c>
       <c r="B97" s="16"/>
       <c r="C97" s="15"/>
@@ -10721,7 +10725,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="16" t="s">
-        <v>1151</v>
+        <v>1134</v>
       </c>
       <c r="B102" s="16"/>
       <c r="C102" s="15"/>
@@ -10776,7 +10780,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="16" t="s">
-        <v>1152</v>
+        <v>1135</v>
       </c>
       <c r="B107" s="16"/>
       <c r="C107" s="15"/>
@@ -10985,7 +10989,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="16" t="s">
-        <v>1153</v>
+        <v>1136</v>
       </c>
       <c r="B126" s="16"/>
       <c r="C126" s="15"/>
@@ -10996,7 +11000,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="16" t="s">
-        <v>1154</v>
+        <v>1137</v>
       </c>
       <c r="B127" s="16"/>
       <c r="C127" s="15"/>
@@ -11007,7 +11011,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="16" t="s">
-        <v>1155</v>
+        <v>1138</v>
       </c>
       <c r="B128" s="16"/>
       <c r="C128" s="15"/>
@@ -11018,7 +11022,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="16" t="s">
-        <v>1156</v>
+        <v>1139</v>
       </c>
       <c r="B129" s="16"/>
       <c r="C129" s="15"/>
@@ -11029,7 +11033,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="16" t="s">
-        <v>1157</v>
+        <v>1140</v>
       </c>
       <c r="B130" s="16"/>
       <c r="C130" s="15"/>
@@ -11040,7 +11044,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="16" t="s">
-        <v>1158</v>
+        <v>1141</v>
       </c>
       <c r="B131" s="16"/>
       <c r="C131" s="15"/>
@@ -11051,7 +11055,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="16" t="s">
-        <v>1159</v>
+        <v>1142</v>
       </c>
       <c r="B132" s="16"/>
       <c r="C132" s="15"/>
@@ -11062,7 +11066,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="16" t="s">
-        <v>1160</v>
+        <v>1143</v>
       </c>
       <c r="B133" s="16"/>
       <c r="C133" s="15"/>
@@ -11073,7 +11077,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="16" t="s">
-        <v>1161</v>
+        <v>1144</v>
       </c>
       <c r="B134" s="16"/>
       <c r="C134" s="15"/>
@@ -11304,7 +11308,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="16" t="s">
-        <v>1162</v>
+        <v>1145</v>
       </c>
       <c r="B155" s="16"/>
       <c r="C155" s="15"/>
@@ -11315,7 +11319,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="16" t="s">
-        <v>1163</v>
+        <v>1146</v>
       </c>
       <c r="B156" s="16"/>
       <c r="C156" s="15"/>
@@ -11326,7 +11330,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="16" t="s">
-        <v>1164</v>
+        <v>1147</v>
       </c>
       <c r="B157" s="16"/>
       <c r="C157" s="15"/>
@@ -11337,7 +11341,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="16" t="s">
-        <v>1165</v>
+        <v>1148</v>
       </c>
       <c r="B158" s="16"/>
       <c r="C158" s="15"/>
@@ -11348,7 +11352,7 @@
     </row>
     <row r="159" spans="1:4" s="23" customFormat="1">
       <c r="A159" s="16" t="s">
-        <v>1166</v>
+        <v>1149</v>
       </c>
       <c r="B159" s="16"/>
       <c r="C159" s="15"/>
@@ -11359,7 +11363,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="16" t="s">
-        <v>1167</v>
+        <v>1150</v>
       </c>
       <c r="B160" s="16"/>
       <c r="C160" s="15"/>
@@ -11370,7 +11374,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="16" t="s">
-        <v>1168</v>
+        <v>1151</v>
       </c>
       <c r="B161" s="16"/>
       <c r="C161" s="15"/>
@@ -11381,7 +11385,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="16" t="s">
-        <v>1169</v>
+        <v>1152</v>
       </c>
       <c r="B162" s="16"/>
       <c r="C162" s="15"/>
@@ -11392,7 +11396,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="16" t="s">
-        <v>1383</v>
+        <v>1363</v>
       </c>
       <c r="B163" s="16"/>
       <c r="C163" s="15"/>
@@ -11401,12 +11405,12 @@
         <v>Built-in Variable: $ENGINE_PAR_CW_MONO</v>
       </c>
       <c r="E163" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="16" t="s">
-        <v>1384</v>
+        <v>1364</v>
       </c>
       <c r="B164" s="16"/>
       <c r="C164" s="15"/>
@@ -11505,7 +11509,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="16" t="s">
-        <v>1170</v>
+        <v>1153</v>
       </c>
       <c r="B173" s="16"/>
       <c r="C173" s="15"/>
@@ -11582,7 +11586,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="16" t="s">
-        <v>1171</v>
+        <v>1154</v>
       </c>
       <c r="B180" s="16"/>
       <c r="C180" s="15"/>
@@ -11593,7 +11597,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="16" t="s">
-        <v>1172</v>
+        <v>1155</v>
       </c>
       <c r="B181" s="16"/>
       <c r="C181" s="15"/>
@@ -11604,7 +11608,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="16" t="s">
-        <v>1173</v>
+        <v>1156</v>
       </c>
       <c r="B182" s="16"/>
       <c r="C182" s="15"/>
@@ -11615,7 +11619,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="16" t="s">
-        <v>1174</v>
+        <v>1157</v>
       </c>
       <c r="B183" s="16"/>
       <c r="C183" s="15"/>
@@ -11626,7 +11630,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="16" t="s">
-        <v>1175</v>
+        <v>1158</v>
       </c>
       <c r="B184" s="16"/>
       <c r="C184" s="15"/>
@@ -11637,7 +11641,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="16" t="s">
-        <v>1176</v>
+        <v>1159</v>
       </c>
       <c r="B185" s="16"/>
       <c r="C185" s="15"/>
@@ -11648,7 +11652,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="16" t="s">
-        <v>1177</v>
+        <v>1160</v>
       </c>
       <c r="B186" s="16"/>
       <c r="C186" s="15"/>
@@ -11736,7 +11740,7 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="16" t="s">
-        <v>1178</v>
+        <v>1161</v>
       </c>
       <c r="B194" s="16"/>
       <c r="C194" s="15"/>
@@ -11758,7 +11762,7 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="16" t="s">
-        <v>1179</v>
+        <v>1162</v>
       </c>
       <c r="B196" s="16"/>
       <c r="C196" s="15"/>
@@ -11857,7 +11861,7 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="16" t="s">
-        <v>1180</v>
+        <v>1163</v>
       </c>
       <c r="B205" s="16"/>
       <c r="C205" s="15"/>
@@ -12231,7 +12235,7 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="16" t="s">
-        <v>1181</v>
+        <v>1164</v>
       </c>
       <c r="B239" s="16"/>
       <c r="C239" s="15"/>
@@ -12242,7 +12246,7 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="16" t="s">
-        <v>1182</v>
+        <v>1165</v>
       </c>
       <c r="B240" s="16"/>
       <c r="C240" s="15"/>
@@ -12253,7 +12257,7 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="16" t="s">
-        <v>1183</v>
+        <v>1166</v>
       </c>
       <c r="B241" s="16"/>
       <c r="C241" s="15"/>
@@ -12264,7 +12268,7 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="16" t="s">
-        <v>1184</v>
+        <v>1167</v>
       </c>
       <c r="B242" s="16"/>
       <c r="C242" s="15"/>
@@ -12275,7 +12279,7 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="16" t="s">
-        <v>1185</v>
+        <v>1168</v>
       </c>
       <c r="B243" s="16"/>
       <c r="C243" s="15"/>
@@ -12286,7 +12290,7 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="16" t="s">
-        <v>1186</v>
+        <v>1169</v>
       </c>
       <c r="B244" s="16"/>
       <c r="C244" s="15"/>
@@ -12297,7 +12301,7 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="16" t="s">
-        <v>1187</v>
+        <v>1170</v>
       </c>
       <c r="B245" s="16"/>
       <c r="C245" s="15"/>
@@ -12308,7 +12312,7 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="16" t="s">
-        <v>1188</v>
+        <v>1171</v>
       </c>
       <c r="B246" s="16"/>
       <c r="C246" s="15"/>
@@ -12319,7 +12323,7 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="16" t="s">
-        <v>1189</v>
+        <v>1172</v>
       </c>
       <c r="B247" s="16"/>
       <c r="C247" s="15"/>
@@ -12330,7 +12334,7 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="16" t="s">
-        <v>1190</v>
+        <v>1173</v>
       </c>
       <c r="B248" s="16"/>
       <c r="C248" s="15"/>
@@ -12396,7 +12400,7 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="16" t="s">
-        <v>1415</v>
+        <v>1395</v>
       </c>
       <c r="B254" s="16"/>
       <c r="C254" s="15"/>
@@ -12405,7 +12409,7 @@
         <v>Built-in Variable: $ENGINE_$PAR_INTMOD_RETRIGGER</v>
       </c>
       <c r="E254" t="s">
-        <v>1417</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -12465,7 +12469,7 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="16" t="s">
-        <v>1225</v>
+        <v>1208</v>
       </c>
       <c r="B260" s="16"/>
       <c r="C260" s="15"/>
@@ -12509,7 +12513,7 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="16" t="s">
-        <v>1226</v>
+        <v>1209</v>
       </c>
       <c r="B264" s="16"/>
       <c r="C264" s="15"/>
@@ -12817,7 +12821,7 @@
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="16" t="s">
-        <v>1385</v>
+        <v>1365</v>
       </c>
       <c r="B292" s="16"/>
       <c r="C292" s="15"/>
@@ -12826,7 +12830,7 @@
         <v>Built-in Variable: $ENGINE_PAR_PR_STEREO</v>
       </c>
       <c r="E292" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -12842,7 +12846,7 @@
     </row>
     <row r="294" spans="1:5">
       <c r="A294" s="16" t="s">
-        <v>1386</v>
+        <v>1366</v>
       </c>
       <c r="B294" s="16"/>
       <c r="C294" s="15"/>
@@ -12851,12 +12855,12 @@
         <v>Built-in Variable: $ENGINE_PAR_RDL_BBDTYPE</v>
       </c>
       <c r="E294" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="16" t="s">
-        <v>1387</v>
+        <v>1367</v>
       </c>
       <c r="B295" s="16"/>
       <c r="C295" s="15"/>
@@ -12865,7 +12869,7 @@
         <v>Built-in Variable: $ENGINE_PAR_RDL_TYPE</v>
       </c>
       <c r="E295" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -13024,7 +13028,7 @@
     </row>
     <row r="310" spans="1:5" s="23" customFormat="1">
       <c r="A310" s="16" t="s">
-        <v>1388</v>
+        <v>1368</v>
       </c>
       <c r="B310" s="16"/>
       <c r="C310" s="15"/>
@@ -13033,7 +13037,7 @@
         <v>Built-in Variable: $ENGINE_PAR_RV2_TYPE</v>
       </c>
       <c r="E310" s="23" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -13137,7 +13141,7 @@
     </row>
     <row r="320" spans="1:5">
       <c r="A320" s="16" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
       <c r="B320" s="16"/>
       <c r="C320" s="15"/>
@@ -13148,7 +13152,7 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="16" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="B321" s="16"/>
       <c r="C321" s="15"/>
@@ -13159,7 +13163,7 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="16" t="s">
-        <v>1321</v>
+        <v>1304</v>
       </c>
       <c r="B322" s="16"/>
       <c r="C322" s="15"/>
@@ -13170,7 +13174,7 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="16" t="s">
-        <v>1322</v>
+        <v>1305</v>
       </c>
       <c r="B323" s="16"/>
       <c r="C323" s="15"/>
@@ -13379,7 +13383,7 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="16" t="s">
-        <v>1191</v>
+        <v>1174</v>
       </c>
       <c r="B342" s="16"/>
       <c r="C342" s="15"/>
@@ -13764,7 +13768,7 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="16" t="s">
-        <v>1192</v>
+        <v>1175</v>
       </c>
       <c r="B377" s="16"/>
       <c r="C377" s="15"/>
@@ -13819,7 +13823,7 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="16" t="s">
-        <v>1193</v>
+        <v>1176</v>
       </c>
       <c r="B382" s="16"/>
       <c r="C382" s="15"/>
@@ -13863,7 +13867,7 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="16" t="s">
-        <v>1194</v>
+        <v>1177</v>
       </c>
       <c r="B386" s="16"/>
       <c r="C386" s="15"/>
@@ -13885,7 +13889,7 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="16" t="s">
-        <v>1195</v>
+        <v>1178</v>
       </c>
       <c r="B388" s="16"/>
       <c r="C388" s="15"/>
@@ -13918,7 +13922,7 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="16" t="s">
-        <v>1196</v>
+        <v>1179</v>
       </c>
       <c r="B391" s="16"/>
       <c r="C391" s="15"/>
@@ -13929,7 +13933,7 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="16" t="s">
-        <v>1197</v>
+        <v>1180</v>
       </c>
       <c r="B392" s="16"/>
       <c r="C392" s="15"/>
@@ -13940,7 +13944,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="16" t="s">
-        <v>1198</v>
+        <v>1181</v>
       </c>
       <c r="B393" s="16"/>
       <c r="C393" s="15"/>
@@ -13951,7 +13955,7 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="16" t="s">
-        <v>1199</v>
+        <v>1182</v>
       </c>
       <c r="B394" s="16"/>
       <c r="C394" s="15"/>
@@ -13962,7 +13966,7 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="16" t="s">
-        <v>1200</v>
+        <v>1183</v>
       </c>
       <c r="B395" s="16"/>
       <c r="C395" s="15"/>
@@ -13973,7 +13977,7 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="16" t="s">
-        <v>1201</v>
+        <v>1184</v>
       </c>
       <c r="B396" s="16"/>
       <c r="C396" s="15"/>
@@ -13984,7 +13988,7 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="16" t="s">
-        <v>1202</v>
+        <v>1185</v>
       </c>
       <c r="B397" s="16"/>
       <c r="C397" s="15"/>
@@ -13995,7 +13999,7 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="16" t="s">
-        <v>1203</v>
+        <v>1186</v>
       </c>
       <c r="B398" s="16"/>
       <c r="C398" s="15"/>
@@ -14006,7 +14010,7 @@
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="16" t="s">
-        <v>1204</v>
+        <v>1187</v>
       </c>
       <c r="B399" s="16"/>
       <c r="C399" s="15"/>
@@ -14017,7 +14021,7 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="16" t="s">
-        <v>1205</v>
+        <v>1188</v>
       </c>
       <c r="B400" s="16"/>
       <c r="C400" s="15"/>
@@ -14028,7 +14032,7 @@
     </row>
     <row r="401" spans="1:5">
       <c r="A401" s="16" t="s">
-        <v>1206</v>
+        <v>1189</v>
       </c>
       <c r="B401" s="16"/>
       <c r="C401" s="15"/>
@@ -14039,7 +14043,7 @@
     </row>
     <row r="402" spans="1:5">
       <c r="A402" s="16" t="s">
-        <v>1207</v>
+        <v>1190</v>
       </c>
       <c r="B402" s="16"/>
       <c r="C402" s="15"/>
@@ -14050,7 +14054,7 @@
     </row>
     <row r="403" spans="1:5">
       <c r="A403" s="16" t="s">
-        <v>1208</v>
+        <v>1191</v>
       </c>
       <c r="B403" s="16"/>
       <c r="C403" s="15"/>
@@ -14072,7 +14076,7 @@
     </row>
     <row r="405" spans="1:5">
       <c r="A405" s="16" t="s">
-        <v>1421</v>
+        <v>1401</v>
       </c>
       <c r="B405" s="16"/>
       <c r="C405" s="15"/>
@@ -14081,12 +14085,12 @@
         <v>Built-in Variable: $ENGINE_PAR_WT_INHARMONIC_MODE</v>
       </c>
       <c r="E405" t="s">
-        <v>1417</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="406" spans="1:5">
       <c r="A406" s="16" t="s">
-        <v>1389</v>
+        <v>1369</v>
       </c>
       <c r="B406" s="16"/>
       <c r="C406" s="15"/>
@@ -14095,7 +14099,7 @@
         <v>Built-in Variable: $ENGINE_PAR_WT_PHASE_RAND</v>
       </c>
       <c r="E406" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -14386,7 +14390,7 @@
     </row>
     <row r="433" spans="1:5">
       <c r="A433" s="16" t="s">
-        <v>1390</v>
+        <v>1370</v>
       </c>
       <c r="B433" s="16"/>
       <c r="C433" s="15"/>
@@ -14395,7 +14399,7 @@
         <v>Built-in Variable: $EVENT_PAR_VOL</v>
       </c>
       <c r="E433" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -15126,7 +15130,7 @@
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="16" t="s">
-        <v>1143</v>
+        <v>1126</v>
       </c>
       <c r="B500" s="16"/>
       <c r="C500" s="15"/>
@@ -15280,7 +15284,7 @@
     </row>
     <row r="514" spans="1:4">
       <c r="A514" s="16" t="s">
-        <v>1229</v>
+        <v>1212</v>
       </c>
       <c r="B514" s="16"/>
       <c r="C514" s="15"/>
@@ -15489,7 +15493,7 @@
     </row>
     <row r="533" spans="1:4">
       <c r="A533" s="16" t="s">
-        <v>1230</v>
+        <v>1213</v>
       </c>
       <c r="B533" s="16"/>
       <c r="C533" s="15"/>
@@ -15621,7 +15625,7 @@
     </row>
     <row r="545" spans="1:4">
       <c r="A545" s="16" t="s">
-        <v>1323</v>
+        <v>1306</v>
       </c>
       <c r="B545" s="16"/>
       <c r="C545" s="15"/>
@@ -16105,7 +16109,7 @@
     </row>
     <row r="589" spans="1:4">
       <c r="A589" s="16" t="s">
-        <v>1227</v>
+        <v>1210</v>
       </c>
       <c r="B589" s="16"/>
       <c r="C589" s="15"/>
@@ -16292,7 +16296,7 @@
     </row>
     <row r="606" spans="1:4">
       <c r="A606" s="16" t="s">
-        <v>1228</v>
+        <v>1211</v>
       </c>
       <c r="B606" s="16"/>
       <c r="C606" s="15"/>
@@ -16336,7 +16340,7 @@
     </row>
     <row r="610" spans="1:5">
       <c r="A610" s="16" t="s">
-        <v>1209</v>
+        <v>1192</v>
       </c>
       <c r="B610" s="16"/>
       <c r="C610" s="15"/>
@@ -16347,7 +16351,7 @@
     </row>
     <row r="611" spans="1:5">
       <c r="A611" s="16" t="s">
-        <v>1210</v>
+        <v>1193</v>
       </c>
       <c r="B611" s="16"/>
       <c r="C611" s="15"/>
@@ -16358,7 +16362,7 @@
     </row>
     <row r="612" spans="1:5">
       <c r="A612" s="16" t="s">
-        <v>1211</v>
+        <v>1194</v>
       </c>
       <c r="B612" s="16"/>
       <c r="C612" s="15"/>
@@ -16435,7 +16439,7 @@
     </row>
     <row r="619" spans="1:5">
       <c r="A619" s="16" t="s">
-        <v>1378</v>
+        <v>1358</v>
       </c>
       <c r="B619" s="16"/>
       <c r="C619" s="15"/>
@@ -16444,12 +16448,12 @@
         <v>Built-in Variable: $NI_LOG_MESSAGE</v>
       </c>
       <c r="E619" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="620" spans="1:5">
       <c r="A620" s="16" t="s">
-        <v>1379</v>
+        <v>1359</v>
       </c>
       <c r="B620" s="16"/>
       <c r="C620" s="15"/>
@@ -16458,12 +16462,12 @@
         <v>Built-in Variable: $NI_LOG_WARNING</v>
       </c>
       <c r="E620" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="621" spans="1:5">
       <c r="A621" s="16" t="s">
-        <v>1380</v>
+        <v>1360</v>
       </c>
       <c r="B621" s="16"/>
       <c r="C621" s="15"/>
@@ -16472,12 +16476,12 @@
         <v>Built-in Variable: $NI_LOG_WATCHING</v>
       </c>
       <c r="E621" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="622" spans="1:5">
       <c r="A622" s="16" t="s">
-        <v>1364</v>
+        <v>1345</v>
       </c>
       <c r="B622" s="16"/>
       <c r="C622" s="15"/>
@@ -16486,12 +16490,12 @@
         <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE</v>
       </c>
       <c r="E622" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="623" spans="1:5">
       <c r="A623" s="16" t="s">
-        <v>1365</v>
+        <v>1346</v>
       </c>
       <c r="B623" s="16"/>
       <c r="C623" s="15"/>
@@ -16500,12 +16504,12 @@
         <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE_LEFT_BUTTON_DOWN</v>
       </c>
       <c r="E623" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="624" spans="1:5">
       <c r="A624" s="16" t="s">
-        <v>1366</v>
+        <v>1347</v>
       </c>
       <c r="B624" s="16"/>
       <c r="C624" s="15"/>
@@ -16514,12 +16518,12 @@
         <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE_LEFT_BUTTON_UP</v>
       </c>
       <c r="E624" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="625" spans="1:5">
       <c r="A625" s="16" t="s">
-        <v>1367</v>
+        <v>1348</v>
       </c>
       <c r="B625" s="16"/>
       <c r="C625" s="15"/>
@@ -16528,12 +16532,12 @@
         <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE_DRAG</v>
       </c>
       <c r="E625" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="626" spans="1:5">
       <c r="A626" s="16" t="s">
-        <v>1391</v>
+        <v>1371</v>
       </c>
       <c r="B626" s="16"/>
       <c r="C626" s="15"/>
@@ -16542,12 +16546,12 @@
         <v>Built-in Variable: $NI_REPLIKA_TYPE_DIFFUSION</v>
       </c>
       <c r="E626" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="627" spans="1:5">
       <c r="A627" s="16" t="s">
-        <v>1392</v>
+        <v>1372</v>
       </c>
       <c r="B627" s="16"/>
       <c r="C627" s="15"/>
@@ -16556,12 +16560,12 @@
         <v>Built-in Variable: $NI_REPLIKA_TYPE_MODERN</v>
       </c>
       <c r="E627" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="628" spans="1:5">
       <c r="A628" s="16" t="s">
-        <v>1393</v>
+        <v>1373</v>
       </c>
       <c r="B628" s="16"/>
       <c r="C628" s="15"/>
@@ -16570,12 +16574,12 @@
         <v>Built-in Variable: $NI_REPLIKA_TYPE_TAPE</v>
       </c>
       <c r="E628" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="629" spans="1:5">
       <c r="A629" s="16" t="s">
-        <v>1394</v>
+        <v>1374</v>
       </c>
       <c r="B629" s="16"/>
       <c r="C629" s="15"/>
@@ -16584,12 +16588,12 @@
         <v>Built-in Variable: $NI_REPLIKA_TYPE_VINTAGE</v>
       </c>
       <c r="E629" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="630" spans="1:5">
       <c r="A630" s="16" t="s">
-        <v>1395</v>
+        <v>1375</v>
       </c>
       <c r="B630" s="16"/>
       <c r="C630" s="15"/>
@@ -16598,12 +16602,12 @@
         <v>Built-in Variable: $NI_REVERB2_TYPE_ROOM</v>
       </c>
       <c r="E630" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="631" spans="1:5">
       <c r="A631" s="16" t="s">
-        <v>1212</v>
+        <v>1195</v>
       </c>
       <c r="B631" s="16"/>
       <c r="C631" s="15"/>
@@ -16614,7 +16618,7 @@
     </row>
     <row r="632" spans="1:5">
       <c r="A632" s="16" t="s">
-        <v>1213</v>
+        <v>1196</v>
       </c>
       <c r="B632" s="16"/>
       <c r="C632" s="15"/>
@@ -16625,7 +16629,7 @@
     </row>
     <row r="633" spans="1:5">
       <c r="A633" s="16" t="s">
-        <v>1214</v>
+        <v>1197</v>
       </c>
       <c r="B633" s="16"/>
       <c r="C633" s="15"/>
@@ -16922,7 +16926,7 @@
     </row>
     <row r="660" spans="1:5">
       <c r="A660" s="16" t="s">
-        <v>1396</v>
+        <v>1376</v>
       </c>
       <c r="B660" s="16"/>
       <c r="C660" s="15"/>
@@ -16931,12 +16935,12 @@
         <v>Built-in Variable: $NI_WT_FORM_QUANTIZE</v>
       </c>
       <c r="E660" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="661" spans="1:5">
       <c r="A661" s="16" t="s">
-        <v>1397</v>
+        <v>1377</v>
       </c>
       <c r="B661" s="16"/>
       <c r="C661" s="15"/>
@@ -16945,12 +16949,12 @@
         <v>Built-in Variable: $NI_WT_QUALITY_BEST</v>
       </c>
       <c r="E661" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="662" spans="1:5">
       <c r="A662" s="16" t="s">
-        <v>1398</v>
+        <v>1378</v>
       </c>
       <c r="B662" s="16"/>
       <c r="C662" s="15"/>
@@ -16959,12 +16963,12 @@
         <v>Built-in Variable: $NI_WT_VIS_2D</v>
       </c>
       <c r="E662" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="663" spans="1:5">
       <c r="A663" s="16" t="s">
-        <v>1399</v>
+        <v>1379</v>
       </c>
       <c r="B663" s="16"/>
       <c r="C663" s="15"/>
@@ -16973,12 +16977,12 @@
         <v>Built-in Variable: $NI_WT_VIS_3D</v>
       </c>
       <c r="E663" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="664" spans="1:5">
       <c r="A664" s="16" t="s">
-        <v>1418</v>
+        <v>1398</v>
       </c>
       <c r="B664" s="16"/>
       <c r="C664" s="15"/>
@@ -16987,12 +16991,12 @@
         <v>Built-in Variable: $NI_WF_VIS_MODE_1</v>
       </c>
       <c r="E664" t="s">
-        <v>1417</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="665" spans="1:5">
       <c r="A665" s="16" t="s">
-        <v>1419</v>
+        <v>1399</v>
       </c>
       <c r="B665" s="16"/>
       <c r="C665" s="15"/>
@@ -17001,12 +17005,12 @@
         <v>Built-in Variable: $NI_WF_VIS_MODE_2</v>
       </c>
       <c r="E665" t="s">
-        <v>1417</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="666" spans="1:5">
       <c r="A666" s="16" t="s">
-        <v>1420</v>
+        <v>1400</v>
       </c>
       <c r="B666" s="16"/>
       <c r="C666" s="15"/>
@@ -17015,7 +17019,7 @@
         <v>Built-in Variable: $NI_WF_VIS_MODE_3</v>
       </c>
       <c r="E666" t="s">
-        <v>1417</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="667" spans="1:5">
@@ -17383,7 +17387,7 @@
     </row>
     <row r="700" spans="1:4">
       <c r="A700" s="16" t="s">
-        <v>1215</v>
+        <v>1198</v>
       </c>
       <c r="B700" s="16"/>
       <c r="C700" s="15"/>
@@ -17394,7 +17398,7 @@
     </row>
     <row r="701" spans="1:4">
       <c r="A701" s="16" t="s">
-        <v>1216</v>
+        <v>1199</v>
       </c>
       <c r="B701" s="16"/>
       <c r="C701" s="15"/>
@@ -17405,7 +17409,7 @@
     </row>
     <row r="702" spans="1:4">
       <c r="A702" s="16" t="s">
-        <v>1217</v>
+        <v>1200</v>
       </c>
       <c r="B702" s="16"/>
       <c r="C702" s="15"/>
@@ -17416,7 +17420,7 @@
     </row>
     <row r="703" spans="1:4">
       <c r="A703" s="16" t="s">
-        <v>1218</v>
+        <v>1201</v>
       </c>
       <c r="B703" s="16"/>
       <c r="C703" s="15"/>
@@ -17427,7 +17431,7 @@
     </row>
     <row r="704" spans="1:4">
       <c r="A704" s="16" t="s">
-        <v>1219</v>
+        <v>1202</v>
       </c>
       <c r="B704" s="16"/>
       <c r="C704" s="15"/>
@@ -17438,7 +17442,7 @@
     </row>
     <row r="705" spans="1:4">
       <c r="A705" s="16" t="s">
-        <v>1220</v>
+        <v>1203</v>
       </c>
       <c r="B705" s="16"/>
       <c r="C705" s="15"/>
@@ -17449,7 +17453,7 @@
     </row>
     <row r="706" spans="1:4">
       <c r="A706" s="16" t="s">
-        <v>1221</v>
+        <v>1204</v>
       </c>
       <c r="B706" s="16"/>
       <c r="C706" s="15"/>
@@ -17460,7 +17464,7 @@
     </row>
     <row r="707" spans="1:4">
       <c r="A707" s="16" t="s">
-        <v>1222</v>
+        <v>1205</v>
       </c>
       <c r="B707" s="16"/>
       <c r="C707" s="15"/>
@@ -17493,7 +17497,7 @@
     </row>
     <row r="710" spans="1:4">
       <c r="A710" s="19" t="s">
-        <v>1343</v>
+        <v>1634</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="21"/>
@@ -17501,7 +17505,7 @@
     </row>
     <row r="711" spans="1:4">
       <c r="A711" s="6" t="s">
-        <v>1324</v>
+        <v>1307</v>
       </c>
       <c r="B711" s="3"/>
       <c r="C711" s="12"/>
@@ -17512,7 +17516,7 @@
     </row>
     <row r="712" spans="1:4">
       <c r="A712" s="6" t="s">
-        <v>1325</v>
+        <v>1308</v>
       </c>
       <c r="B712" s="3"/>
       <c r="C712" s="12"/>
@@ -17523,7 +17527,7 @@
     </row>
     <row r="713" spans="1:4">
       <c r="A713" s="6" t="s">
-        <v>1326</v>
+        <v>1309</v>
       </c>
       <c r="B713" s="3"/>
       <c r="C713" s="12"/>
@@ -17534,7 +17538,7 @@
     </row>
     <row r="714" spans="1:4">
       <c r="A714" s="6" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="B714" s="3"/>
       <c r="C714" s="12"/>
@@ -17545,7 +17549,7 @@
     </row>
     <row r="715" spans="1:4">
       <c r="A715" s="6" t="s">
-        <v>1328</v>
+        <v>1311</v>
       </c>
       <c r="B715" s="3"/>
       <c r="C715" s="12"/>
@@ -17556,7 +17560,7 @@
     </row>
     <row r="716" spans="1:4">
       <c r="A716" s="6" t="s">
-        <v>1329</v>
+        <v>1312</v>
       </c>
       <c r="B716" s="3"/>
       <c r="C716" s="12"/>
@@ -17567,7 +17571,7 @@
     </row>
     <row r="717" spans="1:4">
       <c r="A717" s="6" t="s">
-        <v>1330</v>
+        <v>1313</v>
       </c>
       <c r="B717" s="3"/>
       <c r="C717" s="12"/>
@@ -17578,7 +17582,7 @@
     </row>
     <row r="718" spans="1:4">
       <c r="A718" s="6" t="s">
-        <v>1331</v>
+        <v>1314</v>
       </c>
       <c r="B718" s="3"/>
       <c r="C718" s="12"/>
@@ -17589,7 +17593,7 @@
     </row>
     <row r="719" spans="1:4">
       <c r="A719" s="6" t="s">
-        <v>1332</v>
+        <v>1315</v>
       </c>
       <c r="B719" s="3"/>
       <c r="C719" s="12"/>
@@ -17600,7 +17604,7 @@
     </row>
     <row r="720" spans="1:4">
       <c r="A720" s="6" t="s">
-        <v>1333</v>
+        <v>1316</v>
       </c>
       <c r="B720" s="3"/>
       <c r="C720" s="12"/>
@@ -17611,7 +17615,7 @@
     </row>
     <row r="721" spans="1:4">
       <c r="A721" s="6" t="s">
-        <v>1334</v>
+        <v>1317</v>
       </c>
       <c r="B721" s="3"/>
       <c r="C721" s="12"/>
@@ -17622,7 +17626,7 @@
     </row>
     <row r="722" spans="1:4">
       <c r="A722" s="6" t="s">
-        <v>1335</v>
+        <v>1318</v>
       </c>
       <c r="B722" s="3"/>
       <c r="C722" s="12"/>
@@ -17633,7 +17637,7 @@
     </row>
     <row r="723" spans="1:4">
       <c r="A723" s="6" t="s">
-        <v>1336</v>
+        <v>1319</v>
       </c>
       <c r="B723" s="3"/>
       <c r="C723" s="12"/>
@@ -17644,7 +17648,7 @@
     </row>
     <row r="724" spans="1:4">
       <c r="A724" s="6" t="s">
-        <v>1337</v>
+        <v>1320</v>
       </c>
       <c r="B724" s="3"/>
       <c r="C724" s="12"/>
@@ -17655,7 +17659,7 @@
     </row>
     <row r="725" spans="1:4">
       <c r="A725" s="6" t="s">
-        <v>1338</v>
+        <v>1321</v>
       </c>
       <c r="B725" s="3"/>
       <c r="C725" s="12"/>
@@ -17666,7 +17670,7 @@
     </row>
     <row r="726" spans="1:4">
       <c r="A726" s="6" t="s">
-        <v>1339</v>
+        <v>1322</v>
       </c>
       <c r="B726" s="3"/>
       <c r="C726" s="12"/>
@@ -17677,7 +17681,7 @@
     </row>
     <row r="727" spans="1:4">
       <c r="A727" s="6" t="s">
-        <v>1340</v>
+        <v>1323</v>
       </c>
       <c r="B727" s="3"/>
       <c r="C727" s="12"/>
@@ -17688,7 +17692,7 @@
     </row>
     <row r="728" spans="1:4">
       <c r="A728" s="6" t="s">
-        <v>1341</v>
+        <v>1324</v>
       </c>
       <c r="B728" s="3"/>
       <c r="C728" s="12"/>
@@ -17699,7 +17703,7 @@
     </row>
     <row r="729" spans="1:4">
       <c r="A729" s="6" t="s">
-        <v>1342</v>
+        <v>1325</v>
       </c>
       <c r="B729" s="3"/>
       <c r="C729" s="12"/>

--- a/data/KSP_Completion.xlsx
+++ b/data/KSP_Completion.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FB52F6-8CBA-7E43-8773-8E0DA1B71D01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D06532B-35AF-3D44-B90C-94F83845D857}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="460" windowWidth="25480" windowHeight="17540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="460" windowWidth="25480" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Command" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,6 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
             <charset val="128"/>
           </rPr>
           <t xml:space="preserve">R-Koubou
@@ -54,7 +53,6 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
             <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
@@ -65,7 +63,6 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
             <charset val="128"/>
           </rPr>
           <t>Snippet:body</t>
@@ -75,7 +72,6 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
             <charset val="128"/>
           </rPr>
           <t>から以下の正規表現で置換することで整形可</t>
@@ -85,7 +81,6 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
             <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
@@ -96,7 +91,6 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
             <charset val="128"/>
           </rPr>
           <t xml:space="preserve">s/\$\{[0-9]+:[&lt;]*([^\}&gt;]+)[&gt;]*\}/$1/
@@ -107,7 +101,6 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
             <charset val="128"/>
           </rPr>
           <t>s/^[a-z|A-Z|_]+//</t>
@@ -207,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="1635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="1658">
   <si>
     <t>description</t>
     <phoneticPr fontId="3"/>
@@ -4620,9 +4613,6 @@
     <t>play_note( note-number, velocity, sample-offset, duration )</t>
   </si>
   <si>
-    <t>set_controller( ${1:MIDI CC number/$VCC_PITCH_BEND/$VCC_MONO}, value )</t>
-  </si>
-  <si>
     <t>set_rpn( address, value )</t>
   </si>
   <si>
@@ -4959,9 +4949,6 @@
     <t>mf_set_buffer_size( size )</t>
   </si>
   <si>
-    <t>mf_insert_event( track, pos, command, ${4:byte1}, ${5:byte2} )</t>
-  </si>
-  <si>
     <t>mf_remove_event( event-id )</t>
   </si>
   <si>
@@ -5104,9 +5091,6 @@
   </si>
   <si>
     <t>call functionName</t>
-  </si>
-  <si>
-    <t>set_midi( channel, command, ${3:byte-1}, ${4:byte-2} )</t>
   </si>
   <si>
     <t>watch_var( var )</t>
@@ -5134,14 +5118,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>USE_CODE_IF( condition-symbol )</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>USE_CODE_IF_NOT( condition-symbol )</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>USE_CODE_IF( ${1:condition-symbol} )</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -5232,13 +5208,97 @@
   <si>
     <t>*Built-in Variables( Undocumented )</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>int_to_real( integer )</t>
+  </si>
+  <si>
+    <t>real_to_int( real )</t>
+  </si>
+  <si>
+    <t>message( variable/text )</t>
+  </si>
+  <si>
+    <t>set_controller( MIDI CC number/$VCC_PITCH_BEND/$VCC_MONO, value )</t>
+  </si>
+  <si>
+    <t>mf_insert_event( track, pos, command, byte1, byte2 )</t>
+  </si>
+  <si>
+    <t>USE_CODE_IF( condition-symbol )</t>
+  </si>
+  <si>
+    <t>USE_CODE_IF_NOT( condition-symbol )</t>
+  </si>
+  <si>
+    <t>set_midi( channel, command, byte1, byte2 )</t>
+  </si>
+  <si>
+    <t>_delay_event_for_loading_slots( arg1 )</t>
+  </si>
+  <si>
+    <t>cc_delivery_request( arg1 )</t>
+  </si>
+  <si>
+    <t>change_time_with_pitch( arg1 )</t>
+  </si>
+  <si>
+    <t>get_control_par_arr( arg1, arg2}, arg3 )</t>
+  </si>
+  <si>
+    <t>get_control_par_str( arg1}, arg2 )</t>
+  </si>
+  <si>
+    <t>get_engine_par_disp_m( arg1, arg2}, arg3, arg4 )</t>
+  </si>
+  <si>
+    <t>get_engine_par_m( arg1, arg2, arg3, arg4 )</t>
+  </si>
+  <si>
+    <t>load_ir_sample_m( arg1 )</t>
+  </si>
+  <si>
+    <t>load_patch( arg1, arg2 )</t>
+  </si>
+  <si>
+    <t>_num_slices( arg1 )</t>
+  </si>
+  <si>
+    <t>num_slices( arg1 )</t>
+  </si>
+  <si>
+    <t>redirect_midi( arg1 )</t>
+  </si>
+  <si>
+    <t>redirect_output( arg1 )</t>
+  </si>
+  <si>
+    <t>set_engine_par_m( arg1, arg2, arg3, arg4, arg5 )</t>
+  </si>
+  <si>
+    <t>slice_idx_loop_end( arg1, arg2 )</t>
+  </si>
+  <si>
+    <t>slice_idx_loop_start( arg1, arg2 )</t>
+  </si>
+  <si>
+    <t>slice_length( arg1, arg2 )</t>
+  </si>
+  <si>
+    <t>slice_loop_count( arg1, arg2 )</t>
+  </si>
+  <si>
+    <t>slice_start( arg1, arg2 )</t>
+  </si>
+  <si>
+    <t>unload_slot( arg1 )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5283,6 +5343,12 @@
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -5776,11 +5842,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EF9006-51C1-8B4B-B9A3-BB18B251309C}">
   <dimension ref="A1:F275"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="20"/>
@@ -5808,7 +5874,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="10"/>
@@ -5886,7 +5952,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="7" t="s">
-        <v>1616</v>
+        <v>1611</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="10"/>
@@ -6222,7 +6288,7 @@
         <v>976</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>976</v>
+        <v>1630</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>76</v>
@@ -6236,7 +6302,7 @@
         <v>977</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>977</v>
+        <v>1631</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>78</v>
@@ -6272,7 +6338,7 @@
     </row>
     <row r="36" spans="1:6" s="23" customFormat="1">
       <c r="A36" s="7" t="s">
-        <v>1617</v>
+        <v>1612</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="10"/>
@@ -6315,7 +6381,7 @@
         <v>980</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>980</v>
+        <v>1632</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>88</v>
@@ -6357,7 +6423,7 @@
         <v>983</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>1439</v>
+        <v>1633</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>94</v>
@@ -6371,7 +6437,7 @@
         <v>984</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>96</v>
@@ -6385,7 +6451,7 @@
         <v>985</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>98</v>
@@ -6399,7 +6465,7 @@
         <v>986</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>961</v>
@@ -6407,7 +6473,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="7" t="s">
-        <v>1614</v>
+        <v>1609</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="10"/>
@@ -6421,7 +6487,7 @@
         <v>987</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>100</v>
@@ -6435,7 +6501,7 @@
         <v>988</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>102</v>
@@ -6449,7 +6515,7 @@
         <v>989</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>104</v>
@@ -6463,7 +6529,7 @@
         <v>1111</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>106</v>
@@ -6477,7 +6543,7 @@
         <v>990</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>108</v>
@@ -6491,7 +6557,7 @@
         <v>991</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>110</v>
@@ -6505,7 +6571,7 @@
         <v>992</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>112</v>
@@ -6519,7 +6585,7 @@
         <v>993</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>114</v>
@@ -6533,7 +6599,7 @@
         <v>1112</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>116</v>
@@ -6547,7 +6613,7 @@
         <v>1113</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>118</v>
@@ -6562,7 +6628,7 @@
         <v>994</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>120</v>
@@ -6576,7 +6642,7 @@
         <v>995</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>122</v>
@@ -6590,7 +6656,7 @@
         <v>996</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>124</v>
@@ -6604,7 +6670,7 @@
         <v>997</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>126</v>
@@ -6618,7 +6684,7 @@
         <v>1125</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>126</v>
@@ -6632,7 +6698,7 @@
         <v>998</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>129</v>
@@ -6646,7 +6712,7 @@
         <v>999</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>131</v>
@@ -6654,7 +6720,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="7" t="s">
-        <v>1618</v>
+        <v>1613</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="10"/>
@@ -6668,7 +6734,7 @@
         <v>1000</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>133</v>
@@ -6682,7 +6748,7 @@
         <v>1001</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>135</v>
@@ -6696,7 +6762,7 @@
         <v>1002</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>137</v>
@@ -6710,7 +6776,7 @@
         <v>1003</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>137</v>
@@ -6719,7 +6785,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="7" t="s">
-        <v>1619</v>
+        <v>1614</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="10"/>
@@ -6733,7 +6799,7 @@
         <v>1004</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>140</v>
@@ -6747,7 +6813,7 @@
         <v>1005</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>142</v>
@@ -6761,7 +6827,7 @@
         <v>1006</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>144</v>
@@ -6775,7 +6841,7 @@
         <v>1007</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>146</v>
@@ -6789,7 +6855,7 @@
         <v>1008</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>148</v>
@@ -6803,7 +6869,7 @@
         <v>1009</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>150</v>
@@ -6811,7 +6877,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="7" t="s">
-        <v>1620</v>
+        <v>1615</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="10"/>
@@ -6825,7 +6891,7 @@
         <v>1114</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>152</v>
@@ -6839,7 +6905,7 @@
         <v>1010</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>154</v>
@@ -6853,7 +6919,7 @@
         <v>1011</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>156</v>
@@ -6867,7 +6933,7 @@
         <v>1012</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>158</v>
@@ -6895,7 +6961,7 @@
         <v>1013</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>162</v>
@@ -6909,7 +6975,7 @@
         <v>1115</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>164</v>
@@ -6923,7 +6989,7 @@
         <v>1116</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>166</v>
@@ -6931,7 +6997,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="7" t="s">
-        <v>1621</v>
+        <v>1616</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="10"/>
@@ -6945,7 +7011,7 @@
         <v>1014</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>168</v>
@@ -6959,7 +7025,7 @@
         <v>1015</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>170</v>
@@ -6973,7 +7039,7 @@
         <v>1117</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>172</v>
@@ -6987,7 +7053,7 @@
         <v>1016</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>174</v>
@@ -7001,7 +7067,7 @@
         <v>1017</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>176</v>
@@ -7015,7 +7081,7 @@
         <v>1018</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>178</v>
@@ -7029,7 +7095,7 @@
         <v>1019</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>180</v>
@@ -7043,7 +7109,7 @@
         <v>1020</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>182</v>
@@ -7057,7 +7123,7 @@
         <v>1021</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>184</v>
@@ -7071,7 +7137,7 @@
         <v>1022</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>186</v>
@@ -7085,7 +7151,7 @@
         <v>1023</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>188</v>
@@ -7100,7 +7166,7 @@
         <v>1024</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>190</v>
@@ -7114,7 +7180,7 @@
         <v>1405</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>1214</v>
@@ -7128,7 +7194,7 @@
         <v>1404</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>1406</v>
@@ -7159,7 +7225,7 @@
         <v>1118</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>195</v>
@@ -7173,7 +7239,7 @@
         <v>1119</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>197</v>
@@ -7187,7 +7253,7 @@
         <v>1025</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>199</v>
@@ -7201,7 +7267,7 @@
         <v>1026</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>201</v>
@@ -7215,7 +7281,7 @@
         <v>1027</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>959</v>
@@ -7229,7 +7295,7 @@
         <v>1028</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>955</v>
@@ -7243,7 +7309,7 @@
         <v>1029</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>957</v>
@@ -7258,7 +7324,7 @@
         <v>1030</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>203</v>
@@ -7272,7 +7338,7 @@
         <v>1031</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>205</v>
@@ -7286,7 +7352,7 @@
         <v>1032</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>207</v>
@@ -7300,7 +7366,7 @@
         <v>1033</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>209</v>
@@ -7314,7 +7380,7 @@
         <v>1034</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>209</v>
@@ -7328,7 +7394,7 @@
         <v>1120</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>212</v>
@@ -7342,7 +7408,7 @@
         <v>1035</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>214</v>
@@ -7356,7 +7422,7 @@
         <v>1036</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>216</v>
@@ -7370,7 +7436,7 @@
         <v>1218</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>218</v>
@@ -7384,7 +7450,7 @@
         <v>1037</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>218</v>
@@ -7395,10 +7461,10 @@
         <v>219</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="D118" s="14" t="s">
         <v>220</v>
@@ -7412,7 +7478,7 @@
         <v>1121</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>222</v>
@@ -7426,7 +7492,7 @@
         <v>1122</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>224</v>
@@ -7440,7 +7506,7 @@
         <v>1123</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>226</v>
@@ -7454,7 +7520,7 @@
         <v>1124</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>228</v>
@@ -7468,7 +7534,7 @@
         <v>1038</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>230</v>
@@ -7482,7 +7548,7 @@
         <v>1355</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>1356</v>
@@ -7490,7 +7556,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="7" t="s">
-        <v>1622</v>
+        <v>1617</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="10"/>
@@ -7504,7 +7570,7 @@
         <v>1039</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>232</v>
@@ -7519,7 +7585,7 @@
         <v>1040</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>234</v>
@@ -7533,7 +7599,7 @@
         <v>1041</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>236</v>
@@ -7547,7 +7613,7 @@
         <v>1042</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>238</v>
@@ -7561,7 +7627,7 @@
         <v>1043</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>240</v>
@@ -7575,7 +7641,7 @@
         <v>1044</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>242</v>
@@ -7590,7 +7656,7 @@
         <v>1045</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>244</v>
@@ -7604,7 +7670,7 @@
         <v>1046</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>246</v>
@@ -7618,7 +7684,7 @@
         <v>1047</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>248</v>
@@ -7632,7 +7698,7 @@
         <v>1048</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>250</v>
@@ -7646,7 +7712,7 @@
         <v>1049</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D136" s="14" t="s">
         <v>252</v>
@@ -7660,7 +7726,7 @@
         <v>1050</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D137" s="14" t="s">
         <v>254</v>
@@ -7674,7 +7740,7 @@
         <v>1051</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>256</v>
@@ -7689,7 +7755,7 @@
         <v>1052</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>258</v>
@@ -7697,7 +7763,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="7" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="10"/>
@@ -7711,7 +7777,7 @@
         <v>1053</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>260</v>
@@ -7725,7 +7791,7 @@
         <v>1054</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>262</v>
@@ -7739,7 +7805,7 @@
         <v>1220</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>264</v>
@@ -7753,7 +7819,7 @@
         <v>1055</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>264</v>
@@ -7767,7 +7833,7 @@
         <v>1222</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>266</v>
@@ -7781,7 +7847,7 @@
         <v>1056</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>266</v>
@@ -7795,7 +7861,7 @@
         <v>1057</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>268</v>
@@ -7810,7 +7876,7 @@
         <v>1058</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>270</v>
@@ -7824,7 +7890,7 @@
         <v>1224</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>272</v>
@@ -7838,7 +7904,7 @@
         <v>1059</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>272</v>
@@ -7852,7 +7918,7 @@
         <v>1060</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>274</v>
@@ -7860,7 +7926,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="7" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="10"/>
@@ -7874,7 +7940,7 @@
         <v>1226</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>276</v>
@@ -7888,7 +7954,7 @@
         <v>1061</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>276</v>
@@ -7902,7 +7968,7 @@
         <v>1062</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>278</v>
@@ -7916,7 +7982,7 @@
         <v>1063</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>280</v>
@@ -7930,7 +7996,7 @@
         <v>1228</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>282</v>
@@ -7944,7 +8010,7 @@
         <v>1064</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>282</v>
@@ -7958,7 +8024,7 @@
         <v>1065</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>965</v>
@@ -7972,7 +8038,7 @@
         <v>1066</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>284</v>
@@ -7986,7 +8052,7 @@
         <v>1067</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>286</v>
@@ -8000,7 +8066,7 @@
         <v>1068</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>288</v>
@@ -8008,7 +8074,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="7" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="10"/>
@@ -8022,7 +8088,7 @@
         <v>1069</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>290</v>
@@ -8036,7 +8102,7 @@
         <v>1070</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>292</v>
@@ -8050,7 +8116,7 @@
         <v>1071</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>294</v>
@@ -8092,7 +8158,7 @@
         <v>1072</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>1552</v>
+        <v>1634</v>
       </c>
       <c r="D169" s="6" t="s">
         <v>302</v>
@@ -8106,7 +8172,7 @@
         <v>1073</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>304</v>
@@ -8120,7 +8186,7 @@
         <v>1074</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="D171" s="6" t="s">
         <v>306</v>
@@ -8134,7 +8200,7 @@
         <v>1075</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="D172" s="6" t="s">
         <v>308</v>
@@ -8162,7 +8228,7 @@
         <v>1076</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="D174" s="6" t="s">
         <v>313</v>
@@ -8176,7 +8242,7 @@
         <v>1077</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="D175" s="6" t="s">
         <v>315</v>
@@ -8190,7 +8256,7 @@
         <v>1078</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="D176" s="6" t="s">
         <v>317</v>
@@ -8204,7 +8270,7 @@
         <v>1079</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="D177" s="6" t="s">
         <v>319</v>
@@ -8218,7 +8284,7 @@
         <v>1080</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="D178" s="6" t="s">
         <v>321</v>
@@ -8232,7 +8298,7 @@
         <v>1081</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="D179" s="6" t="s">
         <v>323</v>
@@ -8246,7 +8312,7 @@
         <v>1082</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="D180" s="6" t="s">
         <v>325</v>
@@ -8260,7 +8326,7 @@
         <v>1083</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="D181" s="6" t="s">
         <v>327</v>
@@ -8274,7 +8340,7 @@
         <v>1084</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>329</v>
@@ -8302,7 +8368,7 @@
         <v>1085</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="D184" s="6" t="s">
         <v>970</v>
@@ -8316,7 +8382,7 @@
         <v>1086</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="D185" s="6" t="s">
         <v>970</v>
@@ -8331,7 +8397,7 @@
         <v>1087</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>970</v>
@@ -8345,7 +8411,7 @@
         <v>1088</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="D187" s="6" t="s">
         <v>970</v>
@@ -8353,7 +8419,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="7" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="10"/>
@@ -8367,7 +8433,7 @@
         <v>1089</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>334</v>
@@ -8381,7 +8447,7 @@
         <v>1090</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>336</v>
@@ -8392,10 +8458,10 @@
         <v>337</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>1612</v>
+        <v>1607</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>1610</v>
+        <v>1635</v>
       </c>
       <c r="D191" s="6" t="s">
         <v>338</v>
@@ -8406,10 +8472,10 @@
         <v>339</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>1611</v>
+        <v>1636</v>
       </c>
       <c r="D192" s="6" t="s">
         <v>340</v>
@@ -8479,7 +8545,7 @@
         <v>1230</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="D197" s="6" t="s">
         <v>348</v>
@@ -8493,7 +8559,7 @@
         <v>1091</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="D198" s="6" t="s">
         <v>348</v>
@@ -8507,7 +8573,7 @@
         <v>1232</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="D199" s="6"/>
     </row>
@@ -8519,14 +8585,14 @@
         <v>1092</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="D200" s="6"/>
       <c r="F200" s="28"/>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="7" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="10"/>
@@ -8540,7 +8606,7 @@
         <v>1234</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>350</v>
@@ -8554,7 +8620,7 @@
         <v>1093</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="D203" s="6" t="s">
         <v>350</v>
@@ -8568,7 +8634,7 @@
         <v>1236</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>350</v>
@@ -8582,7 +8648,7 @@
         <v>1094</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D205" s="6" t="s">
         <v>350</v>
@@ -8596,7 +8662,7 @@
         <v>1238</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>350</v>
@@ -8610,7 +8676,7 @@
         <v>1095</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="D207" s="6" t="s">
         <v>350</v>
@@ -8624,7 +8690,7 @@
         <v>1240</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="D208" s="6" t="s">
         <v>350</v>
@@ -8638,7 +8704,7 @@
         <v>1096</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="D209" s="6" t="s">
         <v>350</v>
@@ -8652,7 +8718,7 @@
         <v>1097</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D210" s="6"/>
     </row>
@@ -8664,7 +8730,7 @@
         <v>1098</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D211" s="6" t="s">
         <v>350</v>
@@ -8678,14 +8744,14 @@
         <v>1099</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="D212" s="6"/>
       <c r="F212" s="28"/>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="7" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="10"/>
@@ -8699,7 +8765,7 @@
         <v>1100</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>358</v>
@@ -8713,7 +8779,7 @@
         <v>1101</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D215" s="6" t="s">
         <v>360</v>
@@ -8727,7 +8793,7 @@
         <v>1242</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="D216" s="6" t="s">
         <v>364</v>
@@ -8741,7 +8807,7 @@
         <v>1244</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="D217" s="6" t="s">
         <v>366</v>
@@ -8755,7 +8821,7 @@
         <v>1246</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="D218" s="6" t="s">
         <v>368</v>
@@ -8769,7 +8835,7 @@
         <v>1248</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D219" s="6" t="s">
         <v>370</v>
@@ -8783,7 +8849,7 @@
         <v>1250</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="D220" s="6" t="s">
         <v>372</v>
@@ -8797,7 +8863,7 @@
         <v>1102</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="D221" s="6" t="s">
         <v>362</v>
@@ -8811,7 +8877,7 @@
         <v>1103</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="D222" s="6" t="s">
         <v>364</v>
@@ -8825,7 +8891,7 @@
         <v>1104</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="D223" s="6" t="s">
         <v>366</v>
@@ -8840,7 +8906,7 @@
         <v>1105</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="D224" s="6" t="s">
         <v>368</v>
@@ -8854,7 +8920,7 @@
         <v>1106</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="D225" s="6" t="s">
         <v>370</v>
@@ -8868,7 +8934,7 @@
         <v>1107</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D226" s="6" t="s">
         <v>372</v>
@@ -8882,7 +8948,7 @@
         <v>1108</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="D227" s="6" t="s">
         <v>374</v>
@@ -8890,7 +8956,7 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="7" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="B228" s="1"/>
       <c r="C228" s="10"/>
@@ -8914,7 +8980,7 @@
         <v>1109</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="D230" s="6" t="s">
         <v>378</v>
@@ -8922,7 +8988,7 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="7" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="B231" s="1"/>
       <c r="C231" s="10"/>
@@ -8950,7 +9016,7 @@
         <v>1110</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>1601</v>
+        <v>1637</v>
       </c>
       <c r="D233" s="6" t="s">
         <v>382</v>
@@ -8958,7 +9024,7 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="7" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="B234" s="1"/>
       <c r="C234" s="10"/>
@@ -8972,7 +9038,7 @@
         <v>1351</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="D235" s="6" t="s">
         <v>1353</v>
@@ -8989,7 +9055,7 @@
         <v>1352</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="D236" s="6" t="s">
         <v>1353</v>
@@ -9006,7 +9072,7 @@
         <v>1361</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="D237" s="14" t="s">
         <v>1362</v>
@@ -9015,7 +9081,7 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="7" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="B238" s="1"/>
       <c r="C238" s="10"/>
@@ -9029,7 +9095,7 @@
         <v>1254</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>1254</v>
+        <v>1638</v>
       </c>
       <c r="D239" s="6" t="s">
         <v>1251</v>
@@ -9043,7 +9109,7 @@
         <v>1256</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>1256</v>
+        <v>1639</v>
       </c>
       <c r="D240" s="6" t="s">
         <v>1251</v>
@@ -9057,7 +9123,7 @@
         <v>1258</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>1258</v>
+        <v>1640</v>
       </c>
       <c r="D241" s="6" t="s">
         <v>1251</v>
@@ -9071,7 +9137,7 @@
         <v>1381</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="D242" s="6" t="s">
         <v>1252</v>
@@ -9088,7 +9154,7 @@
         <v>1260</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>1260</v>
+        <v>1641</v>
       </c>
       <c r="D243" s="6" t="s">
         <v>1251</v>
@@ -9102,7 +9168,7 @@
         <v>1262</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>1262</v>
+        <v>1642</v>
       </c>
       <c r="D244" s="6" t="s">
         <v>1251</v>
@@ -9116,7 +9182,7 @@
         <v>1264</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>1264</v>
+        <v>1643</v>
       </c>
       <c r="D245" s="6" t="s">
         <v>1251</v>
@@ -9130,7 +9196,7 @@
         <v>1266</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>1266</v>
+        <v>1644</v>
       </c>
       <c r="D246" s="6" t="s">
         <v>1251</v>
@@ -9144,7 +9210,7 @@
         <v>1268</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>1268</v>
+        <v>1645</v>
       </c>
       <c r="D247" s="6" t="s">
         <v>1251</v>
@@ -9158,7 +9224,7 @@
         <v>1270</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>1270</v>
+        <v>1646</v>
       </c>
       <c r="D248" s="6" t="s">
         <v>1251</v>
@@ -9282,7 +9348,7 @@
         <v>1392</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="D256" s="27" t="s">
         <v>1251</v>
@@ -9299,7 +9365,7 @@
         <v>1278</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>1278</v>
+        <v>1647</v>
       </c>
       <c r="D257" s="6" t="s">
         <v>1251</v>
@@ -9314,7 +9380,7 @@
         <v>1280</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>1280</v>
+        <v>1648</v>
       </c>
       <c r="D258" s="6" t="s">
         <v>1251</v>
@@ -9328,7 +9394,7 @@
         <v>1394</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="D259" s="27" t="s">
         <v>1251</v>
@@ -9345,7 +9411,7 @@
         <v>1282</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>1282</v>
+        <v>1649</v>
       </c>
       <c r="D260" s="6" t="s">
         <v>1251</v>
@@ -9359,7 +9425,7 @@
         <v>1284</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>1284</v>
+        <v>1650</v>
       </c>
       <c r="D261" s="6" t="s">
         <v>1251</v>
@@ -9387,7 +9453,7 @@
         <v>1288</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>1288</v>
+        <v>1651</v>
       </c>
       <c r="D263" s="6" t="s">
         <v>1251</v>
@@ -9415,7 +9481,7 @@
         <v>1291</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>1291</v>
+        <v>1652</v>
       </c>
       <c r="D265" s="6" t="s">
         <v>1251</v>
@@ -9429,7 +9495,7 @@
         <v>1293</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>1293</v>
+        <v>1653</v>
       </c>
       <c r="D266" s="6" t="s">
         <v>1251</v>
@@ -9443,7 +9509,7 @@
         <v>1295</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>1295</v>
+        <v>1654</v>
       </c>
       <c r="D267" s="6" t="s">
         <v>1251</v>
@@ -9457,7 +9523,7 @@
         <v>1297</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>1297</v>
+        <v>1655</v>
       </c>
       <c r="D268" s="6" t="s">
         <v>1251</v>
@@ -9471,7 +9537,7 @@
         <v>1299</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>1299</v>
+        <v>1656</v>
       </c>
       <c r="D269" s="6" t="s">
         <v>1251</v>
@@ -9485,7 +9551,7 @@
         <v>1301</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>1301</v>
+        <v>1657</v>
       </c>
       <c r="D270" s="6" t="s">
         <v>1251</v>
@@ -9534,8 +9600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9BD1D8-D860-9845-B2DE-1D2AC2DDC7F1}">
   <dimension ref="A1:E729"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
       <selection pane="bottomRight"/>
@@ -9565,7 +9631,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="10"/>
@@ -17497,7 +17563,7 @@
     </row>
     <row r="710" spans="1:4">
       <c r="A710" s="19" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="21"/>

--- a/data/KSP_Completion.xlsx
+++ b/data/KSP_Completion.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C2EEF9-1ADD-43E9-B10F-EE49D952DC15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B3E9A6-D047-FB4F-A26C-5BA7FF902C67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="1635" windowWidth="22575" windowHeight="13740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="2420" windowWidth="22580" windowHeight="13740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Command" sheetId="6" r:id="rId1"/>
     <sheet name="Variable" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Command!$A$1:$E$292</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variable!$A$1:$E$853</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Command!$A$1:$E$294</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variable!$A$1:$E$867</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="1848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="1869">
   <si>
     <t>description</t>
     <phoneticPr fontId="3"/>
@@ -5951,12 +5951,82 @@
     <t>Since 6.3.0</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>detect_instrument_type</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>detect_instrument_type( ${1:zone-id}, ${2:instrument-type-result} )</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>detect_instrument_type( zone-id, instrument-type-result )</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Assigns &lt;drum-type-result&gt; a $NI_DETECT_INSTRUMENT_TYPE tag describing the in- strument type of an audio sample.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>get_control_par_str_arr</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>get_control_par_str_arr( ${1:arg1}, ${2:arg2}, ${3:arg3} )</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>get_control_par_str( arg1}, arg2, arg3 )</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$NI_DETECT_INSTRUMENT_TYPE</t>
+  </si>
+  <si>
+    <t>$NI_DETECT_INSTRUMENT_TYPE_BASS</t>
+  </si>
+  <si>
+    <t>$NI_DETECT_INSTRUMENT_TYPE_BOWED_STRING</t>
+  </si>
+  <si>
+    <t>$NI_DETECT_INSTRUMENT_TYPE_BRASS</t>
+  </si>
+  <si>
+    <t>$NI_DETECT_INSTRUMENT_TYPE_FLUTE</t>
+  </si>
+  <si>
+    <t>$NI_DETECT_INSTRUMENT_TYPE_GUITAR</t>
+  </si>
+  <si>
+    <t>$NI_DETECT_INSTRUMENT_TYPE_INVALID</t>
+  </si>
+  <si>
+    <t>$NI_DETECT_INSTRUMENT_TYPE_KEYBOARD</t>
+  </si>
+  <si>
+    <t>$NI_DETECT_INSTRUMENT_TYPE_MALLET</t>
+  </si>
+  <si>
+    <t>$NI_DETECT_INSTRUMENT_TYPE_ORGAN</t>
+  </si>
+  <si>
+    <t>$NI_DETECT_INSTRUMENT_TYPE_PLUCKED_STRING</t>
+  </si>
+  <si>
+    <t>$NI_DETECT_INSTRUMENT_TYPE_REED</t>
+  </si>
+  <si>
+    <t>$NI_DETECT_INSTRUMENT_TYPE_SYNTH</t>
+  </si>
+  <si>
+    <t>$NI_DETECT_INSTRUMENT_TYPE_VOCAL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6002,6 +6072,20 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -6120,7 +6204,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6242,6 +6326,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6526,22 +6624,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EF9006-51C1-8B4B-B9A3-BB18B251309C}">
-  <dimension ref="A1:F292"/>
+  <dimension ref="A1:F294"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B157" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="A174" sqref="A174:A179"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="19.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="82.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="207.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="18"/>
+    <col min="1" max="1" width="33.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="82.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="207.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7668,7 +7766,7 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="42" t="s">
         <v>1686</v>
       </c>
       <c r="B84" s="3" t="s">
@@ -8159,7 +8257,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="39">
+    <row r="119" spans="1:6" ht="42">
       <c r="A119" s="6" t="s">
         <v>219</v>
       </c>
@@ -8407,7 +8505,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="58.5">
+    <row r="137" spans="1:6" ht="63">
       <c r="A137" s="6" t="s">
         <v>251</v>
       </c>
@@ -8421,7 +8519,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="97.5">
+    <row r="138" spans="1:6" ht="105">
       <c r="A138" s="6" t="s">
         <v>253</v>
       </c>
@@ -8639,7 +8737,7 @@
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="22" t="s">
+      <c r="A154" s="42" t="s">
         <v>1653</v>
       </c>
       <c r="B154" s="12" t="s">
@@ -8656,7 +8754,7 @@
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="22" t="s">
+      <c r="A155" s="42" t="s">
         <v>1656</v>
       </c>
       <c r="B155" s="12" t="s">
@@ -8673,7 +8771,7 @@
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="22" t="s">
+      <c r="A156" s="42" t="s">
         <v>1658</v>
       </c>
       <c r="B156" s="3" t="s">
@@ -8690,7 +8788,7 @@
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="22" t="s">
+      <c r="A157" s="42" t="s">
         <v>1663</v>
       </c>
       <c r="B157" s="3" t="s">
@@ -8707,7 +8805,7 @@
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="22" t="s">
+      <c r="A158" s="42" t="s">
         <v>1666</v>
       </c>
       <c r="B158" s="3" t="s">
@@ -8724,7 +8822,7 @@
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="22" t="s">
+      <c r="A159" s="42" t="s">
         <v>1674</v>
       </c>
       <c r="B159" s="3" t="s">
@@ -8741,7 +8839,7 @@
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="22" t="s">
+      <c r="A160" s="42" t="s">
         <v>1678</v>
       </c>
       <c r="B160" s="3" t="s">
@@ -8757,8 +8855,8 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="22" t="s">
+    <row r="161" spans="1:6">
+      <c r="A161" s="42" t="s">
         <v>1682</v>
       </c>
       <c r="B161" s="3" t="s">
@@ -8774,7 +8872,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:6">
       <c r="A162" s="7" t="s">
         <v>1613</v>
       </c>
@@ -8782,7 +8880,7 @@
       <c r="C162" s="10"/>
       <c r="D162" s="7"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:6">
       <c r="A163" s="6" t="s">
         <v>1225</v>
       </c>
@@ -8796,7 +8894,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:6">
       <c r="A164" s="6" t="s">
         <v>275</v>
       </c>
@@ -8810,7 +8908,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:6">
       <c r="A165" s="6" t="s">
         <v>277</v>
       </c>
@@ -8824,7 +8922,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:6">
       <c r="A166" s="6" t="s">
         <v>279</v>
       </c>
@@ -8838,7 +8936,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:6">
       <c r="A167" s="6" t="s">
         <v>1227</v>
       </c>
@@ -8852,7 +8950,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:6">
       <c r="A168" s="6" t="s">
         <v>281</v>
       </c>
@@ -8866,7 +8964,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:6">
       <c r="A169" s="6" t="s">
         <v>964</v>
       </c>
@@ -8880,7 +8978,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:6">
       <c r="A170" s="6" t="s">
         <v>283</v>
       </c>
@@ -8894,7 +8992,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:6">
       <c r="A171" s="6" t="s">
         <v>285</v>
       </c>
@@ -8908,7 +9006,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:6">
       <c r="A172" s="6" t="s">
         <v>287</v>
       </c>
@@ -8922,7 +9020,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:6">
       <c r="A173" s="7" t="s">
         <v>1739</v>
       </c>
@@ -8930,596 +9028,600 @@
       <c r="C173" s="10"/>
       <c r="D173" s="7"/>
     </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="22" t="s">
+    <row r="174" spans="1:6" s="45" customFormat="1">
+      <c r="A174" s="50" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B174" s="48" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C174" s="49" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D174" s="47" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1847</v>
+      </c>
+      <c r="F174" s="46"/>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="42" t="s">
         <v>1740</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B175" s="3" t="s">
         <v>1743</v>
       </c>
-      <c r="C174" s="12" t="s">
+      <c r="C175" s="12" t="s">
         <v>1742</v>
       </c>
-      <c r="D174" s="6" t="s">
+      <c r="D175" s="6" t="s">
         <v>1741</v>
-      </c>
-      <c r="E174" t="s">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="22" t="s">
-        <v>1744</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>1746</v>
-      </c>
-      <c r="C175" s="12" t="s">
-        <v>1747</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>1745</v>
       </c>
       <c r="E175" t="s">
         <v>1654</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="22" t="s">
-        <v>1748</v>
+    <row r="176" spans="1:6">
+      <c r="A176" s="42" t="s">
+        <v>1744</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="E176" t="s">
         <v>1654</v>
       </c>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="22" t="s">
-        <v>1752</v>
+      <c r="A177" s="42" t="s">
+        <v>1748</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="E177" t="s">
         <v>1654</v>
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="22" t="s">
-        <v>1756</v>
+      <c r="A178" s="42" t="s">
+        <v>1752</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="E178" t="s">
         <v>1654</v>
       </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="22" t="s">
-        <v>1760</v>
+      <c r="A179" s="42" t="s">
+        <v>1756</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>1763</v>
-      </c>
-      <c r="D179" s="12" t="s">
-        <v>1761</v>
+        <v>1759</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>1757</v>
       </c>
       <c r="E179" t="s">
         <v>1654</v>
       </c>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="7" t="s">
+      <c r="A180" s="42" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D180" s="12" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="7" t="s">
         <v>1614</v>
       </c>
-      <c r="B180" s="1"/>
-      <c r="C180" s="10"/>
-      <c r="D180" s="7"/>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C181" s="12" t="s">
-        <v>1542</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>290</v>
-      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="10"/>
+      <c r="D181" s="7"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>296</v>
+        <v>1071</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>296</v>
+        <v>1544</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>1072</v>
+        <v>299</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>1628</v>
+        <v>299</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>1545</v>
+        <v>1628</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>310</v>
+        <v>1075</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>310</v>
+        <v>1547</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>1076</v>
+        <v>310</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>1548</v>
+        <v>310</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>331</v>
+        <v>1084</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>331</v>
+        <v>1556</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C201" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B202" s="3" t="s">
         <v>1085</v>
       </c>
-      <c r="C201" s="12" t="s">
+      <c r="C202" s="12" t="s">
         <v>1557</v>
-      </c>
-      <c r="D201" s="6" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" s="15" customFormat="1">
-      <c r="A202" s="6" t="s">
-        <v>967</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C202" s="12" t="s">
-        <v>1558</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>970</v>
       </c>
-      <c r="F202" s="20"/>
-    </row>
-    <row r="203" spans="1:6">
+    </row>
+    <row r="203" spans="1:6" s="15" customFormat="1">
       <c r="A203" s="6" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D203" s="6" t="s">
         <v>970</v>
       </c>
+      <c r="F203" s="20"/>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="6" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="7" t="s">
+      <c r="A205" s="6" t="s">
+        <v>969</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C205" s="12" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="7" t="s">
         <v>1615</v>
       </c>
-      <c r="B205" s="1"/>
-      <c r="C205" s="10"/>
-      <c r="D205" s="7"/>
-    </row>
-    <row r="206" spans="1:6">
-      <c r="A206" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C206" s="12" t="s">
-        <v>1561</v>
-      </c>
-      <c r="D206" s="6" t="s">
-        <v>334</v>
-      </c>
+      <c r="B206" s="1"/>
+      <c r="C206" s="10"/>
+      <c r="D206" s="7"/>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C208" s="12" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="21">
+      <c r="A209" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B209" s="2" t="s">
         <v>1601</v>
       </c>
-      <c r="C208" s="11" t="s">
+      <c r="C209" s="11" t="s">
         <v>1629</v>
       </c>
-      <c r="D208" s="6" t="s">
+      <c r="D209" s="6" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
-      <c r="A209" s="6" t="s">
+    <row r="210" spans="1:6" ht="21">
+      <c r="A210" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B210" s="2" t="s">
         <v>1602</v>
       </c>
-      <c r="C209" s="11" t="s">
+      <c r="C210" s="11" t="s">
         <v>1630</v>
       </c>
-      <c r="D209" s="6" t="s">
+      <c r="D210" s="6" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
-      <c r="A210" s="6" t="s">
+    <row r="211" spans="1:6" ht="21">
+      <c r="A211" s="6" t="s">
         <v>946</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B211" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="C210" s="11" t="s">
+      <c r="C211" s="11" t="s">
         <v>946</v>
       </c>
-      <c r="D210" s="6" t="s">
+      <c r="D211" s="6" t="s">
         <v>947</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C211" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="D211" s="6" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="6" t="s">
-        <v>1229</v>
+        <v>345</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>1230</v>
+        <v>345</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>1563</v>
+        <v>345</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="6" t="s">
-        <v>347</v>
+        <v>1229</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>1091</v>
+        <v>1230</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="D215" s="6" t="s">
         <v>348</v>
@@ -9527,60 +9629,60 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C216" s="12" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="6" t="s">
         <v>1231</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B217" s="3" t="s">
         <v>1232</v>
       </c>
-      <c r="C216" s="12" t="s">
+      <c r="C217" s="12" t="s">
         <v>1565</v>
       </c>
-      <c r="D216" s="6"/>
-    </row>
-    <row r="217" spans="1:6" s="15" customFormat="1">
-      <c r="A217" s="6" t="s">
+      <c r="D217" s="6"/>
+    </row>
+    <row r="218" spans="1:6" s="15" customFormat="1">
+      <c r="A218" s="6" t="s">
         <v>943</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B218" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C217" s="12" t="s">
+      <c r="C218" s="12" t="s">
         <v>1566</v>
       </c>
-      <c r="D217" s="6"/>
-      <c r="F217" s="20"/>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="7" t="s">
+      <c r="D218" s="6"/>
+      <c r="F218" s="20"/>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="7" t="s">
         <v>1616</v>
       </c>
-      <c r="B218" s="1"/>
-      <c r="C218" s="10"/>
-      <c r="D218" s="7"/>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="6" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>1234</v>
-      </c>
-      <c r="C219" s="12" t="s">
-        <v>1567</v>
-      </c>
-      <c r="D219" s="6" t="s">
-        <v>350</v>
-      </c>
+      <c r="B219" s="1"/>
+      <c r="C219" s="10"/>
+      <c r="D219" s="7"/>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="6" t="s">
-        <v>349</v>
+        <v>1233</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>1093</v>
+        <v>1234</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D220" s="6" t="s">
         <v>350</v>
@@ -9588,13 +9690,13 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="6" t="s">
-        <v>1235</v>
+        <v>349</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>1236</v>
+        <v>1093</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D221" s="6" t="s">
         <v>350</v>
@@ -9602,13 +9704,13 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="6" t="s">
-        <v>351</v>
+        <v>1235</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>1094</v>
+        <v>1236</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="D222" s="6" t="s">
         <v>350</v>
@@ -9616,13 +9718,13 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="6" t="s">
-        <v>1237</v>
+        <v>351</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>1238</v>
+        <v>1094</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D223" s="6" t="s">
         <v>350</v>
@@ -9630,13 +9732,13 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="6" t="s">
-        <v>352</v>
+        <v>1237</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>1095</v>
+        <v>1238</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="D224" s="6" t="s">
         <v>350</v>
@@ -9644,13 +9746,13 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="6" t="s">
-        <v>1239</v>
+        <v>352</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>1240</v>
+        <v>1095</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="D225" s="6" t="s">
         <v>350</v>
@@ -9658,13 +9760,13 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="6" t="s">
-        <v>353</v>
+        <v>1239</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>1096</v>
+        <v>1240</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="D226" s="6" t="s">
         <v>350</v>
@@ -9672,350 +9774,347 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>1575</v>
-      </c>
-      <c r="D227" s="6"/>
+        <v>1574</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C228" s="12" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D228" s="6"/>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B229" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="C228" s="12" t="s">
+      <c r="C229" s="12" t="s">
         <v>1576</v>
       </c>
-      <c r="D228" s="6" t="s">
+      <c r="D229" s="6" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="229" spans="1:6" s="15" customFormat="1">
-      <c r="A229" s="6" t="s">
+    <row r="230" spans="1:6" s="15" customFormat="1">
+      <c r="A230" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B230" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="C229" s="12" t="s">
+      <c r="C230" s="12" t="s">
         <v>1577</v>
       </c>
-      <c r="D229" s="6"/>
-      <c r="F229" s="20"/>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230" s="7" t="s">
+      <c r="D230" s="6"/>
+      <c r="F230" s="20"/>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="7" t="s">
         <v>1617</v>
       </c>
-      <c r="B230" s="1"/>
-      <c r="C230" s="10"/>
-      <c r="D230" s="7"/>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C231" s="12" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D231" s="6" t="s">
-        <v>358</v>
-      </c>
+      <c r="B231" s="1"/>
+      <c r="C231" s="10"/>
+      <c r="D231" s="7"/>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="6" t="s">
-        <v>1241</v>
+        <v>359</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>1242</v>
+        <v>1101</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="6" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="6" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="6" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="6" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="6" t="s">
-        <v>361</v>
+        <v>1249</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>1102</v>
+        <v>1250</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C239" s="12" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="B239" s="3" t="s">
+      <c r="B240" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="C239" s="12" t="s">
+      <c r="C240" s="12" t="s">
         <v>1586</v>
       </c>
-      <c r="D239" s="6" t="s">
+      <c r="D240" s="6" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="240" spans="1:6" s="15" customFormat="1">
-      <c r="A240" s="6" t="s">
+    <row r="241" spans="1:6" s="15" customFormat="1">
+      <c r="A241" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B241" s="3" t="s">
         <v>1104</v>
       </c>
-      <c r="C240" s="12" t="s">
+      <c r="C241" s="12" t="s">
         <v>1587</v>
       </c>
-      <c r="D240" s="6" t="s">
+      <c r="D241" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="F240" s="20"/>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="A241" s="6" t="s">
+      <c r="F241" s="20"/>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="B242" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="C241" s="12" t="s">
+      <c r="C242" s="12" t="s">
         <v>1588</v>
       </c>
-      <c r="D241" s="6" t="s">
+      <c r="D242" s="6" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
-      <c r="A242" s="6" t="s">
+    <row r="243" spans="1:6">
+      <c r="A243" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B243" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="C242" s="12" t="s">
+      <c r="C243" s="12" t="s">
         <v>1589</v>
       </c>
-      <c r="D242" s="6" t="s">
+      <c r="D243" s="6" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
-      <c r="A243" s="6" t="s">
+    <row r="244" spans="1:6">
+      <c r="A244" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="B244" s="3" t="s">
         <v>1107</v>
       </c>
-      <c r="C243" s="12" t="s">
+      <c r="C244" s="12" t="s">
         <v>1590</v>
       </c>
-      <c r="D243" s="6" t="s">
+      <c r="D244" s="6" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
-      <c r="A244" s="6" t="s">
+    <row r="245" spans="1:6">
+      <c r="A245" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="B245" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="C244" s="12" t="s">
+      <c r="C245" s="12" t="s">
         <v>1591</v>
       </c>
-      <c r="D244" s="6" t="s">
+      <c r="D245" s="6" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
-      <c r="A245" s="7" t="s">
+    <row r="246" spans="1:6">
+      <c r="A246" s="7" t="s">
         <v>1618</v>
       </c>
-      <c r="B245" s="1"/>
-      <c r="C245" s="10"/>
-      <c r="D245" s="7"/>
-    </row>
-    <row r="246" spans="1:5">
-      <c r="A246" s="6" t="s">
+      <c r="B246" s="1"/>
+      <c r="C246" s="10"/>
+      <c r="D246" s="7"/>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="B246" s="2"/>
-      <c r="C246" s="11"/>
-      <c r="D246" s="6" t="s">
+      <c r="B247" s="2"/>
+      <c r="C247" s="11"/>
+      <c r="D247" s="6" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
-      <c r="A247" s="6" t="s">
+    <row r="248" spans="1:6">
+      <c r="A248" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="B248" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="C247" s="12" t="s">
+      <c r="C248" s="12" t="s">
         <v>1592</v>
       </c>
-      <c r="D247" s="6" t="s">
+      <c r="D248" s="6" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
-      <c r="A248" s="7" t="s">
+    <row r="249" spans="1:6">
+      <c r="A249" s="7" t="s">
         <v>1619</v>
       </c>
-      <c r="B248" s="1"/>
-      <c r="C248" s="10"/>
-      <c r="D248" s="7"/>
-    </row>
-    <row r="249" spans="1:5">
-      <c r="A249" s="6" t="s">
+      <c r="B249" s="1"/>
+      <c r="C249" s="10"/>
+      <c r="D249" s="7"/>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="B250" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C249" s="12" t="s">
+      <c r="C250" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="D249" s="6" t="s">
+      <c r="D250" s="6" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
-      <c r="A250" s="6" t="s">
+    <row r="251" spans="1:6">
+      <c r="A251" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B251" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="C250" s="12" t="s">
+      <c r="C251" s="12" t="s">
         <v>1631</v>
       </c>
-      <c r="D250" s="6" t="s">
+      <c r="D251" s="6" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
-      <c r="A251" s="7" t="s">
+    <row r="252" spans="1:6">
+      <c r="A252" s="7" t="s">
         <v>1620</v>
       </c>
-      <c r="B251" s="1"/>
-      <c r="C251" s="10"/>
-      <c r="D251" s="7"/>
-    </row>
-    <row r="252" spans="1:5">
-      <c r="A252" s="6" t="s">
+      <c r="B252" s="1"/>
+      <c r="C252" s="10"/>
+      <c r="D252" s="7"/>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="6" t="s">
         <v>1348</v>
       </c>
-      <c r="B252" s="6" t="s">
+      <c r="B253" s="6" t="s">
         <v>1350</v>
       </c>
-      <c r="C252" s="12" t="s">
+      <c r="C253" s="12" t="s">
         <v>1593</v>
-      </c>
-      <c r="D252" s="6" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E252" s="17" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
-      <c r="A253" s="6" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B253" s="6" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C253" s="12" t="s">
-        <v>1594</v>
       </c>
       <c r="D253" s="6" t="s">
         <v>1352</v>
@@ -10024,52 +10123,55 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="58.5">
+    <row r="254" spans="1:6">
       <c r="A254" s="6" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C254" s="12" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E254" s="17" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="63">
+      <c r="A255" s="6" t="s">
         <v>1356</v>
       </c>
-      <c r="B254" s="6" t="s">
+      <c r="B255" s="6" t="s">
         <v>1360</v>
       </c>
-      <c r="C254" s="12" t="s">
+      <c r="C255" s="12" t="s">
         <v>1595</v>
       </c>
-      <c r="D254" s="14" t="s">
+      <c r="D255" s="14" t="s">
         <v>1361</v>
       </c>
-      <c r="E254" s="16"/>
-    </row>
-    <row r="255" spans="1:5">
-      <c r="A255" s="7" t="s">
+      <c r="E255" s="16"/>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="7" t="s">
         <v>1621</v>
       </c>
-      <c r="B255" s="1"/>
-      <c r="C255" s="10"/>
-      <c r="D255" s="7"/>
-    </row>
-    <row r="256" spans="1:5">
-      <c r="A256" s="6" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C256" s="12" t="s">
-        <v>1632</v>
-      </c>
-      <c r="D256" s="6" t="s">
-        <v>1251</v>
-      </c>
+      <c r="B256" s="1"/>
+      <c r="C256" s="10"/>
+      <c r="D256" s="7"/>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="6" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D257" s="6" t="s">
         <v>1251</v>
@@ -10077,13 +10179,13 @@
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="6" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="D258" s="6" t="s">
         <v>1251</v>
@@ -10091,44 +10193,44 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="6" t="s">
-        <v>1378</v>
+        <v>1257</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1379</v>
+        <v>1258</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>1596</v>
+        <v>1634</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>1252</v>
-      </c>
-      <c r="E259" s="17" t="s">
-        <v>1327</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="6" t="s">
-        <v>1259</v>
+        <v>1378</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>1260</v>
+        <v>1379</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>1635</v>
+        <v>1596</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>1251</v>
+        <v>1252</v>
+      </c>
+      <c r="E260" s="17" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="6" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D261" s="6" t="s">
         <v>1251</v>
@@ -10136,41 +10238,44 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="6" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D262" s="6" t="s">
         <v>1251</v>
       </c>
     </row>
     <row r="263" spans="1:5">
-      <c r="A263" s="6" t="s">
-        <v>1265</v>
+      <c r="A263" s="22" t="s">
+        <v>1852</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>1266</v>
+        <v>1853</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>1638</v>
+        <v>1854</v>
       </c>
       <c r="D263" s="6" t="s">
         <v>1251</v>
       </c>
+      <c r="E263" s="17" t="s">
+        <v>1847</v>
+      </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="6" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="D264" s="6" t="s">
         <v>1251</v>
@@ -10178,13 +10283,13 @@
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="6" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="D265" s="6" t="s">
         <v>1251</v>
@@ -10192,47 +10297,41 @@
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="6" t="s">
-        <v>1380</v>
+        <v>1267</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>1384</v>
+        <v>1268</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>1384</v>
+        <v>1639</v>
       </c>
       <c r="D266" s="6" t="s">
         <v>1251</v>
       </c>
-      <c r="E266" s="17" t="s">
-        <v>1388</v>
-      </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="6" t="s">
-        <v>1381</v>
+        <v>1269</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>1385</v>
+        <v>1270</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>1385</v>
+        <v>1640</v>
       </c>
       <c r="D267" s="6" t="s">
         <v>1251</v>
       </c>
-      <c r="E267" s="17" t="s">
-        <v>1388</v>
-      </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="6" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="D268" s="6" t="s">
         <v>1251</v>
@@ -10243,13 +10342,13 @@
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="6" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="D269" s="6" t="s">
         <v>1251</v>
@@ -10260,41 +10359,47 @@
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="6" t="s">
-        <v>1271</v>
+        <v>1382</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>1272</v>
+        <v>1386</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>1272</v>
+        <v>1386</v>
       </c>
       <c r="D270" s="6" t="s">
         <v>1251</v>
       </c>
+      <c r="E270" s="17" t="s">
+        <v>1388</v>
+      </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="6" t="s">
-        <v>1273</v>
+        <v>1383</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>1274</v>
+        <v>1387</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>1274</v>
+        <v>1387</v>
       </c>
       <c r="D271" s="6" t="s">
         <v>1251</v>
       </c>
+      <c r="E271" s="17" t="s">
+        <v>1388</v>
+      </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="6" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="C272" s="12" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="D272" s="6" t="s">
         <v>1251</v>
@@ -10302,76 +10407,73 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="6" t="s">
-        <v>1389</v>
+        <v>1273</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>1390</v>
+        <v>1274</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D273" s="19" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D273" s="6" t="s">
         <v>1251</v>
       </c>
-      <c r="E273" s="16" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" s="15" customFormat="1">
+    </row>
+    <row r="274" spans="1:6">
       <c r="A274" s="6" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>1641</v>
+        <v>1276</v>
       </c>
       <c r="D274" s="6" t="s">
         <v>1251</v>
       </c>
-      <c r="F274" s="20"/>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="6" t="s">
-        <v>1279</v>
+        <v>1389</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>1280</v>
+        <v>1390</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>1642</v>
-      </c>
-      <c r="D275" s="6" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D275" s="19" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="276" spans="1:6">
+      <c r="E275" s="16" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" s="15" customFormat="1">
       <c r="A276" s="6" t="s">
-        <v>1391</v>
+        <v>1277</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>1392</v>
+        <v>1278</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>1598</v>
-      </c>
-      <c r="D276" s="19" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D276" s="6" t="s">
         <v>1251</v>
       </c>
-      <c r="E276" s="16" t="s">
-        <v>1327</v>
-      </c>
+      <c r="F276" s="20"/>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="6" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D277" s="6" t="s">
         <v>1251</v>
@@ -10379,27 +10481,30 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="6" t="s">
-        <v>1283</v>
+        <v>1391</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>1284</v>
+        <v>1392</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D278" s="6" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D278" s="19" t="s">
         <v>1251</v>
+      </c>
+      <c r="E278" s="16" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="6" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>1286</v>
+        <v>1643</v>
       </c>
       <c r="D279" s="6" t="s">
         <v>1251</v>
@@ -10407,13 +10512,13 @@
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="6" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D280" s="6" t="s">
         <v>1251</v>
@@ -10421,13 +10526,13 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="6" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="D281" s="6" t="s">
         <v>1251</v>
@@ -10435,13 +10540,13 @@
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="6" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D282" s="6" t="s">
         <v>1251</v>
@@ -10449,13 +10554,13 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="6" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>1647</v>
+        <v>1289</v>
       </c>
       <c r="D283" s="6" t="s">
         <v>1251</v>
@@ -10463,13 +10568,13 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="6" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="D284" s="6" t="s">
         <v>1251</v>
@@ -10477,13 +10582,13 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="6" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="D285" s="6" t="s">
         <v>1251</v>
@@ -10491,13 +10596,13 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="6" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="D286" s="6" t="s">
         <v>1251</v>
@@ -10505,29 +10610,45 @@
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="6" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="D287" s="6" t="s">
         <v>1251</v>
       </c>
     </row>
     <row r="288" spans="1:6">
-      <c r="A288" s="6"/>
-      <c r="B288" s="3"/>
-      <c r="C288" s="12"/>
-      <c r="D288" s="6"/>
+      <c r="A288" s="6" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C288" s="12" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D288" s="6" t="s">
+        <v>1251</v>
+      </c>
     </row>
     <row r="289" spans="1:4">
-      <c r="A289" s="6"/>
-      <c r="B289" s="3"/>
-      <c r="C289" s="12"/>
-      <c r="D289" s="6"/>
+      <c r="A289" s="6" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C289" s="12" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D289" s="6" t="s">
+        <v>1251</v>
+      </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="6"/>
@@ -10547,8 +10668,20 @@
       <c r="C292" s="12"/>
       <c r="D292" s="6"/>
     </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="6"/>
+      <c r="B293" s="3"/>
+      <c r="C293" s="12"/>
+      <c r="D293" s="6"/>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="6"/>
+      <c r="B294" s="3"/>
+      <c r="C294" s="12"/>
+      <c r="D294" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E292" xr:uid="{D7116DA7-B727-EA4E-B53C-355290066C9F}"/>
+  <autoFilter ref="A1:E294" xr:uid="{D7116DA7-B727-EA4E-B53C-355290066C9F}"/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10558,21 +10691,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9BD1D8-D860-9845-B2DE-1D2AC2DDC7F1}">
-  <dimension ref="A1:E853"/>
+  <dimension ref="A1:E867"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B452" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B670" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="A475" sqref="A475"/>
+      <selection pane="bottomRight" activeCell="A681" sqref="A681"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="19.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="45.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.28515625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -18626,7 +18759,7 @@
       <c r="B657" s="28"/>
       <c r="C657" s="29"/>
       <c r="D657" s="30" t="str">
-        <f t="shared" ref="D657:D732" si="11">CONCATENATE( "Built-in Variable: ", A657 )</f>
+        <f t="shared" ref="D657:D746" si="11">CONCATENATE( "Built-in Variable: ", A657 )</f>
         <v>Built-in Variable: $NI_CB_TYPE_PGS</v>
       </c>
       <c r="E657" s="24"/>
@@ -18938,502 +19071,502 @@
       </c>
     </row>
     <row r="681" spans="1:5">
-      <c r="A681" s="42" t="s">
-        <v>1775</v>
+      <c r="A681" s="22" t="s">
+        <v>1855</v>
       </c>
       <c r="B681" s="28"/>
       <c r="C681" s="29"/>
       <c r="D681" s="30" t="str">
-        <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_DETECT_SAMPLE_TYPE_DRUM</v>
+        <f t="shared" ref="D681:D694" si="12">CONCATENATE( "Built-in Variable: ", A681 )</f>
+        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE</v>
       </c>
       <c r="E681" s="24" t="s">
-        <v>1654</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="682" spans="1:5">
-      <c r="A682" s="42" t="s">
-        <v>1776</v>
+      <c r="A682" s="22" t="s">
+        <v>1856</v>
       </c>
       <c r="B682" s="28"/>
       <c r="C682" s="29"/>
       <c r="D682" s="30" t="str">
-        <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_DETECT_SAMPLE_TYPE_INSTRUMENT</v>
+        <f t="shared" si="12"/>
+        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_BASS</v>
       </c>
       <c r="E682" s="24" t="s">
-        <v>1654</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="683" spans="1:5">
-      <c r="A683" s="42" t="s">
-        <v>1777</v>
+      <c r="A683" s="22" t="s">
+        <v>1857</v>
       </c>
       <c r="B683" s="28"/>
       <c r="C683" s="29"/>
       <c r="D683" s="30" t="str">
-        <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_DETECT_SAMPLE_TYPE_INVALID</v>
+        <f t="shared" si="12"/>
+        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_BOWED_STRING</v>
       </c>
       <c r="E683" s="24" t="s">
-        <v>1654</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="684" spans="1:5">
-      <c r="A684" s="28" t="s">
-        <v>1193</v>
+      <c r="A684" s="22" t="s">
+        <v>1858</v>
       </c>
       <c r="B684" s="28"/>
       <c r="C684" s="29"/>
       <c r="D684" s="30" t="str">
-        <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_DISTORTION_TYPE_TRANS</v>
-      </c>
-      <c r="E684" s="24"/>
+        <f t="shared" si="12"/>
+        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_BRASS</v>
+      </c>
+      <c r="E684" s="24" t="s">
+        <v>1847</v>
+      </c>
     </row>
     <row r="685" spans="1:5">
-      <c r="A685" s="28" t="s">
-        <v>1194</v>
+      <c r="A685" s="22" t="s">
+        <v>1859</v>
       </c>
       <c r="B685" s="28"/>
       <c r="C685" s="29"/>
       <c r="D685" s="30" t="str">
-        <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_DISTORTION_TYPE_TUBE</v>
-      </c>
-      <c r="E685" s="24"/>
+        <f t="shared" si="12"/>
+        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_FLUTE</v>
+      </c>
+      <c r="E685" s="24" t="s">
+        <v>1847</v>
+      </c>
     </row>
     <row r="686" spans="1:5">
-      <c r="A686" s="38" t="s">
-        <v>1787</v>
+      <c r="A686" s="22" t="s">
+        <v>1860</v>
       </c>
       <c r="B686" s="28"/>
       <c r="C686" s="29"/>
       <c r="D686" s="30" t="str">
-        <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_DND_ACCEPT_MULTIPLE</v>
+        <f t="shared" si="12"/>
+        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_GUITAR</v>
       </c>
       <c r="E686" s="24" t="s">
-        <v>1654</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="687" spans="1:5">
-      <c r="A687" s="38" t="s">
-        <v>1786</v>
+      <c r="A687" s="22" t="s">
+        <v>1861</v>
       </c>
       <c r="B687" s="28"/>
       <c r="C687" s="29"/>
       <c r="D687" s="30" t="str">
-        <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_DND_ACCEPT_NONE</v>
+        <f t="shared" si="12"/>
+        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_INVALID</v>
       </c>
       <c r="E687" s="24" t="s">
-        <v>1654</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="688" spans="1:5">
-      <c r="A688" s="38" t="s">
-        <v>1788</v>
+      <c r="A688" s="22" t="s">
+        <v>1862</v>
       </c>
       <c r="B688" s="28"/>
       <c r="C688" s="29"/>
       <c r="D688" s="30" t="str">
-        <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_DND_ACCEPT_ONE</v>
+        <f t="shared" si="12"/>
+        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_KEYBOARD</v>
       </c>
       <c r="E688" s="24" t="s">
-        <v>1654</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="689" spans="1:5">
-      <c r="A689" s="42" t="s">
-        <v>1820</v>
+      <c r="A689" s="22" t="s">
+        <v>1863</v>
       </c>
       <c r="B689" s="28"/>
       <c r="C689" s="29"/>
       <c r="D689" s="30" t="str">
-        <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_FILE_EXTENSION</v>
+        <f t="shared" si="12"/>
+        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_MALLET</v>
       </c>
       <c r="E689" s="24" t="s">
-        <v>1654</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="690" spans="1:5">
-      <c r="A690" s="42" t="s">
-        <v>1821</v>
+      <c r="A690" s="22" t="s">
+        <v>1864</v>
       </c>
       <c r="B690" s="28"/>
       <c r="C690" s="29"/>
       <c r="D690" s="30" t="str">
-        <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_FILE_FULL_PATH</v>
+        <f t="shared" si="12"/>
+        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_ORGAN</v>
       </c>
       <c r="E690" s="24" t="s">
-        <v>1654</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="691" spans="1:5">
-      <c r="A691" s="42" t="s">
-        <v>1822</v>
+      <c r="A691" s="22" t="s">
+        <v>1865</v>
       </c>
       <c r="B691" s="28"/>
       <c r="C691" s="29"/>
       <c r="D691" s="30" t="str">
-        <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_FILE_FULL_PATH_OS</v>
+        <f t="shared" si="12"/>
+        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_PLUCKED_STRING</v>
       </c>
       <c r="E691" s="24" t="s">
-        <v>1654</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="692" spans="1:5">
-      <c r="A692" s="42" t="s">
-        <v>1823</v>
+      <c r="A692" s="22" t="s">
+        <v>1866</v>
       </c>
       <c r="B692" s="28"/>
       <c r="C692" s="29"/>
       <c r="D692" s="30" t="str">
-        <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_FILE_NAME</v>
+        <f t="shared" si="12"/>
+        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_REED</v>
       </c>
       <c r="E692" s="24" t="s">
-        <v>1654</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="693" spans="1:5">
-      <c r="A693" s="28" t="s">
-        <v>876</v>
+      <c r="A693" s="22" t="s">
+        <v>1867</v>
       </c>
       <c r="B693" s="28"/>
       <c r="C693" s="29"/>
       <c r="D693" s="30" t="str">
-        <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_FILE_TYPE_ARRAY</v>
-      </c>
-      <c r="E693" s="24"/>
+        <f t="shared" si="12"/>
+        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_SYNTH</v>
+      </c>
+      <c r="E693" s="24" t="s">
+        <v>1847</v>
+      </c>
     </row>
     <row r="694" spans="1:5">
-      <c r="A694" s="28" t="s">
-        <v>877</v>
+      <c r="A694" s="22" t="s">
+        <v>1868</v>
       </c>
       <c r="B694" s="28"/>
       <c r="C694" s="29"/>
       <c r="D694" s="30" t="str">
-        <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_FILE_TYPE_AUDIO</v>
-      </c>
-      <c r="E694" s="24"/>
+        <f t="shared" si="12"/>
+        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_VOCAL</v>
+      </c>
+      <c r="E694" s="24" t="s">
+        <v>1847</v>
+      </c>
     </row>
     <row r="695" spans="1:5">
-      <c r="A695" s="28" t="s">
-        <v>878</v>
+      <c r="A695" s="42" t="s">
+        <v>1775</v>
       </c>
       <c r="B695" s="28"/>
       <c r="C695" s="29"/>
       <c r="D695" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_FILE_TYPE_MIDI</v>
-      </c>
-      <c r="E695" s="24"/>
+        <v>Built-in Variable: $NI_DETECT_SAMPLE_TYPE_DRUM</v>
+      </c>
+      <c r="E695" s="24" t="s">
+        <v>1654</v>
+      </c>
     </row>
     <row r="696" spans="1:5">
-      <c r="A696" s="38" t="s">
-        <v>1824</v>
+      <c r="A696" s="42" t="s">
+        <v>1776</v>
       </c>
       <c r="B696" s="28"/>
       <c r="C696" s="29"/>
       <c r="D696" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_FLAIR_MODE_SCAN</v>
+        <v>Built-in Variable: $NI_DETECT_SAMPLE_TYPE_INSTRUMENT</v>
       </c>
       <c r="E696" s="24" t="s">
-        <v>1735</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="697" spans="1:5">
       <c r="A697" s="42" t="s">
-        <v>1732</v>
+        <v>1777</v>
       </c>
       <c r="B697" s="28"/>
       <c r="C697" s="29"/>
       <c r="D697" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_FLAIR_SCANMODE_SAW_DOWN</v>
+        <v>Built-in Variable: $NI_DETECT_SAMPLE_TYPE_INVALID</v>
       </c>
       <c r="E697" s="24" t="s">
-        <v>1735</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="698" spans="1:5">
-      <c r="A698" s="42" t="s">
-        <v>1733</v>
+      <c r="A698" s="28" t="s">
+        <v>1193</v>
       </c>
       <c r="B698" s="28"/>
       <c r="C698" s="29"/>
       <c r="D698" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_FLAIR_SCANMODE_SAW_UP</v>
-      </c>
-      <c r="E698" s="24" t="s">
-        <v>1735</v>
-      </c>
+        <v>Built-in Variable: $NI_DISTORTION_TYPE_TRANS</v>
+      </c>
+      <c r="E698" s="24"/>
     </row>
     <row r="699" spans="1:5">
-      <c r="A699" s="42" t="s">
-        <v>1734</v>
+      <c r="A699" s="28" t="s">
+        <v>1194</v>
       </c>
       <c r="B699" s="28"/>
       <c r="C699" s="29"/>
       <c r="D699" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_FLAIR_SCANMODE_TRIANGLE</v>
-      </c>
-      <c r="E699" s="24" t="s">
-        <v>1735</v>
-      </c>
+        <v>Built-in Variable: $NI_DISTORTION_TYPE_TUBE</v>
+      </c>
+      <c r="E699" s="24"/>
     </row>
     <row r="700" spans="1:5">
-      <c r="A700" s="28" t="s">
-        <v>879</v>
+      <c r="A700" s="38" t="s">
+        <v>1787</v>
       </c>
       <c r="B700" s="28"/>
       <c r="C700" s="29"/>
       <c r="D700" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_KEY_TYPE_CONTROL</v>
-      </c>
-      <c r="E700" s="24"/>
+        <v>Built-in Variable: $NI_DND_ACCEPT_MULTIPLE</v>
+      </c>
+      <c r="E700" s="24" t="s">
+        <v>1654</v>
+      </c>
     </row>
     <row r="701" spans="1:5">
-      <c r="A701" s="28" t="s">
-        <v>880</v>
+      <c r="A701" s="38" t="s">
+        <v>1786</v>
       </c>
       <c r="B701" s="28"/>
       <c r="C701" s="29"/>
       <c r="D701" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_KEY_TYPE_DEFAULT</v>
-      </c>
-      <c r="E701" s="24"/>
+        <v>Built-in Variable: $NI_DND_ACCEPT_NONE</v>
+      </c>
+      <c r="E701" s="24" t="s">
+        <v>1654</v>
+      </c>
     </row>
     <row r="702" spans="1:5">
-      <c r="A702" s="28" t="s">
-        <v>881</v>
+      <c r="A702" s="38" t="s">
+        <v>1788</v>
       </c>
       <c r="B702" s="28"/>
       <c r="C702" s="29"/>
       <c r="D702" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_KEY_TYPE_NONE</v>
-      </c>
-      <c r="E702" s="24"/>
+        <v>Built-in Variable: $NI_DND_ACCEPT_ONE</v>
+      </c>
+      <c r="E702" s="24" t="s">
+        <v>1654</v>
+      </c>
     </row>
     <row r="703" spans="1:5">
-      <c r="A703" s="28" t="s">
-        <v>1357</v>
+      <c r="A703" s="42" t="s">
+        <v>1820</v>
       </c>
       <c r="B703" s="28"/>
       <c r="C703" s="29"/>
       <c r="D703" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_LOG_MESSAGE</v>
+        <v>Built-in Variable: $NI_FILE_EXTENSION</v>
       </c>
       <c r="E703" s="24" t="s">
-        <v>1327</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="704" spans="1:5">
-      <c r="A704" s="28" t="s">
-        <v>1358</v>
+      <c r="A704" s="42" t="s">
+        <v>1821</v>
       </c>
       <c r="B704" s="28"/>
       <c r="C704" s="29"/>
       <c r="D704" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_LOG_WARNING</v>
+        <v>Built-in Variable: $NI_FILE_FULL_PATH</v>
       </c>
       <c r="E704" s="24" t="s">
-        <v>1327</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="705" spans="1:5">
-      <c r="A705" s="28" t="s">
-        <v>1359</v>
+      <c r="A705" s="42" t="s">
+        <v>1822</v>
       </c>
       <c r="B705" s="28"/>
       <c r="C705" s="29"/>
       <c r="D705" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_LOG_WATCHING</v>
+        <v>Built-in Variable: $NI_FILE_FULL_PATH_OS</v>
       </c>
       <c r="E705" s="24" t="s">
-        <v>1327</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="706" spans="1:5">
-      <c r="A706" s="28" t="s">
-        <v>1344</v>
+      <c r="A706" s="42" t="s">
+        <v>1823</v>
       </c>
       <c r="B706" s="28"/>
       <c r="C706" s="29"/>
       <c r="D706" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE</v>
+        <v>Built-in Variable: $NI_FILE_NAME</v>
       </c>
       <c r="E706" s="24" t="s">
-        <v>1327</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="707" spans="1:5">
-      <c r="A707" s="38" t="s">
-        <v>1782</v>
+      <c r="A707" s="28" t="s">
+        <v>876</v>
       </c>
       <c r="B707" s="28"/>
       <c r="C707" s="29"/>
       <c r="D707" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE_DND_DRAG</v>
-      </c>
-      <c r="E707" s="24" t="s">
-        <v>1654</v>
-      </c>
+        <v>Built-in Variable: $NI_FILE_TYPE_ARRAY</v>
+      </c>
+      <c r="E707" s="24"/>
     </row>
     <row r="708" spans="1:5">
-      <c r="A708" s="38" t="s">
-        <v>1783</v>
+      <c r="A708" s="28" t="s">
+        <v>877</v>
       </c>
       <c r="B708" s="28"/>
       <c r="C708" s="29"/>
       <c r="D708" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE_DND_DROP</v>
-      </c>
-      <c r="E708" s="24" t="s">
-        <v>1654</v>
-      </c>
+        <v>Built-in Variable: $NI_FILE_TYPE_AUDIO</v>
+      </c>
+      <c r="E708" s="24"/>
     </row>
     <row r="709" spans="1:5">
       <c r="A709" s="28" t="s">
-        <v>1347</v>
+        <v>878</v>
       </c>
       <c r="B709" s="28"/>
       <c r="C709" s="29"/>
       <c r="D709" s="30" t="str">
-        <f>CONCATENATE( "Built-in Variable: ", A709 )</f>
-        <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE_DRAG</v>
-      </c>
-      <c r="E709" s="24" t="s">
-        <v>1327</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>Built-in Variable: $NI_FILE_TYPE_MIDI</v>
+      </c>
+      <c r="E709" s="24"/>
     </row>
     <row r="710" spans="1:5">
       <c r="A710" s="38" t="s">
-        <v>1784</v>
+        <v>1824</v>
       </c>
       <c r="B710" s="28"/>
       <c r="C710" s="29"/>
       <c r="D710" s="30" t="str">
-        <f>CONCATENATE( "Built-in Variable: ", A710 )</f>
-        <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE_DROP</v>
+        <f t="shared" si="11"/>
+        <v>Built-in Variable: $NI_FLAIR_MODE_SCAN</v>
       </c>
       <c r="E710" s="24" t="s">
-        <v>1654</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="711" spans="1:5">
-      <c r="A711" s="28" t="s">
-        <v>1345</v>
+      <c r="A711" s="42" t="s">
+        <v>1732</v>
       </c>
       <c r="B711" s="28"/>
       <c r="C711" s="29"/>
       <c r="D711" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE_LEFT_BUTTON_DOWN</v>
+        <v>Built-in Variable: $NI_FLAIR_SCANMODE_SAW_DOWN</v>
       </c>
       <c r="E711" s="24" t="s">
-        <v>1327</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="712" spans="1:5">
-      <c r="A712" s="28" t="s">
-        <v>1346</v>
+      <c r="A712" s="42" t="s">
+        <v>1733</v>
       </c>
       <c r="B712" s="28"/>
       <c r="C712" s="29"/>
       <c r="D712" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE_LEFT_BUTTON_UP</v>
+        <v>Built-in Variable: $NI_FLAIR_SCANMODE_SAW_UP</v>
       </c>
       <c r="E712" s="24" t="s">
-        <v>1327</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="713" spans="1:5">
-      <c r="A713" s="38" t="s">
-        <v>1785</v>
+      <c r="A713" s="42" t="s">
+        <v>1734</v>
       </c>
       <c r="B713" s="28"/>
       <c r="C713" s="29"/>
       <c r="D713" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_MOUSE_OVER_CONTROL</v>
+        <v>Built-in Variable: $NI_FLAIR_SCANMODE_TRIANGLE</v>
       </c>
       <c r="E713" s="24" t="s">
-        <v>1654</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="714" spans="1:5">
       <c r="A714" s="28" t="s">
-        <v>1369</v>
+        <v>879</v>
       </c>
       <c r="B714" s="28"/>
       <c r="C714" s="29"/>
       <c r="D714" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_REPLIKA_TYPE_DIFFUSION</v>
-      </c>
-      <c r="E714" s="24" t="s">
-        <v>1327</v>
-      </c>
+        <v>Built-in Variable: $NI_KEY_TYPE_CONTROL</v>
+      </c>
+      <c r="E714" s="24"/>
     </row>
     <row r="715" spans="1:5">
       <c r="A715" s="28" t="s">
-        <v>1370</v>
+        <v>880</v>
       </c>
       <c r="B715" s="28"/>
       <c r="C715" s="29"/>
       <c r="D715" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_REPLIKA_TYPE_MODERN</v>
-      </c>
-      <c r="E715" s="24" t="s">
-        <v>1327</v>
-      </c>
+        <v>Built-in Variable: $NI_KEY_TYPE_DEFAULT</v>
+      </c>
+      <c r="E715" s="24"/>
     </row>
     <row r="716" spans="1:5">
       <c r="A716" s="28" t="s">
-        <v>1371</v>
+        <v>881</v>
       </c>
       <c r="B716" s="28"/>
       <c r="C716" s="29"/>
       <c r="D716" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_REPLIKA_TYPE_TAPE</v>
-      </c>
-      <c r="E716" s="24" t="s">
-        <v>1327</v>
-      </c>
+        <v>Built-in Variable: $NI_KEY_TYPE_NONE</v>
+      </c>
+      <c r="E716" s="24"/>
     </row>
     <row r="717" spans="1:5">
       <c r="A717" s="28" t="s">
-        <v>1372</v>
+        <v>1357</v>
       </c>
       <c r="B717" s="28"/>
       <c r="C717" s="29"/>
       <c r="D717" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_REPLIKA_TYPE_VINTAGE</v>
+        <v>Built-in Variable: $NI_LOG_MESSAGE</v>
       </c>
       <c r="E717" s="24" t="s">
         <v>1327</v>
@@ -19441,13 +19574,13 @@
     </row>
     <row r="718" spans="1:5">
       <c r="A718" s="28" t="s">
-        <v>1373</v>
+        <v>1358</v>
       </c>
       <c r="B718" s="28"/>
       <c r="C718" s="29"/>
       <c r="D718" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_REVERB2_TYPE_ROOM</v>
+        <v>Built-in Variable: $NI_LOG_WARNING</v>
       </c>
       <c r="E718" s="24" t="s">
         <v>1327</v>
@@ -19455,1205 +19588,1205 @@
     </row>
     <row r="719" spans="1:5">
       <c r="A719" s="28" t="s">
-        <v>1195</v>
+        <v>1359</v>
       </c>
       <c r="B719" s="28"/>
       <c r="C719" s="29"/>
       <c r="D719" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_SHAPE_TYPE_CLASSIC</v>
-      </c>
-      <c r="E719" s="24"/>
+        <v>Built-in Variable: $NI_LOG_WATCHING</v>
+      </c>
+      <c r="E719" s="24" t="s">
+        <v>1327</v>
+      </c>
     </row>
     <row r="720" spans="1:5">
       <c r="A720" s="28" t="s">
-        <v>1196</v>
+        <v>1344</v>
       </c>
       <c r="B720" s="28"/>
       <c r="C720" s="29"/>
       <c r="D720" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_SHAPE_TYPE_DRUMS</v>
-      </c>
-      <c r="E720" s="24"/>
+        <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE</v>
+      </c>
+      <c r="E720" s="24" t="s">
+        <v>1327</v>
+      </c>
     </row>
     <row r="721" spans="1:5">
-      <c r="A721" s="28" t="s">
-        <v>1197</v>
+      <c r="A721" s="38" t="s">
+        <v>1782</v>
       </c>
       <c r="B721" s="28"/>
       <c r="C721" s="29"/>
       <c r="D721" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_SHAPE_TYPE_ENHANCED</v>
-      </c>
-      <c r="E721" s="24"/>
+        <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE_DND_DRAG</v>
+      </c>
+      <c r="E721" s="24" t="s">
+        <v>1654</v>
+      </c>
     </row>
     <row r="722" spans="1:5">
-      <c r="A722" s="28" t="s">
-        <v>882</v>
+      <c r="A722" s="38" t="s">
+        <v>1783</v>
       </c>
       <c r="B722" s="28"/>
       <c r="C722" s="29"/>
       <c r="D722" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_SIGNAL_TIMER_BEAT</v>
-      </c>
-      <c r="E722" s="24"/>
+        <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE_DND_DROP</v>
+      </c>
+      <c r="E722" s="24" t="s">
+        <v>1654</v>
+      </c>
     </row>
     <row r="723" spans="1:5">
       <c r="A723" s="28" t="s">
-        <v>883</v>
+        <v>1347</v>
       </c>
       <c r="B723" s="28"/>
       <c r="C723" s="29"/>
       <c r="D723" s="30" t="str">
-        <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_SIGNAL_TIMER_MS</v>
-      </c>
-      <c r="E723" s="24"/>
+        <f>CONCATENATE( "Built-in Variable: ", A723 )</f>
+        <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE_DRAG</v>
+      </c>
+      <c r="E723" s="24" t="s">
+        <v>1327</v>
+      </c>
     </row>
     <row r="724" spans="1:5">
-      <c r="A724" s="28" t="s">
-        <v>884</v>
+      <c r="A724" s="38" t="s">
+        <v>1784</v>
       </c>
       <c r="B724" s="28"/>
       <c r="C724" s="29"/>
       <c r="D724" s="30" t="str">
-        <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_SIGNAL_TRANSP_START</v>
-      </c>
-      <c r="E724" s="24"/>
+        <f>CONCATENATE( "Built-in Variable: ", A724 )</f>
+        <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE_DROP</v>
+      </c>
+      <c r="E724" s="24" t="s">
+        <v>1654</v>
+      </c>
     </row>
     <row r="725" spans="1:5">
       <c r="A725" s="28" t="s">
-        <v>885</v>
+        <v>1345</v>
       </c>
       <c r="B725" s="28"/>
       <c r="C725" s="29"/>
       <c r="D725" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_SIGNAL_TRANSP_STOP</v>
-      </c>
-      <c r="E725" s="24"/>
+        <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE_LEFT_BUTTON_DOWN</v>
+      </c>
+      <c r="E725" s="24" t="s">
+        <v>1327</v>
+      </c>
     </row>
     <row r="726" spans="1:5">
       <c r="A726" s="28" t="s">
-        <v>886</v>
+        <v>1346</v>
       </c>
       <c r="B726" s="28"/>
       <c r="C726" s="29"/>
       <c r="D726" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_SIGNAL_TYPE</v>
-      </c>
-      <c r="E726" s="24"/>
+        <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE_LEFT_BUTTON_UP</v>
+      </c>
+      <c r="E726" s="24" t="s">
+        <v>1327</v>
+      </c>
     </row>
     <row r="727" spans="1:5">
-      <c r="A727" s="28" t="s">
-        <v>887</v>
+      <c r="A727" s="38" t="s">
+        <v>1785</v>
       </c>
       <c r="B727" s="28"/>
       <c r="C727" s="29"/>
       <c r="D727" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_SONG_POSITION</v>
-      </c>
-      <c r="E727" s="24"/>
+        <v>Built-in Variable: $NI_MOUSE_OVER_CONTROL</v>
+      </c>
+      <c r="E727" s="24" t="s">
+        <v>1654</v>
+      </c>
     </row>
     <row r="728" spans="1:5">
       <c r="A728" s="28" t="s">
-        <v>895</v>
+        <v>1369</v>
       </c>
       <c r="B728" s="28"/>
       <c r="C728" s="29"/>
       <c r="D728" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_SYNC_UNIT_8TH</v>
-      </c>
-      <c r="E728" s="24"/>
+        <v>Built-in Variable: $NI_REPLIKA_TYPE_DIFFUSION</v>
+      </c>
+      <c r="E728" s="24" t="s">
+        <v>1327</v>
+      </c>
     </row>
     <row r="729" spans="1:5">
       <c r="A729" s="28" t="s">
-        <v>896</v>
+        <v>1370</v>
       </c>
       <c r="B729" s="28"/>
       <c r="C729" s="29"/>
       <c r="D729" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_SYNC_UNIT_8TH_TRIPLET</v>
-      </c>
-      <c r="E729" s="24"/>
+        <v>Built-in Variable: $NI_REPLIKA_TYPE_MODERN</v>
+      </c>
+      <c r="E729" s="24" t="s">
+        <v>1327</v>
+      </c>
     </row>
     <row r="730" spans="1:5">
       <c r="A730" s="28" t="s">
-        <v>888</v>
+        <v>1371</v>
       </c>
       <c r="B730" s="28"/>
       <c r="C730" s="29"/>
       <c r="D730" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_SYNC_UNIT_16TH</v>
-      </c>
-      <c r="E730" s="24"/>
+        <v>Built-in Variable: $NI_REPLIKA_TYPE_TAPE</v>
+      </c>
+      <c r="E730" s="24" t="s">
+        <v>1327</v>
+      </c>
     </row>
     <row r="731" spans="1:5">
       <c r="A731" s="28" t="s">
-        <v>889</v>
+        <v>1372</v>
       </c>
       <c r="B731" s="28"/>
       <c r="C731" s="29"/>
       <c r="D731" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_SYNC_UNIT_16TH_TRIPLET</v>
-      </c>
-      <c r="E731" s="24"/>
+        <v>Built-in Variable: $NI_REPLIKA_TYPE_VINTAGE</v>
+      </c>
+      <c r="E731" s="24" t="s">
+        <v>1327</v>
+      </c>
     </row>
     <row r="732" spans="1:5">
       <c r="A732" s="28" t="s">
-        <v>891</v>
+        <v>1373</v>
       </c>
       <c r="B732" s="28"/>
       <c r="C732" s="29"/>
       <c r="D732" s="30" t="str">
         <f t="shared" si="11"/>
-        <v>Built-in Variable: $NI_SYNC_UNIT_32ND</v>
-      </c>
-      <c r="E732" s="24"/>
+        <v>Built-in Variable: $NI_REVERB2_TYPE_ROOM</v>
+      </c>
+      <c r="E732" s="24" t="s">
+        <v>1327</v>
+      </c>
     </row>
     <row r="733" spans="1:5">
       <c r="A733" s="28" t="s">
-        <v>892</v>
+        <v>1195</v>
       </c>
       <c r="B733" s="28"/>
       <c r="C733" s="29"/>
       <c r="D733" s="30" t="str">
-        <f t="shared" ref="D733:D826" si="12">CONCATENATE( "Built-in Variable: ", A733 )</f>
-        <v>Built-in Variable: $NI_SYNC_UNIT_32ND_TRIPLET</v>
+        <f t="shared" si="11"/>
+        <v>Built-in Variable: $NI_SHAPE_TYPE_CLASSIC</v>
       </c>
       <c r="E733" s="24"/>
     </row>
     <row r="734" spans="1:5">
       <c r="A734" s="28" t="s">
-        <v>893</v>
+        <v>1196</v>
       </c>
       <c r="B734" s="28"/>
       <c r="C734" s="29"/>
       <c r="D734" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_SYNC_UNIT_64TH</v>
+        <f t="shared" si="11"/>
+        <v>Built-in Variable: $NI_SHAPE_TYPE_DRUMS</v>
       </c>
       <c r="E734" s="24"/>
     </row>
     <row r="735" spans="1:5">
       <c r="A735" s="28" t="s">
-        <v>894</v>
+        <v>1197</v>
       </c>
       <c r="B735" s="28"/>
       <c r="C735" s="29"/>
       <c r="D735" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_SYNC_UNIT_64TH_TRIPLET</v>
+        <f t="shared" si="11"/>
+        <v>Built-in Variable: $NI_SHAPE_TYPE_ENHANCED</v>
       </c>
       <c r="E735" s="24"/>
     </row>
     <row r="736" spans="1:5">
       <c r="A736" s="28" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="B736" s="28"/>
       <c r="C736" s="29"/>
       <c r="D736" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_SYNC_UNIT_256TH</v>
+        <f t="shared" si="11"/>
+        <v>Built-in Variable: $NI_SIGNAL_TIMER_BEAT</v>
       </c>
       <c r="E736" s="24"/>
     </row>
     <row r="737" spans="1:5">
       <c r="A737" s="28" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="B737" s="28"/>
       <c r="C737" s="29"/>
       <c r="D737" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_SYNC_UNIT_ABS</v>
+        <f t="shared" si="11"/>
+        <v>Built-in Variable: $NI_SIGNAL_TIMER_MS</v>
       </c>
       <c r="E737" s="24"/>
     </row>
     <row r="738" spans="1:5">
       <c r="A738" s="28" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="B738" s="28"/>
       <c r="C738" s="29"/>
       <c r="D738" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_SYNC_UNIT_HALF</v>
+        <f t="shared" si="11"/>
+        <v>Built-in Variable: $NI_SIGNAL_TRANSP_START</v>
       </c>
       <c r="E738" s="24"/>
     </row>
     <row r="739" spans="1:5">
       <c r="A739" s="28" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="B739" s="28"/>
       <c r="C739" s="29"/>
       <c r="D739" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_SYNC_UNIT_HALF_TRIPLET</v>
+        <f t="shared" si="11"/>
+        <v>Built-in Variable: $NI_SIGNAL_TRANSP_STOP</v>
       </c>
       <c r="E739" s="24"/>
     </row>
     <row r="740" spans="1:5">
       <c r="A740" s="28" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="B740" s="28"/>
       <c r="C740" s="29"/>
       <c r="D740" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_SYNC_UNIT_QUARTER</v>
+        <f t="shared" si="11"/>
+        <v>Built-in Variable: $NI_SIGNAL_TYPE</v>
       </c>
       <c r="E740" s="24"/>
     </row>
     <row r="741" spans="1:5">
       <c r="A741" s="28" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
       <c r="B741" s="28"/>
       <c r="C741" s="29"/>
       <c r="D741" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_SYNC_UNIT_QUARTER_TRIPLET</v>
+        <f t="shared" si="11"/>
+        <v>Built-in Variable: $NI_SONG_POSITION</v>
       </c>
       <c r="E741" s="24"/>
     </row>
     <row r="742" spans="1:5">
       <c r="A742" s="28" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="B742" s="28"/>
       <c r="C742" s="29"/>
       <c r="D742" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_SYNC_UNIT_WHOLE</v>
+        <f t="shared" si="11"/>
+        <v>Built-in Variable: $NI_SYNC_UNIT_8TH</v>
       </c>
       <c r="E742" s="24"/>
     </row>
     <row r="743" spans="1:5">
       <c r="A743" s="28" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="B743" s="28"/>
       <c r="C743" s="29"/>
       <c r="D743" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_SYNC_UNIT_WHOLE_TRIPLET</v>
+        <f t="shared" si="11"/>
+        <v>Built-in Variable: $NI_SYNC_UNIT_8TH_TRIPLET</v>
       </c>
       <c r="E743" s="24"/>
     </row>
     <row r="744" spans="1:5">
       <c r="A744" s="28" t="s">
-        <v>904</v>
+        <v>888</v>
       </c>
       <c r="B744" s="28"/>
       <c r="C744" s="29"/>
       <c r="D744" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_SYNC_UNIT_ZONE</v>
+        <f t="shared" si="11"/>
+        <v>Built-in Variable: $NI_SYNC_UNIT_16TH</v>
       </c>
       <c r="E744" s="24"/>
     </row>
     <row r="745" spans="1:5">
       <c r="A745" s="28" t="s">
-        <v>905</v>
+        <v>889</v>
       </c>
       <c r="B745" s="28"/>
       <c r="C745" s="29"/>
       <c r="D745" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_TRANSPORT_RUNNING</v>
+        <f t="shared" si="11"/>
+        <v>Built-in Variable: $NI_SYNC_UNIT_16TH_TRIPLET</v>
       </c>
       <c r="E745" s="24"/>
     </row>
     <row r="746" spans="1:5">
       <c r="A746" s="28" t="s">
-        <v>906</v>
+        <v>891</v>
       </c>
       <c r="B746" s="28"/>
       <c r="C746" s="29"/>
       <c r="D746" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_VL_TMPRO_STANDARD</v>
+        <f t="shared" si="11"/>
+        <v>Built-in Variable: $NI_SYNC_UNIT_32ND</v>
       </c>
       <c r="E746" s="24"/>
     </row>
     <row r="747" spans="1:5">
       <c r="A747" s="28" t="s">
-        <v>907</v>
+        <v>892</v>
       </c>
       <c r="B747" s="28"/>
       <c r="C747" s="29"/>
       <c r="D747" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_VL_TMRPO_HQ</v>
+        <f t="shared" ref="D747:D840" si="13">CONCATENATE( "Built-in Variable: ", A747 )</f>
+        <v>Built-in Variable: $NI_SYNC_UNIT_32ND_TRIPLET</v>
       </c>
       <c r="E747" s="24"/>
     </row>
     <row r="748" spans="1:5">
       <c r="A748" s="28" t="s">
-        <v>1829</v>
+        <v>893</v>
       </c>
       <c r="B748" s="28"/>
       <c r="C748" s="29"/>
       <c r="D748" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_WF_VIS_MODE_1</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_SYNC_UNIT_64TH</v>
       </c>
       <c r="E748" s="24"/>
     </row>
     <row r="749" spans="1:5">
       <c r="A749" s="28" t="s">
-        <v>1830</v>
+        <v>894</v>
       </c>
       <c r="B749" s="28"/>
       <c r="C749" s="29"/>
       <c r="D749" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_WF_VIS_MODE_2</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_SYNC_UNIT_64TH_TRIPLET</v>
       </c>
       <c r="E749" s="24"/>
     </row>
     <row r="750" spans="1:5">
       <c r="A750" s="28" t="s">
-        <v>1831</v>
+        <v>890</v>
       </c>
       <c r="B750" s="28"/>
       <c r="C750" s="29"/>
       <c r="D750" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_WF_VIS_MODE_3</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_SYNC_UNIT_256TH</v>
       </c>
       <c r="E750" s="24"/>
     </row>
     <row r="751" spans="1:5">
       <c r="A751" s="28" t="s">
-        <v>1832</v>
+        <v>897</v>
       </c>
       <c r="B751" s="28"/>
       <c r="C751" s="29"/>
       <c r="D751" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_WT_FORM_ASYMM</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_SYNC_UNIT_ABS</v>
       </c>
       <c r="E751" s="24"/>
     </row>
     <row r="752" spans="1:5">
       <c r="A752" s="28" t="s">
-        <v>1833</v>
+        <v>898</v>
       </c>
       <c r="B752" s="28"/>
       <c r="C752" s="29"/>
       <c r="D752" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_WT_FORM_ASYMMP</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_SYNC_UNIT_HALF</v>
       </c>
       <c r="E752" s="24"/>
     </row>
     <row r="753" spans="1:5">
       <c r="A753" s="28" t="s">
-        <v>1834</v>
+        <v>899</v>
       </c>
       <c r="B753" s="28"/>
       <c r="C753" s="29"/>
       <c r="D753" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_WT_FORM_ASYMP</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_SYNC_UNIT_HALF_TRIPLET</v>
       </c>
       <c r="E753" s="24"/>
     </row>
     <row r="754" spans="1:5">
       <c r="A754" s="28" t="s">
-        <v>1835</v>
+        <v>900</v>
       </c>
       <c r="B754" s="28"/>
       <c r="C754" s="29"/>
       <c r="D754" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_WT_FORM_BENDM</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_SYNC_UNIT_QUARTER</v>
       </c>
       <c r="E754" s="24"/>
     </row>
     <row r="755" spans="1:5">
       <c r="A755" s="28" t="s">
-        <v>1836</v>
+        <v>901</v>
       </c>
       <c r="B755" s="28"/>
       <c r="C755" s="29"/>
       <c r="D755" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_WT_FORM_BENDMP</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_SYNC_UNIT_QUARTER_TRIPLET</v>
       </c>
       <c r="E755" s="24"/>
     </row>
     <row r="756" spans="1:5">
       <c r="A756" s="28" t="s">
-        <v>1837</v>
+        <v>902</v>
       </c>
       <c r="B756" s="28"/>
       <c r="C756" s="29"/>
       <c r="D756" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_WT_FORM_BENDP</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_SYNC_UNIT_WHOLE</v>
       </c>
       <c r="E756" s="24"/>
     </row>
     <row r="757" spans="1:5">
       <c r="A757" s="28" t="s">
-        <v>1838</v>
+        <v>903</v>
       </c>
       <c r="B757" s="28"/>
       <c r="C757" s="29"/>
       <c r="D757" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_WT_FORM_FLIP</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_SYNC_UNIT_WHOLE_TRIPLET</v>
       </c>
       <c r="E757" s="24"/>
     </row>
     <row r="758" spans="1:5">
       <c r="A758" s="28" t="s">
-        <v>1839</v>
+        <v>904</v>
       </c>
       <c r="B758" s="28"/>
       <c r="C758" s="29"/>
       <c r="D758" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_WT_FORM_LINEAR</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_SYNC_UNIT_ZONE</v>
       </c>
       <c r="E758" s="24"/>
     </row>
     <row r="759" spans="1:5">
       <c r="A759" s="28" t="s">
-        <v>1840</v>
+        <v>905</v>
       </c>
       <c r="B759" s="28"/>
       <c r="C759" s="29"/>
       <c r="D759" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_WT_FORM_MIRROR</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_TRANSPORT_RUNNING</v>
       </c>
       <c r="E759" s="24"/>
     </row>
     <row r="760" spans="1:5">
       <c r="A760" s="28" t="s">
-        <v>1841</v>
+        <v>906</v>
       </c>
       <c r="B760" s="28"/>
       <c r="C760" s="29"/>
       <c r="D760" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_WT_FORM_PWM</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_VL_TMPRO_STANDARD</v>
       </c>
       <c r="E760" s="24"/>
     </row>
     <row r="761" spans="1:5">
       <c r="A761" s="28" t="s">
-        <v>1374</v>
+        <v>907</v>
       </c>
       <c r="B761" s="28"/>
       <c r="C761" s="29"/>
       <c r="D761" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_WT_FORM_QUANTIZE</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_VL_TMRPO_HQ</v>
       </c>
       <c r="E761" s="24"/>
     </row>
     <row r="762" spans="1:5">
       <c r="A762" s="28" t="s">
-        <v>1842</v>
+        <v>1829</v>
       </c>
       <c r="B762" s="28"/>
       <c r="C762" s="29"/>
       <c r="D762" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_WT_FORM_SYNC1</v>
-      </c>
-      <c r="E762" s="24" t="s">
-        <v>1327</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_WF_VIS_MODE_1</v>
+      </c>
+      <c r="E762" s="24"/>
     </row>
     <row r="763" spans="1:5">
       <c r="A763" s="28" t="s">
-        <v>1843</v>
+        <v>1830</v>
       </c>
       <c r="B763" s="28"/>
       <c r="C763" s="29"/>
       <c r="D763" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_WT_FORM_SYNC2</v>
-      </c>
-      <c r="E763" s="24" t="s">
-        <v>1327</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_WF_VIS_MODE_2</v>
+      </c>
+      <c r="E763" s="24"/>
     </row>
     <row r="764" spans="1:5">
       <c r="A764" s="28" t="s">
-        <v>1844</v>
+        <v>1831</v>
       </c>
       <c r="B764" s="28"/>
       <c r="C764" s="29"/>
       <c r="D764" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_WT_FORM_SYNC3</v>
-      </c>
-      <c r="E764" s="24" t="s">
-        <v>1327</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_WF_VIS_MODE_3</v>
+      </c>
+      <c r="E764" s="24"/>
     </row>
     <row r="765" spans="1:5">
       <c r="A765" s="28" t="s">
-        <v>1375</v>
+        <v>1832</v>
       </c>
       <c r="B765" s="28"/>
       <c r="C765" s="29"/>
       <c r="D765" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_WT_QUALITY_BEST</v>
-      </c>
-      <c r="E765" s="24" t="s">
-        <v>1327</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_WT_FORM_ASYMM</v>
+      </c>
+      <c r="E765" s="24"/>
     </row>
     <row r="766" spans="1:5">
       <c r="A766" s="28" t="s">
-        <v>1376</v>
+        <v>1833</v>
       </c>
       <c r="B766" s="28"/>
       <c r="C766" s="29"/>
       <c r="D766" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_WT_VIS_2D</v>
-      </c>
-      <c r="E766" s="24" t="s">
-        <v>1395</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_WT_FORM_ASYMMP</v>
+      </c>
+      <c r="E766" s="24"/>
     </row>
     <row r="767" spans="1:5">
       <c r="A767" s="28" t="s">
-        <v>1377</v>
+        <v>1834</v>
       </c>
       <c r="B767" s="28"/>
       <c r="C767" s="29"/>
       <c r="D767" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NI_WT_VIS_3D</v>
-      </c>
-      <c r="E767" s="24" t="s">
-        <v>1395</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_WT_FORM_ASYMP</v>
+      </c>
+      <c r="E767" s="24"/>
     </row>
     <row r="768" spans="1:5">
       <c r="A768" s="28" t="s">
-        <v>908</v>
+        <v>1835</v>
       </c>
       <c r="B768" s="28"/>
       <c r="C768" s="29"/>
       <c r="D768" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NOTE_HELD</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_WT_FORM_BENDM</v>
       </c>
       <c r="E768" s="24"/>
     </row>
     <row r="769" spans="1:5">
       <c r="A769" s="28" t="s">
-        <v>909</v>
+        <v>1836</v>
       </c>
       <c r="B769" s="28"/>
       <c r="C769" s="29"/>
       <c r="D769" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NUM_GROUPS</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_WT_FORM_BENDMP</v>
       </c>
       <c r="E769" s="24"/>
     </row>
     <row r="770" spans="1:5">
       <c r="A770" s="28" t="s">
-        <v>910</v>
+        <v>1837</v>
       </c>
       <c r="B770" s="28"/>
       <c r="C770" s="29"/>
       <c r="D770" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NUM_OUTPUT_CHANNELS</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_WT_FORM_BENDP</v>
       </c>
       <c r="E770" s="24"/>
     </row>
     <row r="771" spans="1:5">
       <c r="A771" s="28" t="s">
-        <v>911</v>
+        <v>1838</v>
       </c>
       <c r="B771" s="28"/>
       <c r="C771" s="29"/>
       <c r="D771" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $NUM_ZONES</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_WT_FORM_FLIP</v>
       </c>
       <c r="E771" s="24"/>
     </row>
     <row r="772" spans="1:5">
       <c r="A772" s="28" t="s">
-        <v>912</v>
+        <v>1839</v>
       </c>
       <c r="B772" s="28"/>
       <c r="C772" s="29"/>
       <c r="D772" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $PLAYED_VOICES_INST</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_WT_FORM_LINEAR</v>
       </c>
       <c r="E772" s="24"/>
     </row>
     <row r="773" spans="1:5">
       <c r="A773" s="28" t="s">
-        <v>913</v>
+        <v>1840</v>
       </c>
       <c r="B773" s="28"/>
       <c r="C773" s="29"/>
       <c r="D773" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $PLAYED_VOICES_TOTAL</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_WT_FORM_MIRROR</v>
       </c>
       <c r="E773" s="24"/>
     </row>
     <row r="774" spans="1:5">
       <c r="A774" s="28" t="s">
-        <v>914</v>
+        <v>1841</v>
       </c>
       <c r="B774" s="28"/>
       <c r="C774" s="29"/>
       <c r="D774" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $POLY_AT_NUM</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_WT_FORM_PWM</v>
       </c>
       <c r="E774" s="24"/>
     </row>
     <row r="775" spans="1:5">
       <c r="A775" s="28" t="s">
-        <v>915</v>
+        <v>1374</v>
       </c>
       <c r="B775" s="28"/>
       <c r="C775" s="29"/>
       <c r="D775" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $REF_GROUP_IDX</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_WT_FORM_QUANTIZE</v>
       </c>
       <c r="E775" s="24"/>
     </row>
     <row r="776" spans="1:5">
       <c r="A776" s="28" t="s">
-        <v>916</v>
+        <v>1842</v>
       </c>
       <c r="B776" s="28"/>
       <c r="C776" s="29"/>
       <c r="D776" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $RPN_ADDRESS</v>
-      </c>
-      <c r="E776" s="24"/>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_WT_FORM_SYNC1</v>
+      </c>
+      <c r="E776" s="24" t="s">
+        <v>1327</v>
+      </c>
     </row>
     <row r="777" spans="1:5">
       <c r="A777" s="28" t="s">
-        <v>917</v>
+        <v>1843</v>
       </c>
       <c r="B777" s="28"/>
       <c r="C777" s="29"/>
       <c r="D777" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $RPN_VALUE</v>
-      </c>
-      <c r="E777" s="24"/>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_WT_FORM_SYNC2</v>
+      </c>
+      <c r="E777" s="24" t="s">
+        <v>1327</v>
+      </c>
     </row>
     <row r="778" spans="1:5">
       <c r="A778" s="28" t="s">
-        <v>918</v>
+        <v>1844</v>
       </c>
       <c r="B778" s="28"/>
       <c r="C778" s="29"/>
       <c r="D778" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $SIGNATURE_DENOM</v>
-      </c>
-      <c r="E778" s="24"/>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_WT_FORM_SYNC3</v>
+      </c>
+      <c r="E778" s="24" t="s">
+        <v>1327</v>
+      </c>
     </row>
     <row r="779" spans="1:5">
       <c r="A779" s="28" t="s">
-        <v>919</v>
+        <v>1375</v>
       </c>
       <c r="B779" s="28"/>
       <c r="C779" s="29"/>
       <c r="D779" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $SIGNATURE_NUM</v>
-      </c>
-      <c r="E779" s="24"/>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_WT_QUALITY_BEST</v>
+      </c>
+      <c r="E779" s="24" t="s">
+        <v>1327</v>
+      </c>
     </row>
     <row r="780" spans="1:5">
       <c r="A780" s="28" t="s">
-        <v>920</v>
+        <v>1376</v>
       </c>
       <c r="B780" s="28"/>
       <c r="C780" s="29"/>
       <c r="D780" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $START_CRITERIA_AND_NEXT</v>
-      </c>
-      <c r="E780" s="24"/>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_WT_VIS_2D</v>
+      </c>
+      <c r="E780" s="24" t="s">
+        <v>1395</v>
+      </c>
     </row>
     <row r="781" spans="1:5">
       <c r="A781" s="28" t="s">
-        <v>921</v>
+        <v>1377</v>
       </c>
       <c r="B781" s="28"/>
       <c r="C781" s="29"/>
       <c r="D781" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $START_CRITERIA_AND_NOT_NEXT</v>
-      </c>
-      <c r="E781" s="24"/>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NI_WT_VIS_3D</v>
+      </c>
+      <c r="E781" s="24" t="s">
+        <v>1395</v>
+      </c>
     </row>
     <row r="782" spans="1:5">
       <c r="A782" s="28" t="s">
-        <v>922</v>
+        <v>908</v>
       </c>
       <c r="B782" s="28"/>
       <c r="C782" s="29"/>
       <c r="D782" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $START_CRITERIA_CYCLE_RANDOM</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NOTE_HELD</v>
       </c>
       <c r="E782" s="24"/>
     </row>
     <row r="783" spans="1:5">
       <c r="A783" s="28" t="s">
-        <v>923</v>
+        <v>909</v>
       </c>
       <c r="B783" s="28"/>
       <c r="C783" s="29"/>
       <c r="D783" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $START_CRITERIA_CYCLE_ROUND_ROBIN</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NUM_GROUPS</v>
       </c>
       <c r="E783" s="24"/>
     </row>
     <row r="784" spans="1:5">
       <c r="A784" s="28" t="s">
-        <v>924</v>
+        <v>910</v>
       </c>
       <c r="B784" s="28"/>
       <c r="C784" s="29"/>
       <c r="D784" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $START_CRITERIA_NONE</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NUM_OUTPUT_CHANNELS</v>
       </c>
       <c r="E784" s="24"/>
     </row>
     <row r="785" spans="1:5">
       <c r="A785" s="28" t="s">
-        <v>925</v>
+        <v>911</v>
       </c>
       <c r="B785" s="28"/>
       <c r="C785" s="29"/>
       <c r="D785" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $START_CRITERIA_ON_CONTROLLER</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $NUM_ZONES</v>
       </c>
       <c r="E785" s="24"/>
     </row>
     <row r="786" spans="1:5">
       <c r="A786" s="28" t="s">
-        <v>926</v>
+        <v>912</v>
       </c>
       <c r="B786" s="28"/>
       <c r="C786" s="29"/>
       <c r="D786" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $START_CRITERIA_ON_KEY</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $PLAYED_VOICES_INST</v>
       </c>
       <c r="E786" s="24"/>
     </row>
     <row r="787" spans="1:5">
       <c r="A787" s="28" t="s">
-        <v>927</v>
+        <v>913</v>
       </c>
       <c r="B787" s="28"/>
       <c r="C787" s="29"/>
       <c r="D787" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $START_CRITERIA_OR_NEXT</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $PLAYED_VOICES_TOTAL</v>
       </c>
       <c r="E787" s="24"/>
     </row>
     <row r="788" spans="1:5">
       <c r="A788" s="28" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="B788" s="28"/>
       <c r="C788" s="29"/>
       <c r="D788" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $START_CRITERIA_SLICE_TRIGGER</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $POLY_AT_NUM</v>
       </c>
       <c r="E788" s="24"/>
     </row>
     <row r="789" spans="1:5">
       <c r="A789" s="28" t="s">
-        <v>929</v>
+        <v>915</v>
       </c>
       <c r="B789" s="28"/>
       <c r="C789" s="29"/>
       <c r="D789" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $UI_WAVEFORM_TABLE_IS_BIPOLAR</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $REF_GROUP_IDX</v>
       </c>
       <c r="E789" s="24"/>
     </row>
     <row r="790" spans="1:5">
       <c r="A790" s="28" t="s">
-        <v>930</v>
+        <v>916</v>
       </c>
       <c r="B790" s="28"/>
       <c r="C790" s="29"/>
       <c r="D790" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $UI_WAVEFORM_USE_MIDI_DRAG</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $RPN_ADDRESS</v>
       </c>
       <c r="E790" s="24"/>
     </row>
     <row r="791" spans="1:5">
       <c r="A791" s="28" t="s">
-        <v>931</v>
+        <v>917</v>
       </c>
       <c r="B791" s="28"/>
       <c r="C791" s="29"/>
       <c r="D791" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $UI_WAVEFORM_USE_SLICES</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $RPN_VALUE</v>
       </c>
       <c r="E791" s="24"/>
     </row>
     <row r="792" spans="1:5">
       <c r="A792" s="28" t="s">
-        <v>932</v>
+        <v>918</v>
       </c>
       <c r="B792" s="28"/>
       <c r="C792" s="29"/>
       <c r="D792" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $UI_WAVEFORM_USE_TABLE</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $SIGNATURE_DENOM</v>
       </c>
       <c r="E792" s="24"/>
     </row>
     <row r="793" spans="1:5">
       <c r="A793" s="28" t="s">
-        <v>933</v>
+        <v>919</v>
       </c>
       <c r="B793" s="28"/>
       <c r="C793" s="29"/>
       <c r="D793" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $UI_WF_PROP_FLAGS</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $SIGNATURE_NUM</v>
       </c>
       <c r="E793" s="24"/>
     </row>
     <row r="794" spans="1:5">
       <c r="A794" s="28" t="s">
-        <v>934</v>
+        <v>920</v>
       </c>
       <c r="B794" s="28"/>
       <c r="C794" s="29"/>
       <c r="D794" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $UI_WF_PROP_MIDI_DRAG_START_NOTE</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $START_CRITERIA_AND_NEXT</v>
       </c>
       <c r="E794" s="24"/>
     </row>
     <row r="795" spans="1:5">
       <c r="A795" s="28" t="s">
-        <v>935</v>
+        <v>921</v>
       </c>
       <c r="B795" s="28"/>
       <c r="C795" s="29"/>
       <c r="D795" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $UI_WF_PROP_PLAY_CURSOR</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $START_CRITERIA_AND_NOT_NEXT</v>
       </c>
       <c r="E795" s="24"/>
     </row>
     <row r="796" spans="1:5">
       <c r="A796" s="28" t="s">
-        <v>936</v>
+        <v>922</v>
       </c>
       <c r="B796" s="28"/>
       <c r="C796" s="29"/>
       <c r="D796" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $UI_WF_PROP_TABLE_IDX_HIGHLIGHT</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $START_CRITERIA_CYCLE_RANDOM</v>
       </c>
       <c r="E796" s="24"/>
     </row>
     <row r="797" spans="1:5">
       <c r="A797" s="28" t="s">
-        <v>937</v>
+        <v>923</v>
       </c>
       <c r="B797" s="28"/>
       <c r="C797" s="29"/>
       <c r="D797" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $UI_WF_PROP_TABLE_VAL</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $START_CRITERIA_CYCLE_ROUND_ROBIN</v>
       </c>
       <c r="E797" s="24"/>
     </row>
     <row r="798" spans="1:5">
       <c r="A798" s="28" t="s">
-        <v>938</v>
+        <v>924</v>
       </c>
       <c r="B798" s="28"/>
       <c r="C798" s="29"/>
       <c r="D798" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $VALUE_EDIT_MODE_NOTE_NAMES</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $START_CRITERIA_NONE</v>
       </c>
       <c r="E798" s="24"/>
     </row>
     <row r="799" spans="1:5">
       <c r="A799" s="28" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="B799" s="28"/>
       <c r="C799" s="29"/>
       <c r="D799" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $VCC_MONO_AT</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $START_CRITERIA_ON_CONTROLLER</v>
       </c>
       <c r="E799" s="24"/>
     </row>
     <row r="800" spans="1:5">
       <c r="A800" s="28" t="s">
-        <v>940</v>
+        <v>926</v>
       </c>
       <c r="B800" s="28"/>
       <c r="C800" s="29"/>
       <c r="D800" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $VCC_PITCH_BEND</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $START_CRITERIA_ON_KEY</v>
       </c>
       <c r="E800" s="24"/>
     </row>
     <row r="801" spans="1:5">
-      <c r="A801" s="38" t="s">
-        <v>1795</v>
+      <c r="A801" s="28" t="s">
+        <v>927</v>
       </c>
       <c r="B801" s="28"/>
       <c r="C801" s="29"/>
       <c r="D801" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $ZONE_PAR_FADE_HIGH_KEY</v>
-      </c>
-      <c r="E801" s="24" t="s">
-        <v>1654</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $START_CRITERIA_OR_NEXT</v>
+      </c>
+      <c r="E801" s="24"/>
     </row>
     <row r="802" spans="1:5">
-      <c r="A802" s="38" t="s">
-        <v>1796</v>
+      <c r="A802" s="28" t="s">
+        <v>928</v>
       </c>
       <c r="B802" s="28"/>
       <c r="C802" s="29"/>
       <c r="D802" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $ZONE_PAR_FADE_HIGH_VELO</v>
-      </c>
-      <c r="E802" s="24" t="s">
-        <v>1654</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $START_CRITERIA_SLICE_TRIGGER</v>
+      </c>
+      <c r="E802" s="24"/>
     </row>
     <row r="803" spans="1:5">
-      <c r="A803" s="38" t="s">
-        <v>1797</v>
+      <c r="A803" s="28" t="s">
+        <v>929</v>
       </c>
       <c r="B803" s="28"/>
       <c r="C803" s="29"/>
       <c r="D803" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $ZONE_PAR_FADE_LOW_KEY</v>
-      </c>
-      <c r="E803" s="24" t="s">
-        <v>1654</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $UI_WAVEFORM_TABLE_IS_BIPOLAR</v>
+      </c>
+      <c r="E803" s="24"/>
     </row>
     <row r="804" spans="1:5">
-      <c r="A804" s="38" t="s">
-        <v>1798</v>
+      <c r="A804" s="28" t="s">
+        <v>930</v>
       </c>
       <c r="B804" s="28"/>
       <c r="C804" s="29"/>
       <c r="D804" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $ZONE_PAR_FADE_LOW_VELO</v>
-      </c>
-      <c r="E804" s="24" t="s">
-        <v>1654</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $UI_WAVEFORM_USE_MIDI_DRAG</v>
+      </c>
+      <c r="E804" s="24"/>
     </row>
     <row r="805" spans="1:5">
-      <c r="A805" s="38" t="s">
-        <v>1799</v>
+      <c r="A805" s="28" t="s">
+        <v>931</v>
       </c>
       <c r="B805" s="28"/>
       <c r="C805" s="29"/>
       <c r="D805" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $ZONE_PAR_GROUP</v>
-      </c>
-      <c r="E805" s="24" t="s">
-        <v>1654</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $UI_WAVEFORM_USE_SLICES</v>
+      </c>
+      <c r="E805" s="24"/>
     </row>
     <row r="806" spans="1:5">
-      <c r="A806" s="38" t="s">
-        <v>1800</v>
+      <c r="A806" s="28" t="s">
+        <v>932</v>
       </c>
       <c r="B806" s="28"/>
       <c r="C806" s="29"/>
       <c r="D806" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $ZONE_PAR_HIGH_KEY</v>
-      </c>
-      <c r="E806" s="24" t="s">
-        <v>1654</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $UI_WAVEFORM_USE_TABLE</v>
+      </c>
+      <c r="E806" s="24"/>
     </row>
     <row r="807" spans="1:5">
-      <c r="A807" s="38" t="s">
-        <v>1801</v>
+      <c r="A807" s="28" t="s">
+        <v>933</v>
       </c>
       <c r="B807" s="28"/>
       <c r="C807" s="29"/>
       <c r="D807" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $ZONE_PAR_HIGH_VELO</v>
-      </c>
-      <c r="E807" s="24" t="s">
-        <v>1654</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $UI_WF_PROP_FLAGS</v>
+      </c>
+      <c r="E807" s="24"/>
     </row>
     <row r="808" spans="1:5">
-      <c r="A808" s="38" t="s">
-        <v>1802</v>
+      <c r="A808" s="28" t="s">
+        <v>934</v>
       </c>
       <c r="B808" s="28"/>
       <c r="C808" s="29"/>
       <c r="D808" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $ZONE_PAR_LOW_KEY</v>
-      </c>
-      <c r="E808" s="24" t="s">
-        <v>1654</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $UI_WF_PROP_MIDI_DRAG_START_NOTE</v>
+      </c>
+      <c r="E808" s="24"/>
     </row>
     <row r="809" spans="1:5">
-      <c r="A809" s="38" t="s">
-        <v>1803</v>
+      <c r="A809" s="28" t="s">
+        <v>935</v>
       </c>
       <c r="B809" s="28"/>
       <c r="C809" s="29"/>
       <c r="D809" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $ZONE_PAR_LOW_VELO</v>
-      </c>
-      <c r="E809" s="24" t="s">
-        <v>1654</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $UI_WF_PROP_PLAY_CURSOR</v>
+      </c>
+      <c r="E809" s="24"/>
     </row>
     <row r="810" spans="1:5">
-      <c r="A810" s="38" t="s">
-        <v>1804</v>
+      <c r="A810" s="28" t="s">
+        <v>936</v>
       </c>
       <c r="B810" s="28"/>
       <c r="C810" s="29"/>
       <c r="D810" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $ZONE_PAR_PAN</v>
-      </c>
-      <c r="E810" s="24" t="s">
-        <v>1654</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $UI_WF_PROP_TABLE_IDX_HIGHLIGHT</v>
+      </c>
+      <c r="E810" s="24"/>
     </row>
     <row r="811" spans="1:5">
-      <c r="A811" s="38" t="s">
-        <v>1805</v>
+      <c r="A811" s="28" t="s">
+        <v>937</v>
       </c>
       <c r="B811" s="28"/>
       <c r="C811" s="29"/>
       <c r="D811" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $ZONE_PAR_ROOT_KEY</v>
-      </c>
-      <c r="E811" s="24" t="s">
-        <v>1654</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $UI_WF_PROP_TABLE_VAL</v>
+      </c>
+      <c r="E811" s="24"/>
     </row>
     <row r="812" spans="1:5">
-      <c r="A812" s="38" t="s">
-        <v>1806</v>
+      <c r="A812" s="28" t="s">
+        <v>938</v>
       </c>
       <c r="B812" s="28"/>
       <c r="C812" s="29"/>
       <c r="D812" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $ZONE_PAR_SAMPLE_END</v>
-      </c>
-      <c r="E812" s="24" t="s">
-        <v>1654</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $VALUE_EDIT_MODE_NOTE_NAMES</v>
+      </c>
+      <c r="E812" s="24"/>
     </row>
     <row r="813" spans="1:5">
-      <c r="A813" s="38" t="s">
-        <v>1807</v>
+      <c r="A813" s="28" t="s">
+        <v>939</v>
       </c>
       <c r="B813" s="28"/>
       <c r="C813" s="29"/>
       <c r="D813" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $ZONE_PAR_SAMPLE_MOD_RANGE</v>
-      </c>
-      <c r="E813" s="24" t="s">
-        <v>1654</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $VCC_MONO_AT</v>
+      </c>
+      <c r="E813" s="24"/>
     </row>
     <row r="814" spans="1:5">
-      <c r="A814" s="38" t="s">
-        <v>1808</v>
+      <c r="A814" s="28" t="s">
+        <v>940</v>
       </c>
       <c r="B814" s="28"/>
       <c r="C814" s="29"/>
       <c r="D814" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $ZONE_PAR_SAMPLE_START</v>
-      </c>
-      <c r="E814" s="24" t="s">
-        <v>1654</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $VCC_PITCH_BEND</v>
+      </c>
+      <c r="E814" s="24"/>
     </row>
     <row r="815" spans="1:5">
       <c r="A815" s="38" t="s">
-        <v>1809</v>
+        <v>1795</v>
       </c>
       <c r="B815" s="28"/>
       <c r="C815" s="29"/>
       <c r="D815" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $ZONE_PAR_TUNE</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $ZONE_PAR_FADE_HIGH_KEY</v>
       </c>
       <c r="E815" s="24" t="s">
         <v>1654</v>
@@ -20661,13 +20794,13 @@
     </row>
     <row r="816" spans="1:5">
       <c r="A816" s="38" t="s">
-        <v>1810</v>
+        <v>1796</v>
       </c>
       <c r="B816" s="28"/>
       <c r="C816" s="29"/>
       <c r="D816" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: $ZONE_PAR_VOLUME</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $ZONE_PAR_FADE_HIGH_VELO</v>
       </c>
       <c r="E816" s="24" t="s">
         <v>1654</v>
@@ -20675,463 +20808,659 @@
     </row>
     <row r="817" spans="1:5">
       <c r="A817" s="38" t="s">
-        <v>1198</v>
+        <v>1797</v>
       </c>
       <c r="B817" s="28"/>
       <c r="C817" s="29"/>
       <c r="D817" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: %CC</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $ZONE_PAR_FADE_LOW_KEY</v>
       </c>
       <c r="E817" s="24" t="s">
         <v>1654</v>
       </c>
     </row>
     <row r="818" spans="1:5">
-      <c r="A818" s="28" t="s">
-        <v>1199</v>
+      <c r="A818" s="38" t="s">
+        <v>1798</v>
       </c>
       <c r="B818" s="28"/>
       <c r="C818" s="29"/>
       <c r="D818" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: %CC_TOUCHED</v>
-      </c>
-      <c r="E818" s="24"/>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $ZONE_PAR_FADE_LOW_VELO</v>
+      </c>
+      <c r="E818" s="24" t="s">
+        <v>1654</v>
+      </c>
     </row>
     <row r="819" spans="1:5">
-      <c r="A819" s="28" t="s">
-        <v>1200</v>
+      <c r="A819" s="38" t="s">
+        <v>1799</v>
       </c>
       <c r="B819" s="28"/>
       <c r="C819" s="29"/>
       <c r="D819" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: %GROUPS_AFFECTED</v>
-      </c>
-      <c r="E819" s="24"/>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $ZONE_PAR_GROUP</v>
+      </c>
+      <c r="E819" s="24" t="s">
+        <v>1654</v>
+      </c>
     </row>
     <row r="820" spans="1:5">
-      <c r="A820" s="28" t="s">
-        <v>1201</v>
+      <c r="A820" s="38" t="s">
+        <v>1800</v>
       </c>
       <c r="B820" s="28"/>
       <c r="C820" s="29"/>
       <c r="D820" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: %GROUPS_SELECTED</v>
-      </c>
-      <c r="E820" s="24"/>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $ZONE_PAR_HIGH_KEY</v>
+      </c>
+      <c r="E820" s="24" t="s">
+        <v>1654</v>
+      </c>
     </row>
     <row r="821" spans="1:5">
-      <c r="A821" s="28" t="s">
-        <v>1202</v>
+      <c r="A821" s="38" t="s">
+        <v>1801</v>
       </c>
       <c r="B821" s="28"/>
       <c r="C821" s="29"/>
       <c r="D821" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: %KEY_DOWN</v>
-      </c>
-      <c r="E821" s="24"/>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $ZONE_PAR_HIGH_VELO</v>
+      </c>
+      <c r="E821" s="24" t="s">
+        <v>1654</v>
+      </c>
     </row>
     <row r="822" spans="1:5">
-      <c r="A822" s="28" t="s">
-        <v>1203</v>
+      <c r="A822" s="38" t="s">
+        <v>1802</v>
       </c>
       <c r="B822" s="28"/>
       <c r="C822" s="29"/>
       <c r="D822" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: %KEY_DOWN_OCT</v>
-      </c>
-      <c r="E822" s="24"/>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $ZONE_PAR_LOW_KEY</v>
+      </c>
+      <c r="E822" s="24" t="s">
+        <v>1654</v>
+      </c>
     </row>
     <row r="823" spans="1:5">
-      <c r="A823" s="28" t="s">
-        <v>1204</v>
+      <c r="A823" s="38" t="s">
+        <v>1803</v>
       </c>
       <c r="B823" s="28"/>
       <c r="C823" s="29"/>
       <c r="D823" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: %NOTE_DURATION</v>
-      </c>
-      <c r="E823" s="24"/>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $ZONE_PAR_LOW_VELO</v>
+      </c>
+      <c r="E823" s="24" t="s">
+        <v>1654</v>
+      </c>
     </row>
     <row r="824" spans="1:5">
-      <c r="A824" s="28" t="s">
-        <v>1205</v>
+      <c r="A824" s="38" t="s">
+        <v>1804</v>
       </c>
       <c r="B824" s="28"/>
       <c r="C824" s="29"/>
       <c r="D824" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: %POLY_AT</v>
-      </c>
-      <c r="E824" s="24"/>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $ZONE_PAR_PAN</v>
+      </c>
+      <c r="E824" s="24" t="s">
+        <v>1654</v>
+      </c>
     </row>
     <row r="825" spans="1:5">
-      <c r="A825" s="28" t="s">
-        <v>941</v>
+      <c r="A825" s="38" t="s">
+        <v>1805</v>
       </c>
       <c r="B825" s="28"/>
-      <c r="C825" s="33"/>
+      <c r="C825" s="29"/>
       <c r="D825" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: ~NI_MATH_E</v>
-      </c>
-      <c r="E825" s="24"/>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $ZONE_PAR_ROOT_KEY</v>
+      </c>
+      <c r="E825" s="24" t="s">
+        <v>1654</v>
+      </c>
     </row>
     <row r="826" spans="1:5">
-      <c r="A826" s="42" t="s">
-        <v>1778</v>
+      <c r="A826" s="38" t="s">
+        <v>1806</v>
       </c>
       <c r="B826" s="28"/>
-      <c r="C826" s="33"/>
+      <c r="C826" s="29"/>
       <c r="D826" s="30" t="str">
-        <f t="shared" si="12"/>
-        <v>Built-in Variable: ~NI_DETECT_LOUDNESS_INVALID</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $ZONE_PAR_SAMPLE_END</v>
       </c>
       <c r="E826" s="24" t="s">
         <v>1654</v>
       </c>
     </row>
     <row r="827" spans="1:5">
-      <c r="A827" s="42" t="s">
-        <v>1779</v>
+      <c r="A827" s="38" t="s">
+        <v>1807</v>
       </c>
       <c r="B827" s="28"/>
-      <c r="C827" s="33"/>
+      <c r="C827" s="29"/>
       <c r="D827" s="30" t="str">
-        <f t="shared" ref="D827:D833" si="13">CONCATENATE( "Built-in Variable: ", A827 )</f>
-        <v>Built-in Variable: ~NI_DETECT_PEAK_INVALID</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $ZONE_PAR_SAMPLE_MOD_RANGE</v>
       </c>
       <c r="E827" s="24" t="s">
         <v>1654</v>
       </c>
     </row>
     <row r="828" spans="1:5">
-      <c r="A828" s="42" t="s">
-        <v>1780</v>
+      <c r="A828" s="38" t="s">
+        <v>1808</v>
       </c>
       <c r="B828" s="28"/>
-      <c r="C828" s="33"/>
+      <c r="C828" s="29"/>
       <c r="D828" s="30" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: ~NI_DETECT_PITCH_INVALID</v>
+        <v>Built-in Variable: $ZONE_PAR_SAMPLE_START</v>
       </c>
       <c r="E828" s="24" t="s">
         <v>1654</v>
       </c>
     </row>
     <row r="829" spans="1:5">
-      <c r="A829" s="42" t="s">
-        <v>1781</v>
+      <c r="A829" s="38" t="s">
+        <v>1809</v>
       </c>
       <c r="B829" s="28"/>
-      <c r="C829" s="33"/>
+      <c r="C829" s="29"/>
       <c r="D829" s="30" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: ~NI_DETECT_RMS_INVALID</v>
+        <v>Built-in Variable: $ZONE_PAR_TUNE</v>
       </c>
       <c r="E829" s="24" t="s">
         <v>1654</v>
       </c>
     </row>
     <row r="830" spans="1:5">
-      <c r="A830" s="28" t="s">
-        <v>942</v>
+      <c r="A830" s="38" t="s">
+        <v>1810</v>
       </c>
       <c r="B830" s="28"/>
-      <c r="C830" s="33"/>
+      <c r="C830" s="29"/>
       <c r="D830" s="30" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: ~NI_MATH_PI</v>
-      </c>
-      <c r="E830" s="24"/>
+        <v>Built-in Variable: $ZONE_PAR_VOLUME</v>
+      </c>
+      <c r="E830" s="24" t="s">
+        <v>1654</v>
+      </c>
     </row>
     <row r="831" spans="1:5">
-      <c r="A831" s="43" t="s">
-        <v>1792</v>
-      </c>
-      <c r="B831" s="39"/>
-      <c r="C831" s="40"/>
+      <c r="A831" s="38" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B831" s="28"/>
+      <c r="C831" s="29"/>
       <c r="D831" s="30" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: !NI_DND_ITEMS_AUDIO</v>
+        <v>Built-in Variable: %CC</v>
       </c>
       <c r="E831" s="24" t="s">
         <v>1654</v>
       </c>
     </row>
     <row r="832" spans="1:5">
-      <c r="A832" s="43" t="s">
-        <v>1793</v>
-      </c>
-      <c r="B832" s="39"/>
-      <c r="C832" s="40"/>
+      <c r="A832" s="28" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B832" s="28"/>
+      <c r="C832" s="29"/>
       <c r="D832" s="30" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: !NI_DND_ITEMS_MIDI</v>
-      </c>
-      <c r="E832" s="24" t="s">
-        <v>1654</v>
-      </c>
+        <v>Built-in Variable: %CC_TOUCHED</v>
+      </c>
+      <c r="E832" s="24"/>
     </row>
     <row r="833" spans="1:5">
-      <c r="A833" s="43" t="s">
-        <v>1794</v>
-      </c>
-      <c r="B833" s="39"/>
-      <c r="C833" s="40"/>
+      <c r="A833" s="28" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B833" s="28"/>
+      <c r="C833" s="29"/>
       <c r="D833" s="30" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: !NI_DND_ITEMS_ARRAY</v>
-      </c>
-      <c r="E833" s="24" t="s">
-        <v>1654</v>
-      </c>
+        <v>Built-in Variable: %GROUPS_AFFECTED</v>
+      </c>
+      <c r="E833" s="24"/>
     </row>
     <row r="834" spans="1:5">
-      <c r="A834" s="34" t="s">
-        <v>1623</v>
-      </c>
-      <c r="B834" s="35"/>
-      <c r="C834" s="36"/>
-      <c r="D834" s="37"/>
+      <c r="A834" s="28" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B834" s="28"/>
+      <c r="C834" s="29"/>
+      <c r="D834" s="30" t="str">
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: %GROUPS_SELECTED</v>
+      </c>
       <c r="E834" s="24"/>
     </row>
     <row r="835" spans="1:5">
-      <c r="A835" s="30" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B835" s="9"/>
-      <c r="C835" s="33"/>
+      <c r="A835" s="28" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B835" s="28"/>
+      <c r="C835" s="29"/>
       <c r="D835" s="30" t="str">
-        <f t="shared" ref="D835:D853" si="14">CONCATENATE( "Built-in Variable: ", A835 )</f>
-        <v>Built-in Variable: $ENGINE_PAR_EXTMOD_INTENSITY</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: %KEY_DOWN</v>
       </c>
       <c r="E835" s="24"/>
     </row>
     <row r="836" spans="1:5">
-      <c r="A836" s="30" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B836" s="9"/>
-      <c r="C836" s="33"/>
+      <c r="A836" s="28" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B836" s="28"/>
+      <c r="C836" s="29"/>
       <c r="D836" s="30" t="str">
-        <f t="shared" si="14"/>
-        <v>Built-in Variable: $ENGINE_PAR_INTMOD_INTENSITY</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: %KEY_DOWN_OCT</v>
       </c>
       <c r="E836" s="24"/>
     </row>
     <row r="837" spans="1:5">
-      <c r="A837" s="30" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B837" s="9"/>
-      <c r="C837" s="33"/>
+      <c r="A837" s="28" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B837" s="28"/>
+      <c r="C837" s="29"/>
       <c r="D837" s="30" t="str">
-        <f t="shared" si="14"/>
-        <v>Built-in Variable: $ENGINE_PAR_RELEASE_TRIGGER</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: %NOTE_DURATION</v>
       </c>
       <c r="E837" s="24"/>
     </row>
     <row r="838" spans="1:5">
-      <c r="A838" s="30" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B838" s="9"/>
-      <c r="C838" s="33"/>
+      <c r="A838" s="28" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B838" s="28"/>
+      <c r="C838" s="29"/>
       <c r="D838" s="30" t="str">
-        <f t="shared" si="14"/>
-        <v>Built-in Variable: $ENGINE_PAR_SENDLEVEL_SMOOTHED_0</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: %POLY_AT</v>
       </c>
       <c r="E838" s="24"/>
     </row>
     <row r="839" spans="1:5">
-      <c r="A839" s="30" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B839" s="9"/>
+      <c r="A839" s="28" t="s">
+        <v>941</v>
+      </c>
+      <c r="B839" s="28"/>
       <c r="C839" s="33"/>
       <c r="D839" s="30" t="str">
-        <f t="shared" si="14"/>
-        <v>Built-in Variable: $ENGINE_PAR_SENDLEVEL_SMOOTHED_1</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: ~NI_MATH_E</v>
       </c>
       <c r="E839" s="24"/>
     </row>
     <row r="840" spans="1:5">
-      <c r="A840" s="30" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B840" s="9"/>
+      <c r="A840" s="42" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B840" s="28"/>
       <c r="C840" s="33"/>
       <c r="D840" s="30" t="str">
-        <f t="shared" si="14"/>
-        <v>Built-in Variable: $ENGINE_PAR_SENDLEVEL_SMOOTHED_2</v>
-      </c>
-      <c r="E840" s="24"/>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: ~NI_DETECT_LOUDNESS_INVALID</v>
+      </c>
+      <c r="E840" s="24" t="s">
+        <v>1654</v>
+      </c>
     </row>
     <row r="841" spans="1:5">
-      <c r="A841" s="30" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B841" s="9"/>
+      <c r="A841" s="42" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B841" s="28"/>
       <c r="C841" s="33"/>
       <c r="D841" s="30" t="str">
-        <f t="shared" si="14"/>
-        <v>Built-in Variable: $ENGINE_PAR_SENDLEVEL_SMOOTHED_3</v>
-      </c>
-      <c r="E841" s="24"/>
+        <f t="shared" ref="D841:D847" si="14">CONCATENATE( "Built-in Variable: ", A841 )</f>
+        <v>Built-in Variable: ~NI_DETECT_PEAK_INVALID</v>
+      </c>
+      <c r="E841" s="24" t="s">
+        <v>1654</v>
+      </c>
     </row>
     <row r="842" spans="1:5">
-      <c r="A842" s="30" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B842" s="9"/>
+      <c r="A842" s="42" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B842" s="28"/>
       <c r="C842" s="33"/>
       <c r="D842" s="30" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $ENGINE_PAR_SENDLEVEL_SMOOTHED_4</v>
-      </c>
-      <c r="E842" s="24"/>
+        <v>Built-in Variable: ~NI_DETECT_PITCH_INVALID</v>
+      </c>
+      <c r="E842" s="24" t="s">
+        <v>1654</v>
+      </c>
     </row>
     <row r="843" spans="1:5">
-      <c r="A843" s="30" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B843" s="9"/>
+      <c r="A843" s="42" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B843" s="28"/>
       <c r="C843" s="33"/>
       <c r="D843" s="30" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $ENGINE_PAR_SENDLEVEL_SMOOTHED_5</v>
-      </c>
-      <c r="E843" s="24"/>
+        <v>Built-in Variable: ~NI_DETECT_RMS_INVALID</v>
+      </c>
+      <c r="E843" s="24" t="s">
+        <v>1654</v>
+      </c>
     </row>
     <row r="844" spans="1:5">
-      <c r="A844" s="30" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B844" s="9"/>
+      <c r="A844" s="28" t="s">
+        <v>942</v>
+      </c>
+      <c r="B844" s="28"/>
       <c r="C844" s="33"/>
       <c r="D844" s="30" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $ENGINE_PAR_SENDLEVEL_SMOOTHED_6</v>
+        <v>Built-in Variable: ~NI_MATH_PI</v>
       </c>
       <c r="E844" s="24"/>
     </row>
     <row r="845" spans="1:5">
-      <c r="A845" s="30" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B845" s="9"/>
-      <c r="C845" s="33"/>
+      <c r="A845" s="43" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B845" s="39"/>
+      <c r="C845" s="40"/>
       <c r="D845" s="30" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $ENGINE_PAR_SENDLEVEL_SMOOTHED_7</v>
-      </c>
-      <c r="E845" s="24"/>
+        <v>Built-in Variable: !NI_DND_ITEMS_AUDIO</v>
+      </c>
+      <c r="E845" s="24" t="s">
+        <v>1654</v>
+      </c>
     </row>
     <row r="846" spans="1:5">
-      <c r="A846" s="30" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B846" s="9"/>
-      <c r="C846" s="33"/>
+      <c r="A846" s="43" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B846" s="39"/>
+      <c r="C846" s="40"/>
       <c r="D846" s="30" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $GET_FOLDER_INSTALL_DIR</v>
-      </c>
-      <c r="E846" s="24"/>
+        <v>Built-in Variable: !NI_DND_ITEMS_MIDI</v>
+      </c>
+      <c r="E846" s="24" t="s">
+        <v>1654</v>
+      </c>
     </row>
     <row r="847" spans="1:5">
-      <c r="A847" s="30" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B847" s="9"/>
-      <c r="C847" s="33"/>
+      <c r="A847" s="43" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B847" s="39"/>
+      <c r="C847" s="40"/>
       <c r="D847" s="30" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $IDX_OFFSET_EXT_MOD</v>
-      </c>
-      <c r="E847" s="24"/>
+        <v>Built-in Variable: !NI_DND_ITEMS_ARRAY</v>
+      </c>
+      <c r="E847" s="24" t="s">
+        <v>1654</v>
+      </c>
     </row>
     <row r="848" spans="1:5">
-      <c r="A848" s="30" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B848" s="9"/>
-      <c r="C848" s="33"/>
-      <c r="D848" s="30" t="str">
-        <f t="shared" si="14"/>
-        <v>Built-in Variable: $INST_LIB_COPYRIGHT_ID</v>
-      </c>
+      <c r="A848" s="34" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B848" s="35"/>
+      <c r="C848" s="36"/>
+      <c r="D848" s="37"/>
       <c r="E848" s="24"/>
     </row>
     <row r="849" spans="1:5">
       <c r="A849" s="30" t="s">
-        <v>1321</v>
+        <v>1307</v>
       </c>
       <c r="B849" s="9"/>
       <c r="C849" s="33"/>
       <c r="D849" s="30" t="str">
-        <f t="shared" si="14"/>
-        <v>Built-in Variable: $INST_LIB_DESCRIPTION_ID</v>
+        <f t="shared" ref="D849:D867" si="15">CONCATENATE( "Built-in Variable: ", A849 )</f>
+        <v>Built-in Variable: $ENGINE_PAR_EXTMOD_INTENSITY</v>
       </c>
       <c r="E849" s="24"/>
     </row>
     <row r="850" spans="1:5">
       <c r="A850" s="30" t="s">
-        <v>1322</v>
+        <v>1308</v>
       </c>
       <c r="B850" s="9"/>
       <c r="C850" s="33"/>
       <c r="D850" s="30" t="str">
-        <f t="shared" si="14"/>
-        <v>Built-in Variable: $INST_LIB_PIC_ONE_ID</v>
+        <f t="shared" si="15"/>
+        <v>Built-in Variable: $ENGINE_PAR_INTMOD_INTENSITY</v>
       </c>
       <c r="E850" s="24"/>
     </row>
     <row r="851" spans="1:5">
       <c r="A851" s="30" t="s">
-        <v>1323</v>
+        <v>1309</v>
       </c>
       <c r="B851" s="9"/>
       <c r="C851" s="33"/>
       <c r="D851" s="30" t="str">
-        <f t="shared" si="14"/>
-        <v>Built-in Variable: $INST_LIB_PIC_TWO_ID</v>
+        <f t="shared" si="15"/>
+        <v>Built-in Variable: $ENGINE_PAR_RELEASE_TRIGGER</v>
       </c>
       <c r="E851" s="24"/>
     </row>
     <row r="852" spans="1:5">
       <c r="A852" s="30" t="s">
-        <v>1324</v>
+        <v>1310</v>
       </c>
       <c r="B852" s="9"/>
       <c r="C852" s="33"/>
       <c r="D852" s="30" t="str">
-        <f t="shared" si="14"/>
-        <v>Built-in Variable: $LFO_TYPE_SINE</v>
+        <f t="shared" si="15"/>
+        <v>Built-in Variable: $ENGINE_PAR_SENDLEVEL_SMOOTHED_0</v>
       </c>
       <c r="E852" s="24"/>
     </row>
     <row r="853" spans="1:5">
       <c r="A853" s="30" t="s">
-        <v>1845</v>
+        <v>1311</v>
       </c>
       <c r="B853" s="9"/>
       <c r="C853" s="33"/>
       <c r="D853" s="30" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
+        <v>Built-in Variable: $ENGINE_PAR_SENDLEVEL_SMOOTHED_1</v>
+      </c>
+      <c r="E853" s="24"/>
+    </row>
+    <row r="854" spans="1:5">
+      <c r="A854" s="30" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B854" s="9"/>
+      <c r="C854" s="33"/>
+      <c r="D854" s="30" t="str">
+        <f t="shared" si="15"/>
+        <v>Built-in Variable: $ENGINE_PAR_SENDLEVEL_SMOOTHED_2</v>
+      </c>
+      <c r="E854" s="24"/>
+    </row>
+    <row r="855" spans="1:5">
+      <c r="A855" s="30" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B855" s="9"/>
+      <c r="C855" s="33"/>
+      <c r="D855" s="30" t="str">
+        <f t="shared" si="15"/>
+        <v>Built-in Variable: $ENGINE_PAR_SENDLEVEL_SMOOTHED_3</v>
+      </c>
+      <c r="E855" s="24"/>
+    </row>
+    <row r="856" spans="1:5">
+      <c r="A856" s="30" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B856" s="9"/>
+      <c r="C856" s="33"/>
+      <c r="D856" s="30" t="str">
+        <f t="shared" si="15"/>
+        <v>Built-in Variable: $ENGINE_PAR_SENDLEVEL_SMOOTHED_4</v>
+      </c>
+      <c r="E856" s="24"/>
+    </row>
+    <row r="857" spans="1:5">
+      <c r="A857" s="30" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B857" s="9"/>
+      <c r="C857" s="33"/>
+      <c r="D857" s="30" t="str">
+        <f t="shared" si="15"/>
+        <v>Built-in Variable: $ENGINE_PAR_SENDLEVEL_SMOOTHED_5</v>
+      </c>
+      <c r="E857" s="24"/>
+    </row>
+    <row r="858" spans="1:5">
+      <c r="A858" s="30" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B858" s="9"/>
+      <c r="C858" s="33"/>
+      <c r="D858" s="30" t="str">
+        <f t="shared" si="15"/>
+        <v>Built-in Variable: $ENGINE_PAR_SENDLEVEL_SMOOTHED_6</v>
+      </c>
+      <c r="E858" s="24"/>
+    </row>
+    <row r="859" spans="1:5">
+      <c r="A859" s="30" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B859" s="9"/>
+      <c r="C859" s="33"/>
+      <c r="D859" s="30" t="str">
+        <f t="shared" si="15"/>
+        <v>Built-in Variable: $ENGINE_PAR_SENDLEVEL_SMOOTHED_7</v>
+      </c>
+      <c r="E859" s="24"/>
+    </row>
+    <row r="860" spans="1:5">
+      <c r="A860" s="30" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B860" s="9"/>
+      <c r="C860" s="33"/>
+      <c r="D860" s="30" t="str">
+        <f t="shared" si="15"/>
+        <v>Built-in Variable: $GET_FOLDER_INSTALL_DIR</v>
+      </c>
+      <c r="E860" s="24"/>
+    </row>
+    <row r="861" spans="1:5">
+      <c r="A861" s="30" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B861" s="9"/>
+      <c r="C861" s="33"/>
+      <c r="D861" s="30" t="str">
+        <f t="shared" si="15"/>
+        <v>Built-in Variable: $IDX_OFFSET_EXT_MOD</v>
+      </c>
+      <c r="E861" s="24"/>
+    </row>
+    <row r="862" spans="1:5">
+      <c r="A862" s="30" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B862" s="9"/>
+      <c r="C862" s="33"/>
+      <c r="D862" s="30" t="str">
+        <f t="shared" si="15"/>
+        <v>Built-in Variable: $INST_LIB_COPYRIGHT_ID</v>
+      </c>
+      <c r="E862" s="24"/>
+    </row>
+    <row r="863" spans="1:5">
+      <c r="A863" s="30" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B863" s="9"/>
+      <c r="C863" s="33"/>
+      <c r="D863" s="30" t="str">
+        <f t="shared" si="15"/>
+        <v>Built-in Variable: $INST_LIB_DESCRIPTION_ID</v>
+      </c>
+      <c r="E863" s="24"/>
+    </row>
+    <row r="864" spans="1:5">
+      <c r="A864" s="30" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B864" s="9"/>
+      <c r="C864" s="33"/>
+      <c r="D864" s="30" t="str">
+        <f t="shared" si="15"/>
+        <v>Built-in Variable: $INST_LIB_PIC_ONE_ID</v>
+      </c>
+      <c r="E864" s="24"/>
+    </row>
+    <row r="865" spans="1:5">
+      <c r="A865" s="30" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B865" s="9"/>
+      <c r="C865" s="33"/>
+      <c r="D865" s="30" t="str">
+        <f t="shared" si="15"/>
+        <v>Built-in Variable: $INST_LIB_PIC_TWO_ID</v>
+      </c>
+      <c r="E865" s="24"/>
+    </row>
+    <row r="866" spans="1:5">
+      <c r="A866" s="30" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B866" s="9"/>
+      <c r="C866" s="33"/>
+      <c r="D866" s="30" t="str">
+        <f t="shared" si="15"/>
+        <v>Built-in Variable: $LFO_TYPE_SINE</v>
+      </c>
+      <c r="E866" s="24"/>
+    </row>
+    <row r="867" spans="1:5">
+      <c r="A867" s="30" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B867" s="9"/>
+      <c r="C867" s="33"/>
+      <c r="D867" s="30" t="str">
+        <f t="shared" si="15"/>
         <v>Built-in Variable: $NI_CB_TYPE_ASYNC_COMPLETE</v>
       </c>
-      <c r="E853" s="24"/>
+      <c r="E867" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E853" xr:uid="{C8AC4DF4-6292-AD40-89F2-2BD447F1EC09}"/>
+  <autoFilter ref="A1:E867" xr:uid="{C8AC4DF4-6292-AD40-89F2-2BD447F1EC09}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:A21">
     <sortCondition ref="A21"/>
   </sortState>

--- a/data/KSP_Completion.xlsx
+++ b/data/KSP_Completion.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04566428-C1EC-2648-A577-B43D6193590D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A25CDEC-5BF1-1E4F-A048-7E23A9ADF9A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6220" yWindow="3960" windowWidth="22580" windowHeight="13740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6220" yWindow="3960" windowWidth="22580" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Command" sheetId="6" r:id="rId1"/>
     <sheet name="Variable" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Command!$A$1:$E$296</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Command!$A$1:$E$297</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variable!$A$1:$E$909</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4" concurrentCalc="0"/>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="1968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="1972">
   <si>
     <t>description</t>
     <phoneticPr fontId="3"/>
@@ -6326,6 +6326,22 @@
   </si>
   <si>
     <t>$EVENT_PAR_12</t>
+  </si>
+  <si>
+    <t>abs</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>abs( ${1:x} )</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>abs( x )</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolute value </t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -6925,13 +6941,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EF9006-51C1-8B4B-B9A3-BB18B251309C}">
-  <dimension ref="A1:F296"/>
+  <dimension ref="A1:F297"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C177" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="A182" sqref="A182"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="20"/>
@@ -7055,783 +7071,783 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>10</v>
+        <v>1968</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>1969</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>1403</v>
+        <v>1970</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>12</v>
+        <v>1971</v>
       </c>
       <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E10" s="39"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>971</v>
+        <v>15</v>
       </c>
       <c r="E11" s="39"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>20</v>
+        <v>971</v>
       </c>
       <c r="E12" s="39"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E13" s="39"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E14" s="39"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E16" s="39"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E17" s="39"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E18" s="39"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E19" s="39"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E20" s="39"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E21" s="39"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E22" s="39"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E23" s="39"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E24" s="39"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E25" s="39"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E26" s="39"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E27" s="39"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E28" s="39"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>973</v>
+        <v>67</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E29" s="39"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E30" s="39"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E31" s="39"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>1619</v>
+        <v>1425</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E32" s="39"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E33" s="39"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>1426</v>
+        <v>1620</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E34" s="39"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="39"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C36" s="12" t="s">
         <v>1427</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D36" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="39"/>
-    </row>
-    <row r="36" spans="1:6" s="14" customFormat="1">
-      <c r="A36" s="7" t="s">
+      <c r="E36" s="39"/>
+    </row>
+    <row r="37" spans="1:6" s="14" customFormat="1">
+      <c r="A37" s="7" t="s">
         <v>1603</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="17"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="39"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E38" s="39"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>1621</v>
+        <v>85</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E39" s="39"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>1428</v>
+        <v>1621</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E40" s="39"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E41" s="39"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>1622</v>
+        <v>1429</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E42" s="39"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>1430</v>
+        <v>1622</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E43" s="39"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E44" s="39"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="39"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="6" t="s">
         <v>960</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C46" s="12" t="s">
         <v>1432</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D46" s="16" t="s">
         <v>961</v>
       </c>
-      <c r="E45" s="39"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="7" t="s">
+      <c r="E46" s="39"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="7" t="s">
         <v>1600</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="39"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>987</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>1433</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>100</v>
-      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="44"/>
       <c r="E47" s="39"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E48" s="39"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E49" s="39"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1111</v>
+        <v>989</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E50" s="39"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>990</v>
+        <v>1111</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E51" s="39"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E52" s="39"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E53" s="39"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E54" s="39"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E55" s="39"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>1112</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C56" s="12" t="s">
         <v>1441</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D56" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E55" s="39"/>
-    </row>
-    <row r="56" spans="1:6" s="14" customFormat="1">
-      <c r="A56" s="6" t="s">
+      <c r="E56" s="39"/>
+    </row>
+    <row r="57" spans="1:6" s="14" customFormat="1">
+      <c r="A57" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C57" s="12" t="s">
         <v>1442</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D57" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="E56" s="48"/>
-      <c r="F56" s="17"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>994</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="E57" s="39"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="17"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E58" s="39"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E59" s="39"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E60" s="39"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1125</v>
+        <v>997</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>126</v>
@@ -7840,761 +7856,761 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>998</v>
+        <v>1125</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E62" s="39"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" s="39"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C64" s="12" t="s">
         <v>1449</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="D64" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E63" s="39"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="7" t="s">
+      <c r="E64" s="39"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="7" t="s">
         <v>1604</v>
       </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="39"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>1450</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>133</v>
-      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="44"/>
       <c r="E65" s="39"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E66" s="39"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" s="39"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C68" s="12" t="s">
         <v>1452</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E67" s="39"/>
-    </row>
-    <row r="68" spans="1:6" s="14" customFormat="1">
-      <c r="A68" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>1453</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E68" s="48"/>
-      <c r="F68" s="17"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="7" t="s">
+      <c r="E68" s="39"/>
+    </row>
+    <row r="69" spans="1:6" s="14" customFormat="1">
+      <c r="A69" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E69" s="48"/>
+      <c r="F69" s="17"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="7" t="s">
         <v>1605</v>
       </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="39"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>1454</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>140</v>
-      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="44"/>
       <c r="E70" s="39"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E71" s="39"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E72" s="39"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E73" s="39"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E74" s="39"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E75" s="39"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C76" s="12" t="s">
         <v>1459</v>
       </c>
-      <c r="D75" s="16" t="s">
+      <c r="D76" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="E75" s="39"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="7" t="s">
+      <c r="E76" s="39"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="7" t="s">
         <v>1606</v>
       </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="39"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>1460</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>152</v>
-      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="44"/>
       <c r="E77" s="39"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1010</v>
+        <v>1114</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E78" s="39"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E79" s="39"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E80" s="39"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>159</v>
+        <v>1012</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>159</v>
+        <v>1463</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E81" s="39"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1013</v>
+        <v>159</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>1464</v>
+        <v>159</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E82" s="39"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E83" s="39"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>1115</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C84" s="12" t="s">
         <v>1465</v>
       </c>
-      <c r="D83" s="16" t="s">
+      <c r="D84" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="E83" s="39"/>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="28" t="s">
+      <c r="E84" s="39"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="28" t="s">
         <v>1681</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B85" s="3" t="s">
         <v>1682</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>1683</v>
       </c>
-      <c r="D84" s="16" t="s">
+      <c r="D85" s="16" t="s">
         <v>1684</v>
       </c>
-      <c r="E84" s="39" t="s">
+      <c r="E85" s="39" t="s">
         <v>1649</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="6" t="s">
+    <row r="86" spans="1:5">
+      <c r="A86" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B86" s="3" t="s">
         <v>1116</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C86" s="12" t="s">
         <v>1466</v>
       </c>
-      <c r="D85" s="16" t="s">
+      <c r="D86" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="E85" s="39"/>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="7" t="s">
+      <c r="E86" s="39"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="7" t="s">
         <v>1607</v>
       </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="39"/>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>1467</v>
-      </c>
-      <c r="D87" s="16" t="s">
-        <v>168</v>
-      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="44"/>
       <c r="E87" s="39"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E88" s="39"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>1117</v>
+        <v>1015</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E89" s="39"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>1016</v>
+        <v>1117</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E90" s="39"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E91" s="39"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E92" s="39"/>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E93" s="39"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E94" s="39"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E95" s="39"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E96" s="39"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>1022</v>
       </c>
-      <c r="C96" s="12" t="s">
+      <c r="C97" s="12" t="s">
         <v>1476</v>
       </c>
-      <c r="D96" s="16" t="s">
+      <c r="D97" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="E96" s="39"/>
-    </row>
-    <row r="97" spans="1:6" s="14" customFormat="1">
-      <c r="A97" s="6" t="s">
+      <c r="E97" s="39"/>
+    </row>
+    <row r="98" spans="1:6" s="14" customFormat="1">
+      <c r="A98" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B98" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="C97" s="12" t="s">
+      <c r="C98" s="12" t="s">
         <v>1477</v>
       </c>
-      <c r="D97" s="16" t="s">
+      <c r="D98" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="E97" s="48"/>
-      <c r="F97" s="17"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>1478</v>
-      </c>
-      <c r="D98" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E98" s="39"/>
+      <c r="E98" s="48"/>
+      <c r="F98" s="17"/>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>1396</v>
+        <v>1024</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>1214</v>
+        <v>190</v>
       </c>
       <c r="E99" s="39"/>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="6" t="s">
-        <v>1394</v>
+        <v>191</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>1397</v>
-      </c>
-      <c r="E100" s="28" t="s">
-        <v>1392</v>
-      </c>
+        <v>1214</v>
+      </c>
+      <c r="E100" s="39"/>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="6" t="s">
-        <v>192</v>
+        <v>1394</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>192</v>
+        <v>1395</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>192</v>
+        <v>1480</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="E101" s="39"/>
+        <v>1397</v>
+      </c>
+      <c r="E101" s="28" t="s">
+        <v>1392</v>
+      </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>1118</v>
+        <v>192</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>1481</v>
+        <v>192</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E102" s="39"/>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E103" s="39"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>1025</v>
+        <v>1119</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E104" s="39"/>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E105" s="39"/>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="6" t="s">
-        <v>958</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>1027</v>
+        <v>200</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>1026</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>1596</v>
+        <v>1484</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>959</v>
+        <v>201</v>
       </c>
       <c r="E106" s="39"/>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="6" t="s">
+        <v>958</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D107" s="16" t="s">
+        <v>959</v>
+      </c>
+      <c r="E107" s="39"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="6" t="s">
         <v>954</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B108" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="C107" s="12" t="s">
+      <c r="C108" s="12" t="s">
         <v>1485</v>
       </c>
-      <c r="D107" s="16" t="s">
+      <c r="D108" s="16" t="s">
         <v>955</v>
       </c>
-      <c r="E107" s="39"/>
-    </row>
-    <row r="108" spans="1:6" s="14" customFormat="1">
-      <c r="A108" s="6" t="s">
+      <c r="E108" s="39"/>
+    </row>
+    <row r="109" spans="1:6" s="14" customFormat="1">
+      <c r="A109" s="6" t="s">
         <v>956</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="C108" s="12" t="s">
+      <c r="C109" s="12" t="s">
         <v>1486</v>
       </c>
-      <c r="D108" s="16" t="s">
+      <c r="D109" s="16" t="s">
         <v>957</v>
       </c>
-      <c r="E108" s="48"/>
-      <c r="F108" s="17"/>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>1487</v>
-      </c>
-      <c r="D109" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="E109" s="39"/>
+      <c r="E109" s="48"/>
+      <c r="F109" s="17"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E110" s="39"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E111" s="39"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E112" s="39"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>209</v>
@@ -8603,469 +8619,469 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>1120</v>
+        <v>1034</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E114" s="39"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>1035</v>
+        <v>1120</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E115" s="39"/>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E116" s="39"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="6" t="s">
-        <v>1217</v>
+        <v>215</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>1218</v>
+        <v>1036</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E117" s="39"/>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="6" t="s">
-        <v>217</v>
+        <v>1217</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>1037</v>
+        <v>1218</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="D118" s="16" t="s">
         <v>218</v>
       </c>
       <c r="E118" s="39"/>
     </row>
-    <row r="119" spans="1:6" ht="42">
+    <row r="119" spans="1:6">
       <c r="A119" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D119" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E119" s="39"/>
+    </row>
+    <row r="120" spans="1:6" ht="42">
+      <c r="A120" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B120" s="3" t="s">
         <v>1597</v>
       </c>
-      <c r="C119" s="12" t="s">
+      <c r="C120" s="12" t="s">
         <v>1497</v>
       </c>
-      <c r="D119" s="45" t="s">
+      <c r="D120" s="45" t="s">
         <v>220</v>
-      </c>
-      <c r="E119" s="39"/>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>1498</v>
-      </c>
-      <c r="D120" s="16" t="s">
-        <v>222</v>
       </c>
       <c r="E120" s="39"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E121" s="39"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E122" s="39"/>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E123" s="39"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>1038</v>
+        <v>1124</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E124" s="39"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D125" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="E125" s="39"/>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="6" t="s">
         <v>1353</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B126" s="6" t="s">
         <v>1354</v>
       </c>
-      <c r="C125" s="12" t="s">
+      <c r="C126" s="12" t="s">
         <v>1503</v>
       </c>
-      <c r="D125" s="16" t="s">
+      <c r="D126" s="16" t="s">
         <v>1355</v>
       </c>
-      <c r="E125" s="39"/>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="7" t="s">
+      <c r="E126" s="39"/>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="7" t="s">
         <v>1608</v>
       </c>
-      <c r="B126" s="1"/>
-      <c r="C126" s="10"/>
-      <c r="D126" s="44"/>
-      <c r="E126" s="39"/>
-    </row>
-    <row r="127" spans="1:6" s="14" customFormat="1">
-      <c r="A127" s="6" t="s">
+      <c r="B127" s="1"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="44"/>
+      <c r="E127" s="39"/>
+    </row>
+    <row r="128" spans="1:6" s="14" customFormat="1">
+      <c r="A128" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B128" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="C127" s="12" t="s">
+      <c r="C128" s="12" t="s">
         <v>1504</v>
       </c>
-      <c r="D127" s="16" t="s">
+      <c r="D128" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="E127" s="48"/>
-      <c r="F127" s="17"/>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>1505</v>
-      </c>
-      <c r="D128" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="E128" s="39"/>
+      <c r="E128" s="48"/>
+      <c r="F128" s="17"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E129" s="39"/>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="D130" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E130" s="39"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D131" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="E131" s="39"/>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B132" s="3" t="s">
         <v>1043</v>
       </c>
-      <c r="C131" s="12" t="s">
+      <c r="C132" s="12" t="s">
         <v>1508</v>
       </c>
-      <c r="D131" s="16" t="s">
+      <c r="D132" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="E131" s="39"/>
-    </row>
-    <row r="132" spans="1:6" s="14" customFormat="1">
-      <c r="A132" s="6" t="s">
+      <c r="E132" s="39"/>
+    </row>
+    <row r="133" spans="1:6" s="14" customFormat="1">
+      <c r="A133" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B133" s="3" t="s">
         <v>1044</v>
       </c>
-      <c r="C132" s="12" t="s">
+      <c r="C133" s="12" t="s">
         <v>1509</v>
       </c>
-      <c r="D132" s="16" t="s">
+      <c r="D133" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="E132" s="48"/>
-      <c r="F132" s="17"/>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>1510</v>
-      </c>
-      <c r="D133" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="E133" s="39"/>
+      <c r="E133" s="48"/>
+      <c r="F133" s="17"/>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E134" s="39"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E135" s="39"/>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="E136" s="39"/>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B137" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="C136" s="12" t="s">
+      <c r="C137" s="12" t="s">
         <v>1513</v>
       </c>
-      <c r="D136" s="16" t="s">
+      <c r="D137" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="E136" s="39"/>
-    </row>
-    <row r="137" spans="1:6" ht="63">
-      <c r="A137" s="6" t="s">
+      <c r="E137" s="39"/>
+    </row>
+    <row r="138" spans="1:6" ht="63">
+      <c r="A138" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B138" s="3" t="s">
         <v>1049</v>
       </c>
-      <c r="C137" s="12" t="s">
+      <c r="C138" s="12" t="s">
         <v>1514</v>
       </c>
-      <c r="D137" s="45" t="s">
+      <c r="D138" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="E137" s="39"/>
-    </row>
-    <row r="138" spans="1:6" ht="105">
-      <c r="A138" s="6" t="s">
+      <c r="E138" s="39"/>
+    </row>
+    <row r="139" spans="1:6" ht="105">
+      <c r="A139" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B139" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="C138" s="12" t="s">
+      <c r="C139" s="12" t="s">
         <v>1515</v>
       </c>
-      <c r="D138" s="45" t="s">
+      <c r="D139" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="E138" s="39"/>
-    </row>
-    <row r="139" spans="1:6" s="14" customFormat="1">
-      <c r="A139" s="6" t="s">
+      <c r="E139" s="39"/>
+    </row>
+    <row r="140" spans="1:6" s="14" customFormat="1">
+      <c r="A140" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B140" s="3" t="s">
         <v>1051</v>
       </c>
-      <c r="C139" s="12" t="s">
+      <c r="C140" s="12" t="s">
         <v>1516</v>
       </c>
-      <c r="D139" s="16" t="s">
+      <c r="D140" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="E139" s="48"/>
-      <c r="F139" s="17"/>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="6" t="s">
+      <c r="E140" s="48"/>
+      <c r="F140" s="17"/>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B141" s="3" t="s">
         <v>1052</v>
       </c>
-      <c r="C140" s="12" t="s">
+      <c r="C141" s="12" t="s">
         <v>1517</v>
       </c>
-      <c r="D140" s="16" t="s">
+      <c r="D141" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="E140" s="39"/>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="7" t="s">
+      <c r="E141" s="39"/>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="7" t="s">
         <v>1609</v>
       </c>
-      <c r="B141" s="1"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="44"/>
-      <c r="E141" s="39"/>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C142" s="12" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D142" s="16" t="s">
-        <v>260</v>
-      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="44"/>
       <c r="E142" s="39"/>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D143" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E143" s="39"/>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="6" t="s">
-        <v>1219</v>
+        <v>261</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>1220</v>
+        <v>1054</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E144" s="39"/>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="6" t="s">
-        <v>263</v>
+        <v>1219</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>1055</v>
+        <v>1220</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="D145" s="16" t="s">
         <v>264</v>
@@ -9074,89 +9090,89 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="6" t="s">
-        <v>1221</v>
+        <v>263</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>1222</v>
+        <v>1055</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D146" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E146" s="39"/>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="6" t="s">
-        <v>265</v>
+        <v>1221</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>1056</v>
+        <v>1222</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D147" s="16" t="s">
         <v>266</v>
       </c>
       <c r="E147" s="39"/>
     </row>
-    <row r="148" spans="1:6" s="14" customFormat="1">
+    <row r="148" spans="1:6">
       <c r="A148" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D148" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="E148" s="39"/>
+    </row>
+    <row r="149" spans="1:6" s="14" customFormat="1">
+      <c r="A149" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B149" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="C148" s="12" t="s">
+      <c r="C149" s="12" t="s">
         <v>1524</v>
       </c>
-      <c r="D148" s="16" t="s">
+      <c r="D149" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="E148" s="48"/>
-      <c r="F148" s="17"/>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C149" s="12" t="s">
-        <v>1525</v>
-      </c>
-      <c r="D149" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="E149" s="39"/>
+      <c r="E149" s="48"/>
+      <c r="F149" s="17"/>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="6" t="s">
-        <v>1223</v>
+        <v>269</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>1224</v>
+        <v>1058</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="D150" s="16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E150" s="39"/>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="6" t="s">
-        <v>271</v>
+        <v>1223</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>1059</v>
+        <v>1224</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D151" s="16" t="s">
         <v>272</v>
@@ -9165,59 +9181,57 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D152" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="E152" s="39"/>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B153" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="C152" s="12" t="s">
+      <c r="C153" s="12" t="s">
         <v>1528</v>
       </c>
-      <c r="D152" s="16" t="s">
+      <c r="D153" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="E152" s="39"/>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="7" t="s">
+      <c r="E153" s="39"/>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="7" t="s">
         <v>1647</v>
       </c>
-      <c r="B153" s="1"/>
-      <c r="C153" s="10"/>
-      <c r="D153" s="44"/>
-      <c r="E153" s="39" t="s">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="28" t="s">
-        <v>1648</v>
-      </c>
-      <c r="B154" s="12" t="s">
-        <v>1666</v>
-      </c>
-      <c r="C154" s="12" t="s">
-        <v>1656</v>
-      </c>
-      <c r="D154" s="16" t="s">
-        <v>1650</v>
-      </c>
+      <c r="B154" s="1"/>
+      <c r="C154" s="10"/>
+      <c r="D154" s="44"/>
       <c r="E154" s="39" t="s">
         <v>1649</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="28" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="D155" s="16" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="E155" s="39" t="s">
         <v>1649</v>
@@ -9225,16 +9239,16 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="28" t="s">
-        <v>1653</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>1664</v>
+        <v>1651</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>1663</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="D156" s="16" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="E156" s="39" t="s">
         <v>1649</v>
@@ -9242,16 +9256,16 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="28" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>1660</v>
+        <v>1654</v>
       </c>
       <c r="D157" s="16" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="E157" s="39" t="s">
         <v>1649</v>
@@ -9259,16 +9273,16 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="28" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>1668</v>
+        <v>1660</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="E158" s="39" t="s">
         <v>1649</v>
@@ -9276,16 +9290,16 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="28" t="s">
-        <v>1669</v>
+        <v>1661</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>1671</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>1672</v>
+        <v>1667</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>1668</v>
       </c>
       <c r="D159" s="16" t="s">
-        <v>1670</v>
+        <v>1662</v>
       </c>
       <c r="E159" s="39" t="s">
         <v>1649</v>
@@ -9293,16 +9307,16 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="28" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>1675</v>
-      </c>
-      <c r="C160" s="12" t="s">
-        <v>1676</v>
+        <v>1671</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>1672</v>
       </c>
       <c r="D160" s="16" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="E160" s="39" t="s">
         <v>1649</v>
@@ -9310,54 +9324,56 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="28" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="D161" s="16" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="E161" s="39" t="s">
         <v>1649</v>
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="7" t="s">
+      <c r="A162" s="28" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D162" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E162" s="39" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="7" t="s">
         <v>1610</v>
       </c>
-      <c r="B162" s="1"/>
-      <c r="C162" s="10"/>
-      <c r="D162" s="44"/>
-      <c r="E162" s="39"/>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163" s="6" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C163" s="12" t="s">
-        <v>1529</v>
-      </c>
-      <c r="D163" s="16" t="s">
-        <v>276</v>
-      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="10"/>
+      <c r="D163" s="44"/>
       <c r="E163" s="39"/>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="6" t="s">
-        <v>275</v>
+        <v>1225</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>1061</v>
+        <v>1226</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D164" s="16" t="s">
         <v>276</v>
@@ -9366,58 +9382,58 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D165" s="16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E165" s="39"/>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="D166" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E166" s="39"/>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="6" t="s">
-        <v>1227</v>
+        <v>279</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>1228</v>
+        <v>1063</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D167" s="16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E167" s="39"/>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="6" t="s">
-        <v>281</v>
+        <v>1227</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>1064</v>
+        <v>1228</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="D168" s="16" t="s">
         <v>282</v>
@@ -9426,120 +9442,118 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="6" t="s">
-        <v>964</v>
+        <v>281</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D169" s="16" t="s">
-        <v>965</v>
+        <v>282</v>
       </c>
       <c r="E169" s="39"/>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="6" t="s">
-        <v>283</v>
+        <v>964</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="D170" s="16" t="s">
-        <v>284</v>
+        <v>965</v>
       </c>
       <c r="E170" s="39"/>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D171" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E171" s="39"/>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D172" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="E172" s="39"/>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B173" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="C172" s="12" t="s">
+      <c r="C173" s="12" t="s">
         <v>1538</v>
       </c>
-      <c r="D172" s="16" t="s">
+      <c r="D173" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="E172" s="39"/>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173" s="7" t="s">
+      <c r="E173" s="39"/>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="7" t="s">
         <v>1734</v>
       </c>
-      <c r="B173" s="1"/>
-      <c r="C173" s="10"/>
-      <c r="D173" s="44"/>
-      <c r="E173" s="39"/>
-    </row>
-    <row r="174" spans="1:6" s="31" customFormat="1">
-      <c r="A174" s="35" t="s">
+      <c r="B174" s="1"/>
+      <c r="C174" s="10"/>
+      <c r="D174" s="44"/>
+      <c r="E174" s="39"/>
+    </row>
+    <row r="175" spans="1:6" s="31" customFormat="1">
+      <c r="A175" s="35" t="s">
         <v>1843</v>
       </c>
-      <c r="B174" s="33" t="s">
+      <c r="B175" s="33" t="s">
         <v>1844</v>
       </c>
-      <c r="C174" s="34" t="s">
+      <c r="C175" s="34" t="s">
         <v>1845</v>
       </c>
-      <c r="D174" s="46" t="s">
+      <c r="D175" s="46" t="s">
         <v>1846</v>
       </c>
-      <c r="E174" s="39" t="s">
+      <c r="E175" s="39" t="s">
         <v>1842</v>
       </c>
-      <c r="F174" s="32"/>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175" s="28" t="s">
-        <v>1735</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>1738</v>
-      </c>
-      <c r="C175" s="12" t="s">
-        <v>1737</v>
-      </c>
-      <c r="D175" s="16" t="s">
-        <v>1736</v>
-      </c>
-      <c r="E175" s="39" t="s">
-        <v>1649</v>
-      </c>
+      <c r="F175" s="32"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="28" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>1742</v>
+        <v>1737</v>
       </c>
       <c r="D176" s="16" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="E176" s="39" t="s">
         <v>1649</v>
@@ -9547,16 +9561,16 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="28" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="D177" s="16" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="E177" s="39" t="s">
         <v>1649</v>
@@ -9564,16 +9578,16 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="28" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="D178" s="16" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="E178" s="39" t="s">
         <v>1649</v>
@@ -9581,16 +9595,16 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="28" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="D179" s="16" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="E179" s="39" t="s">
         <v>1649</v>
@@ -9598,402 +9612,404 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="28" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>1758</v>
-      </c>
-      <c r="D180" s="47" t="s">
-        <v>1756</v>
+        <v>1754</v>
+      </c>
+      <c r="D180" s="16" t="s">
+        <v>1752</v>
       </c>
       <c r="E180" s="39" t="s">
         <v>1649</v>
       </c>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="7" t="s">
+      <c r="A181" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D181" s="47" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E181" s="39" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="7" t="s">
         <v>1611</v>
       </c>
-      <c r="B181" s="1"/>
-      <c r="C181" s="10"/>
-      <c r="D181" s="44"/>
-      <c r="E181" s="39"/>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="6" t="s">
-        <v>1947</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>1948</v>
-      </c>
-      <c r="C182" s="12" t="s">
-        <v>1949</v>
-      </c>
-      <c r="D182" s="16" t="s">
-        <v>1950</v>
-      </c>
-      <c r="E182" s="39" t="s">
-        <v>1945</v>
-      </c>
+      <c r="B182" s="1"/>
+      <c r="C182" s="10"/>
+      <c r="D182" s="44"/>
+      <c r="E182" s="39"/>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="6" t="s">
-        <v>289</v>
+        <v>1947</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>1069</v>
+        <v>1948</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>1539</v>
+        <v>1949</v>
       </c>
       <c r="D183" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="E183" s="39"/>
+        <v>1950</v>
+      </c>
+      <c r="E183" s="39" t="s">
+        <v>1945</v>
+      </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D184" s="16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E184" s="39"/>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D185" s="16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E185" s="39"/>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>296</v>
+        <v>1071</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>296</v>
+        <v>1541</v>
       </c>
       <c r="D186" s="16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E186" s="39"/>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D187" s="16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E187" s="39"/>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>1072</v>
+        <v>299</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>1623</v>
+        <v>299</v>
       </c>
       <c r="D188" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E188" s="39"/>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>1542</v>
+        <v>1623</v>
       </c>
       <c r="D189" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E189" s="39"/>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D190" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E190" s="39"/>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D191" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E191" s="39"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>310</v>
+        <v>1075</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>310</v>
+        <v>1544</v>
       </c>
       <c r="D192" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E192" s="39"/>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>1076</v>
+        <v>310</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>1545</v>
+        <v>310</v>
       </c>
       <c r="D193" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E193" s="39"/>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D194" s="16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E194" s="39"/>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D195" s="16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E195" s="39"/>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D196" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E196" s="39"/>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D197" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E197" s="39"/>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D198" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E198" s="39"/>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D199" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E199" s="39"/>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D200" s="16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E200" s="39"/>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="D201" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E201" s="39"/>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>331</v>
+        <v>1084</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>331</v>
+        <v>1553</v>
       </c>
       <c r="D202" s="16" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E202" s="39"/>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C203" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D203" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="E203" s="39"/>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B204" s="3" t="s">
         <v>1085</v>
       </c>
-      <c r="C203" s="12" t="s">
+      <c r="C204" s="12" t="s">
         <v>1554</v>
-      </c>
-      <c r="D203" s="16" t="s">
-        <v>970</v>
-      </c>
-      <c r="E203" s="39"/>
-    </row>
-    <row r="204" spans="1:6" s="14" customFormat="1">
-      <c r="A204" s="6" t="s">
-        <v>967</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C204" s="12" t="s">
-        <v>1555</v>
       </c>
       <c r="D204" s="16" t="s">
         <v>970</v>
       </c>
-      <c r="E204" s="48"/>
-      <c r="F204" s="17"/>
-    </row>
-    <row r="205" spans="1:6">
+      <c r="E204" s="39"/>
+    </row>
+    <row r="205" spans="1:6" s="14" customFormat="1">
       <c r="A205" s="6" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D205" s="16" t="s">
         <v>970</v>
       </c>
-      <c r="E205" s="39"/>
+      <c r="E205" s="48"/>
+      <c r="F205" s="17"/>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="6" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="D206" s="16" t="s">
         <v>970</v>
@@ -10002,174 +10018,174 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="6" t="s">
+        <v>969</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C207" s="12" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D207" s="16" t="s">
+        <v>970</v>
+      </c>
+      <c r="E207" s="39"/>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="6" t="s">
         <v>1951</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B208" s="3" t="s">
         <v>1952</v>
       </c>
-      <c r="C207" s="12" t="s">
+      <c r="C208" s="12" t="s">
         <v>1953</v>
       </c>
-      <c r="D207" s="16" t="s">
+      <c r="D208" s="16" t="s">
         <v>1954</v>
       </c>
-      <c r="E207" s="39" t="s">
+      <c r="E208" s="39" t="s">
         <v>1945</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
-      <c r="A208" s="7" t="s">
+    <row r="209" spans="1:6">
+      <c r="A209" s="7" t="s">
         <v>1612</v>
       </c>
-      <c r="B208" s="1"/>
-      <c r="C208" s="10"/>
-      <c r="D208" s="44"/>
-      <c r="E208" s="39"/>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C209" s="12" t="s">
-        <v>1558</v>
-      </c>
-      <c r="D209" s="16" t="s">
-        <v>334</v>
-      </c>
+      <c r="B209" s="1"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="44"/>
       <c r="E209" s="39"/>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C210" s="12" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D210" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E210" s="39"/>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B211" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="C210" s="12" t="s">
+      <c r="C211" s="12" t="s">
         <v>1559</v>
       </c>
-      <c r="D210" s="16" t="s">
+      <c r="D211" s="16" t="s">
         <v>336</v>
-      </c>
-      <c r="E210" s="39"/>
-    </row>
-    <row r="211" spans="1:6" ht="21">
-      <c r="A211" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>1598</v>
-      </c>
-      <c r="C211" s="11" t="s">
-        <v>1624</v>
-      </c>
-      <c r="D211" s="16" t="s">
-        <v>338</v>
       </c>
       <c r="E211" s="39"/>
     </row>
     <row r="212" spans="1:6" ht="21">
       <c r="A212" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D212" s="16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E212" s="39"/>
     </row>
     <row r="213" spans="1:6" ht="21">
       <c r="A213" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C213" s="11" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D213" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="E213" s="39"/>
+    </row>
+    <row r="214" spans="1:6" ht="21">
+      <c r="A214" s="6" t="s">
         <v>946</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B214" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="C213" s="11" t="s">
+      <c r="C214" s="11" t="s">
         <v>946</v>
       </c>
-      <c r="D213" s="16" t="s">
+      <c r="D214" s="16" t="s">
         <v>947</v>
-      </c>
-      <c r="E213" s="39"/>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C214" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="D214" s="16" t="s">
-        <v>342</v>
       </c>
       <c r="E214" s="39"/>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D215" s="16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E215" s="39"/>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D216" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E216" s="39"/>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="6" t="s">
-        <v>1229</v>
+        <v>345</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1230</v>
+        <v>345</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>1560</v>
+        <v>345</v>
       </c>
       <c r="D217" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E217" s="39"/>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="6" t="s">
-        <v>347</v>
+        <v>1229</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>1091</v>
+        <v>1230</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D218" s="16" t="s">
         <v>348</v>
@@ -10178,64 +10194,64 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C219" s="12" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D219" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="E219" s="39"/>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="6" t="s">
         <v>1231</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B220" s="3" t="s">
         <v>1232</v>
       </c>
-      <c r="C219" s="12" t="s">
+      <c r="C220" s="12" t="s">
         <v>1562</v>
       </c>
-      <c r="D219" s="16"/>
-      <c r="E219" s="39"/>
-    </row>
-    <row r="220" spans="1:6" s="14" customFormat="1">
-      <c r="A220" s="6" t="s">
+      <c r="D220" s="16"/>
+      <c r="E220" s="39"/>
+    </row>
+    <row r="221" spans="1:6" s="14" customFormat="1">
+      <c r="A221" s="6" t="s">
         <v>943</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B221" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C220" s="12" t="s">
+      <c r="C221" s="12" t="s">
         <v>1563</v>
       </c>
-      <c r="D220" s="16"/>
-      <c r="E220" s="48"/>
-      <c r="F220" s="17"/>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="7" t="s">
+      <c r="D221" s="16"/>
+      <c r="E221" s="48"/>
+      <c r="F221" s="17"/>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="7" t="s">
         <v>1613</v>
       </c>
-      <c r="B221" s="1"/>
-      <c r="C221" s="10"/>
-      <c r="D221" s="44"/>
-      <c r="E221" s="39"/>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="6" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>1234</v>
-      </c>
-      <c r="C222" s="12" t="s">
-        <v>1564</v>
-      </c>
-      <c r="D222" s="16" t="s">
-        <v>350</v>
-      </c>
+      <c r="B222" s="1"/>
+      <c r="C222" s="10"/>
+      <c r="D222" s="44"/>
       <c r="E222" s="39"/>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="6" t="s">
-        <v>349</v>
+        <v>1233</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>1093</v>
+        <v>1234</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D223" s="16" t="s">
         <v>350</v>
@@ -10244,13 +10260,13 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="6" t="s">
-        <v>1235</v>
+        <v>349</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>1236</v>
+        <v>1093</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="D224" s="16" t="s">
         <v>350</v>
@@ -10259,13 +10275,13 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="6" t="s">
-        <v>351</v>
+        <v>1235</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>1094</v>
+        <v>1236</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="D225" s="16" t="s">
         <v>350</v>
@@ -10274,13 +10290,13 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="6" t="s">
-        <v>1237</v>
+        <v>351</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>1238</v>
+        <v>1094</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D226" s="16" t="s">
         <v>350</v>
@@ -10289,13 +10305,13 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="6" t="s">
-        <v>352</v>
+        <v>1237</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>1095</v>
+        <v>1238</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D227" s="16" t="s">
         <v>350</v>
@@ -10304,13 +10320,13 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="6" t="s">
-        <v>1239</v>
+        <v>352</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>1240</v>
+        <v>1095</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="D228" s="16" t="s">
         <v>350</v>
@@ -10319,13 +10335,13 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="6" t="s">
-        <v>353</v>
+        <v>1239</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>1096</v>
+        <v>1240</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D229" s="16" t="s">
         <v>350</v>
@@ -10334,375 +10350,373 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>1572</v>
-      </c>
-      <c r="D230" s="16"/>
+        <v>1571</v>
+      </c>
+      <c r="D230" s="16" t="s">
+        <v>350</v>
+      </c>
       <c r="E230" s="39"/>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C231" s="12" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D231" s="16"/>
+      <c r="E231" s="39"/>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B232" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="C231" s="12" t="s">
+      <c r="C232" s="12" t="s">
         <v>1573</v>
       </c>
-      <c r="D231" s="16" t="s">
+      <c r="D232" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="E231" s="39"/>
-    </row>
-    <row r="232" spans="1:6" s="14" customFormat="1">
-      <c r="A232" s="6" t="s">
+      <c r="E232" s="39"/>
+    </row>
+    <row r="233" spans="1:6" s="14" customFormat="1">
+      <c r="A233" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B233" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="C232" s="12" t="s">
+      <c r="C233" s="12" t="s">
         <v>1574</v>
       </c>
-      <c r="D232" s="16"/>
-      <c r="E232" s="48"/>
-      <c r="F232" s="17"/>
-    </row>
-    <row r="233" spans="1:6">
-      <c r="A233" s="7" t="s">
+      <c r="D233" s="16"/>
+      <c r="E233" s="48"/>
+      <c r="F233" s="17"/>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="7" t="s">
         <v>1614</v>
       </c>
-      <c r="B233" s="1"/>
-      <c r="C233" s="10"/>
-      <c r="D233" s="44"/>
-      <c r="E233" s="39"/>
-    </row>
-    <row r="234" spans="1:6">
-      <c r="A234" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="B234" s="3" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C234" s="12" t="s">
-        <v>1575</v>
-      </c>
-      <c r="D234" s="16" t="s">
-        <v>358</v>
-      </c>
+      <c r="B234" s="1"/>
+      <c r="C234" s="10"/>
+      <c r="D234" s="44"/>
       <c r="E234" s="39"/>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="D235" s="16" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E235" s="39"/>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="6" t="s">
-        <v>1241</v>
+        <v>359</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>1242</v>
+        <v>1101</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D236" s="16" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E236" s="39"/>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="6" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D237" s="16" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E237" s="39"/>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="6" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D238" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E238" s="39"/>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="6" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D239" s="16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E239" s="39"/>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="6" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D240" s="16" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E240" s="39"/>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="6" t="s">
-        <v>361</v>
+        <v>1249</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>1102</v>
+        <v>1250</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D241" s="16" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="E241" s="39"/>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C242" s="12" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D242" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="E242" s="39"/>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B243" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="C242" s="12" t="s">
+      <c r="C243" s="12" t="s">
         <v>1583</v>
       </c>
-      <c r="D242" s="16" t="s">
+      <c r="D243" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="E242" s="39"/>
-    </row>
-    <row r="243" spans="1:6" s="14" customFormat="1">
-      <c r="A243" s="6" t="s">
+      <c r="E243" s="39"/>
+    </row>
+    <row r="244" spans="1:6" s="14" customFormat="1">
+      <c r="A244" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="B244" s="3" t="s">
         <v>1104</v>
       </c>
-      <c r="C243" s="12" t="s">
+      <c r="C244" s="12" t="s">
         <v>1584</v>
       </c>
-      <c r="D243" s="16" t="s">
+      <c r="D244" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="E243" s="48"/>
-      <c r="F243" s="17"/>
-    </row>
-    <row r="244" spans="1:6">
-      <c r="A244" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="B244" s="3" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C244" s="12" t="s">
-        <v>1585</v>
-      </c>
-      <c r="D244" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="E244" s="39"/>
+      <c r="E244" s="48"/>
+      <c r="F244" s="17"/>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D245" s="16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E245" s="39"/>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D246" s="16" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E246" s="39"/>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C247" s="12" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D247" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="E247" s="39"/>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="B248" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="C247" s="12" t="s">
+      <c r="C248" s="12" t="s">
         <v>1588</v>
       </c>
-      <c r="D247" s="16" t="s">
+      <c r="D248" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="E247" s="39"/>
-    </row>
-    <row r="248" spans="1:6">
-      <c r="A248" s="7" t="s">
+      <c r="E248" s="39"/>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="7" t="s">
         <v>1615</v>
       </c>
-      <c r="B248" s="1"/>
-      <c r="C248" s="10"/>
-      <c r="D248" s="44"/>
-      <c r="E248" s="39"/>
-    </row>
-    <row r="249" spans="1:6">
-      <c r="A249" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B249" s="2"/>
-      <c r="C249" s="11"/>
-      <c r="D249" s="16" t="s">
-        <v>376</v>
-      </c>
+      <c r="B249" s="1"/>
+      <c r="C249" s="10"/>
+      <c r="D249" s="44"/>
       <c r="E249" s="39"/>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B250" s="2"/>
+      <c r="C250" s="11"/>
+      <c r="D250" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="E250" s="39"/>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B251" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="C250" s="12" t="s">
+      <c r="C251" s="12" t="s">
         <v>1589</v>
       </c>
-      <c r="D250" s="16" t="s">
+      <c r="D251" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="E250" s="39"/>
-    </row>
-    <row r="251" spans="1:6">
-      <c r="A251" s="7" t="s">
+      <c r="E251" s="39"/>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="7" t="s">
         <v>1616</v>
       </c>
-      <c r="B251" s="1"/>
-      <c r="C251" s="10"/>
-      <c r="D251" s="44"/>
-      <c r="E251" s="39"/>
-    </row>
-    <row r="252" spans="1:6">
-      <c r="A252" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C252" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="D252" s="16" t="s">
-        <v>380</v>
-      </c>
+      <c r="B252" s="1"/>
+      <c r="C252" s="10"/>
+      <c r="D252" s="44"/>
       <c r="E252" s="39"/>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C253" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="D253" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E253" s="39"/>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B254" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="C253" s="12" t="s">
+      <c r="C254" s="12" t="s">
         <v>1626</v>
       </c>
-      <c r="D253" s="16" t="s">
+      <c r="D254" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="E253" s="39"/>
-    </row>
-    <row r="254" spans="1:6">
-      <c r="A254" s="7" t="s">
+      <c r="E254" s="39"/>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="7" t="s">
         <v>1617</v>
       </c>
-      <c r="B254" s="1"/>
-      <c r="C254" s="10"/>
-      <c r="D254" s="44"/>
-      <c r="E254" s="39"/>
-    </row>
-    <row r="255" spans="1:6">
-      <c r="A255" s="6" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B255" s="6" t="s">
-        <v>1350</v>
-      </c>
-      <c r="C255" s="12" t="s">
-        <v>1590</v>
-      </c>
-      <c r="D255" s="16" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E255" s="28" t="s">
-        <v>1327</v>
-      </c>
+      <c r="B255" s="1"/>
+      <c r="C255" s="10"/>
+      <c r="D255" s="44"/>
+      <c r="E255" s="39"/>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="6" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="D256" s="16" t="s">
         <v>1352</v>
@@ -10711,54 +10725,56 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="63">
+    <row r="257" spans="1:5">
       <c r="A257" s="6" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C257" s="12" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D257" s="16" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E257" s="28" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="63">
+      <c r="A258" s="6" t="s">
         <v>1356</v>
       </c>
-      <c r="B257" s="6" t="s">
+      <c r="B258" s="6" t="s">
         <v>1360</v>
       </c>
-      <c r="C257" s="12" t="s">
+      <c r="C258" s="12" t="s">
         <v>1592</v>
       </c>
-      <c r="D257" s="45" t="s">
+      <c r="D258" s="45" t="s">
         <v>1361</v>
       </c>
-      <c r="E257" s="28"/>
-    </row>
-    <row r="258" spans="1:5">
-      <c r="A258" s="7" t="s">
+      <c r="E258" s="28"/>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="7" t="s">
         <v>1618</v>
       </c>
-      <c r="B258" s="1"/>
-      <c r="C258" s="10"/>
-      <c r="D258" s="44"/>
-      <c r="E258" s="39"/>
-    </row>
-    <row r="259" spans="1:5">
-      <c r="A259" s="6" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B259" s="3" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C259" s="12" t="s">
-        <v>1627</v>
-      </c>
-      <c r="D259" s="16" t="s">
-        <v>1251</v>
-      </c>
+      <c r="B259" s="1"/>
+      <c r="C259" s="10"/>
+      <c r="D259" s="44"/>
       <c r="E259" s="39"/>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="6" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="D260" s="16" t="s">
         <v>1251</v>
@@ -10767,13 +10783,13 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="6" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="D261" s="16" t="s">
         <v>1251</v>
@@ -10782,45 +10798,45 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="6" t="s">
-        <v>1375</v>
+        <v>1257</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>1376</v>
+        <v>1258</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>1593</v>
+        <v>1629</v>
       </c>
       <c r="D262" s="16" t="s">
-        <v>1252</v>
-      </c>
-      <c r="E262" s="28" t="s">
-        <v>1327</v>
-      </c>
+        <v>1251</v>
+      </c>
+      <c r="E262" s="39"/>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="6" t="s">
-        <v>1259</v>
+        <v>1375</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>1260</v>
+        <v>1376</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>1630</v>
+        <v>1593</v>
       </c>
       <c r="D263" s="16" t="s">
-        <v>1251</v>
-      </c>
-      <c r="E263" s="39"/>
+        <v>1252</v>
+      </c>
+      <c r="E263" s="28" t="s">
+        <v>1327</v>
+      </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="6" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="D264" s="16" t="s">
         <v>1251</v>
@@ -10828,46 +10844,46 @@
       <c r="E264" s="39"/>
     </row>
     <row r="265" spans="1:5">
-      <c r="A265" s="18" t="s">
-        <v>1847</v>
+      <c r="A265" s="6" t="s">
+        <v>1261</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>1848</v>
+        <v>1262</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>1849</v>
+        <v>1631</v>
       </c>
       <c r="D265" s="16" t="s">
         <v>1251</v>
       </c>
-      <c r="E265" s="28" t="s">
-        <v>1842</v>
-      </c>
+      <c r="E265" s="39"/>
     </row>
     <row r="266" spans="1:5">
-      <c r="A266" s="6" t="s">
-        <v>1263</v>
+      <c r="A266" s="18" t="s">
+        <v>1847</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>1264</v>
+        <v>1848</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>1632</v>
+        <v>1849</v>
       </c>
       <c r="D266" s="16" t="s">
         <v>1251</v>
       </c>
-      <c r="E266" s="39"/>
+      <c r="E266" s="28" t="s">
+        <v>1842</v>
+      </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="6" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D267" s="16" t="s">
         <v>1251</v>
@@ -10876,13 +10892,13 @@
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="6" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="D268" s="16" t="s">
         <v>1251</v>
@@ -10891,13 +10907,13 @@
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="6" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="D269" s="16" t="s">
         <v>1251</v>
@@ -10906,30 +10922,28 @@
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="6" t="s">
-        <v>1377</v>
+        <v>1269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>1381</v>
+        <v>1270</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>1381</v>
+        <v>1635</v>
       </c>
       <c r="D270" s="16" t="s">
         <v>1251</v>
       </c>
-      <c r="E270" s="28" t="s">
-        <v>1385</v>
-      </c>
+      <c r="E270" s="39"/>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="6" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="D271" s="16" t="s">
         <v>1251</v>
@@ -10940,13 +10954,13 @@
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="6" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C272" s="12" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="D272" s="16" t="s">
         <v>1251</v>
@@ -10957,13 +10971,13 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="6" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="D273" s="16" t="s">
         <v>1251</v>
@@ -10974,28 +10988,30 @@
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="6" t="s">
-        <v>1271</v>
+        <v>1380</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>1272</v>
+        <v>1384</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>1272</v>
+        <v>1384</v>
       </c>
       <c r="D274" s="16" t="s">
         <v>1251</v>
       </c>
-      <c r="E274" s="39"/>
+      <c r="E274" s="28" t="s">
+        <v>1385</v>
+      </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="6" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="D275" s="16" t="s">
         <v>1251</v>
@@ -11004,13 +11020,13 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="6" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="D276" s="16" t="s">
         <v>1251</v>
@@ -11019,93 +11035,93 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="6" t="s">
-        <v>1386</v>
+        <v>1275</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>1387</v>
+        <v>1276</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>1594</v>
+        <v>1276</v>
       </c>
       <c r="D277" s="16" t="s">
         <v>1251</v>
       </c>
-      <c r="E277" s="28" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" s="14" customFormat="1">
+      <c r="E277" s="39"/>
+    </row>
+    <row r="278" spans="1:6">
       <c r="A278" s="6" t="s">
-        <v>1277</v>
+        <v>1386</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>1278</v>
+        <v>1387</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>1636</v>
+        <v>1594</v>
       </c>
       <c r="D278" s="16" t="s">
         <v>1251</v>
       </c>
-      <c r="E278" s="48"/>
-      <c r="F278" s="17"/>
-    </row>
-    <row r="279" spans="1:6">
+      <c r="E278" s="28" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" s="14" customFormat="1">
       <c r="A279" s="6" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D279" s="16" t="s">
         <v>1251</v>
       </c>
-      <c r="E279" s="39"/>
+      <c r="E279" s="48"/>
+      <c r="F279" s="17"/>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="6" t="s">
-        <v>1388</v>
+        <v>1279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>1389</v>
+        <v>1280</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>1595</v>
+        <v>1637</v>
       </c>
       <c r="D280" s="16" t="s">
         <v>1251</v>
       </c>
-      <c r="E280" s="28" t="s">
-        <v>1327</v>
-      </c>
+      <c r="E280" s="39"/>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="6" t="s">
-        <v>1281</v>
+        <v>1388</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>1282</v>
+        <v>1389</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>1638</v>
+        <v>1595</v>
       </c>
       <c r="D281" s="16" t="s">
         <v>1251</v>
       </c>
-      <c r="E281" s="39"/>
+      <c r="E281" s="28" t="s">
+        <v>1327</v>
+      </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="6" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="D282" s="16" t="s">
         <v>1251</v>
@@ -11114,13 +11130,13 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="6" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>1286</v>
+        <v>1639</v>
       </c>
       <c r="D283" s="16" t="s">
         <v>1251</v>
@@ -11129,13 +11145,13 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="6" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>1640</v>
+        <v>1286</v>
       </c>
       <c r="D284" s="16" t="s">
         <v>1251</v>
@@ -11144,13 +11160,13 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="6" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>1289</v>
+        <v>1640</v>
       </c>
       <c r="D285" s="16" t="s">
         <v>1251</v>
@@ -11159,13 +11175,13 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="6" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>1641</v>
+        <v>1289</v>
       </c>
       <c r="D286" s="16" t="s">
         <v>1251</v>
@@ -11174,13 +11190,13 @@
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="6" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="D287" s="16" t="s">
         <v>1251</v>
@@ -11189,13 +11205,13 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="6" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D288" s="16" t="s">
         <v>1251</v>
@@ -11204,13 +11220,13 @@
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="6" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="C289" s="12" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D289" s="16" t="s">
         <v>1251</v>
@@ -11219,13 +11235,13 @@
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="6" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D290" s="16" t="s">
         <v>1251</v>
@@ -11234,13 +11250,13 @@
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="6" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C291" s="12" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D291" s="16" t="s">
         <v>1251</v>
@@ -11248,10 +11264,18 @@
       <c r="E291" s="39"/>
     </row>
     <row r="292" spans="1:5">
-      <c r="A292" s="6"/>
-      <c r="B292" s="3"/>
-      <c r="C292" s="12"/>
-      <c r="D292" s="6"/>
+      <c r="A292" s="6" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C292" s="12" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D292" s="16" t="s">
+        <v>1251</v>
+      </c>
       <c r="E292" s="39"/>
     </row>
     <row r="293" spans="1:5">
@@ -11282,8 +11306,15 @@
       <c r="D296" s="6"/>
       <c r="E296" s="39"/>
     </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="6"/>
+      <c r="B297" s="3"/>
+      <c r="C297" s="12"/>
+      <c r="D297" s="6"/>
+      <c r="E297" s="39"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E296" xr:uid="{D7116DA7-B727-EA4E-B53C-355290066C9F}"/>
+  <autoFilter ref="A1:E297" xr:uid="{D7116DA7-B727-EA4E-B53C-355290066C9F}"/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11295,7 +11326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9BD1D8-D860-9845-B2DE-1D2AC2DDC7F1}">
   <dimension ref="A1:E957"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B947" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>

--- a/data/KSP_Completion.xlsx
+++ b/data/KSP_Completion.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5297D7D2-7C0F-4C65-BFCB-D1EDF9BAEEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4B05E6-CC14-49A4-B554-0368203E8463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11316" yWindow="6696" windowWidth="27192" windowHeight="20964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4992" yWindow="2628" windowWidth="29952" windowHeight="20964" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Command" sheetId="6" r:id="rId1"/>
@@ -6537,9 +6537,6 @@
     <t>$EVENT_PAR_15</t>
   </si>
   <si>
-    <t>$EVENT_PAR_MOD_VALUE_ID_FULL</t>
-  </si>
-  <si>
     <t>$EVENT_PAR_VOL</t>
   </si>
   <si>
@@ -6869,6 +6866,10 @@
 zones)
 - $NI_ZONE_STATUS_IGNORED - zone is ignored by the user response in the Content Missing
 dialog (valid for both regular and user zones)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$EVENT_PAR_MOD_VALUE_EX_ID</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -7379,11 +7380,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EF9006-51C1-8B4B-B9A3-BB18B251309C}">
   <dimension ref="A1:E310"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D159" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B159" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="D171" sqref="D171"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.26953125" defaultRowHeight="19.8"/>
@@ -7521,31 +7522,31 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>2140</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>2141</v>
-      </c>
       <c r="D10" s="14" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>2137</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>2138</v>
-      </c>
       <c r="D11" s="14" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="E11" s="23"/>
     </row>
@@ -7671,19 +7672,19 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="6" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>2100</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>2101</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="14" t="s">
         <v>2102</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="E20" s="23" t="s">
         <v>2103</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>2104</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7913,13 +7914,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="6" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>76</v>
@@ -7928,13 +7929,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="6" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>78</v>
@@ -8552,10 +8553,10 @@
         <v>143</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>144</v>
@@ -8564,16 +8565,16 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="6" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="C81" s="3" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D81" s="14" t="s">
         <v>2112</v>
-      </c>
-      <c r="D81" s="14" t="s">
-        <v>2113</v>
       </c>
       <c r="E81" s="23"/>
     </row>
@@ -9684,31 +9685,31 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="6" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>2114</v>
       </c>
-      <c r="B157" s="3" t="s">
-        <v>2142</v>
-      </c>
-      <c r="C157" s="3" t="s">
+      <c r="D157" s="14" t="s">
         <v>2115</v>
-      </c>
-      <c r="D157" s="14" t="s">
-        <v>2116</v>
       </c>
       <c r="E157" s="23"/>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="6" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>2142</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>2121</v>
+      </c>
+      <c r="D158" s="14" t="s">
         <v>2120</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>2143</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>2122</v>
-      </c>
-      <c r="D158" s="14" t="s">
-        <v>2121</v>
       </c>
       <c r="E158" s="23"/>
     </row>
@@ -9834,31 +9835,31 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="6" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B167" s="12" t="s">
         <v>2117</v>
       </c>
-      <c r="B167" s="12" t="s">
+      <c r="C167" s="12" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D167" s="14" t="s">
         <v>2118</v>
-      </c>
-      <c r="C167" s="12" t="s">
-        <v>2118</v>
-      </c>
-      <c r="D167" s="14" t="s">
-        <v>2119</v>
       </c>
       <c r="E167" s="23"/>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="6" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C168" s="12" t="s">
         <v>2123</v>
       </c>
-      <c r="B168" s="12" t="s">
-        <v>2144</v>
-      </c>
-      <c r="C168" s="12" t="s">
+      <c r="D168" s="14" t="s">
         <v>2124</v>
-      </c>
-      <c r="D168" s="14" t="s">
-        <v>2125</v>
       </c>
       <c r="E168" s="23"/>
     </row>
@@ -9881,16 +9882,16 @@
     </row>
     <row r="170" spans="1:5" ht="138.6">
       <c r="A170" s="6" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C170" s="12" t="s">
         <v>2126</v>
       </c>
-      <c r="B170" s="12" t="s">
+      <c r="D170" s="26" t="s">
         <v>2145</v>
-      </c>
-      <c r="C170" s="12" t="s">
-        <v>2127</v>
-      </c>
-      <c r="D170" s="26" t="s">
-        <v>2146</v>
       </c>
       <c r="E170" s="23"/>
     </row>
@@ -11463,13 +11464,13 @@
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="6" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B278" s="3" t="s">
         <v>2105</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="C278" s="12" t="s">
         <v>2106</v>
-      </c>
-      <c r="C278" s="12" t="s">
-        <v>2107</v>
       </c>
       <c r="D278" s="14" t="s">
         <v>1248</v>
@@ -11943,11 +11944,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9BD1D8-D860-9845-B2DE-1D2AC2DDC7F1}">
   <dimension ref="A1:D1082"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B616" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A643" sqref="A643"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.26953125" defaultRowHeight="19.8"/>
@@ -19025,13 +19026,13 @@
     </row>
     <row r="643" spans="1:4">
       <c r="A643" s="16" t="s">
-        <v>2053</v>
+        <v>2146</v>
       </c>
       <c r="B643" s="16"/>
       <c r="C643" s="18"/>
       <c r="D643" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $EVENT_PAR_MOD_VALUE_ID_FULL</v>
+        <v>Built-in Variable: $EVENT_PAR_MOD_VALUE_EX_ID</v>
       </c>
     </row>
     <row r="644" spans="1:4">
@@ -19146,7 +19147,7 @@
     </row>
     <row r="654" spans="1:4">
       <c r="A654" s="16" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B654" s="16"/>
       <c r="C654" s="18"/>
@@ -19707,7 +19708,7 @@
     </row>
     <row r="705" spans="1:4">
       <c r="A705" s="16" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="B705" s="16"/>
       <c r="C705" s="18"/>
@@ -19751,7 +19752,7 @@
     </row>
     <row r="709" spans="1:4">
       <c r="A709" s="16" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="B709" s="16"/>
       <c r="C709" s="18"/>
@@ -19795,7 +19796,7 @@
     </row>
     <row r="713" spans="1:4">
       <c r="A713" s="16" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B713" s="16"/>
       <c r="C713" s="18"/>
@@ -19817,7 +19818,7 @@
     </row>
     <row r="715" spans="1:4">
       <c r="A715" s="16" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="B715" s="16"/>
       <c r="C715" s="18"/>
@@ -19938,7 +19939,7 @@
     </row>
     <row r="726" spans="1:4">
       <c r="A726" s="16" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B726" s="16"/>
       <c r="C726" s="18"/>
@@ -20015,7 +20016,7 @@
     </row>
     <row r="733" spans="1:4">
       <c r="A733" s="16" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B733" s="16"/>
       <c r="C733" s="18"/>
@@ -20180,7 +20181,7 @@
     </row>
     <row r="748" spans="1:4">
       <c r="A748" s="16" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="B748" s="16"/>
       <c r="C748" s="18"/>
@@ -20389,7 +20390,7 @@
     </row>
     <row r="767" spans="1:4">
       <c r="A767" s="6" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B767" s="16"/>
       <c r="C767" s="18"/>
@@ -21104,7 +21105,7 @@
     </row>
     <row r="832" spans="1:4">
       <c r="A832" s="16" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B832" s="16"/>
       <c r="C832" s="18"/>
@@ -21137,7 +21138,7 @@
     </row>
     <row r="835" spans="1:4">
       <c r="A835" s="16" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B835" s="16"/>
       <c r="C835" s="18"/>
@@ -21181,7 +21182,7 @@
     </row>
     <row r="839" spans="1:4">
       <c r="A839" s="16" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B839" s="16"/>
       <c r="C839" s="18"/>
@@ -21390,7 +21391,7 @@
     </row>
     <row r="858" spans="1:4">
       <c r="A858" s="16" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B858" s="16"/>
       <c r="C858" s="18"/>
@@ -21434,7 +21435,7 @@
     </row>
     <row r="862" spans="1:4">
       <c r="A862" s="16" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B862" s="16"/>
       <c r="C862" s="18"/>
@@ -21720,7 +21721,7 @@
     </row>
     <row r="888" spans="1:4">
       <c r="A888" s="16" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B888" s="16"/>
       <c r="C888" s="18"/>
@@ -21786,7 +21787,7 @@
     </row>
     <row r="894" spans="1:4">
       <c r="A894" s="16" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B894" s="16"/>
       <c r="C894" s="18"/>
@@ -21797,7 +21798,7 @@
     </row>
     <row r="895" spans="1:4">
       <c r="A895" s="16" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B895" s="16"/>
       <c r="C895" s="18"/>
@@ -21808,7 +21809,7 @@
     </row>
     <row r="896" spans="1:4">
       <c r="A896" s="16" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B896" s="16"/>
       <c r="C896" s="18"/>
@@ -21896,7 +21897,7 @@
     </row>
     <row r="904" spans="1:4">
       <c r="A904" s="16" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B904" s="16"/>
       <c r="C904" s="18"/>
@@ -22006,7 +22007,7 @@
     </row>
     <row r="914" spans="1:4">
       <c r="A914" s="16" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B914" s="16"/>
       <c r="C914" s="18"/>
@@ -22061,7 +22062,7 @@
     </row>
     <row r="919" spans="1:4">
       <c r="A919" s="16" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B919" s="16"/>
       <c r="C919" s="18"/>
@@ -22072,7 +22073,7 @@
     </row>
     <row r="920" spans="1:4">
       <c r="A920" s="16" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B920" s="16"/>
       <c r="C920" s="18"/>
@@ -22083,7 +22084,7 @@
     </row>
     <row r="921" spans="1:4">
       <c r="A921" s="16" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B921" s="16"/>
       <c r="C921" s="18"/>
@@ -22094,7 +22095,7 @@
     </row>
     <row r="922" spans="1:4">
       <c r="A922" s="16" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B922" s="16"/>
       <c r="C922" s="18"/>
@@ -22105,7 +22106,7 @@
     </row>
     <row r="923" spans="1:4">
       <c r="A923" s="16" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B923" s="16"/>
       <c r="C923" s="18"/>
@@ -22116,7 +22117,7 @@
     </row>
     <row r="924" spans="1:4">
       <c r="A924" s="16" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B924" s="16"/>
       <c r="C924" s="18"/>
@@ -22127,7 +22128,7 @@
     </row>
     <row r="925" spans="1:4">
       <c r="A925" s="16" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="B925" s="16"/>
       <c r="C925" s="18"/>
@@ -22138,7 +22139,7 @@
     </row>
     <row r="926" spans="1:4">
       <c r="A926" s="16" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="B926" s="16"/>
       <c r="C926" s="18"/>
@@ -22149,7 +22150,7 @@
     </row>
     <row r="927" spans="1:4">
       <c r="A927" s="16" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="B927" s="16"/>
       <c r="C927" s="18"/>
@@ -22237,7 +22238,7 @@
     </row>
     <row r="935" spans="1:4">
       <c r="A935" s="16" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="B935" s="16"/>
       <c r="C935" s="18"/>
@@ -22248,7 +22249,7 @@
     </row>
     <row r="936" spans="1:4">
       <c r="A936" s="16" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B936" s="16"/>
       <c r="C936" s="18"/>
@@ -22259,7 +22260,7 @@
     </row>
     <row r="937" spans="1:4">
       <c r="A937" s="16" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="B937" s="16"/>
       <c r="C937" s="18"/>
@@ -22699,7 +22700,7 @@
     </row>
     <row r="977" spans="1:4">
       <c r="A977" s="6" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B977" s="3"/>
       <c r="C977" s="12"/>
@@ -22985,7 +22986,7 @@
     </row>
     <row r="1003" spans="1:4">
       <c r="A1003" s="6" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B1003" s="3"/>
       <c r="C1003" s="12"/>
@@ -22996,7 +22997,7 @@
     </row>
     <row r="1004" spans="1:4">
       <c r="A1004" s="6" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="B1004" s="3"/>
       <c r="C1004" s="12"/>
@@ -23007,7 +23008,7 @@
     </row>
     <row r="1005" spans="1:4">
       <c r="A1005" s="6" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="B1005" s="3"/>
       <c r="C1005" s="12"/>
@@ -23018,7 +23019,7 @@
     </row>
     <row r="1006" spans="1:4">
       <c r="A1006" s="6" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B1006" s="3"/>
       <c r="C1006" s="12"/>
@@ -23051,7 +23052,7 @@
     </row>
     <row r="1009" spans="1:4">
       <c r="A1009" s="6" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B1009" s="3"/>
       <c r="C1009" s="12"/>
@@ -23216,7 +23217,7 @@
     </row>
     <row r="1024" spans="1:4">
       <c r="A1024" s="6" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B1024" s="3"/>
       <c r="C1024" s="12"/>
@@ -23458,7 +23459,7 @@
     </row>
     <row r="1046" spans="1:4">
       <c r="A1046" s="6" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1046" s="3"/>
       <c r="C1046" s="12"/>
@@ -23612,7 +23613,7 @@
     </row>
     <row r="1060" spans="1:4">
       <c r="A1060" s="6" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B1060" s="3"/>
       <c r="C1060" s="12"/>
@@ -23678,7 +23679,7 @@
     </row>
     <row r="1066" spans="1:4">
       <c r="A1066" s="6" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B1066" s="3"/>
       <c r="C1066" s="12"/>
@@ -23711,7 +23712,7 @@
     </row>
     <row r="1069" spans="1:4">
       <c r="A1069" s="6" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1069" s="3"/>
       <c r="C1069" s="12"/>
@@ -23744,7 +23745,7 @@
     </row>
     <row r="1072" spans="1:4">
       <c r="A1072" s="6" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B1072" s="3"/>
       <c r="C1072" s="12"/>
@@ -23777,7 +23778,7 @@
     </row>
     <row r="1075" spans="1:4">
       <c r="A1075" s="6" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B1075" s="3"/>
       <c r="C1075" s="12"/>
@@ -23788,7 +23789,7 @@
     </row>
     <row r="1076" spans="1:4">
       <c r="A1076" s="6" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B1076" s="3"/>
       <c r="C1076" s="12"/>

--- a/data/KSP_Completion.xlsx
+++ b/data/KSP_Completion.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4B05E6-CC14-49A4-B554-0368203E8463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4689FA0C-317E-44EF-BC02-E6F3AFA32442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4992" yWindow="2628" windowWidth="29952" windowHeight="20964" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15444" yWindow="4344" windowWidth="34560" windowHeight="19140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Command" sheetId="6" r:id="rId1"/>
     <sheet name="Variable" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Command!$A$1:$E$310</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variable!$A$1:$D$971</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Command!$A$1:$E$311</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variable!$A$1:$D$979</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="2147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="2159">
   <si>
     <t>description</t>
     <phoneticPr fontId="3"/>
@@ -6870,6 +6870,46 @@
   </si>
   <si>
     <t>$EVENT_PAR_MOD_VALUE_EX_ID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_HP_FREQ</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_HQI_MODE</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_S1200_FILTER_MODE</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_SEQ_HP</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_SEQ_LP</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_SEQ_LP_FREQ</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_TMPRO_KEEP_FORMANTS</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_TRACKING</t>
+  </si>
+  <si>
+    <t>$NI_KONTAKT_IS_STANDALONE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>mf_get_last_filename</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>mf_get_last_filename()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Returns the filename (not the full path!) of the last MIDI file that was inserted into KONTAKT, either via mf_insert_file(), or via drag and drop operation on ui_mouse_area.</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -7378,13 +7418,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EF9006-51C1-8B4B-B9A3-BB18B251309C}">
-  <dimension ref="A1:E310"/>
+  <dimension ref="A1:E311"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B159" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B200" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A222" sqref="A222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.26953125" defaultRowHeight="19.8"/>
@@ -10671,158 +10711,158 @@
       </c>
     </row>
     <row r="222" spans="1:5">
-      <c r="A222" s="7" t="s">
+      <c r="A222" s="6" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D222" s="14" t="s">
+        <v>2158</v>
+      </c>
+      <c r="E222" s="23"/>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="7" t="s">
         <v>1578</v>
       </c>
-      <c r="B222" s="1"/>
-      <c r="C222" s="10"/>
-      <c r="D222" s="25"/>
-      <c r="E222" s="23"/>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="A223" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C223" s="12" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D223" s="14" t="s">
-        <v>334</v>
-      </c>
+      <c r="B223" s="1"/>
+      <c r="C223" s="10"/>
+      <c r="D223" s="25"/>
       <c r="E223" s="23"/>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D224" s="14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E224" s="23"/>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>1564</v>
-      </c>
-      <c r="C225" s="11" t="s">
-        <v>1590</v>
+        <v>335</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C225" s="12" t="s">
+        <v>1525</v>
       </c>
       <c r="D225" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E225" s="23"/>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="D226" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E226" s="23"/>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="6" t="s">
-        <v>946</v>
+        <v>339</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>946</v>
+        <v>1565</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>946</v>
+        <v>1591</v>
       </c>
       <c r="D227" s="14" t="s">
-        <v>947</v>
+        <v>340</v>
       </c>
       <c r="E227" s="23"/>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="B228" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C228" s="12" t="s">
-        <v>341</v>
+        <v>946</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C228" s="11" t="s">
+        <v>946</v>
       </c>
       <c r="D228" s="14" t="s">
-        <v>342</v>
+        <v>947</v>
       </c>
       <c r="E228" s="23"/>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D229" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E229" s="23"/>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D230" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E230" s="23"/>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="6" t="s">
-        <v>1226</v>
+        <v>345</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>1227</v>
+        <v>345</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>1526</v>
+        <v>345</v>
       </c>
       <c r="D231" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E231" s="23"/>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="6" t="s">
-        <v>347</v>
+        <v>1226</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>1090</v>
+        <v>1227</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D232" s="14" t="s">
         <v>348</v>
@@ -10831,63 +10871,63 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="6" t="s">
-        <v>1228</v>
+        <v>347</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>1229</v>
+        <v>1090</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>1528</v>
-      </c>
-      <c r="D233" s="14"/>
+        <v>1527</v>
+      </c>
+      <c r="D233" s="14" t="s">
+        <v>348</v>
+      </c>
       <c r="E233" s="23"/>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="6" t="s">
-        <v>943</v>
+        <v>1228</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>1091</v>
+        <v>1229</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D234" s="14"/>
       <c r="E234" s="23"/>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235" s="7" t="s">
+      <c r="A235" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C235" s="12" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D235" s="14"/>
+      <c r="E235" s="23"/>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="7" t="s">
         <v>1579</v>
       </c>
-      <c r="B235" s="1"/>
-      <c r="C235" s="10"/>
-      <c r="D235" s="25"/>
-      <c r="E235" s="23"/>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="A236" s="6" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B236" s="3" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C236" s="12" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D236" s="14" t="s">
-        <v>350</v>
-      </c>
+      <c r="B236" s="1"/>
+      <c r="C236" s="10"/>
+      <c r="D236" s="25"/>
       <c r="E236" s="23"/>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="6" t="s">
-        <v>349</v>
+        <v>1230</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>1092</v>
+        <v>1231</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D237" s="14" t="s">
         <v>350</v>
@@ -10896,13 +10936,13 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="6" t="s">
-        <v>1232</v>
+        <v>349</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>1233</v>
+        <v>1092</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="D238" s="14" t="s">
         <v>350</v>
@@ -10911,13 +10951,13 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="6" t="s">
-        <v>351</v>
+        <v>1232</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>1093</v>
+        <v>1233</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D239" s="14" t="s">
         <v>350</v>
@@ -10926,13 +10966,13 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="6" t="s">
-        <v>1234</v>
+        <v>351</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>1235</v>
+        <v>1093</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="D240" s="14" t="s">
         <v>350</v>
@@ -10941,13 +10981,13 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="6" t="s">
-        <v>352</v>
+        <v>1234</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>1094</v>
+        <v>1235</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D241" s="14" t="s">
         <v>350</v>
@@ -10956,13 +10996,13 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="6" t="s">
-        <v>1236</v>
+        <v>352</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>1237</v>
+        <v>1094</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="D242" s="14" t="s">
         <v>350</v>
@@ -10971,13 +11011,13 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="6" t="s">
-        <v>353</v>
+        <v>1236</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>1095</v>
+        <v>1237</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D243" s="14" t="s">
         <v>350</v>
@@ -10986,373 +11026,371 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>1538</v>
-      </c>
-      <c r="D244" s="14"/>
+        <v>1537</v>
+      </c>
+      <c r="D244" s="14" t="s">
+        <v>350</v>
+      </c>
       <c r="E244" s="23"/>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>1539</v>
-      </c>
-      <c r="D245" s="14" t="s">
-        <v>350</v>
-      </c>
+        <v>1538</v>
+      </c>
+      <c r="D245" s="14"/>
       <c r="E245" s="23"/>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C246" s="12" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D246" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="E246" s="23"/>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B247" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="C246" s="12" t="s">
+      <c r="C247" s="12" t="s">
         <v>1540</v>
       </c>
-      <c r="D246" s="14"/>
-      <c r="E246" s="23"/>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="A247" s="7" t="s">
+      <c r="D247" s="14"/>
+      <c r="E247" s="23"/>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="7" t="s">
         <v>1580</v>
       </c>
-      <c r="B247" s="1"/>
-      <c r="C247" s="10"/>
-      <c r="D247" s="25"/>
-      <c r="E247" s="23"/>
-    </row>
-    <row r="248" spans="1:5">
-      <c r="A248" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="B248" s="3" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C248" s="12" t="s">
-        <v>1541</v>
-      </c>
-      <c r="D248" s="14" t="s">
-        <v>358</v>
-      </c>
+      <c r="B248" s="1"/>
+      <c r="C248" s="10"/>
+      <c r="D248" s="25"/>
       <c r="E248" s="23"/>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="D249" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E249" s="23"/>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="6" t="s">
-        <v>1238</v>
+        <v>359</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>1239</v>
+        <v>1100</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D250" s="14" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E250" s="23"/>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="6" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D251" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E251" s="23"/>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="6" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D252" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E252" s="23"/>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="6" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D253" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E253" s="23"/>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="6" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D254" s="14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E254" s="23"/>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="6" t="s">
-        <v>361</v>
+        <v>1246</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>1101</v>
+        <v>1247</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D255" s="14" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="E255" s="23"/>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D256" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E256" s="23"/>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D257" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E257" s="23"/>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D258" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E258" s="23"/>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D259" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E259" s="23"/>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="D260" s="14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E260" s="23"/>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C261" s="12" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D261" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="E261" s="23"/>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="B262" s="3" t="s">
         <v>1107</v>
       </c>
-      <c r="C261" s="12" t="s">
+      <c r="C262" s="12" t="s">
         <v>1554</v>
       </c>
-      <c r="D261" s="14" t="s">
+      <c r="D262" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="E261" s="23"/>
-    </row>
-    <row r="262" spans="1:5">
-      <c r="A262" s="7" t="s">
+      <c r="E262" s="23"/>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="7" t="s">
         <v>1581</v>
       </c>
-      <c r="B262" s="1"/>
-      <c r="C262" s="10"/>
-      <c r="D262" s="25"/>
-      <c r="E262" s="23"/>
-    </row>
-    <row r="263" spans="1:5">
-      <c r="A263" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B263" s="2"/>
-      <c r="C263" s="11"/>
-      <c r="D263" s="14" t="s">
-        <v>376</v>
-      </c>
+      <c r="B263" s="1"/>
+      <c r="C263" s="10"/>
+      <c r="D263" s="25"/>
       <c r="E263" s="23"/>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B264" s="2"/>
+      <c r="C264" s="11"/>
+      <c r="D264" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="E264" s="23"/>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B265" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="C264" s="12" t="s">
+      <c r="C265" s="12" t="s">
         <v>1555</v>
       </c>
-      <c r="D264" s="14" t="s">
+      <c r="D265" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="E264" s="23"/>
-    </row>
-    <row r="265" spans="1:5">
-      <c r="A265" s="7" t="s">
+      <c r="E265" s="23"/>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="7" t="s">
         <v>1582</v>
       </c>
-      <c r="B265" s="1"/>
-      <c r="C265" s="10"/>
-      <c r="D265" s="25"/>
-      <c r="E265" s="23"/>
-    </row>
-    <row r="266" spans="1:5">
-      <c r="A266" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C266" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="D266" s="14" t="s">
-        <v>380</v>
-      </c>
+      <c r="B266" s="1"/>
+      <c r="C266" s="10"/>
+      <c r="D266" s="25"/>
       <c r="E266" s="23"/>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C267" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="D267" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E267" s="23"/>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B268" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="C267" s="12" t="s">
+      <c r="C268" s="12" t="s">
         <v>1592</v>
       </c>
-      <c r="D267" s="14" t="s">
+      <c r="D268" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="E267" s="23"/>
-    </row>
-    <row r="268" spans="1:5">
-      <c r="A268" s="7" t="s">
+      <c r="E268" s="23"/>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="7" t="s">
         <v>1583</v>
       </c>
-      <c r="B268" s="1"/>
-      <c r="C268" s="10"/>
-      <c r="D268" s="25"/>
-      <c r="E268" s="23"/>
-    </row>
-    <row r="269" spans="1:5">
-      <c r="A269" s="6" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B269" s="6" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C269" s="12" t="s">
-        <v>1556</v>
-      </c>
-      <c r="D269" s="14" t="s">
-        <v>1326</v>
-      </c>
-      <c r="E269" s="6" t="s">
-        <v>1321</v>
-      </c>
+      <c r="B269" s="1"/>
+      <c r="C269" s="10"/>
+      <c r="D269" s="25"/>
+      <c r="E269" s="23"/>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="6" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="D270" s="14" t="s">
         <v>1326</v>
@@ -11361,54 +11399,56 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="59.4">
+    <row r="271" spans="1:5">
       <c r="A271" s="6" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C271" s="12" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D271" s="14" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E271" s="6" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="59.4">
+      <c r="A272" s="6" t="s">
         <v>1330</v>
       </c>
-      <c r="B271" s="6" t="s">
+      <c r="B272" s="6" t="s">
         <v>1334</v>
       </c>
-      <c r="C271" s="12" t="s">
+      <c r="C272" s="12" t="s">
         <v>1558</v>
       </c>
-      <c r="D271" s="26" t="s">
+      <c r="D272" s="26" t="s">
         <v>1335</v>
       </c>
-      <c r="E271" s="6"/>
-    </row>
-    <row r="272" spans="1:5">
-      <c r="A272" s="7" t="s">
+      <c r="E272" s="6"/>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="7" t="s">
         <v>1584</v>
       </c>
-      <c r="B272" s="1"/>
-      <c r="C272" s="10"/>
-      <c r="D272" s="25"/>
-      <c r="E272" s="23"/>
-    </row>
-    <row r="273" spans="1:5">
-      <c r="A273" s="6" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C273" s="12" t="s">
-        <v>1593</v>
-      </c>
-      <c r="D273" s="14" t="s">
-        <v>1248</v>
-      </c>
+      <c r="B273" s="1"/>
+      <c r="C273" s="10"/>
+      <c r="D273" s="25"/>
       <c r="E273" s="23"/>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="6" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="D274" s="14" t="s">
         <v>1248</v>
@@ -11417,13 +11457,13 @@
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="6" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="D275" s="14" t="s">
         <v>1248</v>
@@ -11432,45 +11472,45 @@
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="6" t="s">
-        <v>1345</v>
+        <v>1254</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>1346</v>
+        <v>1255</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>1559</v>
+        <v>1595</v>
       </c>
       <c r="D276" s="14" t="s">
-        <v>1249</v>
-      </c>
-      <c r="E276" s="6" t="s">
-        <v>1321</v>
-      </c>
+        <v>1248</v>
+      </c>
+      <c r="E276" s="23"/>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="6" t="s">
-        <v>1256</v>
+        <v>1345</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>1257</v>
+        <v>1346</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>1596</v>
+        <v>1559</v>
       </c>
       <c r="D277" s="14" t="s">
-        <v>1248</v>
-      </c>
-      <c r="E277" s="23"/>
+        <v>1249</v>
+      </c>
+      <c r="E277" s="6" t="s">
+        <v>1321</v>
+      </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="6" t="s">
-        <v>2104</v>
+        <v>1256</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>2105</v>
+        <v>1257</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>2106</v>
+        <v>1596</v>
       </c>
       <c r="D278" s="14" t="s">
         <v>1248</v>
@@ -11479,13 +11519,13 @@
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="6" t="s">
-        <v>1258</v>
+        <v>2104</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>1259</v>
+        <v>2105</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>1597</v>
+        <v>2106</v>
       </c>
       <c r="D279" s="14" t="s">
         <v>1248</v>
@@ -11494,45 +11534,45 @@
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="6" t="s">
-        <v>1792</v>
+        <v>1258</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>1793</v>
+        <v>1259</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>1794</v>
+        <v>1597</v>
       </c>
       <c r="D280" s="14" t="s">
         <v>1248</v>
       </c>
-      <c r="E280" s="6" t="s">
-        <v>1787</v>
-      </c>
+      <c r="E280" s="23"/>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="6" t="s">
-        <v>1260</v>
+        <v>1792</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>1261</v>
+        <v>1793</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>1598</v>
+        <v>1794</v>
       </c>
       <c r="D281" s="14" t="s">
         <v>1248</v>
       </c>
-      <c r="E281" s="23"/>
+      <c r="E281" s="6" t="s">
+        <v>1787</v>
+      </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="6" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="D282" s="14" t="s">
         <v>1248</v>
@@ -11541,13 +11581,13 @@
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="6" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D283" s="14" t="s">
         <v>1248</v>
@@ -11556,13 +11596,13 @@
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="6" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="D284" s="14" t="s">
         <v>1248</v>
@@ -11571,30 +11611,28 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="6" t="s">
-        <v>1347</v>
+        <v>1266</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1351</v>
+        <v>1267</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>1351</v>
+        <v>1601</v>
       </c>
       <c r="D285" s="14" t="s">
         <v>1248</v>
       </c>
-      <c r="E285" s="6" t="s">
-        <v>1355</v>
-      </c>
+      <c r="E285" s="23"/>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="6" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D286" s="14" t="s">
         <v>1248</v>
@@ -11605,13 +11643,13 @@
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="6" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D287" s="14" t="s">
         <v>1248</v>
@@ -11622,13 +11660,13 @@
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="6" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D288" s="14" t="s">
         <v>1248</v>
@@ -11639,28 +11677,30 @@
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="6" t="s">
-        <v>1268</v>
+        <v>1350</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>1269</v>
+        <v>1354</v>
       </c>
       <c r="C289" s="12" t="s">
-        <v>1269</v>
+        <v>1354</v>
       </c>
       <c r="D289" s="14" t="s">
         <v>1248</v>
       </c>
-      <c r="E289" s="23"/>
+      <c r="E289" s="6" t="s">
+        <v>1355</v>
+      </c>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="6" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="D290" s="14" t="s">
         <v>1248</v>
@@ -11669,13 +11709,13 @@
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="6" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C291" s="12" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="D291" s="14" t="s">
         <v>1248</v>
@@ -11684,45 +11724,45 @@
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="6" t="s">
-        <v>1356</v>
+        <v>1272</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>1357</v>
+        <v>1273</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>1560</v>
+        <v>1273</v>
       </c>
       <c r="D292" s="14" t="s">
         <v>1248</v>
       </c>
-      <c r="E292" s="6" t="s">
-        <v>1321</v>
-      </c>
+      <c r="E292" s="23"/>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="6" t="s">
-        <v>1274</v>
+        <v>1356</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>1275</v>
+        <v>1357</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>1602</v>
+        <v>1560</v>
       </c>
       <c r="D293" s="14" t="s">
         <v>1248</v>
       </c>
-      <c r="E293" s="23"/>
+      <c r="E293" s="6" t="s">
+        <v>1321</v>
+      </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" s="6" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D294" s="14" t="s">
         <v>1248</v>
@@ -11731,45 +11771,45 @@
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="6" t="s">
-        <v>1358</v>
+        <v>1276</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>1359</v>
+        <v>1277</v>
       </c>
       <c r="C295" s="12" t="s">
-        <v>1561</v>
+        <v>1603</v>
       </c>
       <c r="D295" s="14" t="s">
         <v>1248</v>
       </c>
-      <c r="E295" s="6" t="s">
-        <v>1321</v>
-      </c>
+      <c r="E295" s="23"/>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="6" t="s">
-        <v>1278</v>
+        <v>1358</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>1279</v>
+        <v>1359</v>
       </c>
       <c r="C296" s="12" t="s">
-        <v>1604</v>
+        <v>1561</v>
       </c>
       <c r="D296" s="14" t="s">
         <v>1248</v>
       </c>
-      <c r="E296" s="23"/>
+      <c r="E296" s="6" t="s">
+        <v>1321</v>
+      </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="6" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="C297" s="12" t="s">
-        <v>1282</v>
+        <v>1604</v>
       </c>
       <c r="D297" s="14" t="s">
         <v>1248</v>
@@ -11778,13 +11818,13 @@
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="6" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C298" s="12" t="s">
-        <v>1605</v>
+        <v>1282</v>
       </c>
       <c r="D298" s="14" t="s">
         <v>1248</v>
@@ -11793,13 +11833,13 @@
     </row>
     <row r="299" spans="1:5">
       <c r="A299" s="6" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C299" s="12" t="s">
-        <v>1285</v>
+        <v>1605</v>
       </c>
       <c r="D299" s="14" t="s">
         <v>1248</v>
@@ -11808,13 +11848,13 @@
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C300" s="12" t="s">
-        <v>1606</v>
+        <v>1285</v>
       </c>
       <c r="D300" s="14" t="s">
         <v>1248</v>
@@ -11823,13 +11863,13 @@
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="6" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D301" s="14" t="s">
         <v>1248</v>
@@ -11838,13 +11878,13 @@
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="6" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C302" s="12" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D302" s="14" t="s">
         <v>1248</v>
@@ -11853,13 +11893,13 @@
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="6" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="C303" s="12" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D303" s="14" t="s">
         <v>1248</v>
@@ -11868,13 +11908,13 @@
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="6" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="C304" s="12" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D304" s="14" t="s">
         <v>1248</v>
@@ -11883,13 +11923,13 @@
     </row>
     <row r="305" spans="1:5">
       <c r="A305" s="6" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="C305" s="12" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D305" s="14" t="s">
         <v>1248</v>
@@ -11897,10 +11937,18 @@
       <c r="E305" s="23"/>
     </row>
     <row r="306" spans="1:5">
-      <c r="A306" s="6"/>
-      <c r="B306" s="3"/>
-      <c r="C306" s="12"/>
-      <c r="D306" s="6"/>
+      <c r="A306" s="6" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C306" s="12" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D306" s="14" t="s">
+        <v>1248</v>
+      </c>
       <c r="E306" s="23"/>
     </row>
     <row r="307" spans="1:5">
@@ -11931,8 +11979,15 @@
       <c r="D310" s="6"/>
       <c r="E310" s="23"/>
     </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="6"/>
+      <c r="B311" s="3"/>
+      <c r="C311" s="12"/>
+      <c r="D311" s="6"/>
+      <c r="E311" s="23"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E310" xr:uid="{D7116DA7-B727-EA4E-B53C-355290066C9F}"/>
+  <autoFilter ref="A1:E311" xr:uid="{D7116DA7-B727-EA4E-B53C-355290066C9F}"/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11942,13 +11997,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9BD1D8-D860-9845-B2DE-1D2AC2DDC7F1}">
-  <dimension ref="A1:D1082"/>
+  <dimension ref="A1:D1091"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B616" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B997" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="A643" sqref="A643"/>
+      <selection pane="bottomRight" activeCell="A1015" sqref="A1015"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.26953125" defaultRowHeight="19.8"/>
@@ -18910,7 +18965,7 @@
       <c r="B632" s="16"/>
       <c r="C632" s="18"/>
       <c r="D632" s="17" t="str">
-        <f t="shared" ref="D632:D695" si="13">CONCATENATE( "Built-in Variable: ", A632 )</f>
+        <f t="shared" ref="D632:D703" si="13">CONCATENATE( "Built-in Variable: ", A632 )</f>
         <v>Built-in Variable: $EVENT_PAR_13</v>
       </c>
     </row>
@@ -19180,4692 +19235,4791 @@
     </row>
     <row r="657" spans="1:4">
       <c r="A657" s="16" t="s">
-        <v>707</v>
+        <v>2147</v>
       </c>
       <c r="B657" s="16"/>
       <c r="C657" s="18"/>
       <c r="D657" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $EVENT_STATUS_INACTIVE</v>
+        <v>Built-in Variable: $ENGINE_PAR_HP_FREQ</v>
       </c>
     </row>
     <row r="658" spans="1:4">
       <c r="A658" s="16" t="s">
-        <v>708</v>
+        <v>2148</v>
       </c>
       <c r="B658" s="16"/>
       <c r="C658" s="18"/>
       <c r="D658" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $EVENT_STATUS_MIDI_QUEUE</v>
+        <v>Built-in Variable: $ENGINE_PAR_HQI_MODE</v>
       </c>
     </row>
     <row r="659" spans="1:4">
       <c r="A659" s="16" t="s">
-        <v>709</v>
+        <v>2149</v>
       </c>
       <c r="B659" s="16"/>
       <c r="C659" s="18"/>
       <c r="D659" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $EVENT_STATUS_NOTE_QUEUE</v>
+        <v>Built-in Variable: $ENGINE_PAR_S1200_FILTER_MODE</v>
       </c>
     </row>
     <row r="660" spans="1:4">
       <c r="A660" s="16" t="s">
-        <v>710</v>
+        <v>2150</v>
       </c>
       <c r="B660" s="16"/>
       <c r="C660" s="18"/>
       <c r="D660" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $EVENT_VELOCITY</v>
+        <v>Built-in Variable: $ENGINE_PAR_SEQ_HP</v>
       </c>
     </row>
     <row r="661" spans="1:4">
       <c r="A661" s="16" t="s">
-        <v>711</v>
+        <v>2151</v>
       </c>
       <c r="B661" s="16"/>
       <c r="C661" s="18"/>
       <c r="D661" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_AR_BP2</v>
+        <v>Built-in Variable: $ENGINE_PAR_SEQ_LP</v>
       </c>
     </row>
     <row r="662" spans="1:4">
       <c r="A662" s="16" t="s">
-        <v>713</v>
+        <v>2152</v>
       </c>
       <c r="B662" s="16"/>
       <c r="C662" s="18"/>
       <c r="D662" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_AR_BP4</v>
+        <v>Built-in Variable: $ENGINE_PAR_SEQ_LP_FREQ</v>
       </c>
     </row>
     <row r="663" spans="1:4">
       <c r="A663" s="16" t="s">
-        <v>712</v>
+        <v>2153</v>
       </c>
       <c r="B663" s="16"/>
       <c r="C663" s="18"/>
       <c r="D663" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_AR_BP24</v>
+        <v>Built-in Variable: $ENGINE_PAR_TMPRO_KEEP_FORMANTS</v>
       </c>
     </row>
     <row r="664" spans="1:4">
       <c r="A664" s="16" t="s">
-        <v>714</v>
+        <v>2154</v>
       </c>
       <c r="B664" s="16"/>
       <c r="C664" s="18"/>
       <c r="D664" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_AR_HP2</v>
+        <v>Built-in Variable: $ENGINE_PAR_TRACKING</v>
       </c>
     </row>
     <row r="665" spans="1:4">
       <c r="A665" s="16" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="B665" s="16"/>
       <c r="C665" s="18"/>
       <c r="D665" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_AR_HP4</v>
+        <v>Built-in Variable: $EVENT_STATUS_INACTIVE</v>
       </c>
     </row>
     <row r="666" spans="1:4">
       <c r="A666" s="16" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="B666" s="16"/>
       <c r="C666" s="18"/>
       <c r="D666" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_AR_HP24</v>
+        <v>Built-in Variable: $EVENT_STATUS_MIDI_QUEUE</v>
       </c>
     </row>
     <row r="667" spans="1:4">
       <c r="A667" s="16" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="B667" s="16"/>
       <c r="C667" s="18"/>
       <c r="D667" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_AR_LP2</v>
+        <v>Built-in Variable: $EVENT_STATUS_NOTE_QUEUE</v>
       </c>
     </row>
     <row r="668" spans="1:4">
       <c r="A668" s="16" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="B668" s="16"/>
       <c r="C668" s="18"/>
       <c r="D668" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_AR_LP4</v>
+        <v>Built-in Variable: $EVENT_VELOCITY</v>
       </c>
     </row>
     <row r="669" spans="1:4">
       <c r="A669" s="16" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="B669" s="16"/>
       <c r="C669" s="18"/>
       <c r="D669" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_AR_LP24</v>
+        <v>Built-in Variable: $FILTER_TYPE_AR_BP2</v>
       </c>
     </row>
     <row r="670" spans="1:4">
       <c r="A670" s="16" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="B670" s="16"/>
       <c r="C670" s="18"/>
       <c r="D670" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_BP2POLE</v>
+        <v>Built-in Variable: $FILTER_TYPE_AR_BP4</v>
       </c>
     </row>
     <row r="671" spans="1:4">
       <c r="A671" s="16" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="B671" s="16"/>
       <c r="C671" s="18"/>
       <c r="D671" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_BP4POLE</v>
+        <v>Built-in Variable: $FILTER_TYPE_AR_BP24</v>
       </c>
     </row>
     <row r="672" spans="1:4">
       <c r="A672" s="16" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="B672" s="16"/>
       <c r="C672" s="18"/>
       <c r="D672" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_BR4POLE</v>
+        <v>Built-in Variable: $FILTER_TYPE_AR_HP2</v>
       </c>
     </row>
     <row r="673" spans="1:4">
       <c r="A673" s="16" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="B673" s="16"/>
       <c r="C673" s="18"/>
       <c r="D673" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_DAFT_HP</v>
+        <v>Built-in Variable: $FILTER_TYPE_AR_HP4</v>
       </c>
     </row>
     <row r="674" spans="1:4">
       <c r="A674" s="16" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="B674" s="16"/>
       <c r="C674" s="18"/>
       <c r="D674" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_DAFT_LP</v>
+        <v>Built-in Variable: $FILTER_TYPE_AR_HP24</v>
       </c>
     </row>
     <row r="675" spans="1:4">
       <c r="A675" s="16" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="B675" s="16"/>
       <c r="C675" s="18"/>
       <c r="D675" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_EQ1BAND</v>
+        <v>Built-in Variable: $FILTER_TYPE_AR_LP2</v>
       </c>
     </row>
     <row r="676" spans="1:4">
       <c r="A676" s="16" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="B676" s="16"/>
       <c r="C676" s="18"/>
       <c r="D676" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_EQ2BAND</v>
+        <v>Built-in Variable: $FILTER_TYPE_AR_LP4</v>
       </c>
     </row>
     <row r="677" spans="1:4">
       <c r="A677" s="16" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="B677" s="16"/>
       <c r="C677" s="18"/>
       <c r="D677" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_EQ3BAND</v>
+        <v>Built-in Variable: $FILTER_TYPE_AR_LP24</v>
       </c>
     </row>
     <row r="678" spans="1:4">
       <c r="A678" s="16" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="B678" s="16"/>
       <c r="C678" s="18"/>
       <c r="D678" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_FORMANT_1</v>
+        <v>Built-in Variable: $FILTER_TYPE_BP2POLE</v>
       </c>
     </row>
     <row r="679" spans="1:4">
       <c r="A679" s="16" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="B679" s="16"/>
       <c r="C679" s="18"/>
       <c r="D679" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_FORMANT_2</v>
+        <v>Built-in Variable: $FILTER_TYPE_BP4POLE</v>
       </c>
     </row>
     <row r="680" spans="1:4">
       <c r="A680" s="16" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="B680" s="16"/>
       <c r="C680" s="18"/>
       <c r="D680" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_HP1POLE</v>
+        <v>Built-in Variable: $FILTER_TYPE_BR4POLE</v>
       </c>
     </row>
     <row r="681" spans="1:4">
       <c r="A681" s="16" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="B681" s="16"/>
       <c r="C681" s="18"/>
       <c r="D681" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_HP2POLE</v>
+        <v>Built-in Variable: $FILTER_TYPE_DAFT_HP</v>
       </c>
     </row>
     <row r="682" spans="1:4">
       <c r="A682" s="16" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="B682" s="16"/>
       <c r="C682" s="18"/>
       <c r="D682" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_HP4POLE</v>
+        <v>Built-in Variable: $FILTER_TYPE_DAFT_LP</v>
       </c>
     </row>
     <row r="683" spans="1:4">
       <c r="A683" s="16" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="B683" s="16"/>
       <c r="C683" s="18"/>
       <c r="D683" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_LADDER</v>
+        <v>Built-in Variable: $FILTER_TYPE_EQ1BAND</v>
       </c>
     </row>
     <row r="684" spans="1:4">
       <c r="A684" s="16" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="B684" s="16"/>
       <c r="C684" s="18"/>
       <c r="D684" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_LDR_BP2</v>
+        <v>Built-in Variable: $FILTER_TYPE_EQ2BAND</v>
       </c>
     </row>
     <row r="685" spans="1:4">
       <c r="A685" s="16" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="B685" s="16"/>
       <c r="C685" s="18"/>
       <c r="D685" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_LDR_BP4</v>
+        <v>Built-in Variable: $FILTER_TYPE_EQ3BAND</v>
       </c>
     </row>
     <row r="686" spans="1:4">
       <c r="A686" s="16" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="B686" s="16"/>
       <c r="C686" s="18"/>
       <c r="D686" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_LDR_HP1</v>
+        <v>Built-in Variable: $FILTER_TYPE_FORMANT_1</v>
       </c>
     </row>
     <row r="687" spans="1:4">
-      <c r="A687" s="6" t="s">
-        <v>737</v>
+      <c r="A687" s="16" t="s">
+        <v>729</v>
       </c>
       <c r="B687" s="16"/>
       <c r="C687" s="18"/>
       <c r="D687" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_LDR_HP2</v>
+        <v>Built-in Variable: $FILTER_TYPE_FORMANT_2</v>
       </c>
     </row>
     <row r="688" spans="1:4">
-      <c r="A688" s="6" t="s">
-        <v>738</v>
+      <c r="A688" s="16" t="s">
+        <v>730</v>
       </c>
       <c r="B688" s="16"/>
       <c r="C688" s="18"/>
       <c r="D688" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_LDR_HP3</v>
+        <v>Built-in Variable: $FILTER_TYPE_HP1POLE</v>
       </c>
     </row>
     <row r="689" spans="1:4">
-      <c r="A689" s="6" t="s">
-        <v>739</v>
+      <c r="A689" s="16" t="s">
+        <v>731</v>
       </c>
       <c r="B689" s="16"/>
       <c r="C689" s="18"/>
       <c r="D689" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_LDR_HP4</v>
+        <v>Built-in Variable: $FILTER_TYPE_HP2POLE</v>
       </c>
     </row>
     <row r="690" spans="1:4">
-      <c r="A690" s="6" t="s">
-        <v>740</v>
+      <c r="A690" s="16" t="s">
+        <v>732</v>
       </c>
       <c r="B690" s="16"/>
       <c r="C690" s="18"/>
       <c r="D690" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_LDR_LP1</v>
+        <v>Built-in Variable: $FILTER_TYPE_HP4POLE</v>
       </c>
     </row>
     <row r="691" spans="1:4">
-      <c r="A691" s="6" t="s">
-        <v>741</v>
+      <c r="A691" s="16" t="s">
+        <v>733</v>
       </c>
       <c r="B691" s="16"/>
       <c r="C691" s="18"/>
       <c r="D691" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_LDR_LP2</v>
+        <v>Built-in Variable: $FILTER_TYPE_LADDER</v>
       </c>
     </row>
     <row r="692" spans="1:4">
-      <c r="A692" s="6" t="s">
-        <v>742</v>
+      <c r="A692" s="16" t="s">
+        <v>734</v>
       </c>
       <c r="B692" s="16"/>
       <c r="C692" s="18"/>
       <c r="D692" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_LDR_LP3</v>
+        <v>Built-in Variable: $FILTER_TYPE_LDR_BP2</v>
       </c>
     </row>
     <row r="693" spans="1:4">
       <c r="A693" s="16" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="B693" s="16"/>
       <c r="C693" s="18"/>
       <c r="D693" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_LDR_LP4</v>
+        <v>Built-in Variable: $FILTER_TYPE_LDR_BP4</v>
       </c>
     </row>
     <row r="694" spans="1:4">
       <c r="A694" s="16" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="B694" s="16"/>
       <c r="C694" s="18"/>
       <c r="D694" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_LDR_NOTCH</v>
+        <v>Built-in Variable: $FILTER_TYPE_LDR_HP1</v>
       </c>
     </row>
     <row r="695" spans="1:4">
-      <c r="A695" s="16" t="s">
-        <v>745</v>
+      <c r="A695" s="6" t="s">
+        <v>737</v>
       </c>
       <c r="B695" s="16"/>
       <c r="C695" s="18"/>
       <c r="D695" s="17" t="str">
         <f t="shared" si="13"/>
-        <v>Built-in Variable: $FILTER_TYPE_LDR_PEAK</v>
+        <v>Built-in Variable: $FILTER_TYPE_LDR_HP2</v>
       </c>
     </row>
     <row r="696" spans="1:4">
-      <c r="A696" s="16" t="s">
-        <v>746</v>
+      <c r="A696" s="6" t="s">
+        <v>738</v>
       </c>
       <c r="B696" s="16"/>
       <c r="C696" s="18"/>
       <c r="D696" s="17" t="str">
-        <f t="shared" ref="D696:D762" si="14">CONCATENATE( "Built-in Variable: ", A696 )</f>
-        <v>Built-in Variable: $FILTER_TYPE_LP1POLE</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $FILTER_TYPE_LDR_HP3</v>
       </c>
     </row>
     <row r="697" spans="1:4">
-      <c r="A697" s="16" t="s">
-        <v>747</v>
+      <c r="A697" s="6" t="s">
+        <v>739</v>
       </c>
       <c r="B697" s="16"/>
       <c r="C697" s="18"/>
       <c r="D697" s="17" t="str">
-        <f t="shared" si="14"/>
-        <v>Built-in Variable: $FILTER_TYPE_LP2POLE</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $FILTER_TYPE_LDR_HP4</v>
       </c>
     </row>
     <row r="698" spans="1:4">
-      <c r="A698" s="16" t="s">
-        <v>748</v>
+      <c r="A698" s="6" t="s">
+        <v>740</v>
       </c>
       <c r="B698" s="16"/>
       <c r="C698" s="18"/>
       <c r="D698" s="17" t="str">
-        <f t="shared" si="14"/>
-        <v>Built-in Variable: $FILTER_TYPE_LP4POLE</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $FILTER_TYPE_LDR_LP1</v>
       </c>
     </row>
     <row r="699" spans="1:4">
-      <c r="A699" s="16" t="s">
-        <v>749</v>
+      <c r="A699" s="6" t="s">
+        <v>741</v>
       </c>
       <c r="B699" s="16"/>
       <c r="C699" s="18"/>
       <c r="D699" s="17" t="str">
-        <f t="shared" si="14"/>
-        <v>Built-in Variable: $FILTER_TYPE_LP6POLE</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $FILTER_TYPE_LDR_LP2</v>
       </c>
     </row>
     <row r="700" spans="1:4">
-      <c r="A700" s="16" t="s">
-        <v>750</v>
+      <c r="A700" s="6" t="s">
+        <v>742</v>
       </c>
       <c r="B700" s="16"/>
       <c r="C700" s="18"/>
       <c r="D700" s="17" t="str">
-        <f t="shared" si="14"/>
-        <v>Built-in Variable: $FILTER_TYPE_PHASER</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $FILTER_TYPE_LDR_LP3</v>
       </c>
     </row>
     <row r="701" spans="1:4">
       <c r="A701" s="16" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="B701" s="16"/>
       <c r="C701" s="18"/>
       <c r="D701" s="17" t="str">
-        <f t="shared" si="14"/>
-        <v>Built-in Variable: $FILTER_TYPE_PRO52</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $FILTER_TYPE_LDR_LP4</v>
       </c>
     </row>
     <row r="702" spans="1:4">
       <c r="A702" s="16" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="B702" s="16"/>
       <c r="C702" s="18"/>
       <c r="D702" s="17" t="str">
-        <f t="shared" si="14"/>
-        <v>Built-in Variable: $FILTER_TYPE_SIMPLE_LPHP</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $FILTER_TYPE_LDR_NOTCH</v>
       </c>
     </row>
     <row r="703" spans="1:4">
       <c r="A703" s="16" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B703" s="16"/>
       <c r="C703" s="18"/>
       <c r="D703" s="17" t="str">
-        <f t="shared" si="14"/>
-        <v>Built-in Variable: $FILTER_TYPE_SV_BP2</v>
+        <f t="shared" si="13"/>
+        <v>Built-in Variable: $FILTER_TYPE_LDR_PEAK</v>
       </c>
     </row>
     <row r="704" spans="1:4">
       <c r="A704" s="16" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="B704" s="16"/>
       <c r="C704" s="18"/>
       <c r="D704" s="17" t="str">
-        <f t="shared" si="14"/>
-        <v>Built-in Variable: $FILTER_TYPE_SV_BP4</v>
+        <f t="shared" ref="D704:D770" si="14">CONCATENATE( "Built-in Variable: ", A704 )</f>
+        <v>Built-in Variable: $FILTER_TYPE_LP1POLE</v>
       </c>
     </row>
     <row r="705" spans="1:4">
       <c r="A705" s="16" t="s">
-        <v>2054</v>
+        <v>747</v>
       </c>
       <c r="B705" s="16"/>
       <c r="C705" s="18"/>
       <c r="D705" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $FILTER_TYPE_SV_BP6</v>
+        <v>Built-in Variable: $FILTER_TYPE_LP2POLE</v>
       </c>
     </row>
     <row r="706" spans="1:4">
       <c r="A706" s="16" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="B706" s="16"/>
       <c r="C706" s="18"/>
       <c r="D706" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $FILTER_TYPE_SV_HP1</v>
+        <v>Built-in Variable: $FILTER_TYPE_LP4POLE</v>
       </c>
     </row>
     <row r="707" spans="1:4">
       <c r="A707" s="16" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="B707" s="16"/>
       <c r="C707" s="18"/>
       <c r="D707" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $FILTER_TYPE_SV_HP2</v>
+        <v>Built-in Variable: $FILTER_TYPE_LP6POLE</v>
       </c>
     </row>
     <row r="708" spans="1:4">
       <c r="A708" s="16" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="B708" s="16"/>
       <c r="C708" s="18"/>
       <c r="D708" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $FILTER_TYPE_SV_HP4</v>
+        <v>Built-in Variable: $FILTER_TYPE_PHASER</v>
       </c>
     </row>
     <row r="709" spans="1:4">
       <c r="A709" s="16" t="s">
-        <v>2055</v>
+        <v>751</v>
       </c>
       <c r="B709" s="16"/>
       <c r="C709" s="18"/>
       <c r="D709" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $FILTER_TYPE_SV_HP6</v>
+        <v>Built-in Variable: $FILTER_TYPE_PRO52</v>
       </c>
     </row>
     <row r="710" spans="1:4">
       <c r="A710" s="16" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="B710" s="16"/>
       <c r="C710" s="18"/>
       <c r="D710" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $FILTER_TYPE_SV_LP1</v>
+        <v>Built-in Variable: $FILTER_TYPE_SIMPLE_LPHP</v>
       </c>
     </row>
     <row r="711" spans="1:4">
       <c r="A711" s="16" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B711" s="16"/>
       <c r="C711" s="18"/>
       <c r="D711" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $FILTER_TYPE_SV_LP2</v>
+        <v>Built-in Variable: $FILTER_TYPE_SV_BP2</v>
       </c>
     </row>
     <row r="712" spans="1:4">
       <c r="A712" s="16" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="B712" s="16"/>
       <c r="C712" s="18"/>
       <c r="D712" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $FILTER_TYPE_SV_LP4</v>
+        <v>Built-in Variable: $FILTER_TYPE_SV_BP4</v>
       </c>
     </row>
     <row r="713" spans="1:4">
       <c r="A713" s="16" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="B713" s="16"/>
       <c r="C713" s="18"/>
       <c r="D713" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $FILTER_TYPE_SV_LP6</v>
+        <v>Built-in Variable: $FILTER_TYPE_SV_BP6</v>
       </c>
     </row>
     <row r="714" spans="1:4">
       <c r="A714" s="16" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B714" s="16"/>
       <c r="C714" s="18"/>
       <c r="D714" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $FILTER_TYPE_SV_NOTCH4</v>
+        <v>Built-in Variable: $FILTER_TYPE_SV_HP1</v>
       </c>
     </row>
     <row r="715" spans="1:4">
       <c r="A715" s="16" t="s">
-        <v>2057</v>
+        <v>756</v>
       </c>
       <c r="B715" s="16"/>
       <c r="C715" s="18"/>
       <c r="D715" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $FILTER_TYPE_SV_NOTCH6</v>
+        <v>Built-in Variable: $FILTER_TYPE_SV_HP2</v>
       </c>
     </row>
     <row r="716" spans="1:4">
       <c r="A716" s="16" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B716" s="16"/>
       <c r="C716" s="18"/>
       <c r="D716" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $FILTER_TYPE_SV_PAR_BPBP</v>
+        <v>Built-in Variable: $FILTER_TYPE_SV_HP4</v>
       </c>
     </row>
     <row r="717" spans="1:4">
       <c r="A717" s="16" t="s">
-        <v>763</v>
+        <v>2055</v>
       </c>
       <c r="B717" s="16"/>
       <c r="C717" s="18"/>
       <c r="D717" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $FILTER_TYPE_SV_PAR_LPHP</v>
+        <v>Built-in Variable: $FILTER_TYPE_SV_HP6</v>
       </c>
     </row>
     <row r="718" spans="1:4">
       <c r="A718" s="16" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="B718" s="16"/>
       <c r="C718" s="18"/>
       <c r="D718" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $FILTER_TYPE_SV_SER_LPHP</v>
+        <v>Built-in Variable: $FILTER_TYPE_SV_LP1</v>
       </c>
     </row>
     <row r="719" spans="1:4">
       <c r="A719" s="16" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="B719" s="16"/>
       <c r="C719" s="18"/>
       <c r="D719" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $FILTER_TYPE_VERSATILE</v>
+        <v>Built-in Variable: $FILTER_TYPE_SV_LP2</v>
       </c>
     </row>
     <row r="720" spans="1:4">
       <c r="A720" s="16" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="B720" s="16"/>
       <c r="C720" s="18"/>
       <c r="D720" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $FILTER_TYPE_VOWELA</v>
+        <v>Built-in Variable: $FILTER_TYPE_SV_LP4</v>
       </c>
     </row>
     <row r="721" spans="1:4">
       <c r="A721" s="16" t="s">
-        <v>767</v>
+        <v>2056</v>
       </c>
       <c r="B721" s="16"/>
       <c r="C721" s="18"/>
       <c r="D721" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $FILTER_TYPE_VOWELB</v>
+        <v>Built-in Variable: $FILTER_TYPE_SV_LP6</v>
       </c>
     </row>
     <row r="722" spans="1:4">
       <c r="A722" s="16" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="B722" s="16"/>
       <c r="C722" s="18"/>
       <c r="D722" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $GET_FOLDER_FACTORY_DIR</v>
+        <v>Built-in Variable: $FILTER_TYPE_SV_NOTCH4</v>
       </c>
     </row>
     <row r="723" spans="1:4">
       <c r="A723" s="16" t="s">
-        <v>1314</v>
+        <v>2057</v>
       </c>
       <c r="B723" s="16"/>
       <c r="C723" s="18"/>
       <c r="D723" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $GET_FOLDER_INSTALL_DIR</v>
+        <v>Built-in Variable: $FILTER_TYPE_SV_NOTCH6</v>
       </c>
     </row>
     <row r="724" spans="1:4">
       <c r="A724" s="16" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="B724" s="16"/>
       <c r="C724" s="18"/>
       <c r="D724" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $GET_FOLDER_LIBRARY_DIR</v>
+        <v>Built-in Variable: $FILTER_TYPE_SV_PAR_BPBP</v>
       </c>
     </row>
     <row r="725" spans="1:4">
       <c r="A725" s="16" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="B725" s="16"/>
       <c r="C725" s="18"/>
       <c r="D725" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $GET_FOLDER_PATCH_DIR</v>
+        <v>Built-in Variable: $FILTER_TYPE_SV_PAR_LPHP</v>
       </c>
     </row>
     <row r="726" spans="1:4">
       <c r="A726" s="16" t="s">
-        <v>2058</v>
+        <v>764</v>
       </c>
       <c r="B726" s="16"/>
       <c r="C726" s="18"/>
       <c r="D726" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $GROUP_IDX</v>
+        <v>Built-in Variable: $FILTER_TYPE_SV_SER_LPHP</v>
       </c>
     </row>
     <row r="727" spans="1:4">
       <c r="A727" s="16" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="B727" s="16"/>
       <c r="C727" s="18"/>
       <c r="D727" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $HIDE_PART_BG</v>
+        <v>Built-in Variable: $FILTER_TYPE_VERSATILE</v>
       </c>
     </row>
     <row r="728" spans="1:4">
       <c r="A728" s="16" t="s">
-        <v>1125</v>
+        <v>766</v>
       </c>
       <c r="B728" s="16"/>
       <c r="C728" s="18"/>
       <c r="D728" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $HIDE_PART_CURSOR</v>
+        <v>Built-in Variable: $FILTER_TYPE_VOWELA</v>
       </c>
     </row>
     <row r="729" spans="1:4">
       <c r="A729" s="16" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="B729" s="16"/>
       <c r="C729" s="18"/>
       <c r="D729" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $HIDE_PART_MOD_LIGHT</v>
+        <v>Built-in Variable: $FILTER_TYPE_VOWELB</v>
       </c>
     </row>
     <row r="730" spans="1:4">
       <c r="A730" s="16" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B730" s="16"/>
       <c r="C730" s="18"/>
       <c r="D730" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $HIDE_PART_NOTHING</v>
+        <v>Built-in Variable: $GET_FOLDER_FACTORY_DIR</v>
       </c>
     </row>
     <row r="731" spans="1:4">
       <c r="A731" s="16" t="s">
-        <v>774</v>
+        <v>1314</v>
       </c>
       <c r="B731" s="16"/>
       <c r="C731" s="18"/>
       <c r="D731" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $HIDE_PART_TITLE</v>
+        <v>Built-in Variable: $GET_FOLDER_INSTALL_DIR</v>
       </c>
     </row>
     <row r="732" spans="1:4">
       <c r="A732" s="16" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B732" s="16"/>
       <c r="C732" s="18"/>
       <c r="D732" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $HIDE_PART_VALUE</v>
+        <v>Built-in Variable: $GET_FOLDER_LIBRARY_DIR</v>
       </c>
     </row>
     <row r="733" spans="1:4">
       <c r="A733" s="16" t="s">
-        <v>2059</v>
+        <v>770</v>
       </c>
       <c r="B733" s="16"/>
       <c r="C733" s="18"/>
       <c r="D733" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $HIDE_PART_WHOLE_CONTROL</v>
+        <v>Built-in Variable: $GET_FOLDER_PATCH_DIR</v>
       </c>
     </row>
     <row r="734" spans="1:4">
       <c r="A734" s="16" t="s">
-        <v>776</v>
+        <v>2058</v>
       </c>
       <c r="B734" s="16"/>
       <c r="C734" s="18"/>
       <c r="D734" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $HIDE_WHOLE_CONTROL</v>
+        <v>Built-in Variable: $GROUP_IDX</v>
       </c>
     </row>
     <row r="735" spans="1:4">
       <c r="A735" s="16" t="s">
-        <v>1315</v>
+        <v>771</v>
       </c>
       <c r="B735" s="16"/>
       <c r="C735" s="18"/>
       <c r="D735" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $IDX_OFFSET_EXT_MOD</v>
+        <v>Built-in Variable: $HIDE_PART_BG</v>
       </c>
     </row>
     <row r="736" spans="1:4">
       <c r="A736" s="16" t="s">
-        <v>777</v>
+        <v>1125</v>
       </c>
       <c r="B736" s="16"/>
       <c r="C736" s="18"/>
       <c r="D736" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $INST_ICON_ID</v>
+        <v>Built-in Variable: $HIDE_PART_CURSOR</v>
       </c>
     </row>
     <row r="737" spans="1:4">
       <c r="A737" s="16" t="s">
-        <v>1316</v>
+        <v>772</v>
       </c>
       <c r="B737" s="16"/>
       <c r="C737" s="18"/>
       <c r="D737" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $INST_LIB_COPYRIGHT_ID</v>
+        <v>Built-in Variable: $HIDE_PART_MOD_LIGHT</v>
       </c>
     </row>
     <row r="738" spans="1:4">
       <c r="A738" s="16" t="s">
-        <v>1317</v>
+        <v>773</v>
       </c>
       <c r="B738" s="16"/>
       <c r="C738" s="18"/>
       <c r="D738" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $INST_LIB_DESCRIPTION_ID</v>
+        <v>Built-in Variable: $HIDE_PART_NOTHING</v>
       </c>
     </row>
     <row r="739" spans="1:4">
       <c r="A739" s="16" t="s">
-        <v>1318</v>
+        <v>774</v>
       </c>
       <c r="B739" s="16"/>
       <c r="C739" s="18"/>
       <c r="D739" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $INST_LIB_PIC_ONE_ID</v>
+        <v>Built-in Variable: $HIDE_PART_TITLE</v>
       </c>
     </row>
     <row r="740" spans="1:4">
       <c r="A740" s="16" t="s">
-        <v>1319</v>
+        <v>775</v>
       </c>
       <c r="B740" s="16"/>
       <c r="C740" s="18"/>
       <c r="D740" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $INST_LIB_PIC_TWO_ID</v>
+        <v>Built-in Variable: $HIDE_PART_VALUE</v>
       </c>
     </row>
     <row r="741" spans="1:4">
       <c r="A741" s="16" t="s">
-        <v>778</v>
+        <v>2059</v>
       </c>
       <c r="B741" s="16"/>
       <c r="C741" s="18"/>
       <c r="D741" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $INST_WALLPAPER_ID</v>
+        <v>Built-in Variable: $HIDE_PART_WHOLE_CONTROL</v>
       </c>
     </row>
     <row r="742" spans="1:4">
       <c r="A742" s="16" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B742" s="16"/>
       <c r="C742" s="18"/>
       <c r="D742" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $INTMOD_TYPE_ENVELOPE</v>
+        <v>Built-in Variable: $HIDE_WHOLE_CONTROL</v>
       </c>
     </row>
     <row r="743" spans="1:4">
       <c r="A743" s="16" t="s">
-        <v>780</v>
+        <v>1315</v>
       </c>
       <c r="B743" s="16"/>
       <c r="C743" s="18"/>
       <c r="D743" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $INTMOD_TYPE_ENV_FOLLOW</v>
+        <v>Built-in Variable: $IDX_OFFSET_EXT_MOD</v>
       </c>
     </row>
     <row r="744" spans="1:4">
       <c r="A744" s="16" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B744" s="16"/>
       <c r="C744" s="18"/>
       <c r="D744" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $INTMOD_TYPE_GLIDE</v>
+        <v>Built-in Variable: $INST_ICON_ID</v>
       </c>
     </row>
     <row r="745" spans="1:4">
       <c r="A745" s="16" t="s">
-        <v>782</v>
+        <v>1316</v>
       </c>
       <c r="B745" s="16"/>
       <c r="C745" s="18"/>
       <c r="D745" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $INTMOD_TYPE_LFO</v>
+        <v>Built-in Variable: $INST_LIB_COPYRIGHT_ID</v>
       </c>
     </row>
     <row r="746" spans="1:4">
       <c r="A746" s="16" t="s">
-        <v>783</v>
+        <v>1317</v>
       </c>
       <c r="B746" s="16"/>
       <c r="C746" s="18"/>
       <c r="D746" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $INTMOD_TYPE_NONE</v>
+        <v>Built-in Variable: $INST_LIB_DESCRIPTION_ID</v>
       </c>
     </row>
     <row r="747" spans="1:4">
       <c r="A747" s="16" t="s">
-        <v>784</v>
+        <v>1318</v>
       </c>
       <c r="B747" s="16"/>
       <c r="C747" s="18"/>
       <c r="D747" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $INTMOD_TYPE_STEPMOD</v>
+        <v>Built-in Variable: $INST_LIB_PIC_ONE_ID</v>
       </c>
     </row>
     <row r="748" spans="1:4">
       <c r="A748" s="16" t="s">
-        <v>2060</v>
+        <v>1319</v>
       </c>
       <c r="B748" s="16"/>
       <c r="C748" s="18"/>
       <c r="D748" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $KEY_COLOR_BLACK</v>
+        <v>Built-in Variable: $INST_LIB_PIC_TWO_ID</v>
       </c>
     </row>
     <row r="749" spans="1:4">
       <c r="A749" s="16" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="B749" s="16"/>
       <c r="C749" s="18"/>
       <c r="D749" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $KEY_COLOR_BLUE</v>
+        <v>Built-in Variable: $INST_WALLPAPER_ID</v>
       </c>
     </row>
     <row r="750" spans="1:4">
       <c r="A750" s="16" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="B750" s="16"/>
       <c r="C750" s="18"/>
       <c r="D750" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $KEY_COLOR_CYAN</v>
+        <v>Built-in Variable: $INTMOD_TYPE_ENVELOPE</v>
       </c>
     </row>
     <row r="751" spans="1:4">
       <c r="A751" s="16" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="B751" s="16"/>
       <c r="C751" s="18"/>
       <c r="D751" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $KEY_COLOR_DEFAULT</v>
+        <v>Built-in Variable: $INTMOD_TYPE_ENV_FOLLOW</v>
       </c>
     </row>
     <row r="752" spans="1:4">
       <c r="A752" s="16" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="B752" s="16"/>
       <c r="C752" s="18"/>
       <c r="D752" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $KEY_COLOR_FUCHSIA</v>
+        <v>Built-in Variable: $INTMOD_TYPE_GLIDE</v>
       </c>
     </row>
     <row r="753" spans="1:4">
       <c r="A753" s="16" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="B753" s="16"/>
       <c r="C753" s="18"/>
       <c r="D753" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $KEY_COLOR_GREEN</v>
+        <v>Built-in Variable: $INTMOD_TYPE_LFO</v>
       </c>
     </row>
     <row r="754" spans="1:4">
       <c r="A754" s="16" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="B754" s="16"/>
       <c r="C754" s="18"/>
       <c r="D754" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $KEY_COLOR_INACTIVE</v>
+        <v>Built-in Variable: $INTMOD_TYPE_NONE</v>
       </c>
     </row>
     <row r="755" spans="1:4">
       <c r="A755" s="16" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="B755" s="16"/>
       <c r="C755" s="18"/>
       <c r="D755" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $KEY_COLOR_LIGHT_ORANGE</v>
+        <v>Built-in Variable: $INTMOD_TYPE_STEPMOD</v>
       </c>
     </row>
     <row r="756" spans="1:4">
       <c r="A756" s="16" t="s">
-        <v>792</v>
+        <v>2060</v>
       </c>
       <c r="B756" s="16"/>
       <c r="C756" s="18"/>
       <c r="D756" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $KEY_COLOR_LIME</v>
+        <v>Built-in Variable: $KEY_COLOR_BLACK</v>
       </c>
     </row>
     <row r="757" spans="1:4">
       <c r="A757" s="16" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="B757" s="16"/>
       <c r="C757" s="18"/>
       <c r="D757" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $KEY_COLOR_MAGENTA</v>
+        <v>Built-in Variable: $KEY_COLOR_BLUE</v>
       </c>
     </row>
     <row r="758" spans="1:4">
       <c r="A758" s="16" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="B758" s="16"/>
       <c r="C758" s="18"/>
       <c r="D758" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $KEY_COLOR_MINT</v>
+        <v>Built-in Variable: $KEY_COLOR_CYAN</v>
       </c>
     </row>
     <row r="759" spans="1:4">
       <c r="A759" s="16" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="B759" s="16"/>
       <c r="C759" s="18"/>
       <c r="D759" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $KEY_COLOR_NONE</v>
+        <v>Built-in Variable: $KEY_COLOR_DEFAULT</v>
       </c>
     </row>
     <row r="760" spans="1:4">
       <c r="A760" s="16" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="B760" s="16"/>
       <c r="C760" s="18"/>
       <c r="D760" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $KEY_COLOR_ORANGE</v>
+        <v>Built-in Variable: $KEY_COLOR_FUCHSIA</v>
       </c>
     </row>
     <row r="761" spans="1:4">
       <c r="A761" s="16" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="B761" s="16"/>
       <c r="C761" s="18"/>
       <c r="D761" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $KEY_COLOR_PLUM</v>
+        <v>Built-in Variable: $KEY_COLOR_GREEN</v>
       </c>
     </row>
     <row r="762" spans="1:4">
       <c r="A762" s="16" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="B762" s="16"/>
       <c r="C762" s="18"/>
       <c r="D762" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>Built-in Variable: $KEY_COLOR_PURPLE</v>
+        <v>Built-in Variable: $KEY_COLOR_INACTIVE</v>
       </c>
     </row>
     <row r="763" spans="1:4">
-      <c r="A763" s="6" t="s">
-        <v>799</v>
+      <c r="A763" s="16" t="s">
+        <v>791</v>
       </c>
       <c r="B763" s="16"/>
       <c r="C763" s="18"/>
       <c r="D763" s="17" t="str">
-        <f t="shared" ref="D763:D827" si="15">CONCATENATE( "Built-in Variable: ", A763 )</f>
-        <v>Built-in Variable: $KEY_COLOR_RED</v>
+        <f t="shared" si="14"/>
+        <v>Built-in Variable: $KEY_COLOR_LIGHT_ORANGE</v>
       </c>
     </row>
     <row r="764" spans="1:4">
-      <c r="A764" s="6" t="s">
-        <v>800</v>
+      <c r="A764" s="16" t="s">
+        <v>792</v>
       </c>
       <c r="B764" s="16"/>
       <c r="C764" s="18"/>
       <c r="D764" s="17" t="str">
-        <f t="shared" si="15"/>
-        <v>Built-in Variable: $KEY_COLOR_TURQUOISE</v>
+        <f t="shared" si="14"/>
+        <v>Built-in Variable: $KEY_COLOR_LIME</v>
       </c>
     </row>
     <row r="765" spans="1:4">
-      <c r="A765" s="6" t="s">
-        <v>801</v>
+      <c r="A765" s="16" t="s">
+        <v>793</v>
       </c>
       <c r="B765" s="16"/>
       <c r="C765" s="18"/>
       <c r="D765" s="17" t="str">
-        <f t="shared" si="15"/>
-        <v>Built-in Variable: $KEY_COLOR_VIOLET</v>
+        <f t="shared" si="14"/>
+        <v>Built-in Variable: $KEY_COLOR_MAGENTA</v>
       </c>
     </row>
     <row r="766" spans="1:4">
-      <c r="A766" s="6" t="s">
-        <v>802</v>
+      <c r="A766" s="16" t="s">
+        <v>794</v>
       </c>
       <c r="B766" s="16"/>
       <c r="C766" s="18"/>
       <c r="D766" s="17" t="str">
-        <f t="shared" si="15"/>
-        <v>Built-in Variable: $KEY_COLOR_WARM_YELLOW</v>
+        <f t="shared" si="14"/>
+        <v>Built-in Variable: $KEY_COLOR_MINT</v>
       </c>
     </row>
     <row r="767" spans="1:4">
-      <c r="A767" s="6" t="s">
-        <v>2061</v>
+      <c r="A767" s="16" t="s">
+        <v>795</v>
       </c>
       <c r="B767" s="16"/>
       <c r="C767" s="18"/>
       <c r="D767" s="17" t="str">
-        <f t="shared" si="15"/>
-        <v>Built-in Variable: $KEY_COLOR_WHITE</v>
+        <f t="shared" si="14"/>
+        <v>Built-in Variable: $KEY_COLOR_NONE</v>
       </c>
     </row>
     <row r="768" spans="1:4">
-      <c r="A768" s="6" t="s">
-        <v>803</v>
+      <c r="A768" s="16" t="s">
+        <v>796</v>
       </c>
       <c r="B768" s="16"/>
       <c r="C768" s="18"/>
       <c r="D768" s="17" t="str">
-        <f t="shared" si="15"/>
-        <v>Built-in Variable: $KEY_COLOR_YELLOW</v>
+        <f t="shared" si="14"/>
+        <v>Built-in Variable: $KEY_COLOR_ORANGE</v>
       </c>
     </row>
     <row r="769" spans="1:4">
-      <c r="A769" s="6" t="s">
-        <v>804</v>
+      <c r="A769" s="16" t="s">
+        <v>797</v>
       </c>
       <c r="B769" s="16"/>
       <c r="C769" s="18"/>
       <c r="D769" s="17" t="str">
-        <f t="shared" si="15"/>
-        <v>Built-in Variable: $KNOB_UNIT_DB</v>
+        <f t="shared" si="14"/>
+        <v>Built-in Variable: $KEY_COLOR_PLUM</v>
       </c>
     </row>
     <row r="770" spans="1:4">
-      <c r="A770" s="6" t="s">
-        <v>805</v>
+      <c r="A770" s="16" t="s">
+        <v>798</v>
       </c>
       <c r="B770" s="16"/>
       <c r="C770" s="18"/>
       <c r="D770" s="17" t="str">
-        <f t="shared" si="15"/>
-        <v>Built-in Variable: $KNOB_UNIT_HZ</v>
+        <f t="shared" si="14"/>
+        <v>Built-in Variable: $KEY_COLOR_PURPLE</v>
       </c>
     </row>
     <row r="771" spans="1:4">
       <c r="A771" s="6" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="B771" s="16"/>
       <c r="C771" s="18"/>
       <c r="D771" s="17" t="str">
-        <f t="shared" si="15"/>
-        <v>Built-in Variable: $KNOB_UNIT_MS</v>
+        <f t="shared" ref="D771:D835" si="15">CONCATENATE( "Built-in Variable: ", A771 )</f>
+        <v>Built-in Variable: $KEY_COLOR_RED</v>
       </c>
     </row>
     <row r="772" spans="1:4">
       <c r="A772" s="6" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="B772" s="16"/>
       <c r="C772" s="18"/>
       <c r="D772" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $KNOB_UNIT_NONE</v>
+        <v>Built-in Variable: $KEY_COLOR_TURQUOISE</v>
       </c>
     </row>
     <row r="773" spans="1:4">
       <c r="A773" s="6" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="B773" s="16"/>
       <c r="C773" s="18"/>
       <c r="D773" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $KNOB_UNIT_OCT</v>
+        <v>Built-in Variable: $KEY_COLOR_VIOLET</v>
       </c>
     </row>
     <row r="774" spans="1:4">
       <c r="A774" s="6" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="B774" s="16"/>
       <c r="C774" s="18"/>
       <c r="D774" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $KNOB_UNIT_PERCENT</v>
+        <v>Built-in Variable: $KEY_COLOR_WARM_YELLOW</v>
       </c>
     </row>
     <row r="775" spans="1:4">
       <c r="A775" s="6" t="s">
-        <v>810</v>
+        <v>2061</v>
       </c>
       <c r="B775" s="16"/>
       <c r="C775" s="18"/>
       <c r="D775" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $KNOB_UNIT_ST</v>
+        <v>Built-in Variable: $KEY_COLOR_WHITE</v>
       </c>
     </row>
     <row r="776" spans="1:4">
       <c r="A776" s="6" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="B776" s="16"/>
       <c r="C776" s="18"/>
       <c r="D776" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $KSP_TIMER</v>
+        <v>Built-in Variable: $KEY_COLOR_YELLOW</v>
       </c>
     </row>
     <row r="777" spans="1:4">
       <c r="A777" s="6" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="B777" s="16"/>
       <c r="C777" s="18"/>
       <c r="D777" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $LFO_TYPE_MULTI</v>
+        <v>Built-in Variable: $KNOB_UNIT_DB</v>
       </c>
     </row>
     <row r="778" spans="1:4">
       <c r="A778" s="6" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="B778" s="16"/>
       <c r="C778" s="18"/>
       <c r="D778" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $LFO_TYPE_RANDO</v>
+        <v>Built-in Variable: $KNOB_UNIT_HZ</v>
       </c>
     </row>
     <row r="779" spans="1:4">
       <c r="A779" s="6" t="s">
-        <v>1302</v>
+        <v>806</v>
       </c>
       <c r="B779" s="16"/>
       <c r="C779" s="18"/>
       <c r="D779" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $LFO_TYPE_RANDOM</v>
+        <v>Built-in Variable: $KNOB_UNIT_MS</v>
       </c>
     </row>
     <row r="780" spans="1:4">
       <c r="A780" s="6" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="B780" s="16"/>
       <c r="C780" s="18"/>
       <c r="D780" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $LFO_TYPE_RECTANGLE</v>
+        <v>Built-in Variable: $KNOB_UNIT_NONE</v>
       </c>
     </row>
     <row r="781" spans="1:4">
       <c r="A781" s="6" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="B781" s="16"/>
       <c r="C781" s="18"/>
       <c r="D781" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $LFO_TYPE_SAWTOOTH</v>
+        <v>Built-in Variable: $KNOB_UNIT_OCT</v>
       </c>
     </row>
     <row r="782" spans="1:4">
       <c r="A782" s="6" t="s">
-        <v>1320</v>
+        <v>809</v>
       </c>
       <c r="B782" s="16"/>
       <c r="C782" s="18"/>
       <c r="D782" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $LFO_TYPE_SINE</v>
+        <v>Built-in Variable: $KNOB_UNIT_PERCENT</v>
       </c>
     </row>
     <row r="783" spans="1:4">
       <c r="A783" s="6" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="B783" s="16"/>
       <c r="C783" s="18"/>
       <c r="D783" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $LFO_TYPE_TRIANGLE</v>
+        <v>Built-in Variable: $KNOB_UNIT_ST</v>
       </c>
     </row>
     <row r="784" spans="1:4">
       <c r="A784" s="6" t="s">
-        <v>1757</v>
+        <v>811</v>
       </c>
       <c r="B784" s="16"/>
       <c r="C784" s="18"/>
       <c r="D784" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $LOOP_PAR_COUNT</v>
+        <v>Built-in Variable: $KSP_TIMER</v>
       </c>
     </row>
     <row r="785" spans="1:4">
       <c r="A785" s="6" t="s">
-        <v>1758</v>
+        <v>812</v>
       </c>
       <c r="B785" s="16"/>
       <c r="C785" s="18"/>
       <c r="D785" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $LOOP_PAR_LENGTH</v>
+        <v>Built-in Variable: $LFO_TYPE_MULTI</v>
       </c>
     </row>
     <row r="786" spans="1:4">
       <c r="A786" s="6" t="s">
-        <v>1759</v>
+        <v>813</v>
       </c>
       <c r="B786" s="16"/>
       <c r="C786" s="18"/>
       <c r="D786" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $LOOP_PAR_MODE</v>
+        <v>Built-in Variable: $LFO_TYPE_RANDO</v>
       </c>
     </row>
     <row r="787" spans="1:4">
       <c r="A787" s="6" t="s">
-        <v>1760</v>
+        <v>1302</v>
       </c>
       <c r="B787" s="16"/>
       <c r="C787" s="18"/>
       <c r="D787" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $LOOP_PAR_START</v>
+        <v>Built-in Variable: $LFO_TYPE_RANDOM</v>
       </c>
     </row>
     <row r="788" spans="1:4">
       <c r="A788" s="6" t="s">
-        <v>1761</v>
+        <v>814</v>
       </c>
       <c r="B788" s="16"/>
       <c r="C788" s="18"/>
       <c r="D788" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $LOOP_PAR_TUNING</v>
+        <v>Built-in Variable: $LFO_TYPE_RECTANGLE</v>
       </c>
     </row>
     <row r="789" spans="1:4">
       <c r="A789" s="6" t="s">
-        <v>1762</v>
+        <v>815</v>
       </c>
       <c r="B789" s="16"/>
       <c r="C789" s="18"/>
       <c r="D789" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $LOOP_PAR_XFADE</v>
+        <v>Built-in Variable: $LFO_TYPE_SAWTOOTH</v>
       </c>
     </row>
     <row r="790" spans="1:4">
       <c r="A790" s="6" t="s">
-        <v>817</v>
+        <v>1320</v>
       </c>
       <c r="B790" s="16"/>
       <c r="C790" s="18"/>
       <c r="D790" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MARK_1</v>
+        <v>Built-in Variable: $LFO_TYPE_SINE</v>
       </c>
     </row>
     <row r="791" spans="1:4">
-      <c r="A791" s="16" t="s">
-        <v>828</v>
+      <c r="A791" s="6" t="s">
+        <v>816</v>
       </c>
       <c r="B791" s="16"/>
       <c r="C791" s="18"/>
       <c r="D791" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MARK_2</v>
+        <v>Built-in Variable: $LFO_TYPE_TRIANGLE</v>
       </c>
     </row>
     <row r="792" spans="1:4">
-      <c r="A792" s="16" t="s">
-        <v>838</v>
+      <c r="A792" s="6" t="s">
+        <v>1757</v>
       </c>
       <c r="B792" s="16"/>
       <c r="C792" s="18"/>
       <c r="D792" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MARK_3</v>
+        <v>Built-in Variable: $LOOP_PAR_COUNT</v>
       </c>
     </row>
     <row r="793" spans="1:4">
-      <c r="A793" s="16" t="s">
-        <v>839</v>
+      <c r="A793" s="6" t="s">
+        <v>1758</v>
       </c>
       <c r="B793" s="16"/>
       <c r="C793" s="18"/>
       <c r="D793" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MARK_4</v>
+        <v>Built-in Variable: $LOOP_PAR_LENGTH</v>
       </c>
     </row>
     <row r="794" spans="1:4">
-      <c r="A794" s="16" t="s">
-        <v>840</v>
+      <c r="A794" s="6" t="s">
+        <v>1759</v>
       </c>
       <c r="B794" s="16"/>
       <c r="C794" s="18"/>
       <c r="D794" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MARK_5</v>
+        <v>Built-in Variable: $LOOP_PAR_MODE</v>
       </c>
     </row>
     <row r="795" spans="1:4">
-      <c r="A795" s="16" t="s">
-        <v>841</v>
+      <c r="A795" s="6" t="s">
+        <v>1760</v>
       </c>
       <c r="B795" s="16"/>
       <c r="C795" s="18"/>
       <c r="D795" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MARK_6</v>
+        <v>Built-in Variable: $LOOP_PAR_START</v>
       </c>
     </row>
     <row r="796" spans="1:4">
       <c r="A796" s="6" t="s">
-        <v>842</v>
+        <v>1761</v>
       </c>
       <c r="B796" s="16"/>
       <c r="C796" s="18"/>
       <c r="D796" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MARK_7</v>
+        <v>Built-in Variable: $LOOP_PAR_TUNING</v>
       </c>
     </row>
     <row r="797" spans="1:4">
       <c r="A797" s="6" t="s">
-        <v>843</v>
+        <v>1762</v>
       </c>
       <c r="B797" s="16"/>
       <c r="C797" s="18"/>
       <c r="D797" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MARK_8</v>
+        <v>Built-in Variable: $LOOP_PAR_XFADE</v>
       </c>
     </row>
     <row r="798" spans="1:4">
       <c r="A798" s="6" t="s">
-        <v>844</v>
+        <v>817</v>
       </c>
       <c r="B798" s="16"/>
       <c r="C798" s="18"/>
       <c r="D798" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MARK_9</v>
+        <v>Built-in Variable: $MARK_1</v>
       </c>
     </row>
     <row r="799" spans="1:4">
-      <c r="A799" s="6" t="s">
-        <v>818</v>
+      <c r="A799" s="16" t="s">
+        <v>828</v>
       </c>
       <c r="B799" s="16"/>
       <c r="C799" s="18"/>
       <c r="D799" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MARK_10</v>
+        <v>Built-in Variable: $MARK_2</v>
       </c>
     </row>
     <row r="800" spans="1:4">
       <c r="A800" s="16" t="s">
-        <v>819</v>
+        <v>838</v>
       </c>
       <c r="B800" s="16"/>
       <c r="C800" s="18"/>
       <c r="D800" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MARK_11</v>
+        <v>Built-in Variable: $MARK_3</v>
       </c>
     </row>
     <row r="801" spans="1:4">
       <c r="A801" s="16" t="s">
-        <v>820</v>
+        <v>839</v>
       </c>
       <c r="B801" s="16"/>
       <c r="C801" s="18"/>
       <c r="D801" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MARK_12</v>
+        <v>Built-in Variable: $MARK_4</v>
       </c>
     </row>
     <row r="802" spans="1:4">
       <c r="A802" s="16" t="s">
-        <v>821</v>
+        <v>840</v>
       </c>
       <c r="B802" s="16"/>
       <c r="C802" s="18"/>
       <c r="D802" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MARK_13</v>
+        <v>Built-in Variable: $MARK_5</v>
       </c>
     </row>
     <row r="803" spans="1:4">
       <c r="A803" s="16" t="s">
-        <v>822</v>
+        <v>841</v>
       </c>
       <c r="B803" s="16"/>
       <c r="C803" s="18"/>
       <c r="D803" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MARK_14</v>
+        <v>Built-in Variable: $MARK_6</v>
       </c>
     </row>
     <row r="804" spans="1:4">
       <c r="A804" s="6" t="s">
-        <v>823</v>
+        <v>842</v>
       </c>
       <c r="B804" s="16"/>
       <c r="C804" s="18"/>
       <c r="D804" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MARK_15</v>
+        <v>Built-in Variable: $MARK_7</v>
       </c>
     </row>
     <row r="805" spans="1:4">
       <c r="A805" s="6" t="s">
-        <v>824</v>
+        <v>843</v>
       </c>
       <c r="B805" s="16"/>
       <c r="C805" s="18"/>
       <c r="D805" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MARK_16</v>
+        <v>Built-in Variable: $MARK_8</v>
       </c>
     </row>
     <row r="806" spans="1:4">
       <c r="A806" s="6" t="s">
-        <v>825</v>
+        <v>844</v>
       </c>
       <c r="B806" s="16"/>
       <c r="C806" s="18"/>
       <c r="D806" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MARK_17</v>
+        <v>Built-in Variable: $MARK_9</v>
       </c>
     </row>
     <row r="807" spans="1:4">
       <c r="A807" s="6" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="B807" s="16"/>
       <c r="C807" s="18"/>
       <c r="D807" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MARK_18</v>
+        <v>Built-in Variable: $MARK_10</v>
       </c>
     </row>
     <row r="808" spans="1:4">
-      <c r="A808" s="6" t="s">
-        <v>827</v>
+      <c r="A808" s="16" t="s">
+        <v>819</v>
       </c>
       <c r="B808" s="16"/>
       <c r="C808" s="18"/>
       <c r="D808" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MARK_19</v>
+        <v>Built-in Variable: $MARK_11</v>
       </c>
     </row>
     <row r="809" spans="1:4">
       <c r="A809" s="16" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="B809" s="16"/>
       <c r="C809" s="18"/>
       <c r="D809" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MARK_20</v>
+        <v>Built-in Variable: $MARK_12</v>
       </c>
     </row>
     <row r="810" spans="1:4">
       <c r="A810" s="16" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="B810" s="16"/>
       <c r="C810" s="18"/>
       <c r="D810" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MARK_21</v>
+        <v>Built-in Variable: $MARK_13</v>
       </c>
     </row>
     <row r="811" spans="1:4">
       <c r="A811" s="16" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="B811" s="16"/>
       <c r="C811" s="18"/>
       <c r="D811" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MARK_22</v>
+        <v>Built-in Variable: $MARK_14</v>
       </c>
     </row>
     <row r="812" spans="1:4">
-      <c r="A812" s="16" t="s">
-        <v>832</v>
+      <c r="A812" s="6" t="s">
+        <v>823</v>
       </c>
       <c r="B812" s="16"/>
       <c r="C812" s="18"/>
       <c r="D812" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MARK_23</v>
+        <v>Built-in Variable: $MARK_15</v>
       </c>
     </row>
     <row r="813" spans="1:4">
-      <c r="A813" s="16" t="s">
-        <v>833</v>
+      <c r="A813" s="6" t="s">
+        <v>824</v>
       </c>
       <c r="B813" s="16"/>
       <c r="C813" s="18"/>
       <c r="D813" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MARK_24</v>
+        <v>Built-in Variable: $MARK_16</v>
       </c>
     </row>
     <row r="814" spans="1:4">
-      <c r="A814" s="16" t="s">
-        <v>834</v>
+      <c r="A814" s="6" t="s">
+        <v>825</v>
       </c>
       <c r="B814" s="16"/>
       <c r="C814" s="18"/>
       <c r="D814" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MARK_25</v>
+        <v>Built-in Variable: $MARK_17</v>
       </c>
     </row>
     <row r="815" spans="1:4">
-      <c r="A815" s="16" t="s">
-        <v>835</v>
+      <c r="A815" s="6" t="s">
+        <v>826</v>
       </c>
       <c r="B815" s="16"/>
       <c r="C815" s="18"/>
       <c r="D815" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MARK_26</v>
+        <v>Built-in Variable: $MARK_18</v>
       </c>
     </row>
     <row r="816" spans="1:4">
-      <c r="A816" s="16" t="s">
-        <v>836</v>
+      <c r="A816" s="6" t="s">
+        <v>827</v>
       </c>
       <c r="B816" s="16"/>
       <c r="C816" s="18"/>
       <c r="D816" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MARK_27</v>
+        <v>Built-in Variable: $MARK_19</v>
       </c>
     </row>
     <row r="817" spans="1:4">
       <c r="A817" s="16" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="B817" s="16"/>
       <c r="C817" s="18"/>
       <c r="D817" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MARK_28</v>
+        <v>Built-in Variable: $MARK_20</v>
       </c>
     </row>
     <row r="818" spans="1:4">
       <c r="A818" s="16" t="s">
-        <v>845</v>
+        <v>830</v>
       </c>
       <c r="B818" s="16"/>
       <c r="C818" s="18"/>
       <c r="D818" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MIDI_BYTE_1</v>
+        <v>Built-in Variable: $MARK_21</v>
       </c>
     </row>
     <row r="819" spans="1:4">
       <c r="A819" s="16" t="s">
-        <v>846</v>
+        <v>831</v>
       </c>
       <c r="B819" s="16"/>
       <c r="C819" s="18"/>
       <c r="D819" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MIDI_BYTE_2</v>
+        <v>Built-in Variable: $MARK_22</v>
       </c>
     </row>
     <row r="820" spans="1:4">
       <c r="A820" s="16" t="s">
-        <v>847</v>
+        <v>832</v>
       </c>
       <c r="B820" s="16"/>
       <c r="C820" s="18"/>
       <c r="D820" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MIDI_CHANNEL</v>
+        <v>Built-in Variable: $MARK_23</v>
       </c>
     </row>
     <row r="821" spans="1:4">
       <c r="A821" s="16" t="s">
-        <v>848</v>
+        <v>833</v>
       </c>
       <c r="B821" s="16"/>
       <c r="C821" s="18"/>
       <c r="D821" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MIDI_COMMAND</v>
+        <v>Built-in Variable: $MARK_24</v>
       </c>
     </row>
     <row r="822" spans="1:4">
       <c r="A822" s="16" t="s">
-        <v>849</v>
+        <v>834</v>
       </c>
       <c r="B822" s="16"/>
       <c r="C822" s="18"/>
       <c r="D822" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MIDI_COMMAND_CC</v>
+        <v>Built-in Variable: $MARK_25</v>
       </c>
     </row>
     <row r="823" spans="1:4">
       <c r="A823" s="16" t="s">
-        <v>850</v>
+        <v>835</v>
       </c>
       <c r="B823" s="16"/>
       <c r="C823" s="18"/>
       <c r="D823" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MIDI_COMMAND_MONO_AT</v>
+        <v>Built-in Variable: $MARK_26</v>
       </c>
     </row>
     <row r="824" spans="1:4">
       <c r="A824" s="16" t="s">
-        <v>851</v>
+        <v>836</v>
       </c>
       <c r="B824" s="16"/>
       <c r="C824" s="18"/>
       <c r="D824" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MIDI_COMMAND_NOTE_OFF</v>
+        <v>Built-in Variable: $MARK_27</v>
       </c>
     </row>
     <row r="825" spans="1:4">
       <c r="A825" s="16" t="s">
-        <v>852</v>
+        <v>837</v>
       </c>
       <c r="B825" s="16"/>
       <c r="C825" s="18"/>
       <c r="D825" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MIDI_COMMAND_NOTE_ON</v>
+        <v>Built-in Variable: $MARK_28</v>
       </c>
     </row>
     <row r="826" spans="1:4">
       <c r="A826" s="16" t="s">
-        <v>1209</v>
+        <v>845</v>
       </c>
       <c r="B826" s="16"/>
       <c r="C826" s="18"/>
       <c r="D826" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MIDI_COMMAND_NRPN</v>
+        <v>Built-in Variable: $MIDI_BYTE_1</v>
       </c>
     </row>
     <row r="827" spans="1:4">
       <c r="A827" s="16" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="B827" s="16"/>
       <c r="C827" s="18"/>
       <c r="D827" s="17" t="str">
         <f t="shared" si="15"/>
-        <v>Built-in Variable: $MIDI_COMMAND_PITCH_BEND</v>
+        <v>Built-in Variable: $MIDI_BYTE_2</v>
       </c>
     </row>
     <row r="828" spans="1:4">
       <c r="A828" s="16" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="B828" s="16"/>
       <c r="C828" s="18"/>
       <c r="D828" s="17" t="str">
-        <f t="shared" ref="D828:D895" si="16">CONCATENATE( "Built-in Variable: ", A828 )</f>
-        <v>Built-in Variable: $MIDI_COMMAND_POLY_AT</v>
+        <f t="shared" si="15"/>
+        <v>Built-in Variable: $MIDI_CHANNEL</v>
       </c>
     </row>
     <row r="829" spans="1:4">
       <c r="A829" s="16" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="B829" s="16"/>
       <c r="C829" s="18"/>
       <c r="D829" s="17" t="str">
-        <f t="shared" si="16"/>
-        <v>Built-in Variable: $MIDI_COMMAND_PROGRAM_CHANGE</v>
+        <f t="shared" si="15"/>
+        <v>Built-in Variable: $MIDI_COMMAND</v>
       </c>
     </row>
     <row r="830" spans="1:4">
       <c r="A830" s="16" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="B830" s="16"/>
       <c r="C830" s="18"/>
       <c r="D830" s="17" t="str">
-        <f t="shared" si="16"/>
-        <v>Built-in Variable: $MIDI_COMMAND_RPN</v>
+        <f t="shared" si="15"/>
+        <v>Built-in Variable: $MIDI_COMMAND_CC</v>
       </c>
     </row>
     <row r="831" spans="1:4">
       <c r="A831" s="16" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="B831" s="16"/>
       <c r="C831" s="18"/>
       <c r="D831" s="17" t="str">
-        <f t="shared" si="16"/>
-        <v>Built-in Variable: $MOD_TARGET_INVERT_SOURCE</v>
+        <f t="shared" si="15"/>
+        <v>Built-in Variable: $MIDI_COMMAND_MONO_AT</v>
       </c>
     </row>
     <row r="832" spans="1:4">
       <c r="A832" s="16" t="s">
-        <v>2062</v>
+        <v>851</v>
       </c>
       <c r="B832" s="16"/>
       <c r="C832" s="18"/>
       <c r="D832" s="17" t="str">
-        <f t="shared" si="16"/>
-        <v>Built-in Variable: $MOUSE_OVER_CONTROL</v>
+        <f t="shared" si="15"/>
+        <v>Built-in Variable: $MIDI_COMMAND_NOTE_OFF</v>
       </c>
     </row>
     <row r="833" spans="1:4">
       <c r="A833" s="16" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="B833" s="16"/>
       <c r="C833" s="18"/>
       <c r="D833" s="17" t="str">
-        <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_ASYNC_EXIT_STATUS</v>
+        <f t="shared" si="15"/>
+        <v>Built-in Variable: $MIDI_COMMAND_NOTE_ON</v>
       </c>
     </row>
     <row r="834" spans="1:4">
       <c r="A834" s="16" t="s">
-        <v>859</v>
+        <v>1209</v>
       </c>
       <c r="B834" s="16"/>
       <c r="C834" s="18"/>
       <c r="D834" s="17" t="str">
-        <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_ASYNC_ID</v>
+        <f t="shared" si="15"/>
+        <v>Built-in Variable: $MIDI_COMMAND_NRPN</v>
       </c>
     </row>
     <row r="835" spans="1:4">
       <c r="A835" s="16" t="s">
-        <v>2063</v>
+        <v>853</v>
       </c>
       <c r="B835" s="16"/>
       <c r="C835" s="18"/>
       <c r="D835" s="17" t="str">
-        <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_BAR_START_POSITION</v>
+        <f t="shared" si="15"/>
+        <v>Built-in Variable: $MIDI_COMMAND_PITCH_BEND</v>
       </c>
     </row>
     <row r="836" spans="1:4">
       <c r="A836" s="16" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="B836" s="16"/>
       <c r="C836" s="18"/>
       <c r="D836" s="17" t="str">
-        <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_BUS_OFFSET</v>
+        <f t="shared" ref="D836:D903" si="16">CONCATENATE( "Built-in Variable: ", A836 )</f>
+        <v>Built-in Variable: $MIDI_COMMAND_POLY_AT</v>
       </c>
     </row>
     <row r="837" spans="1:4">
       <c r="A837" s="16" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="B837" s="16"/>
       <c r="C837" s="18"/>
       <c r="D837" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_CALLBACK_ID</v>
+        <v>Built-in Variable: $MIDI_COMMAND_PROGRAM_CHANGE</v>
       </c>
     </row>
     <row r="838" spans="1:4">
       <c r="A838" s="16" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="B838" s="16"/>
       <c r="C838" s="18"/>
       <c r="D838" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_CALLBACK_TYPE</v>
+        <v>Built-in Variable: $MIDI_COMMAND_RPN</v>
       </c>
     </row>
     <row r="839" spans="1:4">
       <c r="A839" s="16" t="s">
-        <v>2064</v>
+        <v>857</v>
       </c>
       <c r="B839" s="16"/>
       <c r="C839" s="18"/>
       <c r="D839" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_CB_TYPE_ASYNC_COMPLETE</v>
+        <v>Built-in Variable: $MOD_TARGET_INVERT_SOURCE</v>
       </c>
     </row>
     <row r="840" spans="1:4">
       <c r="A840" s="16" t="s">
-        <v>863</v>
+        <v>2062</v>
       </c>
       <c r="B840" s="16"/>
       <c r="C840" s="18"/>
       <c r="D840" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_CB_TYPE_ASYNC_OUT</v>
+        <v>Built-in Variable: $MOUSE_OVER_CONTROL</v>
       </c>
     </row>
     <row r="841" spans="1:4">
       <c r="A841" s="16" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="B841" s="16"/>
       <c r="C841" s="18"/>
       <c r="D841" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_CB_TYPE_CONTROLLER</v>
+        <v>Built-in Variable: $NI_ASYNC_EXIT_STATUS</v>
       </c>
     </row>
     <row r="842" spans="1:4">
       <c r="A842" s="16" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="B842" s="16"/>
       <c r="C842" s="18"/>
       <c r="D842" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_CB_TYPE_INIT</v>
+        <v>Built-in Variable: $NI_ASYNC_ID</v>
       </c>
     </row>
     <row r="843" spans="1:4">
       <c r="A843" s="16" t="s">
-        <v>866</v>
+        <v>2063</v>
       </c>
       <c r="B843" s="16"/>
       <c r="C843" s="18"/>
       <c r="D843" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_CB_TYPE_LISTENER</v>
+        <v>Built-in Variable: $NI_BAR_START_POSITION</v>
       </c>
     </row>
     <row r="844" spans="1:4">
       <c r="A844" s="16" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="B844" s="16"/>
       <c r="C844" s="18"/>
       <c r="D844" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_CB_TYPE_MIDI_IN</v>
+        <v>Built-in Variable: $NI_BUS_OFFSET</v>
       </c>
     </row>
     <row r="845" spans="1:4">
       <c r="A845" s="16" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="B845" s="16"/>
       <c r="C845" s="18"/>
       <c r="D845" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_CB_TYPE_NOTE</v>
+        <v>Built-in Variable: $NI_CALLBACK_ID</v>
       </c>
     </row>
     <row r="846" spans="1:4">
       <c r="A846" s="16" t="s">
-        <v>1210</v>
+        <v>862</v>
       </c>
       <c r="B846" s="16"/>
       <c r="C846" s="18"/>
       <c r="D846" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_CB_TYPE_NRPN</v>
+        <v>Built-in Variable: $NI_CALLBACK_TYPE</v>
       </c>
     </row>
     <row r="847" spans="1:4">
       <c r="A847" s="16" t="s">
-        <v>869</v>
+        <v>2064</v>
       </c>
       <c r="B847" s="16"/>
       <c r="C847" s="18"/>
       <c r="D847" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_CB_TYPE_PERSISTENCE_CHANGED</v>
+        <v>Built-in Variable: $NI_CB_TYPE_ASYNC_COMPLETE</v>
       </c>
     </row>
     <row r="848" spans="1:4">
       <c r="A848" s="16" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="B848" s="16"/>
       <c r="C848" s="18"/>
       <c r="D848" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_CB_TYPE_PGS</v>
+        <v>Built-in Variable: $NI_CB_TYPE_ASYNC_OUT</v>
       </c>
     </row>
     <row r="849" spans="1:4">
       <c r="A849" s="16" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="B849" s="16"/>
       <c r="C849" s="18"/>
       <c r="D849" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_CB_TYPE_POLY_AT</v>
+        <v>Built-in Variable: $NI_CB_TYPE_CONTROLLER</v>
       </c>
     </row>
     <row r="850" spans="1:4">
       <c r="A850" s="16" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="B850" s="16"/>
       <c r="C850" s="18"/>
       <c r="D850" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_CB_TYPE_RELEASE</v>
+        <v>Built-in Variable: $NI_CB_TYPE_INIT</v>
       </c>
     </row>
     <row r="851" spans="1:4">
       <c r="A851" s="16" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="B851" s="16"/>
       <c r="C851" s="18"/>
       <c r="D851" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_CB_TYPE_RPN</v>
+        <v>Built-in Variable: $NI_CB_TYPE_LISTENER</v>
       </c>
     </row>
     <row r="852" spans="1:4">
       <c r="A852" s="16" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="B852" s="16"/>
       <c r="C852" s="18"/>
       <c r="D852" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_CB_TYPE_UI_CONTROL</v>
+        <v>Built-in Variable: $NI_CB_TYPE_MIDI_IN</v>
       </c>
     </row>
     <row r="853" spans="1:4">
       <c r="A853" s="16" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="B853" s="16"/>
       <c r="C853" s="18"/>
       <c r="D853" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_CB_TYPE_UI_UPDATE</v>
+        <v>Built-in Variable: $NI_CB_TYPE_NOTE</v>
       </c>
     </row>
     <row r="854" spans="1:4">
       <c r="A854" s="16" t="s">
-        <v>1662</v>
+        <v>1210</v>
       </c>
       <c r="B854" s="16"/>
       <c r="C854" s="18"/>
       <c r="D854" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_CHORAL_MODE_DIMENSION</v>
+        <v>Built-in Variable: $NI_CB_TYPE_NRPN</v>
       </c>
     </row>
     <row r="855" spans="1:4">
       <c r="A855" s="16" t="s">
-        <v>1661</v>
+        <v>869</v>
       </c>
       <c r="B855" s="16"/>
       <c r="C855" s="18"/>
       <c r="D855" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_CHORAL_MODE_ENSEMBLE</v>
+        <v>Built-in Variable: $NI_CB_TYPE_PERSISTENCE_CHANGED</v>
       </c>
     </row>
     <row r="856" spans="1:4">
       <c r="A856" s="16" t="s">
-        <v>1660</v>
+        <v>870</v>
       </c>
       <c r="B856" s="16"/>
       <c r="C856" s="18"/>
       <c r="D856" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_CHORAL_MODE_SYNTH</v>
+        <v>Built-in Variable: $NI_CB_TYPE_PGS</v>
       </c>
     </row>
     <row r="857" spans="1:4">
       <c r="A857" s="16" t="s">
-        <v>1663</v>
+        <v>871</v>
       </c>
       <c r="B857" s="16"/>
       <c r="C857" s="18"/>
       <c r="D857" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_CHORAL_MODE_UNIVERSAL</v>
+        <v>Built-in Variable: $NI_CB_TYPE_POLY_AT</v>
       </c>
     </row>
     <row r="858" spans="1:4">
       <c r="A858" s="16" t="s">
-        <v>2065</v>
+        <v>872</v>
       </c>
       <c r="B858" s="16"/>
       <c r="C858" s="18"/>
       <c r="D858" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_COMP_TYPE_CLASSIC</v>
+        <v>Built-in Variable: $NI_CB_TYPE_RELEASE</v>
       </c>
     </row>
     <row r="859" spans="1:4">
       <c r="A859" s="16" t="s">
-        <v>1919</v>
+        <v>873</v>
       </c>
       <c r="B859" s="16"/>
       <c r="C859" s="18"/>
       <c r="D859" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_COMP_TYPE_ENHANCED</v>
+        <v>Built-in Variable: $NI_CB_TYPE_RPN</v>
       </c>
     </row>
     <row r="860" spans="1:4">
       <c r="A860" s="16" t="s">
-        <v>1920</v>
+        <v>874</v>
       </c>
       <c r="B860" s="16"/>
       <c r="C860" s="18"/>
       <c r="D860" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_COMP_TYPE_PRO</v>
+        <v>Built-in Variable: $NI_CB_TYPE_UI_CONTROL</v>
       </c>
     </row>
     <row r="861" spans="1:4">
       <c r="A861" s="16" t="s">
-        <v>1191</v>
+        <v>875</v>
       </c>
       <c r="B861" s="16"/>
       <c r="C861" s="18"/>
       <c r="D861" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_CONTROL_PAR_IDX</v>
+        <v>Built-in Variable: $NI_CB_TYPE_UI_UPDATE</v>
       </c>
     </row>
     <row r="862" spans="1:4">
       <c r="A862" s="16" t="s">
-        <v>2066</v>
+        <v>1662</v>
       </c>
       <c r="B862" s="16"/>
       <c r="C862" s="18"/>
       <c r="D862" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DETECT_DRUM_TYPE</v>
+        <v>Built-in Variable: $NI_CHORAL_MODE_DIMENSION</v>
       </c>
     </row>
     <row r="863" spans="1:4">
       <c r="A863" s="16" t="s">
-        <v>1720</v>
+        <v>1661</v>
       </c>
       <c r="B863" s="16"/>
       <c r="C863" s="18"/>
       <c r="D863" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DETECT_DRUM_TYPE_CLAP</v>
+        <v>Built-in Variable: $NI_CHORAL_MODE_ENSEMBLE</v>
       </c>
     </row>
     <row r="864" spans="1:4">
       <c r="A864" s="16" t="s">
-        <v>1721</v>
+        <v>1660</v>
       </c>
       <c r="B864" s="16"/>
       <c r="C864" s="18"/>
       <c r="D864" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DETECT_DRUM_TYPE_CLOSED_HH</v>
+        <v>Built-in Variable: $NI_CHORAL_MODE_SYNTH</v>
       </c>
     </row>
     <row r="865" spans="1:4">
       <c r="A865" s="16" t="s">
-        <v>1722</v>
+        <v>1663</v>
       </c>
       <c r="B865" s="16"/>
       <c r="C865" s="18"/>
       <c r="D865" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DETECT_DRUM_TYPE_CYMBAL</v>
+        <v>Built-in Variable: $NI_CHORAL_MODE_UNIVERSAL</v>
       </c>
     </row>
     <row r="866" spans="1:4">
       <c r="A866" s="16" t="s">
-        <v>1723</v>
+        <v>2065</v>
       </c>
       <c r="B866" s="16"/>
       <c r="C866" s="18"/>
       <c r="D866" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DETECT_DRUM_TYPE_INVALID</v>
+        <v>Built-in Variable: $NI_COMP_TYPE_CLASSIC</v>
       </c>
     </row>
     <row r="867" spans="1:4">
       <c r="A867" s="16" t="s">
-        <v>1724</v>
+        <v>1919</v>
       </c>
       <c r="B867" s="16"/>
       <c r="C867" s="18"/>
       <c r="D867" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DETECT_DRUM_TYPE_KICK</v>
+        <v>Built-in Variable: $NI_COMP_TYPE_ENHANCED</v>
       </c>
     </row>
     <row r="868" spans="1:4">
       <c r="A868" s="16" t="s">
-        <v>1725</v>
+        <v>1920</v>
       </c>
       <c r="B868" s="16"/>
       <c r="C868" s="18"/>
       <c r="D868" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DETECT_DRUM_TYPE_OPEN_HH</v>
+        <v>Built-in Variable: $NI_COMP_TYPE_PRO</v>
       </c>
     </row>
     <row r="869" spans="1:4">
       <c r="A869" s="16" t="s">
-        <v>1726</v>
+        <v>1191</v>
       </c>
       <c r="B869" s="16"/>
       <c r="C869" s="18"/>
       <c r="D869" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DETECT_DRUM_TYPE_PERC_DRUM</v>
+        <v>Built-in Variable: $NI_CONTROL_PAR_IDX</v>
       </c>
     </row>
     <row r="870" spans="1:4">
       <c r="A870" s="16" t="s">
-        <v>1727</v>
+        <v>2066</v>
       </c>
       <c r="B870" s="16"/>
       <c r="C870" s="18"/>
       <c r="D870" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DETECT_DRUM_TYPE_PERC_OTHER</v>
+        <v>Built-in Variable: $NI_DETECT_DRUM_TYPE</v>
       </c>
     </row>
     <row r="871" spans="1:4">
       <c r="A871" s="16" t="s">
-        <v>1728</v>
+        <v>1720</v>
       </c>
       <c r="B871" s="16"/>
       <c r="C871" s="18"/>
       <c r="D871" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DETECT_DRUM_TYPE_SHAKER</v>
+        <v>Built-in Variable: $NI_DETECT_DRUM_TYPE_CLAP</v>
       </c>
     </row>
     <row r="872" spans="1:4">
       <c r="A872" s="16" t="s">
-        <v>1729</v>
+        <v>1721</v>
       </c>
       <c r="B872" s="16"/>
       <c r="C872" s="18"/>
       <c r="D872" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DETECT_DRUM_TYPE_SNARE</v>
+        <v>Built-in Variable: $NI_DETECT_DRUM_TYPE_CLOSED_HH</v>
       </c>
     </row>
     <row r="873" spans="1:4">
       <c r="A873" s="16" t="s">
-        <v>1730</v>
+        <v>1722</v>
       </c>
       <c r="B873" s="16"/>
       <c r="C873" s="18"/>
       <c r="D873" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DETECT_DRUM_TYPE_TOM</v>
+        <v>Built-in Variable: $NI_DETECT_DRUM_TYPE_CYMBAL</v>
       </c>
     </row>
     <row r="874" spans="1:4">
       <c r="A874" s="16" t="s">
-        <v>1795</v>
+        <v>1723</v>
       </c>
       <c r="B874" s="16"/>
       <c r="C874" s="18"/>
       <c r="D874" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE</v>
+        <v>Built-in Variable: $NI_DETECT_DRUM_TYPE_INVALID</v>
       </c>
     </row>
     <row r="875" spans="1:4">
       <c r="A875" s="16" t="s">
-        <v>1796</v>
+        <v>1724</v>
       </c>
       <c r="B875" s="16"/>
       <c r="C875" s="18"/>
       <c r="D875" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_BASS</v>
+        <v>Built-in Variable: $NI_DETECT_DRUM_TYPE_KICK</v>
       </c>
     </row>
     <row r="876" spans="1:4">
       <c r="A876" s="16" t="s">
-        <v>1797</v>
+        <v>1725</v>
       </c>
       <c r="B876" s="16"/>
       <c r="C876" s="18"/>
       <c r="D876" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_BOWED_STRING</v>
+        <v>Built-in Variable: $NI_DETECT_DRUM_TYPE_OPEN_HH</v>
       </c>
     </row>
     <row r="877" spans="1:4">
       <c r="A877" s="16" t="s">
-        <v>1798</v>
+        <v>1726</v>
       </c>
       <c r="B877" s="16"/>
       <c r="C877" s="18"/>
       <c r="D877" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_BRASS</v>
+        <v>Built-in Variable: $NI_DETECT_DRUM_TYPE_PERC_DRUM</v>
       </c>
     </row>
     <row r="878" spans="1:4">
       <c r="A878" s="16" t="s">
-        <v>1799</v>
+        <v>1727</v>
       </c>
       <c r="B878" s="16"/>
       <c r="C878" s="18"/>
       <c r="D878" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_FLUTE</v>
+        <v>Built-in Variable: $NI_DETECT_DRUM_TYPE_PERC_OTHER</v>
       </c>
     </row>
     <row r="879" spans="1:4">
       <c r="A879" s="16" t="s">
-        <v>1800</v>
+        <v>1728</v>
       </c>
       <c r="B879" s="16"/>
       <c r="C879" s="18"/>
       <c r="D879" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_GUITAR</v>
+        <v>Built-in Variable: $NI_DETECT_DRUM_TYPE_SHAKER</v>
       </c>
     </row>
     <row r="880" spans="1:4">
       <c r="A880" s="16" t="s">
-        <v>1801</v>
+        <v>1729</v>
       </c>
       <c r="B880" s="16"/>
       <c r="C880" s="18"/>
       <c r="D880" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_INVALID</v>
+        <v>Built-in Variable: $NI_DETECT_DRUM_TYPE_SNARE</v>
       </c>
     </row>
     <row r="881" spans="1:4">
       <c r="A881" s="16" t="s">
-        <v>1802</v>
+        <v>1730</v>
       </c>
       <c r="B881" s="16"/>
       <c r="C881" s="18"/>
       <c r="D881" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_KEYBOARD</v>
+        <v>Built-in Variable: $NI_DETECT_DRUM_TYPE_TOM</v>
       </c>
     </row>
     <row r="882" spans="1:4">
       <c r="A882" s="16" t="s">
-        <v>1803</v>
+        <v>1795</v>
       </c>
       <c r="B882" s="16"/>
       <c r="C882" s="18"/>
       <c r="D882" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_MALLET</v>
+        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE</v>
       </c>
     </row>
     <row r="883" spans="1:4">
       <c r="A883" s="16" t="s">
-        <v>1804</v>
+        <v>1796</v>
       </c>
       <c r="B883" s="16"/>
       <c r="C883" s="18"/>
       <c r="D883" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_ORGAN</v>
+        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_BASS</v>
       </c>
     </row>
     <row r="884" spans="1:4">
       <c r="A884" s="16" t="s">
-        <v>1805</v>
+        <v>1797</v>
       </c>
       <c r="B884" s="16"/>
       <c r="C884" s="18"/>
       <c r="D884" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_PLUCKED_STRING</v>
+        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_BOWED_STRING</v>
       </c>
     </row>
     <row r="885" spans="1:4">
       <c r="A885" s="16" t="s">
-        <v>1806</v>
+        <v>1798</v>
       </c>
       <c r="B885" s="16"/>
       <c r="C885" s="18"/>
       <c r="D885" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_REED</v>
+        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_BRASS</v>
       </c>
     </row>
     <row r="886" spans="1:4">
       <c r="A886" s="16" t="s">
-        <v>1807</v>
+        <v>1799</v>
       </c>
       <c r="B886" s="16"/>
       <c r="C886" s="18"/>
       <c r="D886" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_SYNTH</v>
+        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_FLUTE</v>
       </c>
     </row>
     <row r="887" spans="1:4">
       <c r="A887" s="16" t="s">
-        <v>1808</v>
+        <v>1800</v>
       </c>
       <c r="B887" s="16"/>
       <c r="C887" s="18"/>
       <c r="D887" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_VOCAL</v>
+        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_GUITAR</v>
       </c>
     </row>
     <row r="888" spans="1:4">
       <c r="A888" s="16" t="s">
-        <v>2067</v>
+        <v>1801</v>
       </c>
       <c r="B888" s="16"/>
       <c r="C888" s="18"/>
       <c r="D888" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DETECT_SAMPLE_TYPE</v>
+        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_INVALID</v>
       </c>
     </row>
     <row r="889" spans="1:4">
       <c r="A889" s="16" t="s">
-        <v>1731</v>
+        <v>1802</v>
       </c>
       <c r="B889" s="16"/>
       <c r="C889" s="18"/>
       <c r="D889" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DETECT_SAMPLE_TYPE_DRUM</v>
+        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_KEYBOARD</v>
       </c>
     </row>
     <row r="890" spans="1:4">
       <c r="A890" s="16" t="s">
-        <v>1732</v>
+        <v>1803</v>
       </c>
       <c r="B890" s="16"/>
       <c r="C890" s="18"/>
       <c r="D890" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DETECT_SAMPLE_TYPE_INSTRUMENT</v>
+        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_MALLET</v>
       </c>
     </row>
     <row r="891" spans="1:4">
       <c r="A891" s="16" t="s">
-        <v>1733</v>
+        <v>1804</v>
       </c>
       <c r="B891" s="16"/>
       <c r="C891" s="18"/>
       <c r="D891" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DETECT_SAMPLE_TYPE_INVALID</v>
+        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_ORGAN</v>
       </c>
     </row>
     <row r="892" spans="1:4">
       <c r="A892" s="16" t="s">
-        <v>1192</v>
+        <v>1805</v>
       </c>
       <c r="B892" s="16"/>
       <c r="C892" s="18"/>
       <c r="D892" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DISTORTION_TYPE_TRANS</v>
+        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_PLUCKED_STRING</v>
       </c>
     </row>
     <row r="893" spans="1:4">
       <c r="A893" s="16" t="s">
-        <v>1193</v>
+        <v>1806</v>
       </c>
       <c r="B893" s="16"/>
       <c r="C893" s="18"/>
       <c r="D893" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DISTORTION_TYPE_TUBE</v>
+        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_REED</v>
       </c>
     </row>
     <row r="894" spans="1:4">
       <c r="A894" s="16" t="s">
-        <v>2068</v>
+        <v>1807</v>
       </c>
       <c r="B894" s="16"/>
       <c r="C894" s="18"/>
       <c r="D894" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DND_ACCEPT_MULTIPLE</v>
+        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_SYNTH</v>
       </c>
     </row>
     <row r="895" spans="1:4">
       <c r="A895" s="16" t="s">
-        <v>2069</v>
+        <v>1808</v>
       </c>
       <c r="B895" s="16"/>
       <c r="C895" s="18"/>
       <c r="D895" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Built-in Variable: $NI_DND_ACCEPT_NONE</v>
+        <v>Built-in Variable: $NI_DETECT_INSTRUMENT_TYPE_VOCAL</v>
       </c>
     </row>
     <row r="896" spans="1:4">
       <c r="A896" s="16" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
       <c r="B896" s="16"/>
       <c r="C896" s="18"/>
       <c r="D896" s="17" t="str">
-        <f t="shared" ref="D896:D959" si="17">CONCATENATE( "Built-in Variable: ", A896 )</f>
-        <v>Built-in Variable: $NI_DND_ACCEPT_ONE</v>
+        <f t="shared" si="16"/>
+        <v>Built-in Variable: $NI_DETECT_SAMPLE_TYPE</v>
       </c>
     </row>
     <row r="897" spans="1:4">
       <c r="A897" s="16" t="s">
-        <v>1763</v>
+        <v>1731</v>
       </c>
       <c r="B897" s="16"/>
       <c r="C897" s="18"/>
       <c r="D897" s="17" t="str">
-        <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_FILE_EXTENSION</v>
+        <f t="shared" si="16"/>
+        <v>Built-in Variable: $NI_DETECT_SAMPLE_TYPE_DRUM</v>
       </c>
     </row>
     <row r="898" spans="1:4">
       <c r="A898" s="16" t="s">
-        <v>1764</v>
+        <v>1732</v>
       </c>
       <c r="B898" s="16"/>
       <c r="C898" s="18"/>
       <c r="D898" s="17" t="str">
-        <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_FILE_FULL_PATH</v>
+        <f t="shared" si="16"/>
+        <v>Built-in Variable: $NI_DETECT_SAMPLE_TYPE_INSTRUMENT</v>
       </c>
     </row>
     <row r="899" spans="1:4">
       <c r="A899" s="16" t="s">
-        <v>1765</v>
+        <v>1733</v>
       </c>
       <c r="B899" s="16"/>
       <c r="C899" s="18"/>
       <c r="D899" s="17" t="str">
-        <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_FILE_FULL_PATH_OS</v>
+        <f t="shared" si="16"/>
+        <v>Built-in Variable: $NI_DETECT_SAMPLE_TYPE_INVALID</v>
       </c>
     </row>
     <row r="900" spans="1:4">
       <c r="A900" s="16" t="s">
-        <v>1766</v>
+        <v>1192</v>
       </c>
       <c r="B900" s="16"/>
       <c r="C900" s="18"/>
       <c r="D900" s="17" t="str">
-        <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_FILE_NAME</v>
+        <f t="shared" si="16"/>
+        <v>Built-in Variable: $NI_DISTORTION_TYPE_TRANS</v>
       </c>
     </row>
     <row r="901" spans="1:4">
       <c r="A901" s="16" t="s">
-        <v>876</v>
+        <v>1193</v>
       </c>
       <c r="B901" s="16"/>
       <c r="C901" s="18"/>
       <c r="D901" s="17" t="str">
-        <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_FILE_TYPE_ARRAY</v>
+        <f t="shared" si="16"/>
+        <v>Built-in Variable: $NI_DISTORTION_TYPE_TUBE</v>
       </c>
     </row>
     <row r="902" spans="1:4">
       <c r="A902" s="16" t="s">
-        <v>877</v>
+        <v>2068</v>
       </c>
       <c r="B902" s="16"/>
       <c r="C902" s="18"/>
       <c r="D902" s="17" t="str">
-        <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_FILE_TYPE_AUDIO</v>
+        <f t="shared" si="16"/>
+        <v>Built-in Variable: $NI_DND_ACCEPT_MULTIPLE</v>
       </c>
     </row>
     <row r="903" spans="1:4">
       <c r="A903" s="16" t="s">
-        <v>878</v>
+        <v>2069</v>
       </c>
       <c r="B903" s="16"/>
       <c r="C903" s="18"/>
       <c r="D903" s="17" t="str">
-        <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_FILE_TYPE_MIDI</v>
+        <f t="shared" si="16"/>
+        <v>Built-in Variable: $NI_DND_ACCEPT_NONE</v>
       </c>
     </row>
     <row r="904" spans="1:4">
       <c r="A904" s="16" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B904" s="16"/>
       <c r="C904" s="18"/>
       <c r="D904" s="17" t="str">
-        <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_FLAIR_MODE_SCAN</v>
+        <f t="shared" ref="D904:D967" si="17">CONCATENATE( "Built-in Variable: ", A904 )</f>
+        <v>Built-in Variable: $NI_DND_ACCEPT_ONE</v>
       </c>
     </row>
     <row r="905" spans="1:4">
       <c r="A905" s="16" t="s">
-        <v>1847</v>
+        <v>1763</v>
       </c>
       <c r="B905" s="16"/>
       <c r="C905" s="18"/>
       <c r="D905" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_FLAIR_MODE_STANDARD</v>
+        <v>Built-in Variable: $NI_FILE_EXTENSION</v>
       </c>
     </row>
     <row r="906" spans="1:4">
       <c r="A906" s="16" t="s">
-        <v>1848</v>
+        <v>1764</v>
       </c>
       <c r="B906" s="16"/>
       <c r="C906" s="18"/>
       <c r="D906" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_FLAIR_MODE_THRU_ZERO</v>
+        <v>Built-in Variable: $NI_FILE_FULL_PATH</v>
       </c>
     </row>
     <row r="907" spans="1:4">
       <c r="A907" s="16" t="s">
-        <v>1692</v>
+        <v>1765</v>
       </c>
       <c r="B907" s="16"/>
       <c r="C907" s="18"/>
       <c r="D907" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_FLAIR_SCANMODE_SAW_DOWN</v>
+        <v>Built-in Variable: $NI_FILE_FULL_PATH_OS</v>
       </c>
     </row>
     <row r="908" spans="1:4">
       <c r="A908" s="16" t="s">
-        <v>1693</v>
+        <v>1766</v>
       </c>
       <c r="B908" s="16"/>
       <c r="C908" s="18"/>
       <c r="D908" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_FLAIR_SCANMODE_SAW_UP</v>
+        <v>Built-in Variable: $NI_FILE_NAME</v>
       </c>
     </row>
     <row r="909" spans="1:4">
       <c r="A909" s="16" t="s">
-        <v>1694</v>
+        <v>876</v>
       </c>
       <c r="B909" s="16"/>
       <c r="C909" s="18"/>
       <c r="D909" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_FLAIR_SCANMODE_TRIANGLE</v>
+        <v>Built-in Variable: $NI_FILE_TYPE_ARRAY</v>
       </c>
     </row>
     <row r="910" spans="1:4">
       <c r="A910" s="16" t="s">
-        <v>1874</v>
+        <v>877</v>
       </c>
       <c r="B910" s="16"/>
       <c r="C910" s="18"/>
       <c r="D910" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_INSERT_BUS</v>
+        <v>Built-in Variable: $NI_FILE_TYPE_AUDIO</v>
       </c>
     </row>
     <row r="911" spans="1:4">
       <c r="A911" s="16" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B911" s="16"/>
       <c r="C911" s="18"/>
       <c r="D911" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_KEY_TYPE_CONTROL</v>
+        <v>Built-in Variable: $NI_FILE_TYPE_MIDI</v>
       </c>
     </row>
     <row r="912" spans="1:4">
       <c r="A912" s="16" t="s">
-        <v>880</v>
+        <v>2071</v>
       </c>
       <c r="B912" s="16"/>
       <c r="C912" s="18"/>
       <c r="D912" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_KEY_TYPE_DEFAULT</v>
+        <v>Built-in Variable: $NI_FLAIR_MODE_SCAN</v>
       </c>
     </row>
     <row r="913" spans="1:4">
       <c r="A913" s="16" t="s">
-        <v>881</v>
+        <v>1847</v>
       </c>
       <c r="B913" s="16"/>
       <c r="C913" s="18"/>
       <c r="D913" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_KEY_TYPE_NONE</v>
+        <v>Built-in Variable: $NI_FLAIR_MODE_STANDARD</v>
       </c>
     </row>
     <row r="914" spans="1:4">
       <c r="A914" s="16" t="s">
-        <v>2072</v>
+        <v>1848</v>
       </c>
       <c r="B914" s="16"/>
       <c r="C914" s="18"/>
       <c r="D914" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_KONTAKT_IS_HEADLESS</v>
+        <v>Built-in Variable: $NI_FLAIR_MODE_THRU_ZERO</v>
       </c>
     </row>
     <row r="915" spans="1:4">
       <c r="A915" s="16" t="s">
-        <v>1331</v>
+        <v>1692</v>
       </c>
       <c r="B915" s="16"/>
       <c r="C915" s="18"/>
       <c r="D915" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_LOG_MESSAGE</v>
+        <v>Built-in Variable: $NI_FLAIR_SCANMODE_SAW_DOWN</v>
       </c>
     </row>
     <row r="916" spans="1:4">
       <c r="A916" s="16" t="s">
-        <v>1332</v>
+        <v>1693</v>
       </c>
       <c r="B916" s="16"/>
       <c r="C916" s="18"/>
       <c r="D916" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_LOG_WARNING</v>
+        <v>Built-in Variable: $NI_FLAIR_SCANMODE_SAW_UP</v>
       </c>
     </row>
     <row r="917" spans="1:4">
       <c r="A917" s="16" t="s">
-        <v>1333</v>
+        <v>1694</v>
       </c>
       <c r="B917" s="16"/>
       <c r="C917" s="18"/>
       <c r="D917" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_LOG_WATCHING</v>
+        <v>Built-in Variable: $NI_FLAIR_SCANMODE_TRIANGLE</v>
       </c>
     </row>
     <row r="918" spans="1:4">
       <c r="A918" s="16" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B918" s="16"/>
       <c r="C918" s="18"/>
       <c r="D918" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_MAIN_BUS</v>
+        <v>Built-in Variable: $NI_INSERT_BUS</v>
       </c>
     </row>
     <row r="919" spans="1:4">
       <c r="A919" s="16" t="s">
-        <v>2073</v>
+        <v>879</v>
       </c>
       <c r="B919" s="16"/>
       <c r="C919" s="18"/>
       <c r="D919" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE</v>
+        <v>Built-in Variable: $NI_KEY_TYPE_CONTROL</v>
       </c>
     </row>
     <row r="920" spans="1:4">
       <c r="A920" s="16" t="s">
-        <v>2074</v>
+        <v>880</v>
       </c>
       <c r="B920" s="16"/>
       <c r="C920" s="18"/>
       <c r="D920" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE_DND_DRAG</v>
+        <v>Built-in Variable: $NI_KEY_TYPE_DEFAULT</v>
       </c>
     </row>
     <row r="921" spans="1:4">
       <c r="A921" s="16" t="s">
-        <v>2075</v>
+        <v>881</v>
       </c>
       <c r="B921" s="16"/>
       <c r="C921" s="18"/>
       <c r="D921" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE_DND_DROP</v>
+        <v>Built-in Variable: $NI_KEY_TYPE_NONE</v>
       </c>
     </row>
     <row r="922" spans="1:4">
       <c r="A922" s="16" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="B922" s="16"/>
       <c r="C922" s="18"/>
       <c r="D922" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE_DRAG</v>
+        <v>Built-in Variable: $NI_KONTAKT_IS_HEADLESS</v>
       </c>
     </row>
     <row r="923" spans="1:4">
       <c r="A923" s="16" t="s">
-        <v>2077</v>
+        <v>1331</v>
       </c>
       <c r="B923" s="16"/>
       <c r="C923" s="18"/>
       <c r="D923" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE_DROP</v>
+        <v>Built-in Variable: $NI_LOG_MESSAGE</v>
       </c>
     </row>
     <row r="924" spans="1:4">
       <c r="A924" s="16" t="s">
-        <v>2078</v>
+        <v>1332</v>
       </c>
       <c r="B924" s="16"/>
       <c r="C924" s="18"/>
       <c r="D924" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE_LEFT_BUTTON_DOWN</v>
+        <v>Built-in Variable: $NI_LOG_WARNING</v>
       </c>
     </row>
     <row r="925" spans="1:4">
       <c r="A925" s="16" t="s">
-        <v>2079</v>
+        <v>1333</v>
       </c>
       <c r="B925" s="16"/>
       <c r="C925" s="18"/>
       <c r="D925" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE_LEFT_BUTTON_UP</v>
+        <v>Built-in Variable: $NI_LOG_WATCHING</v>
       </c>
     </row>
     <row r="926" spans="1:4">
       <c r="A926" s="16" t="s">
-        <v>2080</v>
+        <v>1875</v>
       </c>
       <c r="B926" s="16"/>
       <c r="C926" s="18"/>
       <c r="D926" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_MOUSE_OVER_CONTROL</v>
+        <v>Built-in Variable: $NI_MAIN_BUS</v>
       </c>
     </row>
     <row r="927" spans="1:4">
       <c r="A927" s="16" t="s">
-        <v>2081</v>
+        <v>2073</v>
       </c>
       <c r="B927" s="16"/>
       <c r="C927" s="18"/>
       <c r="D927" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_NOT_FOUND</v>
+        <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE</v>
       </c>
     </row>
     <row r="928" spans="1:4">
       <c r="A928" s="16" t="s">
-        <v>1849</v>
+        <v>2074</v>
       </c>
       <c r="B928" s="16"/>
       <c r="C928" s="18"/>
       <c r="D928" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_REPLIKA_TYPE_ANALOGUE</v>
+        <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE_DND_DRAG</v>
       </c>
     </row>
     <row r="929" spans="1:4">
       <c r="A929" s="16" t="s">
-        <v>1336</v>
+        <v>2075</v>
       </c>
       <c r="B929" s="16"/>
       <c r="C929" s="18"/>
       <c r="D929" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_REPLIKA_TYPE_DIFFUSION</v>
+        <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE_DND_DROP</v>
       </c>
     </row>
     <row r="930" spans="1:4">
       <c r="A930" s="16" t="s">
-        <v>1337</v>
+        <v>2076</v>
       </c>
       <c r="B930" s="16"/>
       <c r="C930" s="18"/>
       <c r="D930" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_REPLIKA_TYPE_MODERN</v>
+        <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE_DRAG</v>
       </c>
     </row>
     <row r="931" spans="1:4">
       <c r="A931" s="16" t="s">
-        <v>1338</v>
+        <v>2077</v>
       </c>
       <c r="B931" s="16"/>
       <c r="C931" s="18"/>
       <c r="D931" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_REPLIKA_TYPE_TAPE</v>
+        <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE_DROP</v>
       </c>
     </row>
     <row r="932" spans="1:4">
       <c r="A932" s="16" t="s">
-        <v>1339</v>
+        <v>2078</v>
       </c>
       <c r="B932" s="16"/>
       <c r="C932" s="18"/>
       <c r="D932" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_REPLIKA_TYPE_VINTAGE</v>
+        <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE_LEFT_BUTTON_DOWN</v>
       </c>
     </row>
     <row r="933" spans="1:4">
       <c r="A933" s="16" t="s">
-        <v>1850</v>
+        <v>2079</v>
       </c>
       <c r="B933" s="16"/>
       <c r="C933" s="18"/>
       <c r="D933" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_REVERB2_TYPE_HALL</v>
+        <v>Built-in Variable: $NI_MOUSE_EVENT_TYPE_LEFT_BUTTON_UP</v>
       </c>
     </row>
     <row r="934" spans="1:4">
       <c r="A934" s="16" t="s">
-        <v>1340</v>
+        <v>2080</v>
       </c>
       <c r="B934" s="16"/>
       <c r="C934" s="18"/>
       <c r="D934" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_REVERB2_TYPE_ROOM</v>
+        <v>Built-in Variable: $NI_MOUSE_OVER_CONTROL</v>
       </c>
     </row>
     <row r="935" spans="1:4">
       <c r="A935" s="16" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="B935" s="16"/>
       <c r="C935" s="18"/>
       <c r="D935" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_RINGMOD_LFO_WAVE_SINE</v>
+        <v>Built-in Variable: $NI_NOT_FOUND</v>
       </c>
     </row>
     <row r="936" spans="1:4">
       <c r="A936" s="16" t="s">
-        <v>2083</v>
+        <v>1849</v>
       </c>
       <c r="B936" s="16"/>
       <c r="C936" s="18"/>
       <c r="D936" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_RINGMOD_LFO_WAVE_SQUARE</v>
+        <v>Built-in Variable: $NI_REPLIKA_TYPE_ANALOGUE</v>
       </c>
     </row>
     <row r="937" spans="1:4">
       <c r="A937" s="16" t="s">
-        <v>2084</v>
+        <v>1336</v>
       </c>
       <c r="B937" s="16"/>
       <c r="C937" s="18"/>
       <c r="D937" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_SEND_BUS</v>
+        <v>Built-in Variable: $NI_REPLIKA_TYPE_DIFFUSION</v>
       </c>
     </row>
     <row r="938" spans="1:4">
       <c r="A938" s="16" t="s">
-        <v>1194</v>
+        <v>1337</v>
       </c>
       <c r="B938" s="16"/>
       <c r="C938" s="18"/>
       <c r="D938" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_SHAPE_TYPE_CLASSIC</v>
+        <v>Built-in Variable: $NI_REPLIKA_TYPE_MODERN</v>
       </c>
     </row>
     <row r="939" spans="1:4">
       <c r="A939" s="16" t="s">
-        <v>1195</v>
+        <v>1338</v>
       </c>
       <c r="B939" s="16"/>
       <c r="C939" s="18"/>
       <c r="D939" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_SHAPE_TYPE_DRUMS</v>
+        <v>Built-in Variable: $NI_REPLIKA_TYPE_TAPE</v>
       </c>
     </row>
     <row r="940" spans="1:4">
       <c r="A940" s="16" t="s">
-        <v>1196</v>
+        <v>1339</v>
       </c>
       <c r="B940" s="16"/>
       <c r="C940" s="18"/>
       <c r="D940" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_SHAPE_TYPE_ENHANCED</v>
+        <v>Built-in Variable: $NI_REPLIKA_TYPE_VINTAGE</v>
       </c>
     </row>
     <row r="941" spans="1:4">
       <c r="A941" s="16" t="s">
-        <v>882</v>
+        <v>1850</v>
       </c>
       <c r="B941" s="16"/>
       <c r="C941" s="18"/>
       <c r="D941" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_SIGNAL_TIMER_BEAT</v>
+        <v>Built-in Variable: $NI_REVERB2_TYPE_HALL</v>
       </c>
     </row>
     <row r="942" spans="1:4">
       <c r="A942" s="16" t="s">
-        <v>883</v>
+        <v>1340</v>
       </c>
       <c r="B942" s="16"/>
       <c r="C942" s="18"/>
       <c r="D942" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_SIGNAL_TIMER_MS</v>
+        <v>Built-in Variable: $NI_REVERB2_TYPE_ROOM</v>
       </c>
     </row>
     <row r="943" spans="1:4">
       <c r="A943" s="16" t="s">
-        <v>884</v>
+        <v>2082</v>
       </c>
       <c r="B943" s="16"/>
       <c r="C943" s="18"/>
       <c r="D943" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_SIGNAL_TRANSP_START</v>
+        <v>Built-in Variable: $NI_RINGMOD_LFO_WAVE_SINE</v>
       </c>
     </row>
     <row r="944" spans="1:4">
       <c r="A944" s="16" t="s">
-        <v>885</v>
+        <v>2083</v>
       </c>
       <c r="B944" s="16"/>
       <c r="C944" s="18"/>
       <c r="D944" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_SIGNAL_TRANSP_STOP</v>
+        <v>Built-in Variable: $NI_RINGMOD_LFO_WAVE_SQUARE</v>
       </c>
     </row>
     <row r="945" spans="1:4">
-      <c r="A945" s="6" t="s">
-        <v>886</v>
+      <c r="A945" s="16" t="s">
+        <v>2084</v>
       </c>
       <c r="B945" s="16"/>
       <c r="C945" s="18"/>
       <c r="D945" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_SIGNAL_TYPE</v>
+        <v>Built-in Variable: $NI_SEND_BUS</v>
       </c>
     </row>
     <row r="946" spans="1:4">
-      <c r="A946" s="6" t="s">
-        <v>887</v>
+      <c r="A946" s="16" t="s">
+        <v>1194</v>
       </c>
       <c r="B946" s="16"/>
       <c r="C946" s="18"/>
       <c r="D946" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_SONG_POSITION</v>
+        <v>Built-in Variable: $NI_SHAPE_TYPE_CLASSIC</v>
       </c>
     </row>
     <row r="947" spans="1:4">
-      <c r="A947" s="6" t="s">
-        <v>1876</v>
+      <c r="A947" s="16" t="s">
+        <v>1195</v>
       </c>
       <c r="B947" s="16"/>
       <c r="C947" s="18"/>
       <c r="D947" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_SUPERGT_CHANNEL_LINK_MODE_DUAL_MONO</v>
+        <v>Built-in Variable: $NI_SHAPE_TYPE_DRUMS</v>
       </c>
     </row>
     <row r="948" spans="1:4">
-      <c r="A948" s="6" t="s">
-        <v>1877</v>
+      <c r="A948" s="16" t="s">
+        <v>1196</v>
       </c>
       <c r="B948" s="16"/>
       <c r="C948" s="18"/>
       <c r="D948" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_SUPERGT_CHANNEL_LINK_MODE_MS</v>
+        <v>Built-in Variable: $NI_SHAPE_TYPE_ENHANCED</v>
       </c>
     </row>
     <row r="949" spans="1:4">
       <c r="A949" s="16" t="s">
-        <v>1878</v>
+        <v>882</v>
       </c>
       <c r="B949" s="16"/>
       <c r="C949" s="18"/>
       <c r="D949" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_SUPERGT_CHANNEL_LINK_MODE_STEREO</v>
+        <v>Built-in Variable: $NI_SIGNAL_TIMER_BEAT</v>
       </c>
     </row>
     <row r="950" spans="1:4">
       <c r="A950" s="16" t="s">
-        <v>1879</v>
+        <v>883</v>
       </c>
       <c r="B950" s="16"/>
       <c r="C950" s="18"/>
       <c r="D950" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_SUPERGT_CHAR_MODE_BRIGHT</v>
+        <v>Built-in Variable: $NI_SIGNAL_TIMER_MS</v>
       </c>
     </row>
     <row r="951" spans="1:4">
       <c r="A951" s="16" t="s">
-        <v>1880</v>
+        <v>884</v>
       </c>
       <c r="B951" s="16"/>
       <c r="C951" s="18"/>
       <c r="D951" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_SUPERGT_CHAR_MODE_FAT</v>
+        <v>Built-in Variable: $NI_SIGNAL_TRANSP_START</v>
       </c>
     </row>
     <row r="952" spans="1:4">
       <c r="A952" s="16" t="s">
-        <v>1881</v>
+        <v>885</v>
       </c>
       <c r="B952" s="16"/>
       <c r="C952" s="18"/>
       <c r="D952" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_SUPERGT_CHAR_MODE_WARM</v>
+        <v>Built-in Variable: $NI_SIGNAL_TRANSP_STOP</v>
       </c>
     </row>
     <row r="953" spans="1:4">
-      <c r="A953" s="17" t="s">
-        <v>1882</v>
-      </c>
-      <c r="B953" s="9"/>
+      <c r="A953" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="B953" s="16"/>
       <c r="C953" s="18"/>
       <c r="D953" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_SUPERGT_HPF_MODE_100</v>
+        <v>Built-in Variable: $NI_SIGNAL_TYPE</v>
       </c>
     </row>
     <row r="954" spans="1:4">
-      <c r="A954" s="17" t="s">
-        <v>1883</v>
-      </c>
-      <c r="B954" s="9"/>
+      <c r="A954" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="B954" s="16"/>
       <c r="C954" s="18"/>
       <c r="D954" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_SUPERGT_HPF_MODE_300</v>
+        <v>Built-in Variable: $NI_SONG_POSITION</v>
       </c>
     </row>
     <row r="955" spans="1:4">
-      <c r="A955" s="17" t="s">
-        <v>1884</v>
-      </c>
-      <c r="B955" s="9"/>
+      <c r="A955" s="6" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B955" s="16"/>
       <c r="C955" s="18"/>
       <c r="D955" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_SUPERGT_HPF_MODE_OFF</v>
+        <v>Built-in Variable: $NI_SUPERGT_CHANNEL_LINK_MODE_DUAL_MONO</v>
       </c>
     </row>
     <row r="956" spans="1:4">
-      <c r="A956" s="17" t="s">
-        <v>1885</v>
-      </c>
-      <c r="B956" s="9"/>
+      <c r="A956" s="6" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B956" s="16"/>
       <c r="C956" s="18"/>
       <c r="D956" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_SUPERGT_SAT_MODE_HOT</v>
+        <v>Built-in Variable: $NI_SUPERGT_CHANNEL_LINK_MODE_MS</v>
       </c>
     </row>
     <row r="957" spans="1:4">
-      <c r="A957" s="17" t="s">
-        <v>1886</v>
-      </c>
-      <c r="B957" s="9"/>
+      <c r="A957" s="16" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B957" s="16"/>
       <c r="C957" s="18"/>
       <c r="D957" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_SUPERGT_SAT_MODE_MILD</v>
+        <v>Built-in Variable: $NI_SUPERGT_CHANNEL_LINK_MODE_STEREO</v>
       </c>
     </row>
     <row r="958" spans="1:4">
-      <c r="A958" s="17" t="s">
-        <v>1887</v>
-      </c>
-      <c r="B958" s="9"/>
+      <c r="A958" s="16" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B958" s="16"/>
       <c r="C958" s="18"/>
       <c r="D958" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_SUPERGT_SAT_MODE_MODERATE</v>
+        <v>Built-in Variable: $NI_SUPERGT_CHAR_MODE_BRIGHT</v>
       </c>
     </row>
     <row r="959" spans="1:4">
-      <c r="A959" s="17" t="s">
-        <v>895</v>
-      </c>
-      <c r="B959" s="9"/>
+      <c r="A959" s="16" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B959" s="16"/>
       <c r="C959" s="18"/>
       <c r="D959" s="17" t="str">
         <f t="shared" si="17"/>
-        <v>Built-in Variable: $NI_SYNC_UNIT_8TH</v>
+        <v>Built-in Variable: $NI_SUPERGT_CHAR_MODE_FAT</v>
       </c>
     </row>
     <row r="960" spans="1:4">
-      <c r="A960" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="B960" s="9"/>
+      <c r="A960" s="16" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B960" s="16"/>
       <c r="C960" s="18"/>
       <c r="D960" s="17" t="str">
-        <f t="shared" ref="D960:D971" si="18">CONCATENATE( "Built-in Variable: ", A960 )</f>
-        <v>Built-in Variable: $NI_SYNC_UNIT_8TH_TRIPLET</v>
+        <f t="shared" si="17"/>
+        <v>Built-in Variable: $NI_SUPERGT_CHAR_MODE_WARM</v>
       </c>
     </row>
     <row r="961" spans="1:4">
       <c r="A961" s="17" t="s">
-        <v>888</v>
+        <v>1882</v>
       </c>
       <c r="B961" s="9"/>
       <c r="C961" s="18"/>
       <c r="D961" s="17" t="str">
-        <f t="shared" si="18"/>
-        <v>Built-in Variable: $NI_SYNC_UNIT_16TH</v>
+        <f t="shared" si="17"/>
+        <v>Built-in Variable: $NI_SUPERGT_HPF_MODE_100</v>
       </c>
     </row>
     <row r="962" spans="1:4">
       <c r="A962" s="17" t="s">
-        <v>889</v>
+        <v>1883</v>
       </c>
       <c r="B962" s="9"/>
       <c r="C962" s="18"/>
       <c r="D962" s="17" t="str">
-        <f t="shared" si="18"/>
-        <v>Built-in Variable: $NI_SYNC_UNIT_16TH_TRIPLET</v>
+        <f t="shared" si="17"/>
+        <v>Built-in Variable: $NI_SUPERGT_HPF_MODE_300</v>
       </c>
     </row>
     <row r="963" spans="1:4">
       <c r="A963" s="17" t="s">
-        <v>891</v>
+        <v>1884</v>
       </c>
       <c r="B963" s="9"/>
       <c r="C963" s="18"/>
       <c r="D963" s="17" t="str">
-        <f t="shared" si="18"/>
-        <v>Built-in Variable: $NI_SYNC_UNIT_32ND</v>
+        <f t="shared" si="17"/>
+        <v>Built-in Variable: $NI_SUPERGT_HPF_MODE_OFF</v>
       </c>
     </row>
     <row r="964" spans="1:4">
       <c r="A964" s="17" t="s">
-        <v>892</v>
+        <v>1885</v>
       </c>
       <c r="B964" s="9"/>
       <c r="C964" s="18"/>
       <c r="D964" s="17" t="str">
-        <f t="shared" si="18"/>
-        <v>Built-in Variable: $NI_SYNC_UNIT_32ND_TRIPLET</v>
+        <f t="shared" si="17"/>
+        <v>Built-in Variable: $NI_SUPERGT_SAT_MODE_HOT</v>
       </c>
     </row>
     <row r="965" spans="1:4">
       <c r="A965" s="17" t="s">
-        <v>893</v>
+        <v>1886</v>
       </c>
       <c r="B965" s="9"/>
       <c r="C965" s="18"/>
       <c r="D965" s="17" t="str">
-        <f t="shared" si="18"/>
-        <v>Built-in Variable: $NI_SYNC_UNIT_64TH</v>
+        <f t="shared" si="17"/>
+        <v>Built-in Variable: $NI_SUPERGT_SAT_MODE_MILD</v>
       </c>
     </row>
     <row r="966" spans="1:4">
       <c r="A966" s="17" t="s">
-        <v>894</v>
+        <v>1887</v>
       </c>
       <c r="B966" s="9"/>
       <c r="C966" s="18"/>
       <c r="D966" s="17" t="str">
-        <f t="shared" si="18"/>
-        <v>Built-in Variable: $NI_SYNC_UNIT_64TH_TRIPLET</v>
+        <f t="shared" si="17"/>
+        <v>Built-in Variable: $NI_SUPERGT_SAT_MODE_MODERATE</v>
       </c>
     </row>
     <row r="967" spans="1:4">
       <c r="A967" s="17" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="B967" s="9"/>
       <c r="C967" s="18"/>
       <c r="D967" s="17" t="str">
-        <f t="shared" si="18"/>
-        <v>Built-in Variable: $NI_SYNC_UNIT_256TH</v>
+        <f t="shared" si="17"/>
+        <v>Built-in Variable: $NI_SYNC_UNIT_8TH</v>
       </c>
     </row>
     <row r="968" spans="1:4">
       <c r="A968" s="17" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B968" s="9"/>
       <c r="C968" s="18"/>
       <c r="D968" s="17" t="str">
-        <f t="shared" si="18"/>
-        <v>Built-in Variable: $NI_SYNC_UNIT_ABS</v>
+        <f t="shared" ref="D968:D979" si="18">CONCATENATE( "Built-in Variable: ", A968 )</f>
+        <v>Built-in Variable: $NI_SYNC_UNIT_8TH_TRIPLET</v>
       </c>
     </row>
     <row r="969" spans="1:4">
       <c r="A969" s="17" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="B969" s="9"/>
       <c r="C969" s="18"/>
       <c r="D969" s="17" t="str">
         <f t="shared" si="18"/>
-        <v>Built-in Variable: $NI_SYNC_UNIT_HALF</v>
+        <v>Built-in Variable: $NI_SYNC_UNIT_16TH</v>
       </c>
     </row>
     <row r="970" spans="1:4">
       <c r="A970" s="17" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="B970" s="9"/>
       <c r="C970" s="18"/>
       <c r="D970" s="17" t="str">
         <f t="shared" si="18"/>
-        <v>Built-in Variable: $NI_SYNC_UNIT_HALF_TRIPLET</v>
+        <v>Built-in Variable: $NI_SYNC_UNIT_16TH_TRIPLET</v>
       </c>
     </row>
     <row r="971" spans="1:4">
       <c r="A971" s="17" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="B971" s="9"/>
       <c r="C971" s="18"/>
       <c r="D971" s="17" t="str">
         <f t="shared" si="18"/>
+        <v>Built-in Variable: $NI_SYNC_UNIT_32ND</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4">
+      <c r="A972" s="17" t="s">
+        <v>892</v>
+      </c>
+      <c r="B972" s="9"/>
+      <c r="C972" s="18"/>
+      <c r="D972" s="17" t="str">
+        <f t="shared" si="18"/>
+        <v>Built-in Variable: $NI_SYNC_UNIT_32ND_TRIPLET</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4">
+      <c r="A973" s="17" t="s">
+        <v>893</v>
+      </c>
+      <c r="B973" s="9"/>
+      <c r="C973" s="18"/>
+      <c r="D973" s="17" t="str">
+        <f t="shared" si="18"/>
+        <v>Built-in Variable: $NI_SYNC_UNIT_64TH</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4">
+      <c r="A974" s="17" t="s">
+        <v>894</v>
+      </c>
+      <c r="B974" s="9"/>
+      <c r="C974" s="18"/>
+      <c r="D974" s="17" t="str">
+        <f t="shared" si="18"/>
+        <v>Built-in Variable: $NI_SYNC_UNIT_64TH_TRIPLET</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4">
+      <c r="A975" s="17" t="s">
+        <v>890</v>
+      </c>
+      <c r="B975" s="9"/>
+      <c r="C975" s="18"/>
+      <c r="D975" s="17" t="str">
+        <f t="shared" si="18"/>
+        <v>Built-in Variable: $NI_SYNC_UNIT_256TH</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4">
+      <c r="A976" s="17" t="s">
+        <v>897</v>
+      </c>
+      <c r="B976" s="9"/>
+      <c r="C976" s="18"/>
+      <c r="D976" s="17" t="str">
+        <f t="shared" si="18"/>
+        <v>Built-in Variable: $NI_SYNC_UNIT_ABS</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4">
+      <c r="A977" s="17" t="s">
+        <v>898</v>
+      </c>
+      <c r="B977" s="9"/>
+      <c r="C977" s="18"/>
+      <c r="D977" s="17" t="str">
+        <f t="shared" si="18"/>
+        <v>Built-in Variable: $NI_SYNC_UNIT_HALF</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4">
+      <c r="A978" s="17" t="s">
+        <v>899</v>
+      </c>
+      <c r="B978" s="9"/>
+      <c r="C978" s="18"/>
+      <c r="D978" s="17" t="str">
+        <f t="shared" si="18"/>
+        <v>Built-in Variable: $NI_SYNC_UNIT_HALF_TRIPLET</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4">
+      <c r="A979" s="17" t="s">
+        <v>900</v>
+      </c>
+      <c r="B979" s="9"/>
+      <c r="C979" s="18"/>
+      <c r="D979" s="17" t="str">
+        <f t="shared" si="18"/>
         <v>Built-in Variable: $NI_SYNC_UNIT_QUARTER</v>
-      </c>
-    </row>
-    <row r="972" spans="1:4">
-      <c r="A972" s="6" t="s">
-        <v>901</v>
-      </c>
-      <c r="B972" s="3"/>
-      <c r="C972" s="12"/>
-      <c r="D972" s="17" t="str">
-        <f t="shared" ref="D972:D1016" si="19">CONCATENATE( "Built-in Variable: ", A972 )</f>
-        <v>Built-in Variable: $NI_SYNC_UNIT_QUARTER_TRIPLET</v>
-      </c>
-    </row>
-    <row r="973" spans="1:4">
-      <c r="A973" s="6" t="s">
-        <v>902</v>
-      </c>
-      <c r="B973" s="3"/>
-      <c r="C973" s="12"/>
-      <c r="D973" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_SYNC_UNIT_WHOLE</v>
-      </c>
-    </row>
-    <row r="974" spans="1:4">
-      <c r="A974" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="B974" s="3"/>
-      <c r="C974" s="12"/>
-      <c r="D974" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_SYNC_UNIT_WHOLE_TRIPLET</v>
-      </c>
-    </row>
-    <row r="975" spans="1:4">
-      <c r="A975" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="B975" s="3"/>
-      <c r="C975" s="12"/>
-      <c r="D975" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_SYNC_UNIT_ZONE</v>
-      </c>
-    </row>
-    <row r="976" spans="1:4">
-      <c r="A976" s="6" t="s">
-        <v>905</v>
-      </c>
-      <c r="B976" s="3"/>
-      <c r="C976" s="12"/>
-      <c r="D976" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_TRANSPORT_RUNNING</v>
-      </c>
-    </row>
-    <row r="977" spans="1:4">
-      <c r="A977" s="6" t="s">
-        <v>2085</v>
-      </c>
-      <c r="B977" s="3"/>
-      <c r="C977" s="12"/>
-      <c r="D977" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_VL_TMPRO_HQ</v>
-      </c>
-    </row>
-    <row r="978" spans="1:4">
-      <c r="A978" s="6" t="s">
-        <v>906</v>
-      </c>
-      <c r="B978" s="3"/>
-      <c r="C978" s="12"/>
-      <c r="D978" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_VL_TMPRO_STANDARD</v>
-      </c>
-    </row>
-    <row r="979" spans="1:4">
-      <c r="A979" s="6" t="s">
-        <v>907</v>
-      </c>
-      <c r="B979" s="3"/>
-      <c r="C979" s="12"/>
-      <c r="D979" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_VL_TMRPO_HQ</v>
       </c>
     </row>
     <row r="980" spans="1:4">
       <c r="A980" s="6" t="s">
-        <v>1770</v>
+        <v>901</v>
       </c>
       <c r="B980" s="3"/>
       <c r="C980" s="12"/>
       <c r="D980" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_WF_VIS_MODE_1</v>
+        <f t="shared" ref="D980:D1025" si="19">CONCATENATE( "Built-in Variable: ", A980 )</f>
+        <v>Built-in Variable: $NI_SYNC_UNIT_QUARTER_TRIPLET</v>
       </c>
     </row>
     <row r="981" spans="1:4">
       <c r="A981" s="6" t="s">
-        <v>1771</v>
+        <v>902</v>
       </c>
       <c r="B981" s="3"/>
       <c r="C981" s="12"/>
       <c r="D981" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_WF_VIS_MODE_2</v>
+        <v>Built-in Variable: $NI_SYNC_UNIT_WHOLE</v>
       </c>
     </row>
     <row r="982" spans="1:4">
       <c r="A982" s="6" t="s">
-        <v>1772</v>
+        <v>903</v>
       </c>
       <c r="B982" s="3"/>
       <c r="C982" s="12"/>
       <c r="D982" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_WF_VIS_MODE_3</v>
+        <v>Built-in Variable: $NI_SYNC_UNIT_WHOLE_TRIPLET</v>
       </c>
     </row>
     <row r="983" spans="1:4">
       <c r="A983" s="6" t="s">
-        <v>1773</v>
+        <v>904</v>
       </c>
       <c r="B983" s="3"/>
       <c r="C983" s="12"/>
       <c r="D983" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_WT_FORM_ASYMM</v>
+        <v>Built-in Variable: $NI_SYNC_UNIT_ZONE</v>
       </c>
     </row>
     <row r="984" spans="1:4">
       <c r="A984" s="6" t="s">
-        <v>1774</v>
+        <v>905</v>
       </c>
       <c r="B984" s="3"/>
       <c r="C984" s="12"/>
       <c r="D984" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_WT_FORM_ASYMMP</v>
+        <v>Built-in Variable: $NI_TRANSPORT_RUNNING</v>
       </c>
     </row>
     <row r="985" spans="1:4">
       <c r="A985" s="6" t="s">
-        <v>1775</v>
+        <v>2085</v>
       </c>
       <c r="B985" s="3"/>
       <c r="C985" s="12"/>
       <c r="D985" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_WT_FORM_ASYMP</v>
+        <v>Built-in Variable: $NI_VL_TMPRO_HQ</v>
       </c>
     </row>
     <row r="986" spans="1:4">
       <c r="A986" s="6" t="s">
-        <v>1776</v>
+        <v>906</v>
       </c>
       <c r="B986" s="3"/>
       <c r="C986" s="12"/>
       <c r="D986" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_WT_FORM_BENDM</v>
+        <v>Built-in Variable: $NI_VL_TMPRO_STANDARD</v>
       </c>
     </row>
     <row r="987" spans="1:4">
       <c r="A987" s="6" t="s">
-        <v>1777</v>
+        <v>907</v>
       </c>
       <c r="B987" s="3"/>
       <c r="C987" s="12"/>
       <c r="D987" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_WT_FORM_BENDMP</v>
+        <v>Built-in Variable: $NI_VL_TMRPO_HQ</v>
       </c>
     </row>
     <row r="988" spans="1:4">
       <c r="A988" s="6" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="B988" s="3"/>
       <c r="C988" s="12"/>
       <c r="D988" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_WT_FORM_BENDP</v>
+        <v>Built-in Variable: $NI_WF_VIS_MODE_1</v>
       </c>
     </row>
     <row r="989" spans="1:4">
       <c r="A989" s="6" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="B989" s="3"/>
       <c r="C989" s="12"/>
       <c r="D989" s="17" t="str">
-        <f t="shared" ref="D989:D992" si="20">CONCATENATE( "Built-in Variable: ", A989 )</f>
-        <v>Built-in Variable: $NI_WT_FORM_FLIP</v>
+        <f t="shared" si="19"/>
+        <v>Built-in Variable: $NI_WF_VIS_MODE_2</v>
       </c>
     </row>
     <row r="990" spans="1:4">
       <c r="A990" s="6" t="s">
-        <v>1780</v>
+        <v>1772</v>
       </c>
       <c r="B990" s="3"/>
       <c r="C990" s="12"/>
       <c r="D990" s="17" t="str">
-        <f t="shared" si="20"/>
-        <v>Built-in Variable: $NI_WT_FORM_LINEAR</v>
+        <f t="shared" si="19"/>
+        <v>Built-in Variable: $NI_WF_VIS_MODE_3</v>
       </c>
     </row>
     <row r="991" spans="1:4">
       <c r="A991" s="6" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
       <c r="B991" s="3"/>
       <c r="C991" s="12"/>
       <c r="D991" s="17" t="str">
-        <f t="shared" si="20"/>
-        <v>Built-in Variable: $NI_WT_FORM_MIRROR</v>
+        <f t="shared" si="19"/>
+        <v>Built-in Variable: $NI_WT_FORM_ASYMM</v>
       </c>
     </row>
     <row r="992" spans="1:4">
       <c r="A992" s="6" t="s">
-        <v>1782</v>
+        <v>1774</v>
       </c>
       <c r="B992" s="3"/>
       <c r="C992" s="12"/>
       <c r="D992" s="17" t="str">
-        <f t="shared" si="20"/>
-        <v>Built-in Variable: $NI_WT_FORM_PWM</v>
+        <f t="shared" si="19"/>
+        <v>Built-in Variable: $NI_WT_FORM_ASYMMP</v>
       </c>
     </row>
     <row r="993" spans="1:4">
       <c r="A993" s="6" t="s">
-        <v>1341</v>
+        <v>1775</v>
       </c>
       <c r="B993" s="3"/>
       <c r="C993" s="12"/>
       <c r="D993" s="17" t="str">
-        <f t="shared" ref="D993:D996" si="21">CONCATENATE( "Built-in Variable: ", A993 )</f>
-        <v>Built-in Variable: $NI_WT_FORM_QUANTIZE</v>
+        <f t="shared" si="19"/>
+        <v>Built-in Variable: $NI_WT_FORM_ASYMP</v>
       </c>
     </row>
     <row r="994" spans="1:4">
       <c r="A994" s="6" t="s">
-        <v>1783</v>
+        <v>1776</v>
       </c>
       <c r="B994" s="3"/>
       <c r="C994" s="12"/>
       <c r="D994" s="17" t="str">
-        <f t="shared" si="21"/>
-        <v>Built-in Variable: $NI_WT_FORM_SYNC1</v>
+        <f t="shared" si="19"/>
+        <v>Built-in Variable: $NI_WT_FORM_BENDM</v>
       </c>
     </row>
     <row r="995" spans="1:4">
       <c r="A995" s="6" t="s">
-        <v>1784</v>
+        <v>1777</v>
       </c>
       <c r="B995" s="3"/>
       <c r="C995" s="12"/>
       <c r="D995" s="17" t="str">
-        <f t="shared" si="21"/>
-        <v>Built-in Variable: $NI_WT_FORM_SYNC2</v>
+        <f t="shared" si="19"/>
+        <v>Built-in Variable: $NI_WT_FORM_BENDMP</v>
       </c>
     </row>
     <row r="996" spans="1:4">
       <c r="A996" s="6" t="s">
-        <v>1785</v>
+        <v>1778</v>
       </c>
       <c r="B996" s="3"/>
       <c r="C996" s="12"/>
       <c r="D996" s="17" t="str">
-        <f t="shared" si="21"/>
-        <v>Built-in Variable: $NI_WT_FORM_SYNC3</v>
+        <f t="shared" si="19"/>
+        <v>Built-in Variable: $NI_WT_FORM_BENDP</v>
       </c>
     </row>
     <row r="997" spans="1:4">
       <c r="A997" s="6" t="s">
-        <v>1342</v>
+        <v>1779</v>
       </c>
       <c r="B997" s="3"/>
       <c r="C997" s="12"/>
       <c r="D997" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_WT_QUALITY_BEST</v>
+        <f t="shared" ref="D997:D1000" si="20">CONCATENATE( "Built-in Variable: ", A997 )</f>
+        <v>Built-in Variable: $NI_WT_FORM_FLIP</v>
       </c>
     </row>
     <row r="998" spans="1:4">
       <c r="A998" s="6" t="s">
-        <v>1851</v>
+        <v>1780</v>
       </c>
       <c r="B998" s="3"/>
       <c r="C998" s="12"/>
       <c r="D998" s="17" t="str">
-        <f t="shared" ref="D998" si="22">CONCATENATE( "Built-in Variable: ", A998 )</f>
-        <v>Built-in Variable: $NI_WT_QUALITY_HIGH</v>
+        <f t="shared" si="20"/>
+        <v>Built-in Variable: $NI_WT_FORM_LINEAR</v>
       </c>
     </row>
     <row r="999" spans="1:4">
       <c r="A999" s="6" t="s">
-        <v>1852</v>
+        <v>1781</v>
       </c>
       <c r="B999" s="3"/>
       <c r="C999" s="12"/>
       <c r="D999" s="17" t="str">
-        <f t="shared" ref="D999" si="23">CONCATENATE( "Built-in Variable: ", A999 )</f>
-        <v>Built-in Variable: $NI_WT_QUALITY_LOFI</v>
+        <f t="shared" si="20"/>
+        <v>Built-in Variable: $NI_WT_FORM_MIRROR</v>
       </c>
     </row>
     <row r="1000" spans="1:4">
       <c r="A1000" s="6" t="s">
-        <v>1853</v>
+        <v>1782</v>
       </c>
       <c r="B1000" s="3"/>
       <c r="C1000" s="12"/>
       <c r="D1000" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_WT_QUALITY_MEDIUM</v>
+        <f t="shared" si="20"/>
+        <v>Built-in Variable: $NI_WT_FORM_PWM</v>
       </c>
     </row>
     <row r="1001" spans="1:4">
       <c r="A1001" s="6" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="B1001" s="3"/>
       <c r="C1001" s="12"/>
       <c r="D1001" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_WT_VIS_2D</v>
+        <f t="shared" ref="D1001:D1004" si="21">CONCATENATE( "Built-in Variable: ", A1001 )</f>
+        <v>Built-in Variable: $NI_WT_FORM_QUANTIZE</v>
       </c>
     </row>
     <row r="1002" spans="1:4">
       <c r="A1002" s="6" t="s">
-        <v>1344</v>
+        <v>1783</v>
       </c>
       <c r="B1002" s="3"/>
       <c r="C1002" s="12"/>
       <c r="D1002" s="17" t="str">
-        <f t="shared" ref="D1002" si="24">CONCATENATE( "Built-in Variable: ", A1002 )</f>
-        <v>Built-in Variable: $NI_WT_VIS_3D</v>
+        <f t="shared" si="21"/>
+        <v>Built-in Variable: $NI_WT_FORM_SYNC1</v>
       </c>
     </row>
     <row r="1003" spans="1:4">
       <c r="A1003" s="6" t="s">
-        <v>2086</v>
+        <v>1784</v>
       </c>
       <c r="B1003" s="3"/>
       <c r="C1003" s="12"/>
       <c r="D1003" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_ZONE_STATUS_EMPTY</v>
+        <f t="shared" si="21"/>
+        <v>Built-in Variable: $NI_WT_FORM_SYNC2</v>
       </c>
     </row>
     <row r="1004" spans="1:4">
       <c r="A1004" s="6" t="s">
-        <v>2087</v>
+        <v>1785</v>
       </c>
       <c r="B1004" s="3"/>
       <c r="C1004" s="12"/>
       <c r="D1004" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_ZONE_STATUS_IGNORED</v>
+        <f t="shared" si="21"/>
+        <v>Built-in Variable: $NI_WT_FORM_SYNC3</v>
       </c>
     </row>
     <row r="1005" spans="1:4">
       <c r="A1005" s="6" t="s">
-        <v>2088</v>
+        <v>1342</v>
       </c>
       <c r="B1005" s="3"/>
       <c r="C1005" s="12"/>
       <c r="D1005" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_ZONE_STATUS_LOADED</v>
+        <v>Built-in Variable: $NI_WT_QUALITY_BEST</v>
       </c>
     </row>
     <row r="1006" spans="1:4">
       <c r="A1006" s="6" t="s">
-        <v>2089</v>
+        <v>1851</v>
       </c>
       <c r="B1006" s="3"/>
       <c r="C1006" s="12"/>
       <c r="D1006" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_ZONE_STATUS_PURGED</v>
+        <f t="shared" ref="D1006" si="22">CONCATENATE( "Built-in Variable: ", A1006 )</f>
+        <v>Built-in Variable: $NI_WT_QUALITY_HIGH</v>
       </c>
     </row>
     <row r="1007" spans="1:4">
       <c r="A1007" s="6" t="s">
-        <v>908</v>
+        <v>1852</v>
       </c>
       <c r="B1007" s="3"/>
       <c r="C1007" s="12"/>
       <c r="D1007" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>Built-in Variable: $NOTE_HELD</v>
+        <f t="shared" ref="D1007" si="23">CONCATENATE( "Built-in Variable: ", A1007 )</f>
+        <v>Built-in Variable: $NI_WT_QUALITY_LOFI</v>
       </c>
     </row>
     <row r="1008" spans="1:4">
       <c r="A1008" s="6" t="s">
-        <v>909</v>
+        <v>1853</v>
       </c>
       <c r="B1008" s="3"/>
       <c r="C1008" s="12"/>
       <c r="D1008" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NUM_GROUPS</v>
+        <v>Built-in Variable: $NI_WT_QUALITY_MEDIUM</v>
       </c>
     </row>
     <row r="1009" spans="1:4">
       <c r="A1009" s="6" t="s">
-        <v>2090</v>
+        <v>1343</v>
       </c>
       <c r="B1009" s="3"/>
       <c r="C1009" s="12"/>
       <c r="D1009" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NUM_KNOBS</v>
+        <v>Built-in Variable: $NI_WT_VIS_2D</v>
       </c>
     </row>
     <row r="1010" spans="1:4">
       <c r="A1010" s="6" t="s">
-        <v>910</v>
+        <v>1344</v>
       </c>
       <c r="B1010" s="3"/>
       <c r="C1010" s="12"/>
       <c r="D1010" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>Built-in Variable: $NUM_OUTPUT_CHANNELS</v>
+        <f t="shared" ref="D1010" si="24">CONCATENATE( "Built-in Variable: ", A1010 )</f>
+        <v>Built-in Variable: $NI_WT_VIS_3D</v>
       </c>
     </row>
     <row r="1011" spans="1:4">
       <c r="A1011" s="6" t="s">
-        <v>911</v>
+        <v>2086</v>
       </c>
       <c r="B1011" s="3"/>
       <c r="C1011" s="12"/>
       <c r="D1011" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NUM_ZONES</v>
+        <v>Built-in Variable: $NI_ZONE_STATUS_EMPTY</v>
       </c>
     </row>
     <row r="1012" spans="1:4">
       <c r="A1012" s="6" t="s">
-        <v>1930</v>
+        <v>2087</v>
       </c>
       <c r="B1012" s="3"/>
       <c r="C1012" s="12"/>
       <c r="D1012" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $OUTPUT_TYPE_AUX_OUT</v>
+        <v>Built-in Variable: $NI_ZONE_STATUS_IGNORED</v>
       </c>
     </row>
     <row r="1013" spans="1:4">
       <c r="A1013" s="6" t="s">
-        <v>1931</v>
+        <v>2088</v>
       </c>
       <c r="B1013" s="3"/>
       <c r="C1013" s="12"/>
       <c r="D1013" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $OUTPUT_TYPE_BUS_OUT</v>
+        <v>Built-in Variable: $NI_ZONE_STATUS_LOADED</v>
       </c>
     </row>
     <row r="1014" spans="1:4">
       <c r="A1014" s="6" t="s">
-        <v>1932</v>
+        <v>2089</v>
       </c>
       <c r="B1014" s="3"/>
       <c r="C1014" s="12"/>
       <c r="D1014" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $OUTPUT_TYPE_DEFAULT</v>
+        <v>Built-in Variable: $NI_ZONE_STATUS_PURGED</v>
       </c>
     </row>
     <row r="1015" spans="1:4">
       <c r="A1015" s="6" t="s">
-        <v>1933</v>
+        <v>2155</v>
       </c>
       <c r="B1015" s="3"/>
       <c r="C1015" s="12"/>
       <c r="D1015" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $OUTPUT_TYPE_MASTER_OUT</v>
+        <v>Built-in Variable: $NI_KONTAKT_IS_STANDALONE</v>
       </c>
     </row>
     <row r="1016" spans="1:4">
       <c r="A1016" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="B1016" s="3"/>
       <c r="C1016" s="12"/>
       <c r="D1016" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $PLAYED_VOICES_INST</v>
+        <v>Built-in Variable: $NOTE_HELD</v>
       </c>
     </row>
     <row r="1017" spans="1:4">
       <c r="A1017" s="6" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B1017" s="3"/>
       <c r="C1017" s="12"/>
       <c r="D1017" s="17" t="str">
-        <f t="shared" ref="D1017:D1080" si="25">CONCATENATE( "Built-in Variable: ", A1017 )</f>
-        <v>Built-in Variable: $PLAYED_VOICES_TOTAL</v>
+        <f t="shared" si="19"/>
+        <v>Built-in Variable: $NUM_GROUPS</v>
       </c>
     </row>
     <row r="1018" spans="1:4">
       <c r="A1018" s="6" t="s">
-        <v>914</v>
+        <v>2090</v>
       </c>
       <c r="B1018" s="3"/>
       <c r="C1018" s="12"/>
       <c r="D1018" s="17" t="str">
-        <f t="shared" si="25"/>
-        <v>Built-in Variable: $POLY_AT_NUM</v>
+        <f t="shared" si="19"/>
+        <v>Built-in Variable: $NUM_KNOBS</v>
       </c>
     </row>
     <row r="1019" spans="1:4">
       <c r="A1019" s="6" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B1019" s="3"/>
       <c r="C1019" s="12"/>
       <c r="D1019" s="17" t="str">
-        <f t="shared" si="25"/>
-        <v>Built-in Variable: $REF_GROUP_IDX</v>
+        <f t="shared" si="19"/>
+        <v>Built-in Variable: $NUM_OUTPUT_CHANNELS</v>
       </c>
     </row>
     <row r="1020" spans="1:4">
       <c r="A1020" s="6" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="B1020" s="3"/>
       <c r="C1020" s="12"/>
       <c r="D1020" s="17" t="str">
-        <f t="shared" si="25"/>
-        <v>Built-in Variable: $RPN_ADDRESS</v>
+        <f t="shared" si="19"/>
+        <v>Built-in Variable: $NUM_ZONES</v>
       </c>
     </row>
     <row r="1021" spans="1:4">
       <c r="A1021" s="6" t="s">
-        <v>917</v>
+        <v>1930</v>
       </c>
       <c r="B1021" s="3"/>
       <c r="C1021" s="12"/>
       <c r="D1021" s="17" t="str">
-        <f t="shared" si="25"/>
-        <v>Built-in Variable: $RPN_VALUE</v>
+        <f t="shared" si="19"/>
+        <v>Built-in Variable: $OUTPUT_TYPE_AUX_OUT</v>
       </c>
     </row>
     <row r="1022" spans="1:4">
       <c r="A1022" s="6" t="s">
-        <v>918</v>
+        <v>1931</v>
       </c>
       <c r="B1022" s="3"/>
       <c r="C1022" s="12"/>
       <c r="D1022" s="17" t="str">
-        <f t="shared" si="25"/>
-        <v>Built-in Variable: $SIGNATURE_DENOM</v>
+        <f t="shared" si="19"/>
+        <v>Built-in Variable: $OUTPUT_TYPE_BUS_OUT</v>
       </c>
     </row>
     <row r="1023" spans="1:4">
       <c r="A1023" s="6" t="s">
-        <v>919</v>
+        <v>1932</v>
       </c>
       <c r="B1023" s="3"/>
       <c r="C1023" s="12"/>
       <c r="D1023" s="17" t="str">
-        <f t="shared" si="25"/>
-        <v>Built-in Variable: $SIGNATURE_NUM</v>
+        <f t="shared" si="19"/>
+        <v>Built-in Variable: $OUTPUT_TYPE_DEFAULT</v>
       </c>
     </row>
     <row r="1024" spans="1:4">
       <c r="A1024" s="6" t="s">
-        <v>2091</v>
+        <v>1933</v>
       </c>
       <c r="B1024" s="3"/>
       <c r="C1024" s="12"/>
       <c r="D1024" s="17" t="str">
-        <f t="shared" si="25"/>
-        <v>Built-in Variable: $SLOT_IDX</v>
+        <f t="shared" si="19"/>
+        <v>Built-in Variable: $OUTPUT_TYPE_MASTER_OUT</v>
       </c>
     </row>
     <row r="1025" spans="1:4">
       <c r="A1025" s="6" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="B1025" s="3"/>
       <c r="C1025" s="12"/>
       <c r="D1025" s="17" t="str">
-        <f t="shared" si="25"/>
-        <v>Built-in Variable: $START_CRITERIA_AND_NEXT</v>
+        <f t="shared" si="19"/>
+        <v>Built-in Variable: $PLAYED_VOICES_INST</v>
       </c>
     </row>
     <row r="1026" spans="1:4">
       <c r="A1026" s="6" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B1026" s="3"/>
       <c r="C1026" s="12"/>
       <c r="D1026" s="17" t="str">
-        <f t="shared" si="25"/>
-        <v>Built-in Variable: $START_CRITERIA_AND_NOT_NEXT</v>
+        <f t="shared" ref="D1026:D1089" si="25">CONCATENATE( "Built-in Variable: ", A1026 )</f>
+        <v>Built-in Variable: $PLAYED_VOICES_TOTAL</v>
       </c>
     </row>
     <row r="1027" spans="1:4">
       <c r="A1027" s="6" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="B1027" s="3"/>
       <c r="C1027" s="12"/>
       <c r="D1027" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $START_CRITERIA_CYCLE_RANDOM</v>
+        <v>Built-in Variable: $POLY_AT_NUM</v>
       </c>
     </row>
     <row r="1028" spans="1:4">
       <c r="A1028" s="6" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="B1028" s="3"/>
       <c r="C1028" s="12"/>
       <c r="D1028" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $START_CRITERIA_CYCLE_ROUND_ROBIN</v>
+        <v>Built-in Variable: $REF_GROUP_IDX</v>
       </c>
     </row>
     <row r="1029" spans="1:4">
       <c r="A1029" s="6" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="B1029" s="3"/>
       <c r="C1029" s="12"/>
       <c r="D1029" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $START_CRITERIA_NONE</v>
+        <v>Built-in Variable: $RPN_ADDRESS</v>
       </c>
     </row>
     <row r="1030" spans="1:4">
       <c r="A1030" s="6" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="B1030" s="3"/>
       <c r="C1030" s="12"/>
       <c r="D1030" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $START_CRITERIA_ON_CONTROLLER</v>
+        <v>Built-in Variable: $RPN_VALUE</v>
       </c>
     </row>
     <row r="1031" spans="1:4">
       <c r="A1031" s="6" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="B1031" s="3"/>
       <c r="C1031" s="12"/>
       <c r="D1031" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $START_CRITERIA_ON_KEY</v>
+        <v>Built-in Variable: $SIGNATURE_DENOM</v>
       </c>
     </row>
     <row r="1032" spans="1:4">
       <c r="A1032" s="6" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="B1032" s="3"/>
       <c r="C1032" s="12"/>
       <c r="D1032" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $START_CRITERIA_OR_NEXT</v>
+        <v>Built-in Variable: $SIGNATURE_NUM</v>
       </c>
     </row>
     <row r="1033" spans="1:4">
       <c r="A1033" s="6" t="s">
-        <v>928</v>
+        <v>2091</v>
       </c>
       <c r="B1033" s="3"/>
       <c r="C1033" s="12"/>
       <c r="D1033" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $START_CRITERIA_SLICE_TRIGGER</v>
+        <v>Built-in Variable: $SLOT_IDX</v>
       </c>
     </row>
     <row r="1034" spans="1:4">
       <c r="A1034" s="6" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="B1034" s="3"/>
       <c r="C1034" s="12"/>
       <c r="D1034" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $UI_WAVEFORM_TABLE_IS_BIPOLAR</v>
+        <v>Built-in Variable: $START_CRITERIA_AND_NEXT</v>
       </c>
     </row>
     <row r="1035" spans="1:4">
       <c r="A1035" s="6" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="B1035" s="3"/>
       <c r="C1035" s="12"/>
       <c r="D1035" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $UI_WAVEFORM_USE_MIDI_DRAG</v>
+        <v>Built-in Variable: $START_CRITERIA_AND_NOT_NEXT</v>
       </c>
     </row>
     <row r="1036" spans="1:4">
       <c r="A1036" s="6" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="B1036" s="3"/>
       <c r="C1036" s="12"/>
       <c r="D1036" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $UI_WAVEFORM_USE_SLICES</v>
+        <v>Built-in Variable: $START_CRITERIA_CYCLE_RANDOM</v>
       </c>
     </row>
     <row r="1037" spans="1:4">
       <c r="A1037" s="6" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="B1037" s="3"/>
       <c r="C1037" s="12"/>
       <c r="D1037" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $UI_WAVEFORM_USE_TABLE</v>
+        <v>Built-in Variable: $START_CRITERIA_CYCLE_ROUND_ROBIN</v>
       </c>
     </row>
     <row r="1038" spans="1:4">
       <c r="A1038" s="6" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="B1038" s="3"/>
       <c r="C1038" s="12"/>
       <c r="D1038" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $UI_WF_PROP_FLAGS</v>
+        <v>Built-in Variable: $START_CRITERIA_NONE</v>
       </c>
     </row>
     <row r="1039" spans="1:4">
       <c r="A1039" s="6" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="B1039" s="3"/>
       <c r="C1039" s="12"/>
       <c r="D1039" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $UI_WF_PROP_MIDI_DRAG_START_NOTE</v>
+        <v>Built-in Variable: $START_CRITERIA_ON_CONTROLLER</v>
       </c>
     </row>
     <row r="1040" spans="1:4">
       <c r="A1040" s="6" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="B1040" s="3"/>
       <c r="C1040" s="12"/>
       <c r="D1040" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $UI_WF_PROP_PLAY_CURSOR</v>
+        <v>Built-in Variable: $START_CRITERIA_ON_KEY</v>
       </c>
     </row>
     <row r="1041" spans="1:4">
       <c r="A1041" s="6" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="B1041" s="3"/>
       <c r="C1041" s="12"/>
       <c r="D1041" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $UI_WF_PROP_TABLE_IDX_HIGHLIGHT</v>
+        <v>Built-in Variable: $START_CRITERIA_OR_NEXT</v>
       </c>
     </row>
     <row r="1042" spans="1:4">
       <c r="A1042" s="6" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="B1042" s="3"/>
       <c r="C1042" s="12"/>
       <c r="D1042" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $UI_WF_PROP_TABLE_VAL</v>
+        <v>Built-in Variable: $START_CRITERIA_SLICE_TRIGGER</v>
       </c>
     </row>
     <row r="1043" spans="1:4">
       <c r="A1043" s="6" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="B1043" s="3"/>
       <c r="C1043" s="12"/>
       <c r="D1043" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $VALUE_EDIT_MODE_NOTE_NAMES</v>
+        <v>Built-in Variable: $UI_WAVEFORM_TABLE_IS_BIPOLAR</v>
       </c>
     </row>
     <row r="1044" spans="1:4">
       <c r="A1044" s="6" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="B1044" s="3"/>
       <c r="C1044" s="12"/>
       <c r="D1044" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $VCC_MONO_AT</v>
+        <v>Built-in Variable: $UI_WAVEFORM_USE_MIDI_DRAG</v>
       </c>
     </row>
     <row r="1045" spans="1:4">
       <c r="A1045" s="6" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="B1045" s="3"/>
       <c r="C1045" s="12"/>
       <c r="D1045" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $VCC_PITCH_BEND</v>
+        <v>Built-in Variable: $UI_WAVEFORM_USE_SLICES</v>
       </c>
     </row>
     <row r="1046" spans="1:4">
       <c r="A1046" s="6" t="s">
-        <v>2092</v>
+        <v>932</v>
       </c>
       <c r="B1046" s="3"/>
       <c r="C1046" s="12"/>
       <c r="D1046" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_BPM</v>
+        <v>Built-in Variable: $UI_WAVEFORM_USE_TABLE</v>
       </c>
     </row>
     <row r="1047" spans="1:4">
       <c r="A1047" s="6" t="s">
-        <v>1741</v>
+        <v>933</v>
       </c>
       <c r="B1047" s="3"/>
       <c r="C1047" s="12"/>
       <c r="D1047" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_FADE_HIGH_KEY</v>
+        <v>Built-in Variable: $UI_WF_PROP_FLAGS</v>
       </c>
     </row>
     <row r="1048" spans="1:4">
       <c r="A1048" s="6" t="s">
-        <v>1742</v>
+        <v>934</v>
       </c>
       <c r="B1048" s="3"/>
       <c r="C1048" s="12"/>
       <c r="D1048" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_FADE_HIGH_VELO</v>
+        <v>Built-in Variable: $UI_WF_PROP_MIDI_DRAG_START_NOTE</v>
       </c>
     </row>
     <row r="1049" spans="1:4">
       <c r="A1049" s="6" t="s">
-        <v>1743</v>
+        <v>935</v>
       </c>
       <c r="B1049" s="3"/>
       <c r="C1049" s="12"/>
       <c r="D1049" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_FADE_LOW_KEY</v>
+        <v>Built-in Variable: $UI_WF_PROP_PLAY_CURSOR</v>
       </c>
     </row>
     <row r="1050" spans="1:4">
       <c r="A1050" s="6" t="s">
-        <v>1744</v>
+        <v>936</v>
       </c>
       <c r="B1050" s="3"/>
       <c r="C1050" s="12"/>
       <c r="D1050" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_FADE_LOW_VELO</v>
+        <v>Built-in Variable: $UI_WF_PROP_TABLE_IDX_HIGHLIGHT</v>
       </c>
     </row>
     <row r="1051" spans="1:4">
       <c r="A1051" s="6" t="s">
-        <v>1745</v>
+        <v>937</v>
       </c>
       <c r="B1051" s="3"/>
       <c r="C1051" s="12"/>
       <c r="D1051" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_GROUP</v>
+        <v>Built-in Variable: $UI_WF_PROP_TABLE_VAL</v>
       </c>
     </row>
     <row r="1052" spans="1:4">
       <c r="A1052" s="6" t="s">
-        <v>1746</v>
+        <v>938</v>
       </c>
       <c r="B1052" s="3"/>
       <c r="C1052" s="12"/>
       <c r="D1052" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_HIGH_KEY</v>
+        <v>Built-in Variable: $VALUE_EDIT_MODE_NOTE_NAMES</v>
       </c>
     </row>
     <row r="1053" spans="1:4">
       <c r="A1053" s="6" t="s">
-        <v>1747</v>
+        <v>939</v>
       </c>
       <c r="B1053" s="3"/>
       <c r="C1053" s="12"/>
       <c r="D1053" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_HIGH_VELO</v>
+        <v>Built-in Variable: $VCC_MONO_AT</v>
       </c>
     </row>
     <row r="1054" spans="1:4">
       <c r="A1054" s="6" t="s">
-        <v>1748</v>
+        <v>940</v>
       </c>
       <c r="B1054" s="3"/>
       <c r="C1054" s="12"/>
       <c r="D1054" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_LOW_KEY</v>
+        <v>Built-in Variable: $VCC_PITCH_BEND</v>
       </c>
     </row>
     <row r="1055" spans="1:4">
       <c r="A1055" s="6" t="s">
-        <v>1749</v>
+        <v>2092</v>
       </c>
       <c r="B1055" s="3"/>
       <c r="C1055" s="12"/>
       <c r="D1055" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_LOW_VELO</v>
+        <v>Built-in Variable: $ZONE_PAR_BPM</v>
       </c>
     </row>
     <row r="1056" spans="1:4">
       <c r="A1056" s="6" t="s">
-        <v>1750</v>
+        <v>1741</v>
       </c>
       <c r="B1056" s="3"/>
       <c r="C1056" s="12"/>
       <c r="D1056" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_PAN</v>
+        <v>Built-in Variable: $ZONE_PAR_FADE_HIGH_KEY</v>
       </c>
     </row>
     <row r="1057" spans="1:4">
       <c r="A1057" s="6" t="s">
-        <v>1751</v>
+        <v>1742</v>
       </c>
       <c r="B1057" s="3"/>
       <c r="C1057" s="12"/>
       <c r="D1057" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_ROOT_KEY</v>
+        <v>Built-in Variable: $ZONE_PAR_FADE_HIGH_VELO</v>
       </c>
     </row>
     <row r="1058" spans="1:4">
       <c r="A1058" s="6" t="s">
-        <v>1752</v>
+        <v>1743</v>
       </c>
       <c r="B1058" s="3"/>
       <c r="C1058" s="12"/>
       <c r="D1058" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_SAMPLE_END</v>
+        <v>Built-in Variable: $ZONE_PAR_FADE_LOW_KEY</v>
       </c>
     </row>
     <row r="1059" spans="1:4">
       <c r="A1059" s="6" t="s">
-        <v>1753</v>
+        <v>1744</v>
       </c>
       <c r="B1059" s="3"/>
       <c r="C1059" s="12"/>
       <c r="D1059" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_SAMPLE_MOD_RANGE</v>
+        <v>Built-in Variable: $ZONE_PAR_FADE_LOW_VELO</v>
       </c>
     </row>
     <row r="1060" spans="1:4">
       <c r="A1060" s="6" t="s">
-        <v>2093</v>
+        <v>1745</v>
       </c>
       <c r="B1060" s="3"/>
       <c r="C1060" s="12"/>
       <c r="D1060" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_SAMPLE_RATE</v>
+        <v>Built-in Variable: $ZONE_PAR_GROUP</v>
       </c>
     </row>
     <row r="1061" spans="1:4">
       <c r="A1061" s="6" t="s">
-        <v>1754</v>
+        <v>1746</v>
       </c>
       <c r="B1061" s="3"/>
       <c r="C1061" s="12"/>
       <c r="D1061" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_SAMPLE_START</v>
+        <v>Built-in Variable: $ZONE_PAR_HIGH_KEY</v>
       </c>
     </row>
     <row r="1062" spans="1:4">
       <c r="A1062" s="6" t="s">
-        <v>1755</v>
+        <v>1747</v>
       </c>
       <c r="B1062" s="3"/>
       <c r="C1062" s="12"/>
       <c r="D1062" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_TUNE</v>
+        <v>Built-in Variable: $ZONE_PAR_HIGH_VELO</v>
       </c>
     </row>
     <row r="1063" spans="1:4">
       <c r="A1063" s="6" t="s">
-        <v>1756</v>
+        <v>1748</v>
       </c>
       <c r="B1063" s="3"/>
       <c r="C1063" s="12"/>
       <c r="D1063" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_VOLUME</v>
+        <v>Built-in Variable: $ZONE_PAR_LOW_KEY</v>
       </c>
     </row>
     <row r="1064" spans="1:4">
       <c r="A1064" s="6" t="s">
-        <v>1197</v>
+        <v>1749</v>
       </c>
       <c r="B1064" s="3"/>
       <c r="C1064" s="12"/>
       <c r="D1064" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: %CC</v>
+        <v>Built-in Variable: $ZONE_PAR_LOW_VELO</v>
       </c>
     </row>
     <row r="1065" spans="1:4">
       <c r="A1065" s="6" t="s">
-        <v>1198</v>
+        <v>1750</v>
       </c>
       <c r="B1065" s="3"/>
       <c r="C1065" s="12"/>
       <c r="D1065" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: %CC_TOUCHED</v>
+        <v>Built-in Variable: $ZONE_PAR_PAN</v>
       </c>
     </row>
     <row r="1066" spans="1:4">
       <c r="A1066" s="6" t="s">
-        <v>2094</v>
+        <v>1751</v>
       </c>
       <c r="B1066" s="3"/>
       <c r="C1066" s="12"/>
       <c r="D1066" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: %EVENT_PAR</v>
+        <v>Built-in Variable: $ZONE_PAR_ROOT_KEY</v>
       </c>
     </row>
     <row r="1067" spans="1:4">
       <c r="A1067" s="6" t="s">
-        <v>1199</v>
+        <v>1752</v>
       </c>
       <c r="B1067" s="3"/>
       <c r="C1067" s="12"/>
       <c r="D1067" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: %GROUPS_AFFECTED</v>
+        <v>Built-in Variable: $ZONE_PAR_SAMPLE_END</v>
       </c>
     </row>
     <row r="1068" spans="1:4">
       <c r="A1068" s="6" t="s">
-        <v>1200</v>
+        <v>1753</v>
       </c>
       <c r="B1068" s="3"/>
       <c r="C1068" s="12"/>
       <c r="D1068" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: %GROUPS_SELECTED</v>
+        <v>Built-in Variable: $ZONE_PAR_SAMPLE_MOD_RANGE</v>
       </c>
     </row>
     <row r="1069" spans="1:4">
       <c r="A1069" s="6" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="B1069" s="3"/>
       <c r="C1069" s="12"/>
       <c r="D1069" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: %ID</v>
+        <v>Built-in Variable: $ZONE_PAR_SAMPLE_RATE</v>
       </c>
     </row>
     <row r="1070" spans="1:4">
       <c r="A1070" s="6" t="s">
-        <v>1201</v>
+        <v>1754</v>
       </c>
       <c r="B1070" s="3"/>
       <c r="C1070" s="12"/>
       <c r="D1070" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: %KEY_DOWN</v>
+        <v>Built-in Variable: $ZONE_PAR_SAMPLE_START</v>
       </c>
     </row>
     <row r="1071" spans="1:4">
       <c r="A1071" s="6" t="s">
-        <v>1202</v>
+        <v>1755</v>
       </c>
       <c r="B1071" s="3"/>
       <c r="C1071" s="12"/>
       <c r="D1071" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: %KEY_DOWN_OCT</v>
+        <v>Built-in Variable: $ZONE_PAR_TUNE</v>
       </c>
     </row>
     <row r="1072" spans="1:4">
       <c r="A1072" s="6" t="s">
-        <v>2096</v>
+        <v>1756</v>
       </c>
       <c r="B1072" s="3"/>
       <c r="C1072" s="12"/>
       <c r="D1072" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: %NI_USER_ZONE_IDS</v>
+        <v>Built-in Variable: $ZONE_PAR_VOLUME</v>
       </c>
     </row>
     <row r="1073" spans="1:4">
       <c r="A1073" s="6" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="B1073" s="3"/>
       <c r="C1073" s="12"/>
       <c r="D1073" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: %NOTE_DURATION</v>
+        <v>Built-in Variable: %CC</v>
       </c>
     </row>
     <row r="1074" spans="1:4">
       <c r="A1074" s="6" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="B1074" s="3"/>
       <c r="C1074" s="12"/>
       <c r="D1074" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: %POLY_AT</v>
+        <v>Built-in Variable: %CC_TOUCHED</v>
       </c>
     </row>
     <row r="1075" spans="1:4">
       <c r="A1075" s="6" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
       <c r="B1075" s="3"/>
       <c r="C1075" s="12"/>
       <c r="D1075" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: ?XY1</v>
+        <v>Built-in Variable: %EVENT_PAR</v>
       </c>
     </row>
     <row r="1076" spans="1:4">
       <c r="A1076" s="6" t="s">
-        <v>2098</v>
+        <v>1199</v>
       </c>
       <c r="B1076" s="3"/>
       <c r="C1076" s="12"/>
       <c r="D1076" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: ~NI_DETECT_DRUM_TYPE_INVALID</v>
+        <v>Built-in Variable: %GROUPS_AFFECTED</v>
       </c>
     </row>
     <row r="1077" spans="1:4">
       <c r="A1077" s="6" t="s">
-        <v>1734</v>
+        <v>1200</v>
       </c>
       <c r="B1077" s="3"/>
       <c r="C1077" s="12"/>
       <c r="D1077" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: ~NI_DETECT_LOUDNESS_INVALID</v>
+        <v>Built-in Variable: %GROUPS_SELECTED</v>
       </c>
     </row>
     <row r="1078" spans="1:4">
       <c r="A1078" s="6" t="s">
-        <v>1735</v>
+        <v>2095</v>
       </c>
       <c r="B1078" s="3"/>
       <c r="C1078" s="12"/>
       <c r="D1078" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: ~NI_DETECT_PEAK_INVALID</v>
+        <v>Built-in Variable: %ID</v>
       </c>
     </row>
     <row r="1079" spans="1:4">
       <c r="A1079" s="6" t="s">
-        <v>1736</v>
+        <v>1201</v>
       </c>
       <c r="B1079" s="3"/>
       <c r="C1079" s="12"/>
       <c r="D1079" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: ~NI_DETECT_PITCH_INVALID</v>
+        <v>Built-in Variable: %KEY_DOWN</v>
       </c>
     </row>
     <row r="1080" spans="1:4">
       <c r="A1080" s="6" t="s">
-        <v>1737</v>
+        <v>1202</v>
       </c>
       <c r="B1080" s="3"/>
       <c r="C1080" s="12"/>
       <c r="D1080" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: ~NI_DETECT_RMS_INVALID</v>
+        <v>Built-in Variable: %KEY_DOWN_OCT</v>
       </c>
     </row>
     <row r="1081" spans="1:4">
       <c r="A1081" s="6" t="s">
-        <v>941</v>
+        <v>2096</v>
       </c>
       <c r="B1081" s="3"/>
       <c r="C1081" s="12"/>
       <c r="D1081" s="17" t="str">
-        <f t="shared" ref="D1081:D1082" si="26">CONCATENATE( "Built-in Variable: ", A1081 )</f>
-        <v>Built-in Variable: ~NI_MATH_E</v>
+        <f t="shared" si="25"/>
+        <v>Built-in Variable: %NI_USER_ZONE_IDS</v>
       </c>
     </row>
     <row r="1082" spans="1:4">
       <c r="A1082" s="6" t="s">
-        <v>942</v>
+        <v>1203</v>
       </c>
       <c r="B1082" s="3"/>
       <c r="C1082" s="12"/>
       <c r="D1082" s="17" t="str">
+        <f t="shared" si="25"/>
+        <v>Built-in Variable: %NOTE_DURATION</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4">
+      <c r="A1083" s="6" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B1083" s="3"/>
+      <c r="C1083" s="12"/>
+      <c r="D1083" s="17" t="str">
+        <f t="shared" si="25"/>
+        <v>Built-in Variable: %POLY_AT</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4">
+      <c r="A1084" s="6" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B1084" s="3"/>
+      <c r="C1084" s="12"/>
+      <c r="D1084" s="17" t="str">
+        <f t="shared" si="25"/>
+        <v>Built-in Variable: ?XY1</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4">
+      <c r="A1085" s="6" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B1085" s="3"/>
+      <c r="C1085" s="12"/>
+      <c r="D1085" s="17" t="str">
+        <f t="shared" si="25"/>
+        <v>Built-in Variable: ~NI_DETECT_DRUM_TYPE_INVALID</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4">
+      <c r="A1086" s="6" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B1086" s="3"/>
+      <c r="C1086" s="12"/>
+      <c r="D1086" s="17" t="str">
+        <f t="shared" si="25"/>
+        <v>Built-in Variable: ~NI_DETECT_LOUDNESS_INVALID</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4">
+      <c r="A1087" s="6" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B1087" s="3"/>
+      <c r="C1087" s="12"/>
+      <c r="D1087" s="17" t="str">
+        <f t="shared" si="25"/>
+        <v>Built-in Variable: ~NI_DETECT_PEAK_INVALID</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4">
+      <c r="A1088" s="6" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B1088" s="3"/>
+      <c r="C1088" s="12"/>
+      <c r="D1088" s="17" t="str">
+        <f t="shared" si="25"/>
+        <v>Built-in Variable: ~NI_DETECT_PITCH_INVALID</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4">
+      <c r="A1089" s="6" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B1089" s="3"/>
+      <c r="C1089" s="12"/>
+      <c r="D1089" s="17" t="str">
+        <f t="shared" si="25"/>
+        <v>Built-in Variable: ~NI_DETECT_RMS_INVALID</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:4">
+      <c r="A1090" s="6" t="s">
+        <v>941</v>
+      </c>
+      <c r="B1090" s="3"/>
+      <c r="C1090" s="12"/>
+      <c r="D1090" s="17" t="str">
+        <f t="shared" ref="D1090:D1091" si="26">CONCATENATE( "Built-in Variable: ", A1090 )</f>
+        <v>Built-in Variable: ~NI_MATH_E</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:4">
+      <c r="A1091" s="6" t="s">
+        <v>942</v>
+      </c>
+      <c r="B1091" s="3"/>
+      <c r="C1091" s="12"/>
+      <c r="D1091" s="17" t="str">
         <f t="shared" si="26"/>
         <v>Built-in Variable: ~NI_MATH_PI</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D971" xr:uid="{C8AC4DF4-6292-AD40-89F2-2BD447F1EC09}"/>
+  <autoFilter ref="A1:D979" xr:uid="{C8AC4DF4-6292-AD40-89F2-2BD447F1EC09}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:A20">
     <sortCondition ref="A20"/>
   </sortState>

--- a/data/KSP_Completion.xlsx
+++ b/data/KSP_Completion.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B353D5F5-7AA7-4AC3-AAC6-A963D81D02D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725307B5-949D-4D57-8DDB-7C0085DDF2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="4212" windowWidth="34560" windowHeight="19140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="2283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="2283">
   <si>
     <t>description</t>
     <phoneticPr fontId="3"/>
@@ -12413,13 +12413,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9BD1D8-D860-9845-B2DE-1D2AC2DDC7F1}">
-  <dimension ref="A1:D1209"/>
+  <dimension ref="A1:D1206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1176" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1109" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="A1188" sqref="A1188"/>
+      <selection pane="bottomRight" activeCell="A1117" sqref="A1117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.26953125" defaultRowHeight="19.8"/>
@@ -24199,7 +24199,7 @@
       <c r="B1070" s="3"/>
       <c r="C1070" s="12"/>
       <c r="D1070" s="17" t="str">
-        <f t="shared" ref="D1070:D1142" si="19">CONCATENATE( "Built-in Variable: ", A1070 )</f>
+        <f t="shared" ref="D1070:D1139" si="19">CONCATENATE( "Built-in Variable: ", A1070 )</f>
         <v>Built-in Variable: $NI_SYNC_UNIT_QUARTER_TRIPLET</v>
       </c>
     </row>
@@ -24634,1100 +24634,1067 @@
     </row>
     <row r="1110" spans="1:4">
       <c r="A1110" s="6" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="B1110" s="3"/>
       <c r="C1110" s="12"/>
       <c r="D1110" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_DIRT_MODE_I</v>
+        <v>Built-in Variable: $NI_DIRT_MODE_II</v>
       </c>
     </row>
     <row r="1111" spans="1:4">
       <c r="A1111" s="6" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="B1111" s="3"/>
       <c r="C1111" s="12"/>
       <c r="D1111" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_DIRT_MODE_II</v>
+        <v>Built-in Variable: $NI_DIRT_MODE_III</v>
       </c>
     </row>
     <row r="1112" spans="1:4">
       <c r="A1112" s="6" t="s">
-        <v>2261</v>
+        <v>2263</v>
       </c>
       <c r="B1112" s="3"/>
       <c r="C1112" s="12"/>
       <c r="D1112" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_DIRT_MODE_II</v>
+        <v>Built-in Variable: $NI_DIRT_ROUTING_ATOB</v>
       </c>
     </row>
     <row r="1113" spans="1:4">
       <c r="A1113" s="6" t="s">
-        <v>2262</v>
+        <v>2264</v>
       </c>
       <c r="B1113" s="3"/>
       <c r="C1113" s="12"/>
       <c r="D1113" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_DIRT_MODE_III</v>
+        <v>Built-in Variable: $NI_DIRT_ROUTING_BTOA</v>
       </c>
     </row>
     <row r="1114" spans="1:4">
       <c r="A1114" s="6" t="s">
-        <v>2262</v>
+        <v>2265</v>
       </c>
       <c r="B1114" s="3"/>
       <c r="C1114" s="12"/>
       <c r="D1114" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_DIRT_MODE_III</v>
+        <v>Built-in Variable: $NI_DIRT_ROUTING_PARALLEL</v>
       </c>
     </row>
     <row r="1115" spans="1:4">
       <c r="A1115" s="6" t="s">
-        <v>2263</v>
+        <v>2266</v>
       </c>
       <c r="B1115" s="3"/>
       <c r="C1115" s="12"/>
       <c r="D1115" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_DIRT_ROUTING_ATOB</v>
+        <v>Built-in Variable: $NI_FREAK_MODE_OSCILLATOR</v>
       </c>
     </row>
     <row r="1116" spans="1:4">
       <c r="A1116" s="6" t="s">
-        <v>2264</v>
+        <v>2267</v>
       </c>
       <c r="B1116" s="3"/>
       <c r="C1116" s="12"/>
       <c r="D1116" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_DIRT_ROUTING_BTOA</v>
+        <v>Built-in Variable: $NI_FREAK_MODE_RADIO</v>
       </c>
     </row>
     <row r="1117" spans="1:4">
       <c r="A1117" s="6" t="s">
-        <v>2265</v>
+        <v>2268</v>
       </c>
       <c r="B1117" s="3"/>
       <c r="C1117" s="12"/>
       <c r="D1117" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_DIRT_ROUTING_PARALLEL</v>
+        <v>Built-in Variable: $NI_FREAK_MODE_SIDECHAIN</v>
       </c>
     </row>
     <row r="1118" spans="1:4">
       <c r="A1118" s="6" t="s">
-        <v>2266</v>
+        <v>2269</v>
       </c>
       <c r="B1118" s="3"/>
       <c r="C1118" s="12"/>
       <c r="D1118" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_FREAK_MODE_OSCILLATOR</v>
+        <v>Built-in Variable: $NI_RAUM_TYPE_AIRY</v>
       </c>
     </row>
     <row r="1119" spans="1:4">
       <c r="A1119" s="6" t="s">
-        <v>2267</v>
+        <v>2270</v>
       </c>
       <c r="B1119" s="3"/>
       <c r="C1119" s="12"/>
       <c r="D1119" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_FREAK_MODE_RADIO</v>
+        <v>Built-in Variable: $NI_RAUM_TYPE_COSMIC</v>
       </c>
     </row>
     <row r="1120" spans="1:4">
       <c r="A1120" s="6" t="s">
-        <v>2268</v>
+        <v>2271</v>
       </c>
       <c r="B1120" s="3"/>
       <c r="C1120" s="12"/>
       <c r="D1120" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_FREAK_MODE_SIDECHAIN</v>
+        <v>Built-in Variable: $NI_RAUM_TYPE_GROUNDED</v>
       </c>
     </row>
     <row r="1121" spans="1:4">
       <c r="A1121" s="6" t="s">
-        <v>2269</v>
+        <v>2272</v>
       </c>
       <c r="B1121" s="3"/>
       <c r="C1121" s="12"/>
       <c r="D1121" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_RAUM_TYPE_AIRY</v>
+        <v>Built-in Variable: $NI_VC_COLOR_TYPE_A</v>
       </c>
     </row>
     <row r="1122" spans="1:4">
       <c r="A1122" s="6" t="s">
-        <v>2270</v>
+        <v>2273</v>
       </c>
       <c r="B1122" s="3"/>
       <c r="C1122" s="12"/>
       <c r="D1122" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_RAUM_TYPE_COSMIC</v>
+        <v>Built-in Variable: $NI_VC_COLOR_TYPE_B</v>
       </c>
     </row>
     <row r="1123" spans="1:4">
       <c r="A1123" s="6" t="s">
-        <v>2271</v>
+        <v>2274</v>
       </c>
       <c r="B1123" s="3"/>
       <c r="C1123" s="12"/>
       <c r="D1123" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_RAUM_TYPE_GROUNDED</v>
+        <v>Built-in Variable: $NI_VC_COLOR_TYPE_C</v>
       </c>
     </row>
     <row r="1124" spans="1:4">
       <c r="A1124" s="6" t="s">
-        <v>2272</v>
+        <v>2275</v>
       </c>
       <c r="B1124" s="3"/>
       <c r="C1124" s="12"/>
       <c r="D1124" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_VC_COLOR_TYPE_A</v>
+        <v>Built-in Variable: $NI_VC_DEPTH_1</v>
       </c>
     </row>
     <row r="1125" spans="1:4">
       <c r="A1125" s="6" t="s">
-        <v>2273</v>
+        <v>2276</v>
       </c>
       <c r="B1125" s="3"/>
       <c r="C1125" s="12"/>
       <c r="D1125" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_VC_COLOR_TYPE_B</v>
+        <v>Built-in Variable: $NI_VC_DEPTH_2</v>
       </c>
     </row>
     <row r="1126" spans="1:4">
       <c r="A1126" s="6" t="s">
-        <v>2274</v>
+        <v>2277</v>
       </c>
       <c r="B1126" s="3"/>
       <c r="C1126" s="12"/>
       <c r="D1126" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_VC_COLOR_TYPE_C</v>
+        <v>Built-in Variable: $NI_VC_DEPTH_3</v>
       </c>
     </row>
     <row r="1127" spans="1:4">
       <c r="A1127" s="6" t="s">
-        <v>2275</v>
+        <v>2278</v>
       </c>
       <c r="B1127" s="3"/>
       <c r="C1127" s="12"/>
       <c r="D1127" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_VC_DEPTH_1</v>
+        <v>Built-in Variable: $NI_VC_DEPTH_4</v>
       </c>
     </row>
     <row r="1128" spans="1:4">
       <c r="A1128" s="6" t="s">
-        <v>2276</v>
+        <v>2279</v>
       </c>
       <c r="B1128" s="3"/>
       <c r="C1128" s="12"/>
       <c r="D1128" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_VC_DEPTH_2</v>
+        <v>Built-in Variable: $NI_VC_DEPTH_5</v>
       </c>
     </row>
     <row r="1129" spans="1:4">
       <c r="A1129" s="6" t="s">
-        <v>2277</v>
+        <v>2280</v>
       </c>
       <c r="B1129" s="3"/>
       <c r="C1129" s="12"/>
       <c r="D1129" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_VC_DEPTH_3</v>
+        <v>Built-in Variable: $NI_VC_DEPTH_6</v>
       </c>
     </row>
     <row r="1130" spans="1:4">
       <c r="A1130" s="6" t="s">
-        <v>2278</v>
+        <v>908</v>
       </c>
       <c r="B1130" s="3"/>
       <c r="C1130" s="12"/>
       <c r="D1130" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_VC_DEPTH_4</v>
+        <v>Built-in Variable: $NOTE_HELD</v>
       </c>
     </row>
     <row r="1131" spans="1:4">
       <c r="A1131" s="6" t="s">
-        <v>2279</v>
+        <v>909</v>
       </c>
       <c r="B1131" s="3"/>
       <c r="C1131" s="12"/>
       <c r="D1131" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_VC_DEPTH_5</v>
+        <v>Built-in Variable: $NUM_GROUPS</v>
       </c>
     </row>
     <row r="1132" spans="1:4">
       <c r="A1132" s="6" t="s">
-        <v>2280</v>
+        <v>2089</v>
       </c>
       <c r="B1132" s="3"/>
       <c r="C1132" s="12"/>
       <c r="D1132" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NI_VC_DEPTH_6</v>
+        <v>Built-in Variable: $NUM_KNOBS</v>
       </c>
     </row>
     <row r="1133" spans="1:4">
       <c r="A1133" s="6" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B1133" s="3"/>
       <c r="C1133" s="12"/>
       <c r="D1133" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NOTE_HELD</v>
+        <v>Built-in Variable: $NUM_OUTPUT_CHANNELS</v>
       </c>
     </row>
     <row r="1134" spans="1:4">
       <c r="A1134" s="6" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B1134" s="3"/>
       <c r="C1134" s="12"/>
       <c r="D1134" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NUM_GROUPS</v>
+        <v>Built-in Variable: $NUM_ZONES</v>
       </c>
     </row>
     <row r="1135" spans="1:4">
       <c r="A1135" s="6" t="s">
-        <v>2089</v>
+        <v>1929</v>
       </c>
       <c r="B1135" s="3"/>
       <c r="C1135" s="12"/>
       <c r="D1135" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NUM_KNOBS</v>
+        <v>Built-in Variable: $OUTPUT_TYPE_AUX_OUT</v>
       </c>
     </row>
     <row r="1136" spans="1:4">
       <c r="A1136" s="6" t="s">
-        <v>910</v>
+        <v>1930</v>
       </c>
       <c r="B1136" s="3"/>
       <c r="C1136" s="12"/>
       <c r="D1136" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NUM_OUTPUT_CHANNELS</v>
+        <v>Built-in Variable: $OUTPUT_TYPE_BUS_OUT</v>
       </c>
     </row>
     <row r="1137" spans="1:4">
       <c r="A1137" s="6" t="s">
-        <v>911</v>
+        <v>1931</v>
       </c>
       <c r="B1137" s="3"/>
       <c r="C1137" s="12"/>
       <c r="D1137" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $NUM_ZONES</v>
+        <v>Built-in Variable: $OUTPUT_TYPE_DEFAULT</v>
       </c>
     </row>
     <row r="1138" spans="1:4">
       <c r="A1138" s="6" t="s">
-        <v>1929</v>
+        <v>1932</v>
       </c>
       <c r="B1138" s="3"/>
       <c r="C1138" s="12"/>
       <c r="D1138" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $OUTPUT_TYPE_AUX_OUT</v>
+        <v>Built-in Variable: $OUTPUT_TYPE_MASTER_OUT</v>
       </c>
     </row>
     <row r="1139" spans="1:4">
       <c r="A1139" s="6" t="s">
-        <v>1930</v>
+        <v>912</v>
       </c>
       <c r="B1139" s="3"/>
       <c r="C1139" s="12"/>
       <c r="D1139" s="17" t="str">
         <f t="shared" si="19"/>
-        <v>Built-in Variable: $OUTPUT_TYPE_BUS_OUT</v>
+        <v>Built-in Variable: $PLAYED_VOICES_INST</v>
       </c>
     </row>
     <row r="1140" spans="1:4">
       <c r="A1140" s="6" t="s">
-        <v>1931</v>
+        <v>913</v>
       </c>
       <c r="B1140" s="3"/>
       <c r="C1140" s="12"/>
       <c r="D1140" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>Built-in Variable: $OUTPUT_TYPE_DEFAULT</v>
+        <f t="shared" ref="D1140:D1204" si="25">CONCATENATE( "Built-in Variable: ", A1140 )</f>
+        <v>Built-in Variable: $PLAYED_VOICES_TOTAL</v>
       </c>
     </row>
     <row r="1141" spans="1:4">
       <c r="A1141" s="6" t="s">
-        <v>1932</v>
+        <v>914</v>
       </c>
       <c r="B1141" s="3"/>
       <c r="C1141" s="12"/>
       <c r="D1141" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>Built-in Variable: $OUTPUT_TYPE_MASTER_OUT</v>
+        <f t="shared" si="25"/>
+        <v>Built-in Variable: $POLY_AT_NUM</v>
       </c>
     </row>
     <row r="1142" spans="1:4">
       <c r="A1142" s="6" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="B1142" s="3"/>
       <c r="C1142" s="12"/>
       <c r="D1142" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>Built-in Variable: $PLAYED_VOICES_INST</v>
+        <f t="shared" si="25"/>
+        <v>Built-in Variable: $REF_GROUP_IDX</v>
       </c>
     </row>
     <row r="1143" spans="1:4">
       <c r="A1143" s="6" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="B1143" s="3"/>
       <c r="C1143" s="12"/>
       <c r="D1143" s="17" t="str">
-        <f t="shared" ref="D1143:D1207" si="25">CONCATENATE( "Built-in Variable: ", A1143 )</f>
-        <v>Built-in Variable: $PLAYED_VOICES_TOTAL</v>
+        <f t="shared" si="25"/>
+        <v>Built-in Variable: $RPN_ADDRESS</v>
       </c>
     </row>
     <row r="1144" spans="1:4">
       <c r="A1144" s="6" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="B1144" s="3"/>
       <c r="C1144" s="12"/>
       <c r="D1144" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $POLY_AT_NUM</v>
+        <v>Built-in Variable: $RPN_VALUE</v>
       </c>
     </row>
     <row r="1145" spans="1:4">
       <c r="A1145" s="6" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="B1145" s="3"/>
       <c r="C1145" s="12"/>
       <c r="D1145" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $REF_GROUP_IDX</v>
+        <v>Built-in Variable: $SIGNATURE_DENOM</v>
       </c>
     </row>
     <row r="1146" spans="1:4">
       <c r="A1146" s="6" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="B1146" s="3"/>
       <c r="C1146" s="12"/>
       <c r="D1146" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $RPN_ADDRESS</v>
+        <v>Built-in Variable: $SIGNATURE_NUM</v>
       </c>
     </row>
     <row r="1147" spans="1:4">
       <c r="A1147" s="6" t="s">
-        <v>917</v>
+        <v>2090</v>
       </c>
       <c r="B1147" s="3"/>
       <c r="C1147" s="12"/>
       <c r="D1147" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $RPN_VALUE</v>
+        <v>Built-in Variable: $SLOT_IDX</v>
       </c>
     </row>
     <row r="1148" spans="1:4">
       <c r="A1148" s="6" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B1148" s="3"/>
       <c r="C1148" s="12"/>
       <c r="D1148" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $SIGNATURE_DENOM</v>
+        <v>Built-in Variable: $START_CRITERIA_AND_NEXT</v>
       </c>
     </row>
     <row r="1149" spans="1:4">
       <c r="A1149" s="6" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B1149" s="3"/>
       <c r="C1149" s="12"/>
       <c r="D1149" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $SIGNATURE_NUM</v>
+        <v>Built-in Variable: $START_CRITERIA_AND_NOT_NEXT</v>
       </c>
     </row>
     <row r="1150" spans="1:4">
       <c r="A1150" s="6" t="s">
-        <v>2090</v>
+        <v>922</v>
       </c>
       <c r="B1150" s="3"/>
       <c r="C1150" s="12"/>
       <c r="D1150" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $SLOT_IDX</v>
+        <v>Built-in Variable: $START_CRITERIA_CYCLE_RANDOM</v>
       </c>
     </row>
     <row r="1151" spans="1:4">
       <c r="A1151" s="6" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="B1151" s="3"/>
       <c r="C1151" s="12"/>
       <c r="D1151" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $START_CRITERIA_AND_NEXT</v>
+        <v>Built-in Variable: $START_CRITERIA_CYCLE_ROUND_ROBIN</v>
       </c>
     </row>
     <row r="1152" spans="1:4">
       <c r="A1152" s="6" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="B1152" s="3"/>
       <c r="C1152" s="12"/>
       <c r="D1152" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $START_CRITERIA_AND_NOT_NEXT</v>
+        <v>Built-in Variable: $START_CRITERIA_NONE</v>
       </c>
     </row>
     <row r="1153" spans="1:4">
       <c r="A1153" s="6" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="B1153" s="3"/>
       <c r="C1153" s="12"/>
       <c r="D1153" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $START_CRITERIA_CYCLE_RANDOM</v>
+        <v>Built-in Variable: $START_CRITERIA_ON_CONTROLLER</v>
       </c>
     </row>
     <row r="1154" spans="1:4">
       <c r="A1154" s="6" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="B1154" s="3"/>
       <c r="C1154" s="12"/>
       <c r="D1154" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $START_CRITERIA_CYCLE_ROUND_ROBIN</v>
+        <v>Built-in Variable: $START_CRITERIA_ON_KEY</v>
       </c>
     </row>
     <row r="1155" spans="1:4">
       <c r="A1155" s="6" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="B1155" s="3"/>
       <c r="C1155" s="12"/>
       <c r="D1155" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $START_CRITERIA_NONE</v>
+        <v>Built-in Variable: $START_CRITERIA_OR_NEXT</v>
       </c>
     </row>
     <row r="1156" spans="1:4">
       <c r="A1156" s="6" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="B1156" s="3"/>
       <c r="C1156" s="12"/>
       <c r="D1156" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $START_CRITERIA_ON_CONTROLLER</v>
+        <v>Built-in Variable: $START_CRITERIA_SLICE_TRIGGER</v>
       </c>
     </row>
     <row r="1157" spans="1:4">
       <c r="A1157" s="6" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="B1157" s="3"/>
       <c r="C1157" s="12"/>
       <c r="D1157" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $START_CRITERIA_ON_KEY</v>
+        <v>Built-in Variable: $UI_WAVEFORM_TABLE_IS_BIPOLAR</v>
       </c>
     </row>
     <row r="1158" spans="1:4">
       <c r="A1158" s="6" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="B1158" s="3"/>
       <c r="C1158" s="12"/>
       <c r="D1158" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $START_CRITERIA_OR_NEXT</v>
+        <v>Built-in Variable: $UI_WAVEFORM_USE_MIDI_DRAG</v>
       </c>
     </row>
     <row r="1159" spans="1:4">
       <c r="A1159" s="6" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="B1159" s="3"/>
       <c r="C1159" s="12"/>
       <c r="D1159" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $START_CRITERIA_SLICE_TRIGGER</v>
+        <v>Built-in Variable: $UI_WAVEFORM_USE_SLICES</v>
       </c>
     </row>
     <row r="1160" spans="1:4">
       <c r="A1160" s="6" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="B1160" s="3"/>
       <c r="C1160" s="12"/>
       <c r="D1160" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $UI_WAVEFORM_TABLE_IS_BIPOLAR</v>
+        <v>Built-in Variable: $UI_WAVEFORM_USE_TABLE</v>
       </c>
     </row>
     <row r="1161" spans="1:4">
       <c r="A1161" s="6" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="B1161" s="3"/>
       <c r="C1161" s="12"/>
       <c r="D1161" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $UI_WAVEFORM_USE_MIDI_DRAG</v>
+        <v>Built-in Variable: $UI_WF_PROP_FLAGS</v>
       </c>
     </row>
     <row r="1162" spans="1:4">
       <c r="A1162" s="6" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="B1162" s="3"/>
       <c r="C1162" s="12"/>
       <c r="D1162" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $UI_WAVEFORM_USE_SLICES</v>
+        <v>Built-in Variable: $UI_WF_PROP_MIDI_DRAG_START_NOTE</v>
       </c>
     </row>
     <row r="1163" spans="1:4">
       <c r="A1163" s="6" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="B1163" s="3"/>
       <c r="C1163" s="12"/>
       <c r="D1163" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $UI_WAVEFORM_USE_TABLE</v>
+        <v>Built-in Variable: $UI_WF_PROP_PLAY_CURSOR</v>
       </c>
     </row>
     <row r="1164" spans="1:4">
       <c r="A1164" s="6" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="B1164" s="3"/>
       <c r="C1164" s="12"/>
       <c r="D1164" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $UI_WF_PROP_FLAGS</v>
+        <v>Built-in Variable: $UI_WF_PROP_TABLE_IDX_HIGHLIGHT</v>
       </c>
     </row>
     <row r="1165" spans="1:4">
       <c r="A1165" s="6" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="B1165" s="3"/>
       <c r="C1165" s="12"/>
       <c r="D1165" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $UI_WF_PROP_MIDI_DRAG_START_NOTE</v>
+        <v>Built-in Variable: $UI_WF_PROP_TABLE_VAL</v>
       </c>
     </row>
     <row r="1166" spans="1:4">
       <c r="A1166" s="6" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="B1166" s="3"/>
       <c r="C1166" s="12"/>
       <c r="D1166" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $UI_WF_PROP_PLAY_CURSOR</v>
+        <v>Built-in Variable: $VALUE_EDIT_MODE_NOTE_NAMES</v>
       </c>
     </row>
     <row r="1167" spans="1:4">
       <c r="A1167" s="6" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="B1167" s="3"/>
       <c r="C1167" s="12"/>
       <c r="D1167" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $UI_WF_PROP_TABLE_IDX_HIGHLIGHT</v>
+        <v>Built-in Variable: $VCC_MONO_AT</v>
       </c>
     </row>
     <row r="1168" spans="1:4">
       <c r="A1168" s="6" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="B1168" s="3"/>
       <c r="C1168" s="12"/>
       <c r="D1168" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $UI_WF_PROP_TABLE_VAL</v>
+        <v>Built-in Variable: $VCC_PITCH_BEND</v>
       </c>
     </row>
     <row r="1169" spans="1:4">
       <c r="A1169" s="6" t="s">
-        <v>938</v>
+        <v>2091</v>
       </c>
       <c r="B1169" s="3"/>
       <c r="C1169" s="12"/>
       <c r="D1169" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $VALUE_EDIT_MODE_NOTE_NAMES</v>
+        <v>Built-in Variable: $ZONE_PAR_BPM</v>
       </c>
     </row>
     <row r="1170" spans="1:4">
       <c r="A1170" s="6" t="s">
-        <v>939</v>
+        <v>1740</v>
       </c>
       <c r="B1170" s="3"/>
       <c r="C1170" s="12"/>
       <c r="D1170" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $VCC_MONO_AT</v>
+        <v>Built-in Variable: $ZONE_PAR_FADE_HIGH_KEY</v>
       </c>
     </row>
     <row r="1171" spans="1:4">
       <c r="A1171" s="6" t="s">
-        <v>940</v>
+        <v>1741</v>
       </c>
       <c r="B1171" s="3"/>
       <c r="C1171" s="12"/>
       <c r="D1171" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $VCC_PITCH_BEND</v>
+        <v>Built-in Variable: $ZONE_PAR_FADE_HIGH_VELO</v>
       </c>
     </row>
     <row r="1172" spans="1:4">
       <c r="A1172" s="6" t="s">
-        <v>2091</v>
+        <v>1742</v>
       </c>
       <c r="B1172" s="3"/>
       <c r="C1172" s="12"/>
       <c r="D1172" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_BPM</v>
+        <v>Built-in Variable: $ZONE_PAR_FADE_LOW_KEY</v>
       </c>
     </row>
     <row r="1173" spans="1:4">
       <c r="A1173" s="6" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="B1173" s="3"/>
       <c r="C1173" s="12"/>
       <c r="D1173" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_FADE_HIGH_KEY</v>
+        <v>Built-in Variable: $ZONE_PAR_FADE_LOW_VELO</v>
       </c>
     </row>
     <row r="1174" spans="1:4">
       <c r="A1174" s="6" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="B1174" s="3"/>
       <c r="C1174" s="12"/>
       <c r="D1174" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_FADE_HIGH_VELO</v>
+        <v>Built-in Variable: $ZONE_PAR_GROUP</v>
       </c>
     </row>
     <row r="1175" spans="1:4">
       <c r="A1175" s="6" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="B1175" s="3"/>
       <c r="C1175" s="12"/>
       <c r="D1175" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_FADE_LOW_KEY</v>
+        <v>Built-in Variable: $ZONE_PAR_HIGH_KEY</v>
       </c>
     </row>
     <row r="1176" spans="1:4">
       <c r="A1176" s="6" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="B1176" s="3"/>
       <c r="C1176" s="12"/>
       <c r="D1176" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_FADE_LOW_VELO</v>
+        <v>Built-in Variable: $ZONE_PAR_HIGH_VELO</v>
       </c>
     </row>
     <row r="1177" spans="1:4">
       <c r="A1177" s="6" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="B1177" s="3"/>
       <c r="C1177" s="12"/>
       <c r="D1177" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_GROUP</v>
+        <v>Built-in Variable: $ZONE_PAR_LOW_KEY</v>
       </c>
     </row>
     <row r="1178" spans="1:4">
       <c r="A1178" s="6" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B1178" s="3"/>
       <c r="C1178" s="12"/>
       <c r="D1178" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_HIGH_KEY</v>
+        <v>Built-in Variable: $ZONE_PAR_LOW_VELO</v>
       </c>
     </row>
     <row r="1179" spans="1:4">
       <c r="A1179" s="6" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="B1179" s="3"/>
       <c r="C1179" s="12"/>
       <c r="D1179" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_HIGH_VELO</v>
+        <v>Built-in Variable: $ZONE_PAR_PAN</v>
       </c>
     </row>
     <row r="1180" spans="1:4">
       <c r="A1180" s="6" t="s">
-        <v>1747</v>
+        <v>1750</v>
       </c>
       <c r="B1180" s="3"/>
       <c r="C1180" s="12"/>
       <c r="D1180" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_LOW_KEY</v>
+        <v>Built-in Variable: $ZONE_PAR_ROOT_KEY</v>
       </c>
     </row>
     <row r="1181" spans="1:4">
       <c r="A1181" s="6" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="B1181" s="3"/>
       <c r="C1181" s="12"/>
       <c r="D1181" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_LOW_VELO</v>
+        <v>Built-in Variable: $ZONE_PAR_SAMPLE_END</v>
       </c>
     </row>
     <row r="1182" spans="1:4">
       <c r="A1182" s="6" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
       <c r="B1182" s="3"/>
       <c r="C1182" s="12"/>
       <c r="D1182" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_PAN</v>
+        <v>Built-in Variable: $ZONE_PAR_SAMPLE_MOD_RANGE</v>
       </c>
     </row>
     <row r="1183" spans="1:4">
       <c r="A1183" s="6" t="s">
-        <v>1750</v>
+        <v>2092</v>
       </c>
       <c r="B1183" s="3"/>
       <c r="C1183" s="12"/>
       <c r="D1183" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_ROOT_KEY</v>
+        <v>Built-in Variable: $ZONE_PAR_SAMPLE_RATE</v>
       </c>
     </row>
     <row r="1184" spans="1:4">
       <c r="A1184" s="6" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="B1184" s="3"/>
       <c r="C1184" s="12"/>
       <c r="D1184" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_SAMPLE_END</v>
+        <v>Built-in Variable: $ZONE_PAR_SAMPLE_START</v>
       </c>
     </row>
     <row r="1185" spans="1:4">
       <c r="A1185" s="6" t="s">
-        <v>1752</v>
+        <v>2282</v>
       </c>
       <c r="B1185" s="3"/>
       <c r="C1185" s="12"/>
       <c r="D1185" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_SAMPLE_MOD_RANGE</v>
+        <v>Built-in Variable: $ZONE_PAR_SELECTED</v>
       </c>
     </row>
     <row r="1186" spans="1:4">
       <c r="A1186" s="6" t="s">
-        <v>2092</v>
+        <v>1754</v>
       </c>
       <c r="B1186" s="3"/>
       <c r="C1186" s="12"/>
       <c r="D1186" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_SAMPLE_RATE</v>
+        <v>Built-in Variable: $ZONE_PAR_TUNE</v>
       </c>
     </row>
     <row r="1187" spans="1:4">
       <c r="A1187" s="6" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="B1187" s="3"/>
       <c r="C1187" s="12"/>
       <c r="D1187" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_SAMPLE_START</v>
+        <v>Built-in Variable: $ZONE_PAR_VOLUME</v>
       </c>
     </row>
     <row r="1188" spans="1:4">
       <c r="A1188" s="6" t="s">
-        <v>2282</v>
+        <v>1196</v>
       </c>
       <c r="B1188" s="3"/>
       <c r="C1188" s="12"/>
       <c r="D1188" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_SELECTED</v>
+        <v>Built-in Variable: %CC</v>
       </c>
     </row>
     <row r="1189" spans="1:4">
       <c r="A1189" s="6" t="s">
-        <v>1754</v>
+        <v>1197</v>
       </c>
       <c r="B1189" s="3"/>
       <c r="C1189" s="12"/>
       <c r="D1189" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_TUNE</v>
+        <v>Built-in Variable: %CC_TOUCHED</v>
       </c>
     </row>
     <row r="1190" spans="1:4">
       <c r="A1190" s="6" t="s">
-        <v>1755</v>
+        <v>2093</v>
       </c>
       <c r="B1190" s="3"/>
       <c r="C1190" s="12"/>
       <c r="D1190" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: $ZONE_PAR_VOLUME</v>
+        <v>Built-in Variable: %EVENT_PAR</v>
       </c>
     </row>
     <row r="1191" spans="1:4">
       <c r="A1191" s="6" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="B1191" s="3"/>
       <c r="C1191" s="12"/>
       <c r="D1191" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: %CC</v>
+        <v>Built-in Variable: %GROUPS_AFFECTED</v>
       </c>
     </row>
     <row r="1192" spans="1:4">
       <c r="A1192" s="6" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="B1192" s="3"/>
       <c r="C1192" s="12"/>
       <c r="D1192" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: %CC_TOUCHED</v>
+        <v>Built-in Variable: %GROUPS_SELECTED</v>
       </c>
     </row>
     <row r="1193" spans="1:4">
       <c r="A1193" s="6" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="B1193" s="3"/>
       <c r="C1193" s="12"/>
       <c r="D1193" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: %EVENT_PAR</v>
+        <v>Built-in Variable: %ID</v>
       </c>
     </row>
     <row r="1194" spans="1:4">
       <c r="A1194" s="6" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="B1194" s="3"/>
       <c r="C1194" s="12"/>
       <c r="D1194" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: %GROUPS_AFFECTED</v>
+        <v>Built-in Variable: %KEY_DOWN</v>
       </c>
     </row>
     <row r="1195" spans="1:4">
       <c r="A1195" s="6" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="B1195" s="3"/>
       <c r="C1195" s="12"/>
       <c r="D1195" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: %GROUPS_SELECTED</v>
+        <v>Built-in Variable: %KEY_DOWN_OCT</v>
       </c>
     </row>
     <row r="1196" spans="1:4">
       <c r="A1196" s="6" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="B1196" s="3"/>
       <c r="C1196" s="12"/>
       <c r="D1196" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: %ID</v>
+        <v>Built-in Variable: %NI_USER_ZONE_IDS</v>
       </c>
     </row>
     <row r="1197" spans="1:4">
       <c r="A1197" s="6" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="B1197" s="3"/>
       <c r="C1197" s="12"/>
       <c r="D1197" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: %KEY_DOWN</v>
+        <v>Built-in Variable: %NOTE_DURATION</v>
       </c>
     </row>
     <row r="1198" spans="1:4">
       <c r="A1198" s="6" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="B1198" s="3"/>
       <c r="C1198" s="12"/>
       <c r="D1198" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: %KEY_DOWN_OCT</v>
+        <v>Built-in Variable: %POLY_AT</v>
       </c>
     </row>
     <row r="1199" spans="1:4">
       <c r="A1199" s="6" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="B1199" s="3"/>
       <c r="C1199" s="12"/>
       <c r="D1199" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: %NI_USER_ZONE_IDS</v>
+        <v>Built-in Variable: ?XY1</v>
       </c>
     </row>
     <row r="1200" spans="1:4">
       <c r="A1200" s="6" t="s">
-        <v>1202</v>
+        <v>2097</v>
       </c>
       <c r="B1200" s="3"/>
       <c r="C1200" s="12"/>
       <c r="D1200" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: %NOTE_DURATION</v>
+        <v>Built-in Variable: ~NI_DETECT_DRUM_TYPE_INVALID</v>
       </c>
     </row>
     <row r="1201" spans="1:4">
       <c r="A1201" s="6" t="s">
-        <v>1203</v>
+        <v>1733</v>
       </c>
       <c r="B1201" s="3"/>
       <c r="C1201" s="12"/>
       <c r="D1201" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: %POLY_AT</v>
+        <v>Built-in Variable: ~NI_DETECT_LOUDNESS_INVALID</v>
       </c>
     </row>
     <row r="1202" spans="1:4">
       <c r="A1202" s="6" t="s">
-        <v>2096</v>
+        <v>1734</v>
       </c>
       <c r="B1202" s="3"/>
       <c r="C1202" s="12"/>
       <c r="D1202" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: ?XY1</v>
+        <v>Built-in Variable: ~NI_DETECT_PEAK_INVALID</v>
       </c>
     </row>
     <row r="1203" spans="1:4">
       <c r="A1203" s="6" t="s">
-        <v>2097</v>
+        <v>1735</v>
       </c>
       <c r="B1203" s="3"/>
       <c r="C1203" s="12"/>
       <c r="D1203" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: ~NI_DETECT_DRUM_TYPE_INVALID</v>
+        <v>Built-in Variable: ~NI_DETECT_PITCH_INVALID</v>
       </c>
     </row>
     <row r="1204" spans="1:4">
       <c r="A1204" s="6" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="B1204" s="3"/>
       <c r="C1204" s="12"/>
       <c r="D1204" s="17" t="str">
         <f t="shared" si="25"/>
-        <v>Built-in Variable: ~NI_DETECT_LOUDNESS_INVALID</v>
+        <v>Built-in Variable: ~NI_DETECT_RMS_INVALID</v>
       </c>
     </row>
     <row r="1205" spans="1:4">
       <c r="A1205" s="6" t="s">
-        <v>1734</v>
+        <v>941</v>
       </c>
       <c r="B1205" s="3"/>
       <c r="C1205" s="12"/>
       <c r="D1205" s="17" t="str">
-        <f t="shared" si="25"/>
-        <v>Built-in Variable: ~NI_DETECT_PEAK_INVALID</v>
+        <f t="shared" ref="D1205:D1206" si="26">CONCATENATE( "Built-in Variable: ", A1205 )</f>
+        <v>Built-in Variable: ~NI_MATH_E</v>
       </c>
     </row>
     <row r="1206" spans="1:4">
       <c r="A1206" s="6" t="s">
-        <v>1735</v>
+        <v>942</v>
       </c>
       <c r="B1206" s="3"/>
       <c r="C1206" s="12"/>
       <c r="D1206" s="17" t="str">
-        <f t="shared" si="25"/>
-        <v>Built-in Variable: ~NI_DETECT_PITCH_INVALID</v>
-      </c>
-    </row>
-    <row r="1207" spans="1:4">
-      <c r="A1207" s="6" t="s">
-        <v>1736</v>
-      </c>
-      <c r="B1207" s="3"/>
-      <c r="C1207" s="12"/>
-      <c r="D1207" s="17" t="str">
-        <f t="shared" si="25"/>
-        <v>Built-in Variable: ~NI_DETECT_RMS_INVALID</v>
-      </c>
-    </row>
-    <row r="1208" spans="1:4">
-      <c r="A1208" s="6" t="s">
-        <v>941</v>
-      </c>
-      <c r="B1208" s="3"/>
-      <c r="C1208" s="12"/>
-      <c r="D1208" s="17" t="str">
-        <f t="shared" ref="D1208:D1209" si="26">CONCATENATE( "Built-in Variable: ", A1208 )</f>
-        <v>Built-in Variable: ~NI_MATH_E</v>
-      </c>
-    </row>
-    <row r="1209" spans="1:4">
-      <c r="A1209" s="6" t="s">
-        <v>942</v>
-      </c>
-      <c r="B1209" s="3"/>
-      <c r="C1209" s="12"/>
-      <c r="D1209" s="17" t="str">
         <f t="shared" si="26"/>
         <v>Built-in Variable: ~NI_MATH_PI</v>
       </c>

--- a/data/KSP_Completion.xlsx
+++ b/data/KSP_Completion.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725307B5-949D-4D57-8DDB-7C0085DDF2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602081D0-59C7-214C-95F8-B2FA17790853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="4212" windowWidth="34560" windowHeight="19140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Command" sheetId="6" r:id="rId1"/>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="2283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="2286">
   <si>
     <t>description</t>
     <phoneticPr fontId="3"/>
@@ -7294,6 +7294,18 @@
   </si>
   <si>
     <t>$ZONE_PAR_SELECTED</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$CONTROL_PAR_TYPE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$CONTROL_PAR_CUSTOM_ID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$NI_UI_ID</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -7811,12 +7823,12 @@
       <selection pane="bottomRight" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.26953125" defaultRowHeight="19.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="33.26953125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="82.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.7265625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="207.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="82.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="207.42578125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -9699,7 +9711,7 @@
       </c>
       <c r="E128" s="23"/>
     </row>
-    <row r="129" spans="1:5" ht="39.6">
+    <row r="129" spans="1:5" ht="38">
       <c r="A129" s="6" t="s">
         <v>219</v>
       </c>
@@ -9963,7 +9975,7 @@
       </c>
       <c r="E146" s="23"/>
     </row>
-    <row r="147" spans="1:5" ht="59.4">
+    <row r="147" spans="1:5" ht="57">
       <c r="A147" s="6" t="s">
         <v>251</v>
       </c>
@@ -9978,7 +9990,7 @@
       </c>
       <c r="E147" s="23"/>
     </row>
-    <row r="148" spans="1:5" ht="99">
+    <row r="148" spans="1:5" ht="95">
       <c r="A148" s="6" t="s">
         <v>253</v>
       </c>
@@ -10319,7 +10331,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="138.6">
+    <row r="171" spans="1:5" ht="133">
       <c r="A171" s="6" t="s">
         <v>2124</v>
       </c>
@@ -10334,7 +10346,7 @@
       </c>
       <c r="E171" s="23"/>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" ht="19">
       <c r="A172" s="6" t="s">
         <v>2158</v>
       </c>
@@ -11180,7 +11192,7 @@
       </c>
       <c r="E227" s="23"/>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" ht="19">
       <c r="A228" s="6" t="s">
         <v>337</v>
       </c>
@@ -11195,7 +11207,7 @@
       </c>
       <c r="E228" s="23"/>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" ht="19">
       <c r="A229" s="6" t="s">
         <v>339</v>
       </c>
@@ -11210,7 +11222,7 @@
       </c>
       <c r="E229" s="23"/>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" ht="19">
       <c r="A230" s="6" t="s">
         <v>946</v>
       </c>
@@ -11832,7 +11844,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="59.4">
+    <row r="274" spans="1:5" ht="57">
       <c r="A274" s="6" t="s">
         <v>1329</v>
       </c>
@@ -12413,21 +12425,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9BD1D8-D860-9845-B2DE-1D2AC2DDC7F1}">
-  <dimension ref="A1:D1206"/>
+  <dimension ref="A1:D1500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1109" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1175" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="A1117" sqref="A1117"/>
+      <selection pane="bottomRight" activeCell="A1210" sqref="A1210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.26953125" defaultRowHeight="19.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="45.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.26953125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="4.26953125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="67.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.28515625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -25684,7 +25696,7 @@
       <c r="B1205" s="3"/>
       <c r="C1205" s="12"/>
       <c r="D1205" s="17" t="str">
-        <f t="shared" ref="D1205:D1206" si="26">CONCATENATE( "Built-in Variable: ", A1205 )</f>
+        <f t="shared" ref="D1205:D1210" si="26">CONCATENATE( "Built-in Variable: ", A1205 )</f>
         <v>Built-in Variable: ~NI_MATH_E</v>
       </c>
     </row>
@@ -25698,6 +25710,1785 @@
         <f t="shared" si="26"/>
         <v>Built-in Variable: ~NI_MATH_PI</v>
       </c>
+    </row>
+    <row r="1207" spans="1:4">
+      <c r="A1207" s="6" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B1207" s="3"/>
+      <c r="C1207" s="12"/>
+      <c r="D1207" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $CONTROL_PAR_TYPE</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:4">
+      <c r="A1208" s="6" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B1208" s="3"/>
+      <c r="C1208" s="12"/>
+      <c r="D1208" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $CONTROL_PAR_CUSTOM_ID</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:4">
+      <c r="A1209" s="6" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B1209" s="3"/>
+      <c r="C1209" s="12"/>
+      <c r="D1209" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $NI_UI_ID</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:4">
+      <c r="A1210" s="6"/>
+      <c r="B1210" s="3"/>
+      <c r="C1210" s="12"/>
+      <c r="D1210" s="6"/>
+    </row>
+    <row r="1211" spans="1:4">
+      <c r="A1211" s="6"/>
+      <c r="B1211" s="3"/>
+      <c r="C1211" s="12"/>
+      <c r="D1211" s="6"/>
+    </row>
+    <row r="1212" spans="1:4">
+      <c r="A1212" s="6"/>
+      <c r="B1212" s="3"/>
+      <c r="C1212" s="12"/>
+      <c r="D1212" s="6"/>
+    </row>
+    <row r="1213" spans="1:4">
+      <c r="A1213" s="6"/>
+      <c r="B1213" s="3"/>
+      <c r="C1213" s="12"/>
+      <c r="D1213" s="6"/>
+    </row>
+    <row r="1214" spans="1:4">
+      <c r="A1214" s="6"/>
+      <c r="B1214" s="3"/>
+      <c r="C1214" s="12"/>
+      <c r="D1214" s="6"/>
+    </row>
+    <row r="1215" spans="1:4">
+      <c r="A1215" s="6"/>
+      <c r="B1215" s="3"/>
+      <c r="C1215" s="12"/>
+      <c r="D1215" s="6"/>
+    </row>
+    <row r="1216" spans="1:4">
+      <c r="A1216" s="6"/>
+      <c r="B1216" s="3"/>
+      <c r="C1216" s="12"/>
+      <c r="D1216" s="6"/>
+    </row>
+    <row r="1217" spans="1:4">
+      <c r="A1217" s="6"/>
+      <c r="B1217" s="3"/>
+      <c r="C1217" s="12"/>
+      <c r="D1217" s="6"/>
+    </row>
+    <row r="1218" spans="1:4">
+      <c r="A1218" s="6"/>
+      <c r="B1218" s="3"/>
+      <c r="C1218" s="12"/>
+      <c r="D1218" s="6"/>
+    </row>
+    <row r="1219" spans="1:4">
+      <c r="A1219" s="6"/>
+      <c r="B1219" s="3"/>
+      <c r="C1219" s="12"/>
+      <c r="D1219" s="6"/>
+    </row>
+    <row r="1220" spans="1:4">
+      <c r="A1220" s="6"/>
+      <c r="B1220" s="3"/>
+      <c r="C1220" s="12"/>
+      <c r="D1220" s="6"/>
+    </row>
+    <row r="1221" spans="1:4">
+      <c r="A1221" s="6"/>
+      <c r="B1221" s="3"/>
+      <c r="C1221" s="12"/>
+      <c r="D1221" s="6"/>
+    </row>
+    <row r="1222" spans="1:4">
+      <c r="A1222" s="6"/>
+      <c r="B1222" s="3"/>
+      <c r="C1222" s="12"/>
+      <c r="D1222" s="6"/>
+    </row>
+    <row r="1223" spans="1:4">
+      <c r="A1223" s="6"/>
+      <c r="B1223" s="3"/>
+      <c r="C1223" s="12"/>
+      <c r="D1223" s="6"/>
+    </row>
+    <row r="1224" spans="1:4">
+      <c r="A1224" s="6"/>
+      <c r="B1224" s="3"/>
+      <c r="C1224" s="12"/>
+      <c r="D1224" s="6"/>
+    </row>
+    <row r="1225" spans="1:4">
+      <c r="A1225" s="6"/>
+      <c r="B1225" s="3"/>
+      <c r="C1225" s="12"/>
+      <c r="D1225" s="6"/>
+    </row>
+    <row r="1226" spans="1:4">
+      <c r="A1226" s="6"/>
+      <c r="B1226" s="3"/>
+      <c r="C1226" s="12"/>
+      <c r="D1226" s="6"/>
+    </row>
+    <row r="1227" spans="1:4">
+      <c r="A1227" s="6"/>
+      <c r="B1227" s="3"/>
+      <c r="C1227" s="12"/>
+      <c r="D1227" s="6"/>
+    </row>
+    <row r="1228" spans="1:4">
+      <c r="A1228" s="6"/>
+      <c r="B1228" s="3"/>
+      <c r="C1228" s="12"/>
+      <c r="D1228" s="6"/>
+    </row>
+    <row r="1229" spans="1:4">
+      <c r="A1229" s="6"/>
+      <c r="B1229" s="3"/>
+      <c r="C1229" s="12"/>
+      <c r="D1229" s="6"/>
+    </row>
+    <row r="1230" spans="1:4">
+      <c r="A1230" s="6"/>
+      <c r="B1230" s="3"/>
+      <c r="C1230" s="12"/>
+      <c r="D1230" s="6"/>
+    </row>
+    <row r="1231" spans="1:4">
+      <c r="A1231" s="6"/>
+      <c r="B1231" s="3"/>
+      <c r="C1231" s="12"/>
+      <c r="D1231" s="6"/>
+    </row>
+    <row r="1232" spans="1:4">
+      <c r="A1232" s="6"/>
+      <c r="B1232" s="3"/>
+      <c r="C1232" s="12"/>
+      <c r="D1232" s="6"/>
+    </row>
+    <row r="1233" spans="1:4">
+      <c r="A1233" s="6"/>
+      <c r="B1233" s="3"/>
+      <c r="C1233" s="12"/>
+      <c r="D1233" s="6"/>
+    </row>
+    <row r="1234" spans="1:4">
+      <c r="A1234" s="6"/>
+      <c r="B1234" s="3"/>
+      <c r="C1234" s="12"/>
+      <c r="D1234" s="6"/>
+    </row>
+    <row r="1235" spans="1:4">
+      <c r="A1235" s="6"/>
+      <c r="B1235" s="3"/>
+      <c r="C1235" s="12"/>
+      <c r="D1235" s="6"/>
+    </row>
+    <row r="1236" spans="1:4">
+      <c r="A1236" s="6"/>
+      <c r="B1236" s="3"/>
+      <c r="C1236" s="12"/>
+      <c r="D1236" s="6"/>
+    </row>
+    <row r="1237" spans="1:4">
+      <c r="A1237" s="6"/>
+      <c r="B1237" s="3"/>
+      <c r="C1237" s="12"/>
+      <c r="D1237" s="6"/>
+    </row>
+    <row r="1238" spans="1:4">
+      <c r="A1238" s="6"/>
+      <c r="B1238" s="3"/>
+      <c r="C1238" s="12"/>
+      <c r="D1238" s="6"/>
+    </row>
+    <row r="1239" spans="1:4">
+      <c r="A1239" s="6"/>
+      <c r="B1239" s="3"/>
+      <c r="C1239" s="12"/>
+      <c r="D1239" s="6"/>
+    </row>
+    <row r="1240" spans="1:4">
+      <c r="A1240" s="6"/>
+      <c r="B1240" s="3"/>
+      <c r="C1240" s="12"/>
+      <c r="D1240" s="6"/>
+    </row>
+    <row r="1241" spans="1:4">
+      <c r="A1241" s="6"/>
+      <c r="B1241" s="3"/>
+      <c r="C1241" s="12"/>
+      <c r="D1241" s="6"/>
+    </row>
+    <row r="1242" spans="1:4">
+      <c r="A1242" s="6"/>
+      <c r="B1242" s="3"/>
+      <c r="C1242" s="12"/>
+      <c r="D1242" s="6"/>
+    </row>
+    <row r="1243" spans="1:4">
+      <c r="A1243" s="6"/>
+      <c r="B1243" s="3"/>
+      <c r="C1243" s="12"/>
+      <c r="D1243" s="6"/>
+    </row>
+    <row r="1244" spans="1:4">
+      <c r="A1244" s="6"/>
+      <c r="B1244" s="3"/>
+      <c r="C1244" s="12"/>
+      <c r="D1244" s="6"/>
+    </row>
+    <row r="1245" spans="1:4">
+      <c r="A1245" s="6"/>
+      <c r="B1245" s="3"/>
+      <c r="C1245" s="12"/>
+      <c r="D1245" s="6"/>
+    </row>
+    <row r="1246" spans="1:4">
+      <c r="A1246" s="6"/>
+      <c r="B1246" s="3"/>
+      <c r="C1246" s="12"/>
+      <c r="D1246" s="6"/>
+    </row>
+    <row r="1247" spans="1:4">
+      <c r="A1247" s="6"/>
+      <c r="B1247" s="3"/>
+      <c r="C1247" s="12"/>
+      <c r="D1247" s="6"/>
+    </row>
+    <row r="1248" spans="1:4">
+      <c r="A1248" s="6"/>
+      <c r="B1248" s="3"/>
+      <c r="C1248" s="12"/>
+      <c r="D1248" s="6"/>
+    </row>
+    <row r="1249" spans="1:4">
+      <c r="A1249" s="6"/>
+      <c r="B1249" s="3"/>
+      <c r="C1249" s="12"/>
+      <c r="D1249" s="6"/>
+    </row>
+    <row r="1250" spans="1:4">
+      <c r="A1250" s="6"/>
+      <c r="B1250" s="3"/>
+      <c r="C1250" s="12"/>
+      <c r="D1250" s="6"/>
+    </row>
+    <row r="1251" spans="1:4">
+      <c r="A1251" s="6"/>
+      <c r="B1251" s="3"/>
+      <c r="C1251" s="12"/>
+      <c r="D1251" s="6"/>
+    </row>
+    <row r="1252" spans="1:4">
+      <c r="A1252" s="6"/>
+      <c r="B1252" s="3"/>
+      <c r="C1252" s="12"/>
+      <c r="D1252" s="6"/>
+    </row>
+    <row r="1253" spans="1:4">
+      <c r="A1253" s="6"/>
+      <c r="B1253" s="3"/>
+      <c r="C1253" s="12"/>
+      <c r="D1253" s="6"/>
+    </row>
+    <row r="1254" spans="1:4">
+      <c r="A1254" s="6"/>
+      <c r="B1254" s="3"/>
+      <c r="C1254" s="12"/>
+      <c r="D1254" s="6"/>
+    </row>
+    <row r="1255" spans="1:4">
+      <c r="A1255" s="6"/>
+      <c r="B1255" s="3"/>
+      <c r="C1255" s="12"/>
+      <c r="D1255" s="6"/>
+    </row>
+    <row r="1256" spans="1:4">
+      <c r="A1256" s="6"/>
+      <c r="B1256" s="3"/>
+      <c r="C1256" s="12"/>
+      <c r="D1256" s="6"/>
+    </row>
+    <row r="1257" spans="1:4">
+      <c r="A1257" s="6"/>
+      <c r="B1257" s="3"/>
+      <c r="C1257" s="12"/>
+      <c r="D1257" s="6"/>
+    </row>
+    <row r="1258" spans="1:4">
+      <c r="A1258" s="6"/>
+      <c r="B1258" s="3"/>
+      <c r="C1258" s="12"/>
+      <c r="D1258" s="6"/>
+    </row>
+    <row r="1259" spans="1:4">
+      <c r="A1259" s="6"/>
+      <c r="B1259" s="3"/>
+      <c r="C1259" s="12"/>
+      <c r="D1259" s="6"/>
+    </row>
+    <row r="1260" spans="1:4">
+      <c r="A1260" s="6"/>
+      <c r="B1260" s="3"/>
+      <c r="C1260" s="12"/>
+      <c r="D1260" s="6"/>
+    </row>
+    <row r="1261" spans="1:4">
+      <c r="A1261" s="6"/>
+      <c r="B1261" s="3"/>
+      <c r="C1261" s="12"/>
+      <c r="D1261" s="6"/>
+    </row>
+    <row r="1262" spans="1:4">
+      <c r="A1262" s="6"/>
+      <c r="B1262" s="3"/>
+      <c r="C1262" s="12"/>
+      <c r="D1262" s="6"/>
+    </row>
+    <row r="1263" spans="1:4">
+      <c r="A1263" s="6"/>
+      <c r="B1263" s="3"/>
+      <c r="C1263" s="12"/>
+      <c r="D1263" s="6"/>
+    </row>
+    <row r="1264" spans="1:4">
+      <c r="A1264" s="6"/>
+      <c r="B1264" s="3"/>
+      <c r="C1264" s="12"/>
+      <c r="D1264" s="6"/>
+    </row>
+    <row r="1265" spans="1:4">
+      <c r="A1265" s="6"/>
+      <c r="B1265" s="3"/>
+      <c r="C1265" s="12"/>
+      <c r="D1265" s="6"/>
+    </row>
+    <row r="1266" spans="1:4">
+      <c r="A1266" s="6"/>
+      <c r="B1266" s="3"/>
+      <c r="C1266" s="12"/>
+      <c r="D1266" s="6"/>
+    </row>
+    <row r="1267" spans="1:4">
+      <c r="A1267" s="6"/>
+      <c r="B1267" s="3"/>
+      <c r="C1267" s="12"/>
+      <c r="D1267" s="6"/>
+    </row>
+    <row r="1268" spans="1:4">
+      <c r="A1268" s="6"/>
+      <c r="B1268" s="3"/>
+      <c r="C1268" s="12"/>
+      <c r="D1268" s="6"/>
+    </row>
+    <row r="1269" spans="1:4">
+      <c r="A1269" s="6"/>
+      <c r="B1269" s="3"/>
+      <c r="C1269" s="12"/>
+      <c r="D1269" s="6"/>
+    </row>
+    <row r="1270" spans="1:4">
+      <c r="A1270" s="6"/>
+      <c r="B1270" s="3"/>
+      <c r="C1270" s="12"/>
+      <c r="D1270" s="6"/>
+    </row>
+    <row r="1271" spans="1:4">
+      <c r="A1271" s="6"/>
+      <c r="B1271" s="3"/>
+      <c r="C1271" s="12"/>
+      <c r="D1271" s="6"/>
+    </row>
+    <row r="1272" spans="1:4">
+      <c r="A1272" s="6"/>
+      <c r="B1272" s="3"/>
+      <c r="C1272" s="12"/>
+      <c r="D1272" s="6"/>
+    </row>
+    <row r="1273" spans="1:4">
+      <c r="A1273" s="6"/>
+      <c r="B1273" s="3"/>
+      <c r="C1273" s="12"/>
+      <c r="D1273" s="6"/>
+    </row>
+    <row r="1274" spans="1:4">
+      <c r="A1274" s="6"/>
+      <c r="B1274" s="3"/>
+      <c r="C1274" s="12"/>
+      <c r="D1274" s="6"/>
+    </row>
+    <row r="1275" spans="1:4">
+      <c r="A1275" s="6"/>
+      <c r="B1275" s="3"/>
+      <c r="C1275" s="12"/>
+      <c r="D1275" s="6"/>
+    </row>
+    <row r="1276" spans="1:4">
+      <c r="A1276" s="6"/>
+      <c r="B1276" s="3"/>
+      <c r="C1276" s="12"/>
+      <c r="D1276" s="6"/>
+    </row>
+    <row r="1277" spans="1:4">
+      <c r="A1277" s="6"/>
+      <c r="B1277" s="3"/>
+      <c r="C1277" s="12"/>
+      <c r="D1277" s="6"/>
+    </row>
+    <row r="1278" spans="1:4">
+      <c r="A1278" s="6"/>
+      <c r="B1278" s="3"/>
+      <c r="C1278" s="12"/>
+      <c r="D1278" s="6"/>
+    </row>
+    <row r="1279" spans="1:4">
+      <c r="A1279" s="6"/>
+      <c r="B1279" s="3"/>
+      <c r="C1279" s="12"/>
+      <c r="D1279" s="6"/>
+    </row>
+    <row r="1280" spans="1:4">
+      <c r="A1280" s="6"/>
+      <c r="B1280" s="3"/>
+      <c r="C1280" s="12"/>
+      <c r="D1280" s="6"/>
+    </row>
+    <row r="1281" spans="1:4">
+      <c r="A1281" s="6"/>
+      <c r="B1281" s="3"/>
+      <c r="C1281" s="12"/>
+      <c r="D1281" s="6"/>
+    </row>
+    <row r="1282" spans="1:4">
+      <c r="A1282" s="6"/>
+      <c r="B1282" s="3"/>
+      <c r="C1282" s="12"/>
+      <c r="D1282" s="6"/>
+    </row>
+    <row r="1283" spans="1:4">
+      <c r="A1283" s="6"/>
+      <c r="B1283" s="3"/>
+      <c r="C1283" s="12"/>
+      <c r="D1283" s="6"/>
+    </row>
+    <row r="1284" spans="1:4">
+      <c r="A1284" s="6"/>
+      <c r="B1284" s="3"/>
+      <c r="C1284" s="12"/>
+      <c r="D1284" s="6"/>
+    </row>
+    <row r="1285" spans="1:4">
+      <c r="A1285" s="6"/>
+      <c r="B1285" s="3"/>
+      <c r="C1285" s="12"/>
+      <c r="D1285" s="6"/>
+    </row>
+    <row r="1286" spans="1:4">
+      <c r="A1286" s="6"/>
+      <c r="B1286" s="3"/>
+      <c r="C1286" s="12"/>
+      <c r="D1286" s="6"/>
+    </row>
+    <row r="1287" spans="1:4">
+      <c r="A1287" s="6"/>
+      <c r="B1287" s="3"/>
+      <c r="C1287" s="12"/>
+      <c r="D1287" s="6"/>
+    </row>
+    <row r="1288" spans="1:4">
+      <c r="A1288" s="6"/>
+      <c r="B1288" s="3"/>
+      <c r="C1288" s="12"/>
+      <c r="D1288" s="6"/>
+    </row>
+    <row r="1289" spans="1:4">
+      <c r="A1289" s="6"/>
+      <c r="B1289" s="3"/>
+      <c r="C1289" s="12"/>
+      <c r="D1289" s="6"/>
+    </row>
+    <row r="1290" spans="1:4">
+      <c r="A1290" s="6"/>
+      <c r="B1290" s="3"/>
+      <c r="C1290" s="12"/>
+      <c r="D1290" s="6"/>
+    </row>
+    <row r="1291" spans="1:4">
+      <c r="A1291" s="6"/>
+      <c r="B1291" s="3"/>
+      <c r="C1291" s="12"/>
+      <c r="D1291" s="6"/>
+    </row>
+    <row r="1292" spans="1:4">
+      <c r="A1292" s="6"/>
+      <c r="B1292" s="3"/>
+      <c r="C1292" s="12"/>
+      <c r="D1292" s="6"/>
+    </row>
+    <row r="1293" spans="1:4">
+      <c r="A1293" s="6"/>
+      <c r="B1293" s="3"/>
+      <c r="C1293" s="12"/>
+      <c r="D1293" s="6"/>
+    </row>
+    <row r="1294" spans="1:4">
+      <c r="A1294" s="6"/>
+      <c r="B1294" s="3"/>
+      <c r="C1294" s="12"/>
+      <c r="D1294" s="6"/>
+    </row>
+    <row r="1295" spans="1:4">
+      <c r="A1295" s="6"/>
+      <c r="B1295" s="3"/>
+      <c r="C1295" s="12"/>
+      <c r="D1295" s="6"/>
+    </row>
+    <row r="1296" spans="1:4">
+      <c r="A1296" s="6"/>
+      <c r="B1296" s="3"/>
+      <c r="C1296" s="12"/>
+      <c r="D1296" s="6"/>
+    </row>
+    <row r="1297" spans="1:4">
+      <c r="A1297" s="6"/>
+      <c r="B1297" s="3"/>
+      <c r="C1297" s="12"/>
+      <c r="D1297" s="6"/>
+    </row>
+    <row r="1298" spans="1:4">
+      <c r="A1298" s="6"/>
+      <c r="B1298" s="3"/>
+      <c r="C1298" s="12"/>
+      <c r="D1298" s="6"/>
+    </row>
+    <row r="1299" spans="1:4">
+      <c r="A1299" s="6"/>
+      <c r="B1299" s="3"/>
+      <c r="C1299" s="12"/>
+      <c r="D1299" s="6"/>
+    </row>
+    <row r="1300" spans="1:4">
+      <c r="A1300" s="6"/>
+      <c r="B1300" s="3"/>
+      <c r="C1300" s="12"/>
+      <c r="D1300" s="6"/>
+    </row>
+    <row r="1301" spans="1:4">
+      <c r="A1301" s="6"/>
+      <c r="B1301" s="3"/>
+      <c r="C1301" s="12"/>
+      <c r="D1301" s="6"/>
+    </row>
+    <row r="1302" spans="1:4">
+      <c r="A1302" s="6"/>
+      <c r="B1302" s="3"/>
+      <c r="C1302" s="12"/>
+      <c r="D1302" s="6"/>
+    </row>
+    <row r="1303" spans="1:4">
+      <c r="A1303" s="6"/>
+      <c r="B1303" s="3"/>
+      <c r="C1303" s="12"/>
+      <c r="D1303" s="6"/>
+    </row>
+    <row r="1304" spans="1:4">
+      <c r="A1304" s="6"/>
+      <c r="B1304" s="3"/>
+      <c r="C1304" s="12"/>
+      <c r="D1304" s="6"/>
+    </row>
+    <row r="1305" spans="1:4">
+      <c r="A1305" s="6"/>
+      <c r="B1305" s="3"/>
+      <c r="C1305" s="12"/>
+      <c r="D1305" s="6"/>
+    </row>
+    <row r="1306" spans="1:4">
+      <c r="A1306" s="6"/>
+      <c r="B1306" s="3"/>
+      <c r="C1306" s="12"/>
+      <c r="D1306" s="6"/>
+    </row>
+    <row r="1307" spans="1:4">
+      <c r="A1307" s="6"/>
+      <c r="B1307" s="3"/>
+      <c r="C1307" s="12"/>
+      <c r="D1307" s="6"/>
+    </row>
+    <row r="1308" spans="1:4">
+      <c r="A1308" s="6"/>
+      <c r="B1308" s="3"/>
+      <c r="C1308" s="12"/>
+      <c r="D1308" s="6"/>
+    </row>
+    <row r="1309" spans="1:4">
+      <c r="A1309" s="6"/>
+      <c r="B1309" s="3"/>
+      <c r="C1309" s="12"/>
+      <c r="D1309" s="6"/>
+    </row>
+    <row r="1310" spans="1:4">
+      <c r="A1310" s="6"/>
+      <c r="B1310" s="3"/>
+      <c r="C1310" s="12"/>
+      <c r="D1310" s="6"/>
+    </row>
+    <row r="1311" spans="1:4">
+      <c r="A1311" s="6"/>
+      <c r="B1311" s="3"/>
+      <c r="C1311" s="12"/>
+      <c r="D1311" s="6"/>
+    </row>
+    <row r="1312" spans="1:4">
+      <c r="A1312" s="6"/>
+      <c r="B1312" s="3"/>
+      <c r="C1312" s="12"/>
+      <c r="D1312" s="6"/>
+    </row>
+    <row r="1313" spans="1:4">
+      <c r="A1313" s="6"/>
+      <c r="B1313" s="3"/>
+      <c r="C1313" s="12"/>
+      <c r="D1313" s="6"/>
+    </row>
+    <row r="1314" spans="1:4">
+      <c r="A1314" s="6"/>
+      <c r="B1314" s="3"/>
+      <c r="C1314" s="12"/>
+      <c r="D1314" s="6"/>
+    </row>
+    <row r="1315" spans="1:4">
+      <c r="A1315" s="6"/>
+      <c r="B1315" s="3"/>
+      <c r="C1315" s="12"/>
+      <c r="D1315" s="6"/>
+    </row>
+    <row r="1316" spans="1:4">
+      <c r="A1316" s="6"/>
+      <c r="B1316" s="3"/>
+      <c r="C1316" s="12"/>
+      <c r="D1316" s="6"/>
+    </row>
+    <row r="1317" spans="1:4">
+      <c r="A1317" s="6"/>
+      <c r="B1317" s="3"/>
+      <c r="C1317" s="12"/>
+      <c r="D1317" s="6"/>
+    </row>
+    <row r="1318" spans="1:4">
+      <c r="A1318" s="6"/>
+      <c r="B1318" s="3"/>
+      <c r="C1318" s="12"/>
+      <c r="D1318" s="6"/>
+    </row>
+    <row r="1319" spans="1:4">
+      <c r="A1319" s="6"/>
+      <c r="B1319" s="3"/>
+      <c r="C1319" s="12"/>
+      <c r="D1319" s="6"/>
+    </row>
+    <row r="1320" spans="1:4">
+      <c r="A1320" s="6"/>
+      <c r="B1320" s="3"/>
+      <c r="C1320" s="12"/>
+      <c r="D1320" s="6"/>
+    </row>
+    <row r="1321" spans="1:4">
+      <c r="A1321" s="6"/>
+      <c r="B1321" s="3"/>
+      <c r="C1321" s="12"/>
+      <c r="D1321" s="6"/>
+    </row>
+    <row r="1322" spans="1:4">
+      <c r="A1322" s="6"/>
+      <c r="B1322" s="3"/>
+      <c r="C1322" s="12"/>
+      <c r="D1322" s="6"/>
+    </row>
+    <row r="1323" spans="1:4">
+      <c r="A1323" s="6"/>
+      <c r="B1323" s="3"/>
+      <c r="C1323" s="12"/>
+      <c r="D1323" s="6"/>
+    </row>
+    <row r="1324" spans="1:4">
+      <c r="A1324" s="6"/>
+      <c r="B1324" s="3"/>
+      <c r="C1324" s="12"/>
+      <c r="D1324" s="6"/>
+    </row>
+    <row r="1325" spans="1:4">
+      <c r="A1325" s="6"/>
+      <c r="B1325" s="3"/>
+      <c r="C1325" s="12"/>
+      <c r="D1325" s="6"/>
+    </row>
+    <row r="1326" spans="1:4">
+      <c r="A1326" s="6"/>
+      <c r="B1326" s="3"/>
+      <c r="C1326" s="12"/>
+      <c r="D1326" s="6"/>
+    </row>
+    <row r="1327" spans="1:4">
+      <c r="A1327" s="6"/>
+      <c r="B1327" s="3"/>
+      <c r="C1327" s="12"/>
+      <c r="D1327" s="6"/>
+    </row>
+    <row r="1328" spans="1:4">
+      <c r="A1328" s="6"/>
+      <c r="B1328" s="3"/>
+      <c r="C1328" s="12"/>
+      <c r="D1328" s="6"/>
+    </row>
+    <row r="1329" spans="1:4">
+      <c r="A1329" s="6"/>
+      <c r="B1329" s="3"/>
+      <c r="C1329" s="12"/>
+      <c r="D1329" s="6"/>
+    </row>
+    <row r="1330" spans="1:4">
+      <c r="A1330" s="6"/>
+      <c r="B1330" s="3"/>
+      <c r="C1330" s="12"/>
+      <c r="D1330" s="6"/>
+    </row>
+    <row r="1331" spans="1:4">
+      <c r="A1331" s="6"/>
+      <c r="B1331" s="3"/>
+      <c r="C1331" s="12"/>
+      <c r="D1331" s="6"/>
+    </row>
+    <row r="1332" spans="1:4">
+      <c r="A1332" s="6"/>
+      <c r="B1332" s="3"/>
+      <c r="C1332" s="12"/>
+      <c r="D1332" s="6"/>
+    </row>
+    <row r="1333" spans="1:4">
+      <c r="A1333" s="6"/>
+      <c r="B1333" s="3"/>
+      <c r="C1333" s="12"/>
+      <c r="D1333" s="6"/>
+    </row>
+    <row r="1334" spans="1:4">
+      <c r="A1334" s="6"/>
+      <c r="B1334" s="3"/>
+      <c r="C1334" s="12"/>
+      <c r="D1334" s="6"/>
+    </row>
+    <row r="1335" spans="1:4">
+      <c r="A1335" s="6"/>
+      <c r="B1335" s="3"/>
+      <c r="C1335" s="12"/>
+      <c r="D1335" s="6"/>
+    </row>
+    <row r="1336" spans="1:4">
+      <c r="A1336" s="6"/>
+      <c r="B1336" s="3"/>
+      <c r="C1336" s="12"/>
+      <c r="D1336" s="6"/>
+    </row>
+    <row r="1337" spans="1:4">
+      <c r="A1337" s="6"/>
+      <c r="B1337" s="3"/>
+      <c r="C1337" s="12"/>
+      <c r="D1337" s="6"/>
+    </row>
+    <row r="1338" spans="1:4">
+      <c r="A1338" s="6"/>
+      <c r="B1338" s="3"/>
+      <c r="C1338" s="12"/>
+      <c r="D1338" s="6"/>
+    </row>
+    <row r="1339" spans="1:4">
+      <c r="A1339" s="6"/>
+      <c r="B1339" s="3"/>
+      <c r="C1339" s="12"/>
+      <c r="D1339" s="6"/>
+    </row>
+    <row r="1340" spans="1:4">
+      <c r="A1340" s="6"/>
+      <c r="B1340" s="3"/>
+      <c r="C1340" s="12"/>
+      <c r="D1340" s="6"/>
+    </row>
+    <row r="1341" spans="1:4">
+      <c r="A1341" s="6"/>
+      <c r="B1341" s="3"/>
+      <c r="C1341" s="12"/>
+      <c r="D1341" s="6"/>
+    </row>
+    <row r="1342" spans="1:4">
+      <c r="A1342" s="6"/>
+      <c r="B1342" s="3"/>
+      <c r="C1342" s="12"/>
+      <c r="D1342" s="6"/>
+    </row>
+    <row r="1343" spans="1:4">
+      <c r="A1343" s="6"/>
+      <c r="B1343" s="3"/>
+      <c r="C1343" s="12"/>
+      <c r="D1343" s="6"/>
+    </row>
+    <row r="1344" spans="1:4">
+      <c r="A1344" s="6"/>
+      <c r="B1344" s="3"/>
+      <c r="C1344" s="12"/>
+      <c r="D1344" s="6"/>
+    </row>
+    <row r="1345" spans="1:4">
+      <c r="A1345" s="6"/>
+      <c r="B1345" s="3"/>
+      <c r="C1345" s="12"/>
+      <c r="D1345" s="6"/>
+    </row>
+    <row r="1346" spans="1:4">
+      <c r="A1346" s="6"/>
+      <c r="B1346" s="3"/>
+      <c r="C1346" s="12"/>
+      <c r="D1346" s="6"/>
+    </row>
+    <row r="1347" spans="1:4">
+      <c r="A1347" s="6"/>
+      <c r="B1347" s="3"/>
+      <c r="C1347" s="12"/>
+      <c r="D1347" s="6"/>
+    </row>
+    <row r="1348" spans="1:4">
+      <c r="A1348" s="6"/>
+      <c r="B1348" s="3"/>
+      <c r="C1348" s="12"/>
+      <c r="D1348" s="6"/>
+    </row>
+    <row r="1349" spans="1:4">
+      <c r="A1349" s="6"/>
+      <c r="B1349" s="3"/>
+      <c r="C1349" s="12"/>
+      <c r="D1349" s="6"/>
+    </row>
+    <row r="1350" spans="1:4">
+      <c r="A1350" s="6"/>
+      <c r="B1350" s="3"/>
+      <c r="C1350" s="12"/>
+      <c r="D1350" s="6"/>
+    </row>
+    <row r="1351" spans="1:4">
+      <c r="A1351" s="6"/>
+      <c r="B1351" s="3"/>
+      <c r="C1351" s="12"/>
+      <c r="D1351" s="6"/>
+    </row>
+    <row r="1352" spans="1:4">
+      <c r="A1352" s="6"/>
+      <c r="B1352" s="3"/>
+      <c r="C1352" s="12"/>
+      <c r="D1352" s="6"/>
+    </row>
+    <row r="1353" spans="1:4">
+      <c r="A1353" s="6"/>
+      <c r="B1353" s="3"/>
+      <c r="C1353" s="12"/>
+      <c r="D1353" s="6"/>
+    </row>
+    <row r="1354" spans="1:4">
+      <c r="A1354" s="6"/>
+      <c r="B1354" s="3"/>
+      <c r="C1354" s="12"/>
+      <c r="D1354" s="6"/>
+    </row>
+    <row r="1355" spans="1:4">
+      <c r="A1355" s="6"/>
+      <c r="B1355" s="3"/>
+      <c r="C1355" s="12"/>
+      <c r="D1355" s="6"/>
+    </row>
+    <row r="1356" spans="1:4">
+      <c r="A1356" s="6"/>
+      <c r="B1356" s="3"/>
+      <c r="C1356" s="12"/>
+      <c r="D1356" s="6"/>
+    </row>
+    <row r="1357" spans="1:4">
+      <c r="A1357" s="6"/>
+      <c r="B1357" s="3"/>
+      <c r="C1357" s="12"/>
+      <c r="D1357" s="6"/>
+    </row>
+    <row r="1358" spans="1:4">
+      <c r="A1358" s="6"/>
+      <c r="B1358" s="3"/>
+      <c r="C1358" s="12"/>
+      <c r="D1358" s="6"/>
+    </row>
+    <row r="1359" spans="1:4">
+      <c r="A1359" s="6"/>
+      <c r="B1359" s="3"/>
+      <c r="C1359" s="12"/>
+      <c r="D1359" s="6"/>
+    </row>
+    <row r="1360" spans="1:4">
+      <c r="A1360" s="6"/>
+      <c r="B1360" s="3"/>
+      <c r="C1360" s="12"/>
+      <c r="D1360" s="6"/>
+    </row>
+    <row r="1361" spans="1:4">
+      <c r="A1361" s="6"/>
+      <c r="B1361" s="3"/>
+      <c r="C1361" s="12"/>
+      <c r="D1361" s="6"/>
+    </row>
+    <row r="1362" spans="1:4">
+      <c r="A1362" s="6"/>
+      <c r="B1362" s="3"/>
+      <c r="C1362" s="12"/>
+      <c r="D1362" s="6"/>
+    </row>
+    <row r="1363" spans="1:4">
+      <c r="A1363" s="6"/>
+      <c r="B1363" s="3"/>
+      <c r="C1363" s="12"/>
+      <c r="D1363" s="6"/>
+    </row>
+    <row r="1364" spans="1:4">
+      <c r="A1364" s="6"/>
+      <c r="B1364" s="3"/>
+      <c r="C1364" s="12"/>
+      <c r="D1364" s="6"/>
+    </row>
+    <row r="1365" spans="1:4">
+      <c r="A1365" s="6"/>
+      <c r="B1365" s="3"/>
+      <c r="C1365" s="12"/>
+      <c r="D1365" s="6"/>
+    </row>
+    <row r="1366" spans="1:4">
+      <c r="A1366" s="6"/>
+      <c r="B1366" s="3"/>
+      <c r="C1366" s="12"/>
+      <c r="D1366" s="6"/>
+    </row>
+    <row r="1367" spans="1:4">
+      <c r="A1367" s="6"/>
+      <c r="B1367" s="3"/>
+      <c r="C1367" s="12"/>
+      <c r="D1367" s="6"/>
+    </row>
+    <row r="1368" spans="1:4">
+      <c r="A1368" s="6"/>
+      <c r="B1368" s="3"/>
+      <c r="C1368" s="12"/>
+      <c r="D1368" s="6"/>
+    </row>
+    <row r="1369" spans="1:4">
+      <c r="A1369" s="6"/>
+      <c r="B1369" s="3"/>
+      <c r="C1369" s="12"/>
+      <c r="D1369" s="6"/>
+    </row>
+    <row r="1370" spans="1:4">
+      <c r="A1370" s="6"/>
+      <c r="B1370" s="3"/>
+      <c r="C1370" s="12"/>
+      <c r="D1370" s="6"/>
+    </row>
+    <row r="1371" spans="1:4">
+      <c r="A1371" s="6"/>
+      <c r="B1371" s="3"/>
+      <c r="C1371" s="12"/>
+      <c r="D1371" s="6"/>
+    </row>
+    <row r="1372" spans="1:4">
+      <c r="A1372" s="6"/>
+      <c r="B1372" s="3"/>
+      <c r="C1372" s="12"/>
+      <c r="D1372" s="6"/>
+    </row>
+    <row r="1373" spans="1:4">
+      <c r="A1373" s="6"/>
+      <c r="B1373" s="3"/>
+      <c r="C1373" s="12"/>
+      <c r="D1373" s="6"/>
+    </row>
+    <row r="1374" spans="1:4">
+      <c r="A1374" s="6"/>
+      <c r="B1374" s="3"/>
+      <c r="C1374" s="12"/>
+      <c r="D1374" s="6"/>
+    </row>
+    <row r="1375" spans="1:4">
+      <c r="A1375" s="6"/>
+      <c r="B1375" s="3"/>
+      <c r="C1375" s="12"/>
+      <c r="D1375" s="6"/>
+    </row>
+    <row r="1376" spans="1:4">
+      <c r="A1376" s="6"/>
+      <c r="B1376" s="3"/>
+      <c r="C1376" s="12"/>
+      <c r="D1376" s="6"/>
+    </row>
+    <row r="1377" spans="1:4">
+      <c r="A1377" s="6"/>
+      <c r="B1377" s="3"/>
+      <c r="C1377" s="12"/>
+      <c r="D1377" s="6"/>
+    </row>
+    <row r="1378" spans="1:4">
+      <c r="A1378" s="6"/>
+      <c r="B1378" s="3"/>
+      <c r="C1378" s="12"/>
+      <c r="D1378" s="6"/>
+    </row>
+    <row r="1379" spans="1:4">
+      <c r="A1379" s="6"/>
+      <c r="B1379" s="3"/>
+      <c r="C1379" s="12"/>
+      <c r="D1379" s="6"/>
+    </row>
+    <row r="1380" spans="1:4">
+      <c r="A1380" s="6"/>
+      <c r="B1380" s="3"/>
+      <c r="C1380" s="12"/>
+      <c r="D1380" s="6"/>
+    </row>
+    <row r="1381" spans="1:4">
+      <c r="A1381" s="6"/>
+      <c r="B1381" s="3"/>
+      <c r="C1381" s="12"/>
+      <c r="D1381" s="6"/>
+    </row>
+    <row r="1382" spans="1:4">
+      <c r="A1382" s="6"/>
+      <c r="B1382" s="3"/>
+      <c r="C1382" s="12"/>
+      <c r="D1382" s="6"/>
+    </row>
+    <row r="1383" spans="1:4">
+      <c r="A1383" s="6"/>
+      <c r="B1383" s="3"/>
+      <c r="C1383" s="12"/>
+      <c r="D1383" s="6"/>
+    </row>
+    <row r="1384" spans="1:4">
+      <c r="A1384" s="6"/>
+      <c r="B1384" s="3"/>
+      <c r="C1384" s="12"/>
+      <c r="D1384" s="6"/>
+    </row>
+    <row r="1385" spans="1:4">
+      <c r="A1385" s="6"/>
+      <c r="B1385" s="3"/>
+      <c r="C1385" s="12"/>
+      <c r="D1385" s="6"/>
+    </row>
+    <row r="1386" spans="1:4">
+      <c r="A1386" s="6"/>
+      <c r="B1386" s="3"/>
+      <c r="C1386" s="12"/>
+      <c r="D1386" s="6"/>
+    </row>
+    <row r="1387" spans="1:4">
+      <c r="A1387" s="6"/>
+      <c r="B1387" s="3"/>
+      <c r="C1387" s="12"/>
+      <c r="D1387" s="6"/>
+    </row>
+    <row r="1388" spans="1:4">
+      <c r="A1388" s="6"/>
+      <c r="B1388" s="3"/>
+      <c r="C1388" s="12"/>
+      <c r="D1388" s="6"/>
+    </row>
+    <row r="1389" spans="1:4">
+      <c r="A1389" s="6"/>
+      <c r="B1389" s="3"/>
+      <c r="C1389" s="12"/>
+      <c r="D1389" s="6"/>
+    </row>
+    <row r="1390" spans="1:4">
+      <c r="A1390" s="6"/>
+      <c r="B1390" s="3"/>
+      <c r="C1390" s="12"/>
+      <c r="D1390" s="6"/>
+    </row>
+    <row r="1391" spans="1:4">
+      <c r="A1391" s="6"/>
+      <c r="B1391" s="3"/>
+      <c r="C1391" s="12"/>
+      <c r="D1391" s="6"/>
+    </row>
+    <row r="1392" spans="1:4">
+      <c r="A1392" s="6"/>
+      <c r="B1392" s="3"/>
+      <c r="C1392" s="12"/>
+      <c r="D1392" s="6"/>
+    </row>
+    <row r="1393" spans="1:4">
+      <c r="A1393" s="6"/>
+      <c r="B1393" s="3"/>
+      <c r="C1393" s="12"/>
+      <c r="D1393" s="6"/>
+    </row>
+    <row r="1394" spans="1:4">
+      <c r="A1394" s="6"/>
+      <c r="B1394" s="3"/>
+      <c r="C1394" s="12"/>
+      <c r="D1394" s="6"/>
+    </row>
+    <row r="1395" spans="1:4">
+      <c r="A1395" s="6"/>
+      <c r="B1395" s="3"/>
+      <c r="C1395" s="12"/>
+      <c r="D1395" s="6"/>
+    </row>
+    <row r="1396" spans="1:4">
+      <c r="A1396" s="6"/>
+      <c r="B1396" s="3"/>
+      <c r="C1396" s="12"/>
+      <c r="D1396" s="6"/>
+    </row>
+    <row r="1397" spans="1:4">
+      <c r="A1397" s="6"/>
+      <c r="B1397" s="3"/>
+      <c r="C1397" s="12"/>
+      <c r="D1397" s="6"/>
+    </row>
+    <row r="1398" spans="1:4">
+      <c r="A1398" s="6"/>
+      <c r="B1398" s="3"/>
+      <c r="C1398" s="12"/>
+      <c r="D1398" s="6"/>
+    </row>
+    <row r="1399" spans="1:4">
+      <c r="A1399" s="6"/>
+      <c r="B1399" s="3"/>
+      <c r="C1399" s="12"/>
+      <c r="D1399" s="6"/>
+    </row>
+    <row r="1400" spans="1:4">
+      <c r="A1400" s="6"/>
+      <c r="B1400" s="3"/>
+      <c r="C1400" s="12"/>
+      <c r="D1400" s="6"/>
+    </row>
+    <row r="1401" spans="1:4">
+      <c r="A1401" s="6"/>
+      <c r="B1401" s="3"/>
+      <c r="C1401" s="12"/>
+      <c r="D1401" s="6"/>
+    </row>
+    <row r="1402" spans="1:4">
+      <c r="A1402" s="6"/>
+      <c r="B1402" s="3"/>
+      <c r="C1402" s="12"/>
+      <c r="D1402" s="6"/>
+    </row>
+    <row r="1403" spans="1:4">
+      <c r="A1403" s="6"/>
+      <c r="B1403" s="3"/>
+      <c r="C1403" s="12"/>
+      <c r="D1403" s="6"/>
+    </row>
+    <row r="1404" spans="1:4">
+      <c r="A1404" s="6"/>
+      <c r="B1404" s="3"/>
+      <c r="C1404" s="12"/>
+      <c r="D1404" s="6"/>
+    </row>
+    <row r="1405" spans="1:4">
+      <c r="A1405" s="6"/>
+      <c r="B1405" s="3"/>
+      <c r="C1405" s="12"/>
+      <c r="D1405" s="6"/>
+    </row>
+    <row r="1406" spans="1:4">
+      <c r="A1406" s="6"/>
+      <c r="B1406" s="3"/>
+      <c r="C1406" s="12"/>
+      <c r="D1406" s="6"/>
+    </row>
+    <row r="1407" spans="1:4">
+      <c r="A1407" s="6"/>
+      <c r="B1407" s="3"/>
+      <c r="C1407" s="12"/>
+      <c r="D1407" s="6"/>
+    </row>
+    <row r="1408" spans="1:4">
+      <c r="A1408" s="6"/>
+      <c r="B1408" s="3"/>
+      <c r="C1408" s="12"/>
+      <c r="D1408" s="6"/>
+    </row>
+    <row r="1409" spans="1:4">
+      <c r="A1409" s="6"/>
+      <c r="B1409" s="3"/>
+      <c r="C1409" s="12"/>
+      <c r="D1409" s="6"/>
+    </row>
+    <row r="1410" spans="1:4">
+      <c r="A1410" s="6"/>
+      <c r="B1410" s="3"/>
+      <c r="C1410" s="12"/>
+      <c r="D1410" s="6"/>
+    </row>
+    <row r="1411" spans="1:4">
+      <c r="A1411" s="6"/>
+      <c r="B1411" s="3"/>
+      <c r="C1411" s="12"/>
+      <c r="D1411" s="6"/>
+    </row>
+    <row r="1412" spans="1:4">
+      <c r="A1412" s="6"/>
+      <c r="B1412" s="3"/>
+      <c r="C1412" s="12"/>
+      <c r="D1412" s="6"/>
+    </row>
+    <row r="1413" spans="1:4">
+      <c r="A1413" s="6"/>
+      <c r="B1413" s="3"/>
+      <c r="C1413" s="12"/>
+      <c r="D1413" s="6"/>
+    </row>
+    <row r="1414" spans="1:4">
+      <c r="A1414" s="6"/>
+      <c r="B1414" s="3"/>
+      <c r="C1414" s="12"/>
+      <c r="D1414" s="6"/>
+    </row>
+    <row r="1415" spans="1:4">
+      <c r="A1415" s="6"/>
+      <c r="B1415" s="3"/>
+      <c r="C1415" s="12"/>
+      <c r="D1415" s="6"/>
+    </row>
+    <row r="1416" spans="1:4">
+      <c r="A1416" s="6"/>
+      <c r="B1416" s="3"/>
+      <c r="C1416" s="12"/>
+      <c r="D1416" s="6"/>
+    </row>
+    <row r="1417" spans="1:4">
+      <c r="A1417" s="6"/>
+      <c r="B1417" s="3"/>
+      <c r="C1417" s="12"/>
+      <c r="D1417" s="6"/>
+    </row>
+    <row r="1418" spans="1:4">
+      <c r="A1418" s="6"/>
+      <c r="B1418" s="3"/>
+      <c r="C1418" s="12"/>
+      <c r="D1418" s="6"/>
+    </row>
+    <row r="1419" spans="1:4">
+      <c r="A1419" s="6"/>
+      <c r="B1419" s="3"/>
+      <c r="C1419" s="12"/>
+      <c r="D1419" s="6"/>
+    </row>
+    <row r="1420" spans="1:4">
+      <c r="A1420" s="6"/>
+      <c r="B1420" s="3"/>
+      <c r="C1420" s="12"/>
+      <c r="D1420" s="6"/>
+    </row>
+    <row r="1421" spans="1:4">
+      <c r="A1421" s="6"/>
+      <c r="B1421" s="3"/>
+      <c r="C1421" s="12"/>
+      <c r="D1421" s="6"/>
+    </row>
+    <row r="1422" spans="1:4">
+      <c r="A1422" s="6"/>
+      <c r="B1422" s="3"/>
+      <c r="C1422" s="12"/>
+      <c r="D1422" s="6"/>
+    </row>
+    <row r="1423" spans="1:4">
+      <c r="A1423" s="6"/>
+      <c r="B1423" s="3"/>
+      <c r="C1423" s="12"/>
+      <c r="D1423" s="6"/>
+    </row>
+    <row r="1424" spans="1:4">
+      <c r="A1424" s="6"/>
+      <c r="B1424" s="3"/>
+      <c r="C1424" s="12"/>
+      <c r="D1424" s="6"/>
+    </row>
+    <row r="1425" spans="1:4">
+      <c r="A1425" s="6"/>
+      <c r="B1425" s="3"/>
+      <c r="C1425" s="12"/>
+      <c r="D1425" s="6"/>
+    </row>
+    <row r="1426" spans="1:4">
+      <c r="A1426" s="6"/>
+      <c r="B1426" s="3"/>
+      <c r="C1426" s="12"/>
+      <c r="D1426" s="6"/>
+    </row>
+    <row r="1427" spans="1:4">
+      <c r="A1427" s="6"/>
+      <c r="B1427" s="3"/>
+      <c r="C1427" s="12"/>
+      <c r="D1427" s="6"/>
+    </row>
+    <row r="1428" spans="1:4">
+      <c r="A1428" s="6"/>
+      <c r="B1428" s="3"/>
+      <c r="C1428" s="12"/>
+      <c r="D1428" s="6"/>
+    </row>
+    <row r="1429" spans="1:4">
+      <c r="A1429" s="6"/>
+      <c r="B1429" s="3"/>
+      <c r="C1429" s="12"/>
+      <c r="D1429" s="6"/>
+    </row>
+    <row r="1430" spans="1:4">
+      <c r="A1430" s="6"/>
+      <c r="B1430" s="3"/>
+      <c r="C1430" s="12"/>
+      <c r="D1430" s="6"/>
+    </row>
+    <row r="1431" spans="1:4">
+      <c r="A1431" s="6"/>
+      <c r="B1431" s="3"/>
+      <c r="C1431" s="12"/>
+      <c r="D1431" s="6"/>
+    </row>
+    <row r="1432" spans="1:4">
+      <c r="A1432" s="6"/>
+      <c r="B1432" s="3"/>
+      <c r="C1432" s="12"/>
+      <c r="D1432" s="6"/>
+    </row>
+    <row r="1433" spans="1:4">
+      <c r="A1433" s="6"/>
+      <c r="B1433" s="3"/>
+      <c r="C1433" s="12"/>
+      <c r="D1433" s="6"/>
+    </row>
+    <row r="1434" spans="1:4">
+      <c r="A1434" s="6"/>
+      <c r="B1434" s="3"/>
+      <c r="C1434" s="12"/>
+      <c r="D1434" s="6"/>
+    </row>
+    <row r="1435" spans="1:4">
+      <c r="A1435" s="6"/>
+      <c r="B1435" s="3"/>
+      <c r="C1435" s="12"/>
+      <c r="D1435" s="6"/>
+    </row>
+    <row r="1436" spans="1:4">
+      <c r="A1436" s="6"/>
+      <c r="B1436" s="3"/>
+      <c r="C1436" s="12"/>
+      <c r="D1436" s="6"/>
+    </row>
+    <row r="1437" spans="1:4">
+      <c r="A1437" s="6"/>
+      <c r="B1437" s="3"/>
+      <c r="C1437" s="12"/>
+      <c r="D1437" s="6"/>
+    </row>
+    <row r="1438" spans="1:4">
+      <c r="A1438" s="6"/>
+      <c r="B1438" s="3"/>
+      <c r="C1438" s="12"/>
+      <c r="D1438" s="6"/>
+    </row>
+    <row r="1439" spans="1:4">
+      <c r="A1439" s="6"/>
+      <c r="B1439" s="3"/>
+      <c r="C1439" s="12"/>
+      <c r="D1439" s="6"/>
+    </row>
+    <row r="1440" spans="1:4">
+      <c r="A1440" s="6"/>
+      <c r="B1440" s="3"/>
+      <c r="C1440" s="12"/>
+      <c r="D1440" s="6"/>
+    </row>
+    <row r="1441" spans="1:4">
+      <c r="A1441" s="6"/>
+      <c r="B1441" s="3"/>
+      <c r="C1441" s="12"/>
+      <c r="D1441" s="6"/>
+    </row>
+    <row r="1442" spans="1:4">
+      <c r="A1442" s="6"/>
+      <c r="B1442" s="3"/>
+      <c r="C1442" s="12"/>
+      <c r="D1442" s="6"/>
+    </row>
+    <row r="1443" spans="1:4">
+      <c r="A1443" s="6"/>
+      <c r="B1443" s="3"/>
+      <c r="C1443" s="12"/>
+      <c r="D1443" s="6"/>
+    </row>
+    <row r="1444" spans="1:4">
+      <c r="A1444" s="6"/>
+      <c r="B1444" s="3"/>
+      <c r="C1444" s="12"/>
+      <c r="D1444" s="6"/>
+    </row>
+    <row r="1445" spans="1:4">
+      <c r="A1445" s="6"/>
+      <c r="B1445" s="3"/>
+      <c r="C1445" s="12"/>
+      <c r="D1445" s="6"/>
+    </row>
+    <row r="1446" spans="1:4">
+      <c r="A1446" s="6"/>
+      <c r="B1446" s="3"/>
+      <c r="C1446" s="12"/>
+      <c r="D1446" s="6"/>
+    </row>
+    <row r="1447" spans="1:4">
+      <c r="A1447" s="6"/>
+      <c r="B1447" s="3"/>
+      <c r="C1447" s="12"/>
+      <c r="D1447" s="6"/>
+    </row>
+    <row r="1448" spans="1:4">
+      <c r="A1448" s="6"/>
+      <c r="B1448" s="3"/>
+      <c r="C1448" s="12"/>
+      <c r="D1448" s="6"/>
+    </row>
+    <row r="1449" spans="1:4">
+      <c r="A1449" s="6"/>
+      <c r="B1449" s="3"/>
+      <c r="C1449" s="12"/>
+      <c r="D1449" s="6"/>
+    </row>
+    <row r="1450" spans="1:4">
+      <c r="A1450" s="6"/>
+      <c r="B1450" s="3"/>
+      <c r="C1450" s="12"/>
+      <c r="D1450" s="6"/>
+    </row>
+    <row r="1451" spans="1:4">
+      <c r="A1451" s="6"/>
+      <c r="B1451" s="3"/>
+      <c r="C1451" s="12"/>
+      <c r="D1451" s="6"/>
+    </row>
+    <row r="1452" spans="1:4">
+      <c r="A1452" s="6"/>
+      <c r="B1452" s="3"/>
+      <c r="C1452" s="12"/>
+      <c r="D1452" s="6"/>
+    </row>
+    <row r="1453" spans="1:4">
+      <c r="A1453" s="6"/>
+      <c r="B1453" s="3"/>
+      <c r="C1453" s="12"/>
+      <c r="D1453" s="6"/>
+    </row>
+    <row r="1454" spans="1:4">
+      <c r="A1454" s="6"/>
+      <c r="B1454" s="3"/>
+      <c r="C1454" s="12"/>
+      <c r="D1454" s="6"/>
+    </row>
+    <row r="1455" spans="1:4">
+      <c r="A1455" s="6"/>
+      <c r="B1455" s="3"/>
+      <c r="C1455" s="12"/>
+      <c r="D1455" s="6"/>
+    </row>
+    <row r="1456" spans="1:4">
+      <c r="A1456" s="6"/>
+      <c r="B1456" s="3"/>
+      <c r="C1456" s="12"/>
+      <c r="D1456" s="6"/>
+    </row>
+    <row r="1457" spans="1:4">
+      <c r="A1457" s="6"/>
+      <c r="B1457" s="3"/>
+      <c r="C1457" s="12"/>
+      <c r="D1457" s="6"/>
+    </row>
+    <row r="1458" spans="1:4">
+      <c r="A1458" s="6"/>
+      <c r="B1458" s="3"/>
+      <c r="C1458" s="12"/>
+      <c r="D1458" s="6"/>
+    </row>
+    <row r="1459" spans="1:4">
+      <c r="A1459" s="6"/>
+      <c r="B1459" s="3"/>
+      <c r="C1459" s="12"/>
+      <c r="D1459" s="6"/>
+    </row>
+    <row r="1460" spans="1:4">
+      <c r="A1460" s="6"/>
+      <c r="B1460" s="3"/>
+      <c r="C1460" s="12"/>
+      <c r="D1460" s="6"/>
+    </row>
+    <row r="1461" spans="1:4">
+      <c r="A1461" s="6"/>
+      <c r="B1461" s="3"/>
+      <c r="C1461" s="12"/>
+      <c r="D1461" s="6"/>
+    </row>
+    <row r="1462" spans="1:4">
+      <c r="A1462" s="6"/>
+      <c r="B1462" s="3"/>
+      <c r="C1462" s="12"/>
+      <c r="D1462" s="6"/>
+    </row>
+    <row r="1463" spans="1:4">
+      <c r="A1463" s="6"/>
+      <c r="B1463" s="3"/>
+      <c r="C1463" s="12"/>
+      <c r="D1463" s="6"/>
+    </row>
+    <row r="1464" spans="1:4">
+      <c r="A1464" s="6"/>
+      <c r="B1464" s="3"/>
+      <c r="C1464" s="12"/>
+      <c r="D1464" s="6"/>
+    </row>
+    <row r="1465" spans="1:4">
+      <c r="A1465" s="6"/>
+      <c r="B1465" s="3"/>
+      <c r="C1465" s="12"/>
+      <c r="D1465" s="6"/>
+    </row>
+    <row r="1466" spans="1:4">
+      <c r="A1466" s="6"/>
+      <c r="B1466" s="3"/>
+      <c r="C1466" s="12"/>
+      <c r="D1466" s="6"/>
+    </row>
+    <row r="1467" spans="1:4">
+      <c r="A1467" s="6"/>
+      <c r="B1467" s="3"/>
+      <c r="C1467" s="12"/>
+      <c r="D1467" s="6"/>
+    </row>
+    <row r="1468" spans="1:4">
+      <c r="A1468" s="6"/>
+      <c r="B1468" s="3"/>
+      <c r="C1468" s="12"/>
+      <c r="D1468" s="6"/>
+    </row>
+    <row r="1469" spans="1:4">
+      <c r="A1469" s="6"/>
+      <c r="B1469" s="3"/>
+      <c r="C1469" s="12"/>
+      <c r="D1469" s="6"/>
+    </row>
+    <row r="1470" spans="1:4">
+      <c r="A1470" s="6"/>
+      <c r="B1470" s="3"/>
+      <c r="C1470" s="12"/>
+      <c r="D1470" s="6"/>
+    </row>
+    <row r="1471" spans="1:4">
+      <c r="A1471" s="6"/>
+      <c r="B1471" s="3"/>
+      <c r="C1471" s="12"/>
+      <c r="D1471" s="6"/>
+    </row>
+    <row r="1472" spans="1:4">
+      <c r="A1472" s="6"/>
+      <c r="B1472" s="3"/>
+      <c r="C1472" s="12"/>
+      <c r="D1472" s="6"/>
+    </row>
+    <row r="1473" spans="1:4">
+      <c r="A1473" s="6"/>
+      <c r="B1473" s="3"/>
+      <c r="C1473" s="12"/>
+      <c r="D1473" s="6"/>
+    </row>
+    <row r="1474" spans="1:4">
+      <c r="A1474" s="6"/>
+      <c r="B1474" s="3"/>
+      <c r="C1474" s="12"/>
+      <c r="D1474" s="6"/>
+    </row>
+    <row r="1475" spans="1:4">
+      <c r="A1475" s="6"/>
+      <c r="B1475" s="3"/>
+      <c r="C1475" s="12"/>
+      <c r="D1475" s="6"/>
+    </row>
+    <row r="1476" spans="1:4">
+      <c r="A1476" s="6"/>
+      <c r="B1476" s="3"/>
+      <c r="C1476" s="12"/>
+      <c r="D1476" s="6"/>
+    </row>
+    <row r="1477" spans="1:4">
+      <c r="A1477" s="6"/>
+      <c r="B1477" s="3"/>
+      <c r="C1477" s="12"/>
+      <c r="D1477" s="6"/>
+    </row>
+    <row r="1478" spans="1:4">
+      <c r="A1478" s="6"/>
+      <c r="B1478" s="3"/>
+      <c r="C1478" s="12"/>
+      <c r="D1478" s="6"/>
+    </row>
+    <row r="1479" spans="1:4">
+      <c r="A1479" s="6"/>
+      <c r="B1479" s="3"/>
+      <c r="C1479" s="12"/>
+      <c r="D1479" s="6"/>
+    </row>
+    <row r="1480" spans="1:4">
+      <c r="A1480" s="6"/>
+      <c r="B1480" s="3"/>
+      <c r="C1480" s="12"/>
+      <c r="D1480" s="6"/>
+    </row>
+    <row r="1481" spans="1:4">
+      <c r="A1481" s="6"/>
+      <c r="B1481" s="3"/>
+      <c r="C1481" s="12"/>
+      <c r="D1481" s="6"/>
+    </row>
+    <row r="1482" spans="1:4">
+      <c r="A1482" s="6"/>
+      <c r="B1482" s="3"/>
+      <c r="C1482" s="12"/>
+      <c r="D1482" s="6"/>
+    </row>
+    <row r="1483" spans="1:4">
+      <c r="A1483" s="6"/>
+      <c r="B1483" s="3"/>
+      <c r="C1483" s="12"/>
+      <c r="D1483" s="6"/>
+    </row>
+    <row r="1484" spans="1:4">
+      <c r="A1484" s="6"/>
+      <c r="B1484" s="3"/>
+      <c r="C1484" s="12"/>
+      <c r="D1484" s="6"/>
+    </row>
+    <row r="1485" spans="1:4">
+      <c r="A1485" s="6"/>
+      <c r="B1485" s="3"/>
+      <c r="C1485" s="12"/>
+      <c r="D1485" s="6"/>
+    </row>
+    <row r="1486" spans="1:4">
+      <c r="A1486" s="6"/>
+      <c r="B1486" s="3"/>
+      <c r="C1486" s="12"/>
+      <c r="D1486" s="6"/>
+    </row>
+    <row r="1487" spans="1:4">
+      <c r="A1487" s="6"/>
+      <c r="B1487" s="3"/>
+      <c r="C1487" s="12"/>
+      <c r="D1487" s="6"/>
+    </row>
+    <row r="1488" spans="1:4">
+      <c r="A1488" s="6"/>
+      <c r="B1488" s="3"/>
+      <c r="C1488" s="12"/>
+      <c r="D1488" s="6"/>
+    </row>
+    <row r="1489" spans="1:4">
+      <c r="A1489" s="6"/>
+      <c r="B1489" s="3"/>
+      <c r="C1489" s="12"/>
+      <c r="D1489" s="6"/>
+    </row>
+    <row r="1490" spans="1:4">
+      <c r="A1490" s="6"/>
+      <c r="B1490" s="3"/>
+      <c r="C1490" s="12"/>
+      <c r="D1490" s="6"/>
+    </row>
+    <row r="1491" spans="1:4">
+      <c r="A1491" s="6"/>
+      <c r="B1491" s="3"/>
+      <c r="C1491" s="12"/>
+      <c r="D1491" s="6"/>
+    </row>
+    <row r="1492" spans="1:4">
+      <c r="A1492" s="6"/>
+      <c r="B1492" s="3"/>
+      <c r="C1492" s="12"/>
+      <c r="D1492" s="6"/>
+    </row>
+    <row r="1493" spans="1:4">
+      <c r="A1493" s="6"/>
+      <c r="B1493" s="3"/>
+      <c r="C1493" s="12"/>
+      <c r="D1493" s="6"/>
+    </row>
+    <row r="1494" spans="1:4">
+      <c r="A1494" s="6"/>
+      <c r="B1494" s="3"/>
+      <c r="C1494" s="12"/>
+      <c r="D1494" s="6"/>
+    </row>
+    <row r="1495" spans="1:4">
+      <c r="A1495" s="6"/>
+      <c r="B1495" s="3"/>
+      <c r="C1495" s="12"/>
+      <c r="D1495" s="6"/>
+    </row>
+    <row r="1496" spans="1:4">
+      <c r="A1496" s="6"/>
+      <c r="B1496" s="3"/>
+      <c r="C1496" s="12"/>
+      <c r="D1496" s="6"/>
+    </row>
+    <row r="1497" spans="1:4">
+      <c r="A1497" s="6"/>
+      <c r="B1497" s="3"/>
+      <c r="C1497" s="12"/>
+      <c r="D1497" s="6"/>
+    </row>
+    <row r="1498" spans="1:4">
+      <c r="A1498" s="6"/>
+      <c r="B1498" s="3"/>
+      <c r="C1498" s="12"/>
+      <c r="D1498" s="6"/>
+    </row>
+    <row r="1499" spans="1:4">
+      <c r="A1499" s="6"/>
+      <c r="B1499" s="3"/>
+      <c r="C1499" s="12"/>
+      <c r="D1499" s="6"/>
+    </row>
+    <row r="1500" spans="1:4">
+      <c r="A1500" s="6"/>
+      <c r="B1500" s="3"/>
+      <c r="C1500" s="12"/>
+      <c r="D1500" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1069" xr:uid="{C8AC4DF4-6292-AD40-89F2-2BD447F1EC09}"/>

--- a/data/KSP_Completion.xlsx
+++ b/data/KSP_Completion.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602081D0-59C7-214C-95F8-B2FA17790853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B719008-AC43-024B-8603-017786095425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Command" sheetId="6" r:id="rId1"/>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="2286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2547" uniqueCount="2425">
   <si>
     <t>description</t>
     <phoneticPr fontId="3"/>
@@ -7307,6 +7307,423 @@
   <si>
     <t>$NI_UI_ID</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$CONTROL_PAR_DND_ACCEPT_MIDI</t>
+  </si>
+  <si>
+    <t>$CONTROL_PAR_IDENTIFIER</t>
+  </si>
+  <si>
+    <t>$CONTROL_PAR_SHORT_NAME</t>
+  </si>
+  <si>
+    <t>$CONTROL_PAR_VALUEPOS_Y</t>
+  </si>
+  <si>
+    <t>$CONTROL_PAR_WAVETABLE</t>
+  </si>
+  <si>
+    <t>$EFFECT_TYPE_BIGFUZZ</t>
+  </si>
+  <si>
+    <t>$EFFECT_TYPE_BITE</t>
+  </si>
+  <si>
+    <t>$EFFECT_TYPE_DIRT</t>
+  </si>
+  <si>
+    <t>$EFFECT_TYPE_EP_PREAMPS</t>
+  </si>
+  <si>
+    <t>$EFFECT_TYPE_FREAK</t>
+  </si>
+  <si>
+    <t>$EFFECT_TYPE_FUZZ</t>
+  </si>
+  <si>
+    <t>$EFFECT_TYPE_RAUM</t>
+  </si>
+  <si>
+    <t>$EFFECT_TYPE_STEREO_TUNE</t>
+  </si>
+  <si>
+    <t>$EFFECT_TYPE_TWINDELAY</t>
+  </si>
+  <si>
+    <t>$EFFECT_TYPE_VIBRATO_CHORUS</t>
+  </si>
+  <si>
+    <t>$EFFECT_TYPE_WOWFLUTTER</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_BIGFUZZ_BASS</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_BIGFUZZ_MONO</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_BIGFUZZ_SUSTAIN</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_BIGFUZZ_TONE</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_BIGFUZZ_TREBLE</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_EPP_DRIVE</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_EPP_DRIVE_MODE</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_EPP_EQ_BASS</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_EPP_EQ_MID</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_EPP_EQ_MODE</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_EPP_EQ_TREBLE</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_EPP_MONO</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_EPP_PASSIVE_BASS</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_EPP_TREMOLO_AMOUNT</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_EPP_TREMOLO_MODE</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_EPP_TREMOLO_RATE</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_EPP_TREMOLO_RATE_UNIT</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_EPP_TREMOLO_WAVE</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_EPP_TREMOLO_WIDTH</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_FLEXENV_LOOP_END</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_FLEXENV_LOOP_START</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_FLEXENV_NUM_STAGES</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_FLEXENV_STAGE_LEVEL</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_FLEXENV_STAGE_SLOPE</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_FLEXENV_STAGE_TIME</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_FUZZ_AMOUNT</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_FUZZ_BASS</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_FUZZ_MONO</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_FUZZ_TREBLE</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_RINGMOD_LFO_RATE_UNIT</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_SEQ_HP_FREQ</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_STEPSEQ_STEPS</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_STEREOTUNE_DRIFT</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_STEREOTUNE_MIX</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_STEREOTUNE_SPLIT</t>
+  </si>
+  <si>
+    <t>$ENGINE_PAR_STEREOTUNE_SPREAD</t>
+  </si>
+  <si>
+    <t>$EVENT_PAR_MIDI_CHANNNEL</t>
+  </si>
+  <si>
+    <t>$NI_CB_TYPE_UI_CONTROLS</t>
+  </si>
+  <si>
+    <t>$NI_CONTROL_TYPE_BUTTON</t>
+  </si>
+  <si>
+    <t>$NI_CONTROL_TYPE_FILE_SELECTOR</t>
+  </si>
+  <si>
+    <t>$NI_CONTROL_TYPE_KNOB</t>
+  </si>
+  <si>
+    <t>$NI_CONTROL_TYPE_LABEL</t>
+  </si>
+  <si>
+    <t>$NI_CONTROL_TYPE_LEVEL_METER</t>
+  </si>
+  <si>
+    <t>$NI_CONTROL_TYPE_MENU</t>
+  </si>
+  <si>
+    <t>$NI_CONTROL_TYPE_MOUSE_AREA</t>
+  </si>
+  <si>
+    <t>$NI_CONTROL_TYPE_NONE</t>
+  </si>
+  <si>
+    <t>$NI_CONTROL_TYPE_PANEL</t>
+  </si>
+  <si>
+    <t>$NI_CONTROL_TYPE_SLIDER</t>
+  </si>
+  <si>
+    <t>$NI_CONTROL_TYPE_SWITCH</t>
+  </si>
+  <si>
+    <t>$NI_CONTROL_TYPE_TABLE</t>
+  </si>
+  <si>
+    <t>$NI_CONTROL_TYPE_TEXT_EDIT</t>
+  </si>
+  <si>
+    <t>$NI_CONTROL_TYPE_VALUE_EDIT</t>
+  </si>
+  <si>
+    <t>$NI_CONTROL_TYPE_WAVEFORM</t>
+  </si>
+  <si>
+    <t>$NI_CONTROL_TYPE_WAVETABLE</t>
+  </si>
+  <si>
+    <t>$NI_CONTROL_TYPE_XY</t>
+  </si>
+  <si>
+    <t>$NI_DATE_DAY</t>
+  </si>
+  <si>
+    <t>$NI_DATE_MONTH</t>
+  </si>
+  <si>
+    <t>$NI_DATE_YEAR</t>
+  </si>
+  <si>
+    <t>$NI_EPP_DRIVE_MODE_BYPASS</t>
+  </si>
+  <si>
+    <t>$NI_EPP_DRIVE_MODE_DE_TUBE</t>
+  </si>
+  <si>
+    <t>$NI_EPP_DRIVE_MODE_TAPE</t>
+  </si>
+  <si>
+    <t>$NI_EPP_DRIVE_MODE_TRANSISTOR</t>
+  </si>
+  <si>
+    <t>$NI_EPP_DRIVE_MODE_US_TUBE</t>
+  </si>
+  <si>
+    <t>$NI_EPP_EQ_MODE_70S</t>
+  </si>
+  <si>
+    <t>$NI_EPP_EQ_MODE_80S</t>
+  </si>
+  <si>
+    <t>$NI_EPP_EQ_MODE_BYPASS</t>
+  </si>
+  <si>
+    <t>$NI_EPP_EQ_MODE_E_GRAND</t>
+  </si>
+  <si>
+    <t>$NI_EPP_EQ_MODE_PASSIVE</t>
+  </si>
+  <si>
+    <t>$NI_EPP_TREMOLO_MODE_70S</t>
+  </si>
+  <si>
+    <t>$NI_EPP_TREMOLO_MODE_80S</t>
+  </si>
+  <si>
+    <t>$NI_EPP_TREMOLO_MODE_BYPASS</t>
+  </si>
+  <si>
+    <t>$NI_EPP_TREMOLO_MODE_E_GRAND</t>
+  </si>
+  <si>
+    <t>$NI_EPP_TREMOLO_MODE_GUITAR</t>
+  </si>
+  <si>
+    <t>$NI_EPP_TREMOLO_MODE_SYNTH</t>
+  </si>
+  <si>
+    <t>$NI_EPP_TREMOLO_WAVE_SAW_DOWN</t>
+  </si>
+  <si>
+    <t>$NI_EPP_TREMOLO_WAVE_SAW_UP</t>
+  </si>
+  <si>
+    <t>$NI_EPP_TREMOLO_WAVE_SINE</t>
+  </si>
+  <si>
+    <t>$NI_EPP_TREMOLO_WAVE_SQUARE</t>
+  </si>
+  <si>
+    <t>$NI_EPP_TREMOLO_WAVE_TRIANGLE</t>
+  </si>
+  <si>
+    <t>$NI_HQI_MODE_HIGH</t>
+  </si>
+  <si>
+    <t>$NI_HQI_MODE_PERFECT</t>
+  </si>
+  <si>
+    <t>$NI_HQI_MODE_STANDARD</t>
+  </si>
+  <si>
+    <t>$NI_S1200_FILTER_HIGH</t>
+  </si>
+  <si>
+    <t>$NI_S1200_FILTER_HIGH_MID</t>
+  </si>
+  <si>
+    <t>$NI_S1200_FILTER_LOW</t>
+  </si>
+  <si>
+    <t>$NI_S1200_FILTER_LOW_MID</t>
+  </si>
+  <si>
+    <t>$NI_S1200_FILTER_NONE</t>
+  </si>
+  <si>
+    <t>$NI_SOURCE_MODE_BEAT_MACHINE</t>
+  </si>
+  <si>
+    <t>$NI_SOURCE_MODE_DFD</t>
+  </si>
+  <si>
+    <t>$NI_SOURCE_MODE_MP60_MACHINE</t>
+  </si>
+  <si>
+    <t>$NI_SOURCE_MODE_S1200_MACHINE</t>
+  </si>
+  <si>
+    <t>$NI_SOURCE_MODE_SAMPLER</t>
+  </si>
+  <si>
+    <t>$NI_SOURCE_MODE_TIME_MACHINE_1</t>
+  </si>
+  <si>
+    <t>$NI_SOURCE_MODE_TIME_MACHINE_2</t>
+  </si>
+  <si>
+    <t>$NI_SOURCE_MODE_TIME_MACHINE_PRO</t>
+  </si>
+  <si>
+    <t>$NI_SOURCE_MODE_TONE_MACHINE</t>
+  </si>
+  <si>
+    <t>$NI_SOURCE_MODE_WAVETABLE</t>
+  </si>
+  <si>
+    <t>$NI_TIME_HOUR</t>
+  </si>
+  <si>
+    <t>$NI_TIME_MINUTE</t>
+  </si>
+  <si>
+    <t>$NI_TIME_SECOND</t>
+  </si>
+  <si>
+    <t>$NI_WT_FORM_2BLINDS</t>
+  </si>
+  <si>
+    <t>$NI_WT_FORM_4BLINDS</t>
+  </si>
+  <si>
+    <t>$NI_WT_FORM_6BLINDS</t>
+  </si>
+  <si>
+    <t>$NI_WT_FORM_8BLINDS</t>
+  </si>
+  <si>
+    <t>$NI_WT_FORM_ASYM2M</t>
+  </si>
+  <si>
+    <t>$NI_WT_FORM_ASYM2MP</t>
+  </si>
+  <si>
+    <t>$NI_WT_FORM_ASYM2P</t>
+  </si>
+  <si>
+    <t>$NI_WT_FORM_BEND2M</t>
+  </si>
+  <si>
+    <t>$NI_WT_FORM_BEND2MP</t>
+  </si>
+  <si>
+    <t>$NI_WT_FORM_BEND2P</t>
+  </si>
+  <si>
+    <t>$NI_WT_FORM_EXP</t>
+  </si>
+  <si>
+    <t>$NI_WT_FORM_FOLD</t>
+  </si>
+  <si>
+    <t>$NI_WT_FORM_LOG</t>
+  </si>
+  <si>
+    <t>$NI_WT_FORM_LOGEXP</t>
+  </si>
+  <si>
+    <t>$NI_WT_FORM_SATURATE</t>
+  </si>
+  <si>
+    <t>$NI_WT_FORM_SEESAW</t>
+  </si>
+  <si>
+    <t>$NI_WT_FORM_SYNC4</t>
+  </si>
+  <si>
+    <t>$NI_WT_FORM_SYNC5</t>
+  </si>
+  <si>
+    <t>$NI_WT_FORM_SYNC6</t>
+  </si>
+  <si>
+    <t>$NI_WT_FORM_WRAP</t>
+  </si>
+  <si>
+    <t>$UI_WAVEFORM_TABLE_IS_BIPOL</t>
+  </si>
+  <si>
+    <t>$UI_WF_PROP_MIDI_DRAG_START</t>
+  </si>
+  <si>
+    <t>$UI_WF_PROP_TABLE_IDX_HIGHL</t>
   </si>
 </sst>
 </file>
@@ -12428,10 +12845,10 @@
   <dimension ref="A1:D1500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1175" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1320" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="A1210" sqref="A1210"/>
+      <selection pane="bottomRight" activeCell="D1341" sqref="D1341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="18"/>
@@ -25696,7 +26113,7 @@
       <c r="B1205" s="3"/>
       <c r="C1205" s="12"/>
       <c r="D1205" s="17" t="str">
-        <f t="shared" ref="D1205:D1210" si="26">CONCATENATE( "Built-in Variable: ", A1205 )</f>
+        <f t="shared" ref="D1205:D1268" si="26">CONCATENATE( "Built-in Variable: ", A1205 )</f>
         <v>Built-in Variable: ~NI_MATH_E</v>
       </c>
     </row>
@@ -25745,838 +26162,1533 @@
       </c>
     </row>
     <row r="1210" spans="1:4">
-      <c r="A1210" s="6"/>
+      <c r="A1210" s="6" t="s">
+        <v>2286</v>
+      </c>
       <c r="B1210" s="3"/>
       <c r="C1210" s="12"/>
-      <c r="D1210" s="6"/>
+      <c r="D1210" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $CONTROL_PAR_DND_ACCEPT_MIDI</v>
+      </c>
     </row>
     <row r="1211" spans="1:4">
-      <c r="A1211" s="6"/>
+      <c r="A1211" s="6" t="s">
+        <v>2287</v>
+      </c>
       <c r="B1211" s="3"/>
       <c r="C1211" s="12"/>
-      <c r="D1211" s="6"/>
+      <c r="D1211" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $CONTROL_PAR_IDENTIFIER</v>
+      </c>
     </row>
     <row r="1212" spans="1:4">
-      <c r="A1212" s="6"/>
+      <c r="A1212" s="6" t="s">
+        <v>2288</v>
+      </c>
       <c r="B1212" s="3"/>
       <c r="C1212" s="12"/>
-      <c r="D1212" s="6"/>
+      <c r="D1212" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $CONTROL_PAR_SHORT_NAME</v>
+      </c>
     </row>
     <row r="1213" spans="1:4">
-      <c r="A1213" s="6"/>
+      <c r="A1213" s="6" t="s">
+        <v>2289</v>
+      </c>
       <c r="B1213" s="3"/>
       <c r="C1213" s="12"/>
-      <c r="D1213" s="6"/>
+      <c r="D1213" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $CONTROL_PAR_VALUEPOS_Y</v>
+      </c>
     </row>
     <row r="1214" spans="1:4">
-      <c r="A1214" s="6"/>
+      <c r="A1214" s="6" t="s">
+        <v>2290</v>
+      </c>
       <c r="B1214" s="3"/>
       <c r="C1214" s="12"/>
-      <c r="D1214" s="6"/>
+      <c r="D1214" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $CONTROL_PAR_WAVETABLE</v>
+      </c>
     </row>
     <row r="1215" spans="1:4">
-      <c r="A1215" s="6"/>
+      <c r="A1215" s="6" t="s">
+        <v>2291</v>
+      </c>
       <c r="B1215" s="3"/>
       <c r="C1215" s="12"/>
-      <c r="D1215" s="6"/>
+      <c r="D1215" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $EFFECT_TYPE_BIGFUZZ</v>
+      </c>
     </row>
     <row r="1216" spans="1:4">
-      <c r="A1216" s="6"/>
+      <c r="A1216" s="6" t="s">
+        <v>2292</v>
+      </c>
       <c r="B1216" s="3"/>
       <c r="C1216" s="12"/>
-      <c r="D1216" s="6"/>
+      <c r="D1216" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $EFFECT_TYPE_BITE</v>
+      </c>
     </row>
     <row r="1217" spans="1:4">
-      <c r="A1217" s="6"/>
+      <c r="A1217" s="6" t="s">
+        <v>2293</v>
+      </c>
       <c r="B1217" s="3"/>
       <c r="C1217" s="12"/>
-      <c r="D1217" s="6"/>
+      <c r="D1217" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $EFFECT_TYPE_DIRT</v>
+      </c>
     </row>
     <row r="1218" spans="1:4">
-      <c r="A1218" s="6"/>
+      <c r="A1218" s="6" t="s">
+        <v>2294</v>
+      </c>
       <c r="B1218" s="3"/>
       <c r="C1218" s="12"/>
-      <c r="D1218" s="6"/>
+      <c r="D1218" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $EFFECT_TYPE_EP_PREAMPS</v>
+      </c>
     </row>
     <row r="1219" spans="1:4">
-      <c r="A1219" s="6"/>
+      <c r="A1219" s="6" t="s">
+        <v>2295</v>
+      </c>
       <c r="B1219" s="3"/>
       <c r="C1219" s="12"/>
-      <c r="D1219" s="6"/>
+      <c r="D1219" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $EFFECT_TYPE_FREAK</v>
+      </c>
     </row>
     <row r="1220" spans="1:4">
-      <c r="A1220" s="6"/>
+      <c r="A1220" s="6" t="s">
+        <v>2296</v>
+      </c>
       <c r="B1220" s="3"/>
       <c r="C1220" s="12"/>
-      <c r="D1220" s="6"/>
+      <c r="D1220" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $EFFECT_TYPE_FUZZ</v>
+      </c>
     </row>
     <row r="1221" spans="1:4">
-      <c r="A1221" s="6"/>
+      <c r="A1221" s="6" t="s">
+        <v>2297</v>
+      </c>
       <c r="B1221" s="3"/>
       <c r="C1221" s="12"/>
-      <c r="D1221" s="6"/>
+      <c r="D1221" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $EFFECT_TYPE_RAUM</v>
+      </c>
     </row>
     <row r="1222" spans="1:4">
-      <c r="A1222" s="6"/>
+      <c r="A1222" s="6" t="s">
+        <v>2298</v>
+      </c>
       <c r="B1222" s="3"/>
       <c r="C1222" s="12"/>
-      <c r="D1222" s="6"/>
+      <c r="D1222" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $EFFECT_TYPE_STEREO_TUNE</v>
+      </c>
     </row>
     <row r="1223" spans="1:4">
-      <c r="A1223" s="6"/>
+      <c r="A1223" s="6" t="s">
+        <v>2299</v>
+      </c>
       <c r="B1223" s="3"/>
       <c r="C1223" s="12"/>
-      <c r="D1223" s="6"/>
+      <c r="D1223" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $EFFECT_TYPE_TWINDELAY</v>
+      </c>
     </row>
     <row r="1224" spans="1:4">
-      <c r="A1224" s="6"/>
+      <c r="A1224" s="6" t="s">
+        <v>2300</v>
+      </c>
       <c r="B1224" s="3"/>
       <c r="C1224" s="12"/>
-      <c r="D1224" s="6"/>
+      <c r="D1224" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $EFFECT_TYPE_VIBRATO_CHORUS</v>
+      </c>
     </row>
     <row r="1225" spans="1:4">
-      <c r="A1225" s="6"/>
+      <c r="A1225" s="6" t="s">
+        <v>2301</v>
+      </c>
       <c r="B1225" s="3"/>
       <c r="C1225" s="12"/>
-      <c r="D1225" s="6"/>
+      <c r="D1225" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $EFFECT_TYPE_WOWFLUTTER</v>
+      </c>
     </row>
     <row r="1226" spans="1:4">
-      <c r="A1226" s="6"/>
+      <c r="A1226" s="6" t="s">
+        <v>2302</v>
+      </c>
       <c r="B1226" s="3"/>
       <c r="C1226" s="12"/>
-      <c r="D1226" s="6"/>
+      <c r="D1226" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_BIGFUZZ_BASS</v>
+      </c>
     </row>
     <row r="1227" spans="1:4">
-      <c r="A1227" s="6"/>
+      <c r="A1227" s="6" t="s">
+        <v>2303</v>
+      </c>
       <c r="B1227" s="3"/>
       <c r="C1227" s="12"/>
-      <c r="D1227" s="6"/>
+      <c r="D1227" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_BIGFUZZ_MONO</v>
+      </c>
     </row>
     <row r="1228" spans="1:4">
-      <c r="A1228" s="6"/>
+      <c r="A1228" s="6" t="s">
+        <v>2304</v>
+      </c>
       <c r="B1228" s="3"/>
       <c r="C1228" s="12"/>
-      <c r="D1228" s="6"/>
+      <c r="D1228" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_BIGFUZZ_SUSTAIN</v>
+      </c>
     </row>
     <row r="1229" spans="1:4">
-      <c r="A1229" s="6"/>
+      <c r="A1229" s="6" t="s">
+        <v>2305</v>
+      </c>
       <c r="B1229" s="3"/>
       <c r="C1229" s="12"/>
-      <c r="D1229" s="6"/>
+      <c r="D1229" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_BIGFUZZ_TONE</v>
+      </c>
     </row>
     <row r="1230" spans="1:4">
-      <c r="A1230" s="6"/>
+      <c r="A1230" s="6" t="s">
+        <v>2306</v>
+      </c>
       <c r="B1230" s="3"/>
       <c r="C1230" s="12"/>
-      <c r="D1230" s="6"/>
+      <c r="D1230" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_BIGFUZZ_TREBLE</v>
+      </c>
     </row>
     <row r="1231" spans="1:4">
-      <c r="A1231" s="6"/>
+      <c r="A1231" s="6" t="s">
+        <v>2307</v>
+      </c>
       <c r="B1231" s="3"/>
       <c r="C1231" s="12"/>
-      <c r="D1231" s="6"/>
+      <c r="D1231" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_EPP_DRIVE</v>
+      </c>
     </row>
     <row r="1232" spans="1:4">
-      <c r="A1232" s="6"/>
+      <c r="A1232" s="6" t="s">
+        <v>2308</v>
+      </c>
       <c r="B1232" s="3"/>
       <c r="C1232" s="12"/>
-      <c r="D1232" s="6"/>
+      <c r="D1232" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_EPP_DRIVE_MODE</v>
+      </c>
     </row>
     <row r="1233" spans="1:4">
-      <c r="A1233" s="6"/>
+      <c r="A1233" s="6" t="s">
+        <v>2309</v>
+      </c>
       <c r="B1233" s="3"/>
       <c r="C1233" s="12"/>
-      <c r="D1233" s="6"/>
+      <c r="D1233" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_EPP_EQ_BASS</v>
+      </c>
     </row>
     <row r="1234" spans="1:4">
-      <c r="A1234" s="6"/>
+      <c r="A1234" s="6" t="s">
+        <v>2310</v>
+      </c>
       <c r="B1234" s="3"/>
       <c r="C1234" s="12"/>
-      <c r="D1234" s="6"/>
+      <c r="D1234" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_EPP_EQ_MID</v>
+      </c>
     </row>
     <row r="1235" spans="1:4">
-      <c r="A1235" s="6"/>
+      <c r="A1235" s="6" t="s">
+        <v>2311</v>
+      </c>
       <c r="B1235" s="3"/>
       <c r="C1235" s="12"/>
-      <c r="D1235" s="6"/>
+      <c r="D1235" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_EPP_EQ_MODE</v>
+      </c>
     </row>
     <row r="1236" spans="1:4">
-      <c r="A1236" s="6"/>
+      <c r="A1236" s="6" t="s">
+        <v>2312</v>
+      </c>
       <c r="B1236" s="3"/>
       <c r="C1236" s="12"/>
-      <c r="D1236" s="6"/>
+      <c r="D1236" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_EPP_EQ_TREBLE</v>
+      </c>
     </row>
     <row r="1237" spans="1:4">
-      <c r="A1237" s="6"/>
+      <c r="A1237" s="6" t="s">
+        <v>2313</v>
+      </c>
       <c r="B1237" s="3"/>
       <c r="C1237" s="12"/>
-      <c r="D1237" s="6"/>
+      <c r="D1237" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_EPP_MONO</v>
+      </c>
     </row>
     <row r="1238" spans="1:4">
-      <c r="A1238" s="6"/>
+      <c r="A1238" s="6" t="s">
+        <v>2314</v>
+      </c>
       <c r="B1238" s="3"/>
       <c r="C1238" s="12"/>
-      <c r="D1238" s="6"/>
+      <c r="D1238" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_EPP_PASSIVE_BASS</v>
+      </c>
     </row>
     <row r="1239" spans="1:4">
-      <c r="A1239" s="6"/>
+      <c r="A1239" s="6" t="s">
+        <v>2315</v>
+      </c>
       <c r="B1239" s="3"/>
       <c r="C1239" s="12"/>
-      <c r="D1239" s="6"/>
+      <c r="D1239" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_EPP_TREMOLO_AMOUNT</v>
+      </c>
     </row>
     <row r="1240" spans="1:4">
-      <c r="A1240" s="6"/>
+      <c r="A1240" s="6" t="s">
+        <v>2316</v>
+      </c>
       <c r="B1240" s="3"/>
       <c r="C1240" s="12"/>
-      <c r="D1240" s="6"/>
+      <c r="D1240" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_EPP_TREMOLO_MODE</v>
+      </c>
     </row>
     <row r="1241" spans="1:4">
-      <c r="A1241" s="6"/>
+      <c r="A1241" s="6" t="s">
+        <v>2317</v>
+      </c>
       <c r="B1241" s="3"/>
       <c r="C1241" s="12"/>
-      <c r="D1241" s="6"/>
+      <c r="D1241" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_EPP_TREMOLO_RATE</v>
+      </c>
     </row>
     <row r="1242" spans="1:4">
-      <c r="A1242" s="6"/>
+      <c r="A1242" s="6" t="s">
+        <v>2318</v>
+      </c>
       <c r="B1242" s="3"/>
       <c r="C1242" s="12"/>
-      <c r="D1242" s="6"/>
+      <c r="D1242" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_EPP_TREMOLO_RATE_UNIT</v>
+      </c>
     </row>
     <row r="1243" spans="1:4">
-      <c r="A1243" s="6"/>
+      <c r="A1243" s="6" t="s">
+        <v>2319</v>
+      </c>
       <c r="B1243" s="3"/>
       <c r="C1243" s="12"/>
-      <c r="D1243" s="6"/>
+      <c r="D1243" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_EPP_TREMOLO_WAVE</v>
+      </c>
     </row>
     <row r="1244" spans="1:4">
-      <c r="A1244" s="6"/>
+      <c r="A1244" s="6" t="s">
+        <v>2320</v>
+      </c>
       <c r="B1244" s="3"/>
       <c r="C1244" s="12"/>
-      <c r="D1244" s="6"/>
+      <c r="D1244" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_EPP_TREMOLO_WIDTH</v>
+      </c>
     </row>
     <row r="1245" spans="1:4">
-      <c r="A1245" s="6"/>
+      <c r="A1245" s="6" t="s">
+        <v>2321</v>
+      </c>
       <c r="B1245" s="3"/>
       <c r="C1245" s="12"/>
-      <c r="D1245" s="6"/>
+      <c r="D1245" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_FLEXENV_LOOP_END</v>
+      </c>
     </row>
     <row r="1246" spans="1:4">
-      <c r="A1246" s="6"/>
+      <c r="A1246" s="6" t="s">
+        <v>2322</v>
+      </c>
       <c r="B1246" s="3"/>
       <c r="C1246" s="12"/>
-      <c r="D1246" s="6"/>
+      <c r="D1246" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_FLEXENV_LOOP_START</v>
+      </c>
     </row>
     <row r="1247" spans="1:4">
-      <c r="A1247" s="6"/>
+      <c r="A1247" s="6" t="s">
+        <v>2323</v>
+      </c>
       <c r="B1247" s="3"/>
       <c r="C1247" s="12"/>
-      <c r="D1247" s="6"/>
+      <c r="D1247" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_FLEXENV_NUM_STAGES</v>
+      </c>
     </row>
     <row r="1248" spans="1:4">
-      <c r="A1248" s="6"/>
+      <c r="A1248" s="6" t="s">
+        <v>2324</v>
+      </c>
       <c r="B1248" s="3"/>
       <c r="C1248" s="12"/>
-      <c r="D1248" s="6"/>
+      <c r="D1248" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_FLEXENV_STAGE_LEVEL</v>
+      </c>
     </row>
     <row r="1249" spans="1:4">
-      <c r="A1249" s="6"/>
+      <c r="A1249" s="6" t="s">
+        <v>2325</v>
+      </c>
       <c r="B1249" s="3"/>
       <c r="C1249" s="12"/>
-      <c r="D1249" s="6"/>
+      <c r="D1249" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_FLEXENV_STAGE_SLOPE</v>
+      </c>
     </row>
     <row r="1250" spans="1:4">
-      <c r="A1250" s="6"/>
+      <c r="A1250" s="6" t="s">
+        <v>2326</v>
+      </c>
       <c r="B1250" s="3"/>
       <c r="C1250" s="12"/>
-      <c r="D1250" s="6"/>
+      <c r="D1250" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_FLEXENV_STAGE_TIME</v>
+      </c>
     </row>
     <row r="1251" spans="1:4">
-      <c r="A1251" s="6"/>
+      <c r="A1251" s="6" t="s">
+        <v>2327</v>
+      </c>
       <c r="B1251" s="3"/>
       <c r="C1251" s="12"/>
-      <c r="D1251" s="6"/>
+      <c r="D1251" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_FUZZ_AMOUNT</v>
+      </c>
     </row>
     <row r="1252" spans="1:4">
-      <c r="A1252" s="6"/>
+      <c r="A1252" s="6" t="s">
+        <v>2328</v>
+      </c>
       <c r="B1252" s="3"/>
       <c r="C1252" s="12"/>
-      <c r="D1252" s="6"/>
+      <c r="D1252" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_FUZZ_BASS</v>
+      </c>
     </row>
     <row r="1253" spans="1:4">
-      <c r="A1253" s="6"/>
+      <c r="A1253" s="6" t="s">
+        <v>2329</v>
+      </c>
       <c r="B1253" s="3"/>
       <c r="C1253" s="12"/>
-      <c r="D1253" s="6"/>
+      <c r="D1253" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_FUZZ_MONO</v>
+      </c>
     </row>
     <row r="1254" spans="1:4">
-      <c r="A1254" s="6"/>
+      <c r="A1254" s="6" t="s">
+        <v>2330</v>
+      </c>
       <c r="B1254" s="3"/>
       <c r="C1254" s="12"/>
-      <c r="D1254" s="6"/>
+      <c r="D1254" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_FUZZ_TREBLE</v>
+      </c>
     </row>
     <row r="1255" spans="1:4">
-      <c r="A1255" s="6"/>
+      <c r="A1255" s="6" t="s">
+        <v>2331</v>
+      </c>
       <c r="B1255" s="3"/>
       <c r="C1255" s="12"/>
-      <c r="D1255" s="6"/>
+      <c r="D1255" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_RINGMOD_LFO_RATE_UNIT</v>
+      </c>
     </row>
     <row r="1256" spans="1:4">
-      <c r="A1256" s="6"/>
+      <c r="A1256" s="6" t="s">
+        <v>2332</v>
+      </c>
       <c r="B1256" s="3"/>
       <c r="C1256" s="12"/>
-      <c r="D1256" s="6"/>
+      <c r="D1256" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_SEQ_HP_FREQ</v>
+      </c>
     </row>
     <row r="1257" spans="1:4">
-      <c r="A1257" s="6"/>
+      <c r="A1257" s="6" t="s">
+        <v>2333</v>
+      </c>
       <c r="B1257" s="3"/>
       <c r="C1257" s="12"/>
-      <c r="D1257" s="6"/>
+      <c r="D1257" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_STEPSEQ_STEPS</v>
+      </c>
     </row>
     <row r="1258" spans="1:4">
-      <c r="A1258" s="6"/>
+      <c r="A1258" s="6" t="s">
+        <v>2334</v>
+      </c>
       <c r="B1258" s="3"/>
       <c r="C1258" s="12"/>
-      <c r="D1258" s="6"/>
+      <c r="D1258" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_STEREOTUNE_DRIFT</v>
+      </c>
     </row>
     <row r="1259" spans="1:4">
-      <c r="A1259" s="6"/>
+      <c r="A1259" s="6" t="s">
+        <v>2335</v>
+      </c>
       <c r="B1259" s="3"/>
       <c r="C1259" s="12"/>
-      <c r="D1259" s="6"/>
+      <c r="D1259" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_STEREOTUNE_MIX</v>
+      </c>
     </row>
     <row r="1260" spans="1:4">
-      <c r="A1260" s="6"/>
+      <c r="A1260" s="6" t="s">
+        <v>2336</v>
+      </c>
       <c r="B1260" s="3"/>
       <c r="C1260" s="12"/>
-      <c r="D1260" s="6"/>
+      <c r="D1260" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_STEREOTUNE_SPLIT</v>
+      </c>
     </row>
     <row r="1261" spans="1:4">
-      <c r="A1261" s="6"/>
+      <c r="A1261" s="6" t="s">
+        <v>2337</v>
+      </c>
       <c r="B1261" s="3"/>
       <c r="C1261" s="12"/>
-      <c r="D1261" s="6"/>
+      <c r="D1261" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $ENGINE_PAR_STEREOTUNE_SPREAD</v>
+      </c>
     </row>
     <row r="1262" spans="1:4">
-      <c r="A1262" s="6"/>
+      <c r="A1262" s="6" t="s">
+        <v>2338</v>
+      </c>
       <c r="B1262" s="3"/>
       <c r="C1262" s="12"/>
-      <c r="D1262" s="6"/>
+      <c r="D1262" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $EVENT_PAR_MIDI_CHANNNEL</v>
+      </c>
     </row>
     <row r="1263" spans="1:4">
-      <c r="A1263" s="6"/>
+      <c r="A1263" s="6" t="s">
+        <v>2339</v>
+      </c>
       <c r="B1263" s="3"/>
       <c r="C1263" s="12"/>
-      <c r="D1263" s="6"/>
+      <c r="D1263" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $NI_CB_TYPE_UI_CONTROLS</v>
+      </c>
     </row>
     <row r="1264" spans="1:4">
-      <c r="A1264" s="6"/>
+      <c r="A1264" s="6" t="s">
+        <v>2340</v>
+      </c>
       <c r="B1264" s="3"/>
       <c r="C1264" s="12"/>
-      <c r="D1264" s="6"/>
+      <c r="D1264" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $NI_CONTROL_TYPE_BUTTON</v>
+      </c>
     </row>
     <row r="1265" spans="1:4">
-      <c r="A1265" s="6"/>
+      <c r="A1265" s="6" t="s">
+        <v>2341</v>
+      </c>
       <c r="B1265" s="3"/>
       <c r="C1265" s="12"/>
-      <c r="D1265" s="6"/>
+      <c r="D1265" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $NI_CONTROL_TYPE_FILE_SELECTOR</v>
+      </c>
     </row>
     <row r="1266" spans="1:4">
-      <c r="A1266" s="6"/>
+      <c r="A1266" s="6" t="s">
+        <v>2342</v>
+      </c>
       <c r="B1266" s="3"/>
       <c r="C1266" s="12"/>
-      <c r="D1266" s="6"/>
+      <c r="D1266" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $NI_CONTROL_TYPE_KNOB</v>
+      </c>
     </row>
     <row r="1267" spans="1:4">
-      <c r="A1267" s="6"/>
+      <c r="A1267" s="6" t="s">
+        <v>2343</v>
+      </c>
       <c r="B1267" s="3"/>
       <c r="C1267" s="12"/>
-      <c r="D1267" s="6"/>
+      <c r="D1267" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $NI_CONTROL_TYPE_LABEL</v>
+      </c>
     </row>
     <row r="1268" spans="1:4">
-      <c r="A1268" s="6"/>
+      <c r="A1268" s="6" t="s">
+        <v>2344</v>
+      </c>
       <c r="B1268" s="3"/>
       <c r="C1268" s="12"/>
-      <c r="D1268" s="6"/>
+      <c r="D1268" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>Built-in Variable: $NI_CONTROL_TYPE_LEVEL_METER</v>
+      </c>
     </row>
     <row r="1269" spans="1:4">
-      <c r="A1269" s="6"/>
+      <c r="A1269" s="6" t="s">
+        <v>2345</v>
+      </c>
       <c r="B1269" s="3"/>
       <c r="C1269" s="12"/>
-      <c r="D1269" s="6"/>
+      <c r="D1269" s="6" t="str">
+        <f t="shared" ref="D1269:D1332" si="27">CONCATENATE( "Built-in Variable: ", A1269 )</f>
+        <v>Built-in Variable: $NI_CONTROL_TYPE_MENU</v>
+      </c>
     </row>
     <row r="1270" spans="1:4">
-      <c r="A1270" s="6"/>
+      <c r="A1270" s="6" t="s">
+        <v>2346</v>
+      </c>
       <c r="B1270" s="3"/>
       <c r="C1270" s="12"/>
-      <c r="D1270" s="6"/>
+      <c r="D1270" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_CONTROL_TYPE_MOUSE_AREA</v>
+      </c>
     </row>
     <row r="1271" spans="1:4">
-      <c r="A1271" s="6"/>
+      <c r="A1271" s="6" t="s">
+        <v>2347</v>
+      </c>
       <c r="B1271" s="3"/>
       <c r="C1271" s="12"/>
-      <c r="D1271" s="6"/>
+      <c r="D1271" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_CONTROL_TYPE_NONE</v>
+      </c>
     </row>
     <row r="1272" spans="1:4">
-      <c r="A1272" s="6"/>
+      <c r="A1272" s="6" t="s">
+        <v>2348</v>
+      </c>
       <c r="B1272" s="3"/>
       <c r="C1272" s="12"/>
-      <c r="D1272" s="6"/>
+      <c r="D1272" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_CONTROL_TYPE_PANEL</v>
+      </c>
     </row>
     <row r="1273" spans="1:4">
-      <c r="A1273" s="6"/>
+      <c r="A1273" s="6" t="s">
+        <v>2349</v>
+      </c>
       <c r="B1273" s="3"/>
       <c r="C1273" s="12"/>
-      <c r="D1273" s="6"/>
+      <c r="D1273" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_CONTROL_TYPE_SLIDER</v>
+      </c>
     </row>
     <row r="1274" spans="1:4">
-      <c r="A1274" s="6"/>
+      <c r="A1274" s="6" t="s">
+        <v>2350</v>
+      </c>
       <c r="B1274" s="3"/>
       <c r="C1274" s="12"/>
-      <c r="D1274" s="6"/>
+      <c r="D1274" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_CONTROL_TYPE_SWITCH</v>
+      </c>
     </row>
     <row r="1275" spans="1:4">
-      <c r="A1275" s="6"/>
+      <c r="A1275" s="6" t="s">
+        <v>2351</v>
+      </c>
       <c r="B1275" s="3"/>
       <c r="C1275" s="12"/>
-      <c r="D1275" s="6"/>
+      <c r="D1275" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_CONTROL_TYPE_TABLE</v>
+      </c>
     </row>
     <row r="1276" spans="1:4">
-      <c r="A1276" s="6"/>
+      <c r="A1276" s="6" t="s">
+        <v>2352</v>
+      </c>
       <c r="B1276" s="3"/>
       <c r="C1276" s="12"/>
-      <c r="D1276" s="6"/>
+      <c r="D1276" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_CONTROL_TYPE_TEXT_EDIT</v>
+      </c>
     </row>
     <row r="1277" spans="1:4">
-      <c r="A1277" s="6"/>
+      <c r="A1277" s="6" t="s">
+        <v>2353</v>
+      </c>
       <c r="B1277" s="3"/>
       <c r="C1277" s="12"/>
-      <c r="D1277" s="6"/>
+      <c r="D1277" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_CONTROL_TYPE_VALUE_EDIT</v>
+      </c>
     </row>
     <row r="1278" spans="1:4">
-      <c r="A1278" s="6"/>
+      <c r="A1278" s="6" t="s">
+        <v>2354</v>
+      </c>
       <c r="B1278" s="3"/>
       <c r="C1278" s="12"/>
-      <c r="D1278" s="6"/>
+      <c r="D1278" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_CONTROL_TYPE_WAVEFORM</v>
+      </c>
     </row>
     <row r="1279" spans="1:4">
-      <c r="A1279" s="6"/>
+      <c r="A1279" s="6" t="s">
+        <v>2355</v>
+      </c>
       <c r="B1279" s="3"/>
       <c r="C1279" s="12"/>
-      <c r="D1279" s="6"/>
+      <c r="D1279" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_CONTROL_TYPE_WAVETABLE</v>
+      </c>
     </row>
     <row r="1280" spans="1:4">
-      <c r="A1280" s="6"/>
+      <c r="A1280" s="6" t="s">
+        <v>2356</v>
+      </c>
       <c r="B1280" s="3"/>
       <c r="C1280" s="12"/>
-      <c r="D1280" s="6"/>
+      <c r="D1280" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_CONTROL_TYPE_XY</v>
+      </c>
     </row>
     <row r="1281" spans="1:4">
-      <c r="A1281" s="6"/>
+      <c r="A1281" s="6" t="s">
+        <v>2357</v>
+      </c>
       <c r="B1281" s="3"/>
       <c r="C1281" s="12"/>
-      <c r="D1281" s="6"/>
+      <c r="D1281" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_DATE_DAY</v>
+      </c>
     </row>
     <row r="1282" spans="1:4">
-      <c r="A1282" s="6"/>
+      <c r="A1282" s="6" t="s">
+        <v>2358</v>
+      </c>
       <c r="B1282" s="3"/>
       <c r="C1282" s="12"/>
-      <c r="D1282" s="6"/>
+      <c r="D1282" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_DATE_MONTH</v>
+      </c>
     </row>
     <row r="1283" spans="1:4">
-      <c r="A1283" s="6"/>
+      <c r="A1283" s="6" t="s">
+        <v>2359</v>
+      </c>
       <c r="B1283" s="3"/>
       <c r="C1283" s="12"/>
-      <c r="D1283" s="6"/>
+      <c r="D1283" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_DATE_YEAR</v>
+      </c>
     </row>
     <row r="1284" spans="1:4">
-      <c r="A1284" s="6"/>
+      <c r="A1284" s="6" t="s">
+        <v>2360</v>
+      </c>
       <c r="B1284" s="3"/>
       <c r="C1284" s="12"/>
-      <c r="D1284" s="6"/>
+      <c r="D1284" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_EPP_DRIVE_MODE_BYPASS</v>
+      </c>
     </row>
     <row r="1285" spans="1:4">
-      <c r="A1285" s="6"/>
+      <c r="A1285" s="6" t="s">
+        <v>2361</v>
+      </c>
       <c r="B1285" s="3"/>
       <c r="C1285" s="12"/>
-      <c r="D1285" s="6"/>
+      <c r="D1285" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_EPP_DRIVE_MODE_DE_TUBE</v>
+      </c>
     </row>
     <row r="1286" spans="1:4">
-      <c r="A1286" s="6"/>
+      <c r="A1286" s="6" t="s">
+        <v>2362</v>
+      </c>
       <c r="B1286" s="3"/>
       <c r="C1286" s="12"/>
-      <c r="D1286" s="6"/>
+      <c r="D1286" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_EPP_DRIVE_MODE_TAPE</v>
+      </c>
     </row>
     <row r="1287" spans="1:4">
-      <c r="A1287" s="6"/>
+      <c r="A1287" s="6" t="s">
+        <v>2363</v>
+      </c>
       <c r="B1287" s="3"/>
       <c r="C1287" s="12"/>
-      <c r="D1287" s="6"/>
+      <c r="D1287" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_EPP_DRIVE_MODE_TRANSISTOR</v>
+      </c>
     </row>
     <row r="1288" spans="1:4">
-      <c r="A1288" s="6"/>
+      <c r="A1288" s="6" t="s">
+        <v>2364</v>
+      </c>
       <c r="B1288" s="3"/>
       <c r="C1288" s="12"/>
-      <c r="D1288" s="6"/>
+      <c r="D1288" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_EPP_DRIVE_MODE_US_TUBE</v>
+      </c>
     </row>
     <row r="1289" spans="1:4">
-      <c r="A1289" s="6"/>
+      <c r="A1289" s="6" t="s">
+        <v>2365</v>
+      </c>
       <c r="B1289" s="3"/>
       <c r="C1289" s="12"/>
-      <c r="D1289" s="6"/>
+      <c r="D1289" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_EPP_EQ_MODE_70S</v>
+      </c>
     </row>
     <row r="1290" spans="1:4">
-      <c r="A1290" s="6"/>
+      <c r="A1290" s="6" t="s">
+        <v>2366</v>
+      </c>
       <c r="B1290" s="3"/>
       <c r="C1290" s="12"/>
-      <c r="D1290" s="6"/>
+      <c r="D1290" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_EPP_EQ_MODE_80S</v>
+      </c>
     </row>
     <row r="1291" spans="1:4">
-      <c r="A1291" s="6"/>
+      <c r="A1291" s="6" t="s">
+        <v>2367</v>
+      </c>
       <c r="B1291" s="3"/>
       <c r="C1291" s="12"/>
-      <c r="D1291" s="6"/>
+      <c r="D1291" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_EPP_EQ_MODE_BYPASS</v>
+      </c>
     </row>
     <row r="1292" spans="1:4">
-      <c r="A1292" s="6"/>
+      <c r="A1292" s="6" t="s">
+        <v>2368</v>
+      </c>
       <c r="B1292" s="3"/>
       <c r="C1292" s="12"/>
-      <c r="D1292" s="6"/>
+      <c r="D1292" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_EPP_EQ_MODE_E_GRAND</v>
+      </c>
     </row>
     <row r="1293" spans="1:4">
-      <c r="A1293" s="6"/>
+      <c r="A1293" s="6" t="s">
+        <v>2369</v>
+      </c>
       <c r="B1293" s="3"/>
       <c r="C1293" s="12"/>
-      <c r="D1293" s="6"/>
+      <c r="D1293" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_EPP_EQ_MODE_PASSIVE</v>
+      </c>
     </row>
     <row r="1294" spans="1:4">
-      <c r="A1294" s="6"/>
+      <c r="A1294" s="6" t="s">
+        <v>2370</v>
+      </c>
       <c r="B1294" s="3"/>
       <c r="C1294" s="12"/>
-      <c r="D1294" s="6"/>
+      <c r="D1294" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_EPP_TREMOLO_MODE_70S</v>
+      </c>
     </row>
     <row r="1295" spans="1:4">
-      <c r="A1295" s="6"/>
+      <c r="A1295" s="6" t="s">
+        <v>2371</v>
+      </c>
       <c r="B1295" s="3"/>
       <c r="C1295" s="12"/>
-      <c r="D1295" s="6"/>
+      <c r="D1295" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_EPP_TREMOLO_MODE_80S</v>
+      </c>
     </row>
     <row r="1296" spans="1:4">
-      <c r="A1296" s="6"/>
+      <c r="A1296" s="6" t="s">
+        <v>2372</v>
+      </c>
       <c r="B1296" s="3"/>
       <c r="C1296" s="12"/>
-      <c r="D1296" s="6"/>
+      <c r="D1296" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_EPP_TREMOLO_MODE_BYPASS</v>
+      </c>
     </row>
     <row r="1297" spans="1:4">
-      <c r="A1297" s="6"/>
+      <c r="A1297" s="6" t="s">
+        <v>2373</v>
+      </c>
       <c r="B1297" s="3"/>
       <c r="C1297" s="12"/>
-      <c r="D1297" s="6"/>
+      <c r="D1297" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_EPP_TREMOLO_MODE_E_GRAND</v>
+      </c>
     </row>
     <row r="1298" spans="1:4">
-      <c r="A1298" s="6"/>
+      <c r="A1298" s="6" t="s">
+        <v>2374</v>
+      </c>
       <c r="B1298" s="3"/>
       <c r="C1298" s="12"/>
-      <c r="D1298" s="6"/>
+      <c r="D1298" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_EPP_TREMOLO_MODE_GUITAR</v>
+      </c>
     </row>
     <row r="1299" spans="1:4">
-      <c r="A1299" s="6"/>
+      <c r="A1299" s="6" t="s">
+        <v>2375</v>
+      </c>
       <c r="B1299" s="3"/>
       <c r="C1299" s="12"/>
-      <c r="D1299" s="6"/>
+      <c r="D1299" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_EPP_TREMOLO_MODE_SYNTH</v>
+      </c>
     </row>
     <row r="1300" spans="1:4">
-      <c r="A1300" s="6"/>
+      <c r="A1300" s="6" t="s">
+        <v>2376</v>
+      </c>
       <c r="B1300" s="3"/>
       <c r="C1300" s="12"/>
-      <c r="D1300" s="6"/>
+      <c r="D1300" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_EPP_TREMOLO_WAVE_SAW_DOWN</v>
+      </c>
     </row>
     <row r="1301" spans="1:4">
-      <c r="A1301" s="6"/>
+      <c r="A1301" s="6" t="s">
+        <v>2377</v>
+      </c>
       <c r="B1301" s="3"/>
       <c r="C1301" s="12"/>
-      <c r="D1301" s="6"/>
+      <c r="D1301" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_EPP_TREMOLO_WAVE_SAW_UP</v>
+      </c>
     </row>
     <row r="1302" spans="1:4">
-      <c r="A1302" s="6"/>
+      <c r="A1302" s="6" t="s">
+        <v>2378</v>
+      </c>
       <c r="B1302" s="3"/>
       <c r="C1302" s="12"/>
-      <c r="D1302" s="6"/>
+      <c r="D1302" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_EPP_TREMOLO_WAVE_SINE</v>
+      </c>
     </row>
     <row r="1303" spans="1:4">
-      <c r="A1303" s="6"/>
+      <c r="A1303" s="6" t="s">
+        <v>2379</v>
+      </c>
       <c r="B1303" s="3"/>
       <c r="C1303" s="12"/>
-      <c r="D1303" s="6"/>
+      <c r="D1303" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_EPP_TREMOLO_WAVE_SQUARE</v>
+      </c>
     </row>
     <row r="1304" spans="1:4">
-      <c r="A1304" s="6"/>
+      <c r="A1304" s="6" t="s">
+        <v>2380</v>
+      </c>
       <c r="B1304" s="3"/>
       <c r="C1304" s="12"/>
-      <c r="D1304" s="6"/>
+      <c r="D1304" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_EPP_TREMOLO_WAVE_TRIANGLE</v>
+      </c>
     </row>
     <row r="1305" spans="1:4">
-      <c r="A1305" s="6"/>
+      <c r="A1305" s="6" t="s">
+        <v>2381</v>
+      </c>
       <c r="B1305" s="3"/>
       <c r="C1305" s="12"/>
-      <c r="D1305" s="6"/>
+      <c r="D1305" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_HQI_MODE_HIGH</v>
+      </c>
     </row>
     <row r="1306" spans="1:4">
-      <c r="A1306" s="6"/>
+      <c r="A1306" s="6" t="s">
+        <v>2382</v>
+      </c>
       <c r="B1306" s="3"/>
       <c r="C1306" s="12"/>
-      <c r="D1306" s="6"/>
+      <c r="D1306" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_HQI_MODE_PERFECT</v>
+      </c>
     </row>
     <row r="1307" spans="1:4">
-      <c r="A1307" s="6"/>
+      <c r="A1307" s="6" t="s">
+        <v>2383</v>
+      </c>
       <c r="B1307" s="3"/>
       <c r="C1307" s="12"/>
-      <c r="D1307" s="6"/>
+      <c r="D1307" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_HQI_MODE_STANDARD</v>
+      </c>
     </row>
     <row r="1308" spans="1:4">
-      <c r="A1308" s="6"/>
+      <c r="A1308" s="6" t="s">
+        <v>2384</v>
+      </c>
       <c r="B1308" s="3"/>
       <c r="C1308" s="12"/>
-      <c r="D1308" s="6"/>
+      <c r="D1308" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_S1200_FILTER_HIGH</v>
+      </c>
     </row>
     <row r="1309" spans="1:4">
-      <c r="A1309" s="6"/>
+      <c r="A1309" s="6" t="s">
+        <v>2385</v>
+      </c>
       <c r="B1309" s="3"/>
       <c r="C1309" s="12"/>
-      <c r="D1309" s="6"/>
+      <c r="D1309" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_S1200_FILTER_HIGH_MID</v>
+      </c>
     </row>
     <row r="1310" spans="1:4">
-      <c r="A1310" s="6"/>
+      <c r="A1310" s="6" t="s">
+        <v>2386</v>
+      </c>
       <c r="B1310" s="3"/>
       <c r="C1310" s="12"/>
-      <c r="D1310" s="6"/>
+      <c r="D1310" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_S1200_FILTER_LOW</v>
+      </c>
     </row>
     <row r="1311" spans="1:4">
-      <c r="A1311" s="6"/>
+      <c r="A1311" s="6" t="s">
+        <v>2387</v>
+      </c>
       <c r="B1311" s="3"/>
       <c r="C1311" s="12"/>
-      <c r="D1311" s="6"/>
+      <c r="D1311" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_S1200_FILTER_LOW_MID</v>
+      </c>
     </row>
     <row r="1312" spans="1:4">
-      <c r="A1312" s="6"/>
+      <c r="A1312" s="6" t="s">
+        <v>2388</v>
+      </c>
       <c r="B1312" s="3"/>
       <c r="C1312" s="12"/>
-      <c r="D1312" s="6"/>
+      <c r="D1312" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_S1200_FILTER_NONE</v>
+      </c>
     </row>
     <row r="1313" spans="1:4">
-      <c r="A1313" s="6"/>
+      <c r="A1313" s="6" t="s">
+        <v>2389</v>
+      </c>
       <c r="B1313" s="3"/>
       <c r="C1313" s="12"/>
-      <c r="D1313" s="6"/>
+      <c r="D1313" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_SOURCE_MODE_BEAT_MACHINE</v>
+      </c>
     </row>
     <row r="1314" spans="1:4">
-      <c r="A1314" s="6"/>
+      <c r="A1314" s="6" t="s">
+        <v>2390</v>
+      </c>
       <c r="B1314" s="3"/>
       <c r="C1314" s="12"/>
-      <c r="D1314" s="6"/>
+      <c r="D1314" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_SOURCE_MODE_DFD</v>
+      </c>
     </row>
     <row r="1315" spans="1:4">
-      <c r="A1315" s="6"/>
+      <c r="A1315" s="6" t="s">
+        <v>2391</v>
+      </c>
       <c r="B1315" s="3"/>
       <c r="C1315" s="12"/>
-      <c r="D1315" s="6"/>
+      <c r="D1315" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_SOURCE_MODE_MP60_MACHINE</v>
+      </c>
     </row>
     <row r="1316" spans="1:4">
-      <c r="A1316" s="6"/>
+      <c r="A1316" s="6" t="s">
+        <v>2392</v>
+      </c>
       <c r="B1316" s="3"/>
       <c r="C1316" s="12"/>
-      <c r="D1316" s="6"/>
+      <c r="D1316" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_SOURCE_MODE_S1200_MACHINE</v>
+      </c>
     </row>
     <row r="1317" spans="1:4">
-      <c r="A1317" s="6"/>
+      <c r="A1317" s="6" t="s">
+        <v>2393</v>
+      </c>
       <c r="B1317" s="3"/>
       <c r="C1317" s="12"/>
-      <c r="D1317" s="6"/>
+      <c r="D1317" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_SOURCE_MODE_SAMPLER</v>
+      </c>
     </row>
     <row r="1318" spans="1:4">
-      <c r="A1318" s="6"/>
+      <c r="A1318" s="6" t="s">
+        <v>2394</v>
+      </c>
       <c r="B1318" s="3"/>
       <c r="C1318" s="12"/>
-      <c r="D1318" s="6"/>
+      <c r="D1318" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_SOURCE_MODE_TIME_MACHINE_1</v>
+      </c>
     </row>
     <row r="1319" spans="1:4">
-      <c r="A1319" s="6"/>
+      <c r="A1319" s="6" t="s">
+        <v>2395</v>
+      </c>
       <c r="B1319" s="3"/>
       <c r="C1319" s="12"/>
-      <c r="D1319" s="6"/>
+      <c r="D1319" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_SOURCE_MODE_TIME_MACHINE_2</v>
+      </c>
     </row>
     <row r="1320" spans="1:4">
-      <c r="A1320" s="6"/>
+      <c r="A1320" s="6" t="s">
+        <v>2396</v>
+      </c>
       <c r="B1320" s="3"/>
       <c r="C1320" s="12"/>
-      <c r="D1320" s="6"/>
+      <c r="D1320" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_SOURCE_MODE_TIME_MACHINE_PRO</v>
+      </c>
     </row>
     <row r="1321" spans="1:4">
-      <c r="A1321" s="6"/>
+      <c r="A1321" s="6" t="s">
+        <v>2397</v>
+      </c>
       <c r="B1321" s="3"/>
       <c r="C1321" s="12"/>
-      <c r="D1321" s="6"/>
+      <c r="D1321" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_SOURCE_MODE_TONE_MACHINE</v>
+      </c>
     </row>
     <row r="1322" spans="1:4">
-      <c r="A1322" s="6"/>
+      <c r="A1322" s="6" t="s">
+        <v>2398</v>
+      </c>
       <c r="B1322" s="3"/>
       <c r="C1322" s="12"/>
-      <c r="D1322" s="6"/>
+      <c r="D1322" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_SOURCE_MODE_WAVETABLE</v>
+      </c>
     </row>
     <row r="1323" spans="1:4">
-      <c r="A1323" s="6"/>
+      <c r="A1323" s="6" t="s">
+        <v>2399</v>
+      </c>
       <c r="B1323" s="3"/>
       <c r="C1323" s="12"/>
-      <c r="D1323" s="6"/>
+      <c r="D1323" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_TIME_HOUR</v>
+      </c>
     </row>
     <row r="1324" spans="1:4">
-      <c r="A1324" s="6"/>
+      <c r="A1324" s="6" t="s">
+        <v>2400</v>
+      </c>
       <c r="B1324" s="3"/>
       <c r="C1324" s="12"/>
-      <c r="D1324" s="6"/>
+      <c r="D1324" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_TIME_MINUTE</v>
+      </c>
     </row>
     <row r="1325" spans="1:4">
-      <c r="A1325" s="6"/>
+      <c r="A1325" s="6" t="s">
+        <v>2401</v>
+      </c>
       <c r="B1325" s="3"/>
       <c r="C1325" s="12"/>
-      <c r="D1325" s="6"/>
+      <c r="D1325" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_TIME_SECOND</v>
+      </c>
     </row>
     <row r="1326" spans="1:4">
-      <c r="A1326" s="6"/>
+      <c r="A1326" s="6" t="s">
+        <v>2402</v>
+      </c>
       <c r="B1326" s="3"/>
       <c r="C1326" s="12"/>
-      <c r="D1326" s="6"/>
+      <c r="D1326" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_WT_FORM_2BLINDS</v>
+      </c>
     </row>
     <row r="1327" spans="1:4">
-      <c r="A1327" s="6"/>
+      <c r="A1327" s="6" t="s">
+        <v>2403</v>
+      </c>
       <c r="B1327" s="3"/>
       <c r="C1327" s="12"/>
-      <c r="D1327" s="6"/>
+      <c r="D1327" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_WT_FORM_4BLINDS</v>
+      </c>
     </row>
     <row r="1328" spans="1:4">
-      <c r="A1328" s="6"/>
+      <c r="A1328" s="6" t="s">
+        <v>2404</v>
+      </c>
       <c r="B1328" s="3"/>
       <c r="C1328" s="12"/>
-      <c r="D1328" s="6"/>
+      <c r="D1328" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_WT_FORM_6BLINDS</v>
+      </c>
     </row>
     <row r="1329" spans="1:4">
-      <c r="A1329" s="6"/>
+      <c r="A1329" s="6" t="s">
+        <v>2405</v>
+      </c>
       <c r="B1329" s="3"/>
       <c r="C1329" s="12"/>
-      <c r="D1329" s="6"/>
+      <c r="D1329" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_WT_FORM_8BLINDS</v>
+      </c>
     </row>
     <row r="1330" spans="1:4">
-      <c r="A1330" s="6"/>
+      <c r="A1330" s="6" t="s">
+        <v>2406</v>
+      </c>
       <c r="B1330" s="3"/>
       <c r="C1330" s="12"/>
-      <c r="D1330" s="6"/>
+      <c r="D1330" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_WT_FORM_ASYM2M</v>
+      </c>
     </row>
     <row r="1331" spans="1:4">
-      <c r="A1331" s="6"/>
+      <c r="A1331" s="6" t="s">
+        <v>2407</v>
+      </c>
       <c r="B1331" s="3"/>
       <c r="C1331" s="12"/>
-      <c r="D1331" s="6"/>
+      <c r="D1331" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_WT_FORM_ASYM2MP</v>
+      </c>
     </row>
     <row r="1332" spans="1:4">
-      <c r="A1332" s="6"/>
+      <c r="A1332" s="6" t="s">
+        <v>2408</v>
+      </c>
       <c r="B1332" s="3"/>
       <c r="C1332" s="12"/>
-      <c r="D1332" s="6"/>
+      <c r="D1332" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>Built-in Variable: $NI_WT_FORM_ASYM2P</v>
+      </c>
     </row>
     <row r="1333" spans="1:4">
-      <c r="A1333" s="6"/>
+      <c r="A1333" s="6" t="s">
+        <v>2409</v>
+      </c>
       <c r="B1333" s="3"/>
       <c r="C1333" s="12"/>
-      <c r="D1333" s="6"/>
+      <c r="D1333" s="6" t="str">
+        <f t="shared" ref="D1333:D1348" si="28">CONCATENATE( "Built-in Variable: ", A1333 )</f>
+        <v>Built-in Variable: $NI_WT_FORM_BEND2M</v>
+      </c>
     </row>
     <row r="1334" spans="1:4">
-      <c r="A1334" s="6"/>
+      <c r="A1334" s="6" t="s">
+        <v>2410</v>
+      </c>
       <c r="B1334" s="3"/>
       <c r="C1334" s="12"/>
-      <c r="D1334" s="6"/>
+      <c r="D1334" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v>Built-in Variable: $NI_WT_FORM_BEND2MP</v>
+      </c>
     </row>
     <row r="1335" spans="1:4">
-      <c r="A1335" s="6"/>
+      <c r="A1335" s="6" t="s">
+        <v>2411</v>
+      </c>
       <c r="B1335" s="3"/>
       <c r="C1335" s="12"/>
-      <c r="D1335" s="6"/>
+      <c r="D1335" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v>Built-in Variable: $NI_WT_FORM_BEND2P</v>
+      </c>
     </row>
     <row r="1336" spans="1:4">
-      <c r="A1336" s="6"/>
+      <c r="A1336" s="6" t="s">
+        <v>2412</v>
+      </c>
       <c r="B1336" s="3"/>
       <c r="C1336" s="12"/>
-      <c r="D1336" s="6"/>
+      <c r="D1336" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v>Built-in Variable: $NI_WT_FORM_EXP</v>
+      </c>
     </row>
     <row r="1337" spans="1:4">
-      <c r="A1337" s="6"/>
+      <c r="A1337" s="6" t="s">
+        <v>2413</v>
+      </c>
       <c r="B1337" s="3"/>
       <c r="C1337" s="12"/>
-      <c r="D1337" s="6"/>
+      <c r="D1337" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v>Built-in Variable: $NI_WT_FORM_FOLD</v>
+      </c>
     </row>
     <row r="1338" spans="1:4">
-      <c r="A1338" s="6"/>
+      <c r="A1338" s="6" t="s">
+        <v>2414</v>
+      </c>
       <c r="B1338" s="3"/>
       <c r="C1338" s="12"/>
-      <c r="D1338" s="6"/>
+      <c r="D1338" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v>Built-in Variable: $NI_WT_FORM_LOG</v>
+      </c>
     </row>
     <row r="1339" spans="1:4">
-      <c r="A1339" s="6"/>
+      <c r="A1339" s="6" t="s">
+        <v>2415</v>
+      </c>
       <c r="B1339" s="3"/>
       <c r="C1339" s="12"/>
-      <c r="D1339" s="6"/>
+      <c r="D1339" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v>Built-in Variable: $NI_WT_FORM_LOGEXP</v>
+      </c>
     </row>
     <row r="1340" spans="1:4">
-      <c r="A1340" s="6"/>
+      <c r="A1340" s="6" t="s">
+        <v>2416</v>
+      </c>
       <c r="B1340" s="3"/>
       <c r="C1340" s="12"/>
-      <c r="D1340" s="6"/>
+      <c r="D1340" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v>Built-in Variable: $NI_WT_FORM_SATURATE</v>
+      </c>
     </row>
     <row r="1341" spans="1:4">
-      <c r="A1341" s="6"/>
+      <c r="A1341" s="6" t="s">
+        <v>2417</v>
+      </c>
       <c r="B1341" s="3"/>
       <c r="C1341" s="12"/>
-      <c r="D1341" s="6"/>
+      <c r="D1341" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v>Built-in Variable: $NI_WT_FORM_SEESAW</v>
+      </c>
     </row>
     <row r="1342" spans="1:4">
-      <c r="A1342" s="6"/>
+      <c r="A1342" s="6" t="s">
+        <v>2418</v>
+      </c>
       <c r="B1342" s="3"/>
       <c r="C1342" s="12"/>
-      <c r="D1342" s="6"/>
+      <c r="D1342" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v>Built-in Variable: $NI_WT_FORM_SYNC4</v>
+      </c>
     </row>
     <row r="1343" spans="1:4">
-      <c r="A1343" s="6"/>
+      <c r="A1343" s="6" t="s">
+        <v>2419</v>
+      </c>
       <c r="B1343" s="3"/>
       <c r="C1343" s="12"/>
-      <c r="D1343" s="6"/>
+      <c r="D1343" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v>Built-in Variable: $NI_WT_FORM_SYNC5</v>
+      </c>
     </row>
     <row r="1344" spans="1:4">
-      <c r="A1344" s="6"/>
+      <c r="A1344" s="6" t="s">
+        <v>2420</v>
+      </c>
       <c r="B1344" s="3"/>
       <c r="C1344" s="12"/>
-      <c r="D1344" s="6"/>
+      <c r="D1344" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v>Built-in Variable: $NI_WT_FORM_SYNC6</v>
+      </c>
     </row>
     <row r="1345" spans="1:4">
-      <c r="A1345" s="6"/>
+      <c r="A1345" s="6" t="s">
+        <v>2421</v>
+      </c>
       <c r="B1345" s="3"/>
       <c r="C1345" s="12"/>
-      <c r="D1345" s="6"/>
+      <c r="D1345" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v>Built-in Variable: $NI_WT_FORM_WRAP</v>
+      </c>
     </row>
     <row r="1346" spans="1:4">
-      <c r="A1346" s="6"/>
+      <c r="A1346" s="6" t="s">
+        <v>2422</v>
+      </c>
       <c r="B1346" s="3"/>
       <c r="C1346" s="12"/>
-      <c r="D1346" s="6"/>
+      <c r="D1346" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v>Built-in Variable: $UI_WAVEFORM_TABLE_IS_BIPOL</v>
+      </c>
     </row>
     <row r="1347" spans="1:4">
-      <c r="A1347" s="6"/>
+      <c r="A1347" s="6" t="s">
+        <v>2423</v>
+      </c>
       <c r="B1347" s="3"/>
       <c r="C1347" s="12"/>
-      <c r="D1347" s="6"/>
+      <c r="D1347" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v>Built-in Variable: $UI_WF_PROP_MIDI_DRAG_START</v>
+      </c>
     </row>
     <row r="1348" spans="1:4">
-      <c r="A1348" s="6"/>
+      <c r="A1348" s="6" t="s">
+        <v>2424</v>
+      </c>
       <c r="B1348" s="3"/>
       <c r="C1348" s="12"/>
-      <c r="D1348" s="6"/>
+      <c r="D1348" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v>Built-in Variable: $UI_WF_PROP_TABLE_IDX_HIGHL</v>
+      </c>
     </row>
     <row r="1349" spans="1:4">
       <c r="A1349" s="6"/>

--- a/data/KSP_Completion.xlsx
+++ b/data/KSP_Completion.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B719008-AC43-024B-8603-017786095425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F351D1BB-FD89-2241-B862-BD5564AAA742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2547" uniqueCount="2425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2546" uniqueCount="2424">
   <si>
     <t>description</t>
     <phoneticPr fontId="3"/>
@@ -7718,9 +7718,6 @@
   </si>
   <si>
     <t>$UI_WAVEFORM_TABLE_IS_BIPOL</t>
-  </si>
-  <si>
-    <t>$UI_WF_PROP_MIDI_DRAG_START</t>
   </si>
   <si>
     <t>$UI_WF_PROP_TABLE_IDX_HIGHL</t>
@@ -12842,13 +12839,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9BD1D8-D860-9845-B2DE-1D2AC2DDC7F1}">
-  <dimension ref="A1:D1500"/>
+  <dimension ref="A1:D1499"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1320" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="D1341" sqref="D1341"/>
+      <selection pane="bottomRight" activeCell="A1347" sqref="A1347:XFD1347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="18"/>
@@ -27521,7 +27518,7 @@
       <c r="B1333" s="3"/>
       <c r="C1333" s="12"/>
       <c r="D1333" s="6" t="str">
-        <f t="shared" ref="D1333:D1348" si="28">CONCATENATE( "Built-in Variable: ", A1333 )</f>
+        <f t="shared" ref="D1333:D1347" si="28">CONCATENATE( "Built-in Variable: ", A1333 )</f>
         <v>Built-in Variable: $NI_WT_FORM_BEND2M</v>
       </c>
     </row>
@@ -27676,19 +27673,14 @@
       <c r="C1347" s="12"/>
       <c r="D1347" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>Built-in Variable: $UI_WF_PROP_MIDI_DRAG_START</v>
+        <v>Built-in Variable: $UI_WF_PROP_TABLE_IDX_HIGHL</v>
       </c>
     </row>
     <row r="1348" spans="1:4">
-      <c r="A1348" s="6" t="s">
-        <v>2424</v>
-      </c>
+      <c r="A1348" s="6"/>
       <c r="B1348" s="3"/>
       <c r="C1348" s="12"/>
-      <c r="D1348" s="6" t="str">
-        <f t="shared" si="28"/>
-        <v>Built-in Variable: $UI_WF_PROP_TABLE_IDX_HIGHL</v>
-      </c>
+      <c r="D1348" s="6"/>
     </row>
     <row r="1349" spans="1:4">
       <c r="A1349" s="6"/>
@@ -28595,12 +28587,6 @@
       <c r="B1499" s="3"/>
       <c r="C1499" s="12"/>
       <c r="D1499" s="6"/>
-    </row>
-    <row r="1500" spans="1:4">
-      <c r="A1500" s="6"/>
-      <c r="B1500" s="3"/>
-      <c r="C1500" s="12"/>
-      <c r="D1500" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1069" xr:uid="{C8AC4DF4-6292-AD40-89F2-2BD447F1EC09}"/>
